--- a/AAII_Financials/Quarterly/SKM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SKM_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -653,7 +653,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,206 +662,231 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3831400</v>
+        <v>3604800</v>
       </c>
       <c r="E8" s="3">
-        <v>3727100</v>
+        <v>3572500</v>
       </c>
       <c r="F8" s="3">
-        <v>3641300</v>
+        <v>3694600</v>
       </c>
       <c r="G8" s="3">
-        <v>3655400</v>
+        <v>3594000</v>
       </c>
       <c r="H8" s="3">
-        <v>3516600</v>
+        <v>3511300</v>
       </c>
       <c r="I8" s="3">
+        <v>3524900</v>
+      </c>
+      <c r="J8" s="3">
+        <v>3391000</v>
+      </c>
+      <c r="K8" s="3">
         <v>3489600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>3512500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>3957600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>3909600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>3824100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>3810900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>3917000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>3819400</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>154500</v>
+        <v>157900</v>
       </c>
       <c r="E9" s="3">
-        <v>157700</v>
+        <v>155000</v>
       </c>
       <c r="F9" s="3">
-        <v>159100</v>
+        <v>149000</v>
       </c>
       <c r="G9" s="3">
-        <v>136400</v>
+        <v>152100</v>
       </c>
       <c r="H9" s="3">
-        <v>178300</v>
+        <v>153400</v>
       </c>
       <c r="I9" s="3">
+        <v>131500</v>
+      </c>
+      <c r="J9" s="3">
+        <v>171900</v>
+      </c>
+      <c r="K9" s="3">
         <v>183800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>180600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>190800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>197200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>187500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>199000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>153400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>238000</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3676900</v>
+        <v>3446900</v>
       </c>
       <c r="E10" s="3">
-        <v>3569400</v>
+        <v>3417600</v>
       </c>
       <c r="F10" s="3">
-        <v>3482300</v>
+        <v>3545600</v>
       </c>
       <c r="G10" s="3">
-        <v>3519000</v>
+        <v>3441900</v>
       </c>
       <c r="H10" s="3">
-        <v>3338300</v>
+        <v>3357900</v>
       </c>
       <c r="I10" s="3">
+        <v>3393400</v>
+      </c>
+      <c r="J10" s="3">
+        <v>3219100</v>
+      </c>
+      <c r="K10" s="3">
         <v>3305800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>3331900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>3766900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>3712400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>3636700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>3612000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>3763600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>3581400</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -878,52 +903,60 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>78700</v>
+        <v>89400</v>
       </c>
       <c r="E12" s="3">
+        <v>82400</v>
+      </c>
+      <c r="F12" s="3">
+        <v>75800</v>
+      </c>
+      <c r="G12" s="3">
+        <v>77900</v>
+      </c>
+      <c r="H12" s="3">
         <v>80800</v>
       </c>
-      <c r="F12" s="3">
-        <v>83800</v>
-      </c>
-      <c r="G12" s="3">
-        <v>88900</v>
-      </c>
-      <c r="H12" s="3">
-        <v>79100</v>
-      </c>
       <c r="I12" s="3">
+        <v>85800</v>
+      </c>
+      <c r="J12" s="3">
+        <v>76200</v>
+      </c>
+      <c r="K12" s="3">
         <v>82500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>75100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>90300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>90800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>83500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>85200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>82100</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>76900</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -966,96 +999,114 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-8300</v>
+        <v>-10100</v>
       </c>
       <c r="E14" s="3">
+        <v>4200</v>
+      </c>
+      <c r="F14" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="G14" s="3">
+        <v>1900</v>
+      </c>
+      <c r="H14" s="3">
+        <v>100</v>
+      </c>
+      <c r="I14" s="3">
+        <v>206300</v>
+      </c>
+      <c r="J14" s="3">
+        <v>400</v>
+      </c>
+      <c r="K14" s="3">
+        <v>2100</v>
+      </c>
+      <c r="L14" s="3">
+        <v>800</v>
+      </c>
+      <c r="M14" s="3">
+        <v>52300</v>
+      </c>
+      <c r="N14" s="3">
+        <v>300</v>
+      </c>
+      <c r="O14" s="3">
+        <v>3700</v>
+      </c>
+      <c r="P14" s="3">
         <v>2000</v>
       </c>
-      <c r="F14" s="3">
-        <v>100</v>
-      </c>
-      <c r="G14" s="3">
-        <v>214000</v>
-      </c>
-      <c r="H14" s="3">
-        <v>400</v>
-      </c>
-      <c r="I14" s="3">
-        <v>2100</v>
-      </c>
-      <c r="J14" s="3">
-        <v>800</v>
-      </c>
-      <c r="K14" s="3">
-        <v>52300</v>
-      </c>
-      <c r="L14" s="3">
-        <v>300</v>
-      </c>
-      <c r="M14" s="3">
-        <v>3700</v>
-      </c>
-      <c r="N14" s="3">
-        <v>2000</v>
-      </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>5700</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>808000</v>
+        <v>790100</v>
       </c>
       <c r="E15" s="3">
-        <v>781500</v>
+        <v>800300</v>
       </c>
       <c r="F15" s="3">
-        <v>748600</v>
+        <v>779100</v>
       </c>
       <c r="G15" s="3">
-        <v>676100</v>
+        <v>753600</v>
       </c>
       <c r="H15" s="3">
-        <v>644700</v>
+        <v>721800</v>
       </c>
       <c r="I15" s="3">
+        <v>652000</v>
+      </c>
+      <c r="J15" s="3">
+        <v>621700</v>
+      </c>
+      <c r="K15" s="3">
         <v>644900</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>660200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>696900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>684300</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>674200</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>685500</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>695000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>659700</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1069,96 +1120,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>3569400</v>
+        <v>3350100</v>
       </c>
       <c r="E17" s="3">
-        <v>3457900</v>
+        <v>3445200</v>
       </c>
       <c r="F17" s="3">
-        <v>3370400</v>
+        <v>3441900</v>
       </c>
       <c r="G17" s="3">
-        <v>3680200</v>
+        <v>3334400</v>
       </c>
       <c r="H17" s="3">
-        <v>3261500</v>
+        <v>3250000</v>
       </c>
       <c r="I17" s="3">
+        <v>3548700</v>
+      </c>
+      <c r="J17" s="3">
+        <v>3145000</v>
+      </c>
+      <c r="K17" s="3">
         <v>3200300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>3239800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>3736700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>3564600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>3455400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>3443500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>3650900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>3442500</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>262100</v>
+        <v>254700</v>
       </c>
       <c r="E18" s="3">
-        <v>269200</v>
+        <v>127400</v>
       </c>
       <c r="F18" s="3">
-        <v>270900</v>
+        <v>252700</v>
       </c>
       <c r="G18" s="3">
-        <v>-24700</v>
+        <v>259600</v>
       </c>
       <c r="H18" s="3">
-        <v>255100</v>
+        <v>261200</v>
       </c>
       <c r="I18" s="3">
+        <v>-23900</v>
+      </c>
+      <c r="J18" s="3">
+        <v>246000</v>
+      </c>
+      <c r="K18" s="3">
         <v>289300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>272600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>220900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>345000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>368800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>367500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>266100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>376900</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1175,228 +1240,260 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>114400</v>
+        <v>124400</v>
       </c>
       <c r="E20" s="3">
-        <v>111100</v>
+        <v>-54800</v>
       </c>
       <c r="F20" s="3">
-        <v>207900</v>
+        <v>110300</v>
       </c>
       <c r="G20" s="3">
-        <v>607100</v>
+        <v>107100</v>
       </c>
       <c r="H20" s="3">
-        <v>898200</v>
+        <v>200500</v>
       </c>
       <c r="I20" s="3">
+        <v>585400</v>
+      </c>
+      <c r="J20" s="3">
+        <v>866100</v>
+      </c>
+      <c r="K20" s="3">
         <v>748000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>552300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>662700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>601900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>355900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>351300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>307600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>78400</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>1219000</v>
+        <v>1204800</v>
       </c>
       <c r="E21" s="3">
-        <v>1196400</v>
+        <v>906000</v>
       </c>
       <c r="F21" s="3">
-        <v>1262000</v>
+        <v>1175500</v>
       </c>
       <c r="G21" s="3">
-        <v>1293500</v>
+        <v>1153700</v>
       </c>
       <c r="H21" s="3">
-        <v>1831400</v>
+        <v>1216900</v>
       </c>
       <c r="I21" s="3">
+        <v>1247300</v>
+      </c>
+      <c r="J21" s="3">
+        <v>1766000</v>
+      </c>
+      <c r="K21" s="3">
         <v>1714900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>1517100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>1615900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>1665600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>1432300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>1434000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>1295900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>1143300</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>82900</v>
+        <v>79400</v>
       </c>
       <c r="E22" s="3">
-        <v>83600</v>
+        <v>78900</v>
       </c>
       <c r="F22" s="3">
-        <v>85900</v>
+        <v>80000</v>
       </c>
       <c r="G22" s="3">
-        <v>75000</v>
+        <v>80600</v>
       </c>
       <c r="H22" s="3">
-        <v>59700</v>
+        <v>82800</v>
       </c>
       <c r="I22" s="3">
+        <v>72300</v>
+      </c>
+      <c r="J22" s="3">
+        <v>57500</v>
+      </c>
+      <c r="K22" s="3">
         <v>60400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>63100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>68300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>63400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>66100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>67000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>66000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>67200</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>293500</v>
+        <v>299700</v>
       </c>
       <c r="E23" s="3">
-        <v>296700</v>
+        <v>-6300</v>
       </c>
       <c r="F23" s="3">
-        <v>393000</v>
+        <v>283000</v>
       </c>
       <c r="G23" s="3">
-        <v>507400</v>
+        <v>286100</v>
       </c>
       <c r="H23" s="3">
-        <v>1093600</v>
+        <v>378900</v>
       </c>
       <c r="I23" s="3">
+        <v>489200</v>
+      </c>
+      <c r="J23" s="3">
+        <v>1054600</v>
+      </c>
+      <c r="K23" s="3">
         <v>977000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>761900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>815400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>883600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>658600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>651800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>507700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>388100</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>63000</v>
+        <v>51100</v>
       </c>
       <c r="E24" s="3">
-        <v>79100</v>
+        <v>30300</v>
       </c>
       <c r="F24" s="3">
-        <v>79100</v>
+        <v>60700</v>
       </c>
       <c r="G24" s="3">
-        <v>108800</v>
+        <v>76300</v>
       </c>
       <c r="H24" s="3">
-        <v>211800</v>
+        <v>76300</v>
       </c>
       <c r="I24" s="3">
+        <v>104900</v>
+      </c>
+      <c r="J24" s="3">
+        <v>204200</v>
+      </c>
+      <c r="K24" s="3">
         <v>208900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>179400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>234000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>185800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>112600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>126700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>80500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>98200</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1439,96 +1536,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>230500</v>
+        <v>248500</v>
       </c>
       <c r="E26" s="3">
-        <v>217600</v>
+        <v>-36600</v>
       </c>
       <c r="F26" s="3">
-        <v>313900</v>
+        <v>222300</v>
       </c>
       <c r="G26" s="3">
-        <v>398600</v>
+        <v>209800</v>
       </c>
       <c r="H26" s="3">
-        <v>881900</v>
+        <v>302600</v>
       </c>
       <c r="I26" s="3">
+        <v>384300</v>
+      </c>
+      <c r="J26" s="3">
+        <v>850400</v>
+      </c>
+      <c r="K26" s="3">
         <v>768000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>582400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>581400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>697800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>546000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>525100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>427200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>289900</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>227400</v>
+        <v>250600</v>
       </c>
       <c r="E27" s="3">
-        <v>218200</v>
+        <v>-24900</v>
       </c>
       <c r="F27" s="3">
-        <v>315400</v>
+        <v>219300</v>
       </c>
       <c r="G27" s="3">
-        <v>404200</v>
+        <v>210400</v>
       </c>
       <c r="H27" s="3">
-        <v>863300</v>
+        <v>304200</v>
       </c>
       <c r="I27" s="3">
+        <v>389800</v>
+      </c>
+      <c r="J27" s="3">
+        <v>832400</v>
+      </c>
+      <c r="K27" s="3">
         <v>762900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>583800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>511800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>700300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>542500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>530200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>432400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>292600</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1571,8 +1686,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1615,8 +1736,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1659,8 +1786,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1703,96 +1836,114 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-114400</v>
+        <v>-124400</v>
       </c>
       <c r="E32" s="3">
-        <v>-111100</v>
+        <v>54800</v>
       </c>
       <c r="F32" s="3">
-        <v>-207900</v>
+        <v>-110300</v>
       </c>
       <c r="G32" s="3">
-        <v>-607100</v>
+        <v>-107100</v>
       </c>
       <c r="H32" s="3">
-        <v>-898200</v>
+        <v>-200500</v>
       </c>
       <c r="I32" s="3">
+        <v>-585400</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-866100</v>
+      </c>
+      <c r="K32" s="3">
         <v>-748000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-552300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-662700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-601900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-355900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-351300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-307600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-78400</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>227400</v>
+        <v>250600</v>
       </c>
       <c r="E33" s="3">
-        <v>218200</v>
+        <v>-24900</v>
       </c>
       <c r="F33" s="3">
-        <v>315400</v>
+        <v>219300</v>
       </c>
       <c r="G33" s="3">
-        <v>404200</v>
+        <v>210400</v>
       </c>
       <c r="H33" s="3">
-        <v>863300</v>
+        <v>304200</v>
       </c>
       <c r="I33" s="3">
+        <v>389800</v>
+      </c>
+      <c r="J33" s="3">
+        <v>832400</v>
+      </c>
+      <c r="K33" s="3">
         <v>762900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>583800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>511800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>700300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>542500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>530200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>432400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>292600</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1835,101 +1986,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>227400</v>
+        <v>250600</v>
       </c>
       <c r="E35" s="3">
-        <v>218200</v>
+        <v>-24900</v>
       </c>
       <c r="F35" s="3">
-        <v>315400</v>
+        <v>219300</v>
       </c>
       <c r="G35" s="3">
-        <v>404200</v>
+        <v>210400</v>
       </c>
       <c r="H35" s="3">
-        <v>863300</v>
+        <v>304200</v>
       </c>
       <c r="I35" s="3">
+        <v>389800</v>
+      </c>
+      <c r="J35" s="3">
+        <v>832400</v>
+      </c>
+      <c r="K35" s="3">
         <v>762900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>583800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>511800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>700300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>542500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>530200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>432400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>292600</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1946,8 +2115,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1964,140 +2135,160 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>1083400</v>
+        <v>905400</v>
       </c>
       <c r="E41" s="3">
-        <v>1219300</v>
+        <v>1029400</v>
       </c>
       <c r="F41" s="3">
-        <v>1727900</v>
+        <v>1044700</v>
       </c>
       <c r="G41" s="3">
-        <v>1265600</v>
+        <v>1175800</v>
       </c>
       <c r="H41" s="3">
-        <v>2321400</v>
+        <v>1666200</v>
       </c>
       <c r="I41" s="3">
+        <v>1220400</v>
+      </c>
+      <c r="J41" s="3">
+        <v>2238500</v>
+      </c>
+      <c r="K41" s="3">
         <v>1508800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>1584000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>1282800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>1273500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>1089100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>1418400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>1354700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>773300</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>817800</v>
+        <v>870900</v>
       </c>
       <c r="E42" s="3">
-        <v>695000</v>
+        <v>730800</v>
       </c>
       <c r="F42" s="3">
-        <v>676700</v>
+        <v>788600</v>
       </c>
       <c r="G42" s="3">
-        <v>975400</v>
+        <v>670200</v>
       </c>
       <c r="H42" s="3">
-        <v>329900</v>
+        <v>652500</v>
       </c>
       <c r="I42" s="3">
+        <v>940600</v>
+      </c>
+      <c r="J42" s="3">
+        <v>318100</v>
+      </c>
+      <c r="K42" s="3">
         <v>452600</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>540900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>590800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>626300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>647200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>612800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>437300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>580900</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>2946600</v>
+        <v>2798300</v>
       </c>
       <c r="E43" s="3">
-        <v>2730700</v>
+        <v>2752100</v>
       </c>
       <c r="F43" s="3">
-        <v>2877000</v>
+        <v>2841400</v>
       </c>
       <c r="G43" s="3">
-        <v>2605400</v>
+        <v>2633200</v>
       </c>
       <c r="H43" s="3">
-        <v>3153100</v>
+        <v>2774300</v>
       </c>
       <c r="I43" s="3">
+        <v>2512400</v>
+      </c>
+      <c r="J43" s="3">
+        <v>3040500</v>
+      </c>
+      <c r="K43" s="3">
         <v>2736500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>3179400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>3039200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>2826800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>2900700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>2901300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>3081700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>3293200</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
@@ -2105,263 +2296,299 @@
         <v>168500</v>
       </c>
       <c r="E44" s="3">
-        <v>188100</v>
+        <v>131900</v>
       </c>
       <c r="F44" s="3">
-        <v>221500</v>
+        <v>162400</v>
       </c>
       <c r="G44" s="3">
-        <v>242000</v>
+        <v>181300</v>
       </c>
       <c r="H44" s="3">
-        <v>216500</v>
+        <v>213600</v>
       </c>
       <c r="I44" s="3">
+        <v>233300</v>
+      </c>
+      <c r="J44" s="3">
+        <v>208700</v>
+      </c>
+      <c r="K44" s="3">
         <v>217800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>213800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>239700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>219000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>231900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>223700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>233900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>246600</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>1776100</v>
+        <v>1836400</v>
       </c>
       <c r="E45" s="3">
-        <v>1539100</v>
+        <v>1918700</v>
       </c>
       <c r="F45" s="3">
-        <v>1509800</v>
+        <v>1712700</v>
       </c>
       <c r="G45" s="3">
-        <v>1597000</v>
+        <v>1484100</v>
       </c>
       <c r="H45" s="3">
-        <v>1560700</v>
+        <v>1455900</v>
       </c>
       <c r="I45" s="3">
+        <v>1539900</v>
+      </c>
+      <c r="J45" s="3">
+        <v>1505000</v>
+      </c>
+      <c r="K45" s="3">
         <v>1648400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>1597800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>305100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>341700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>228600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>212400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>289400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>305900</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>6792300</v>
+        <v>6579500</v>
       </c>
       <c r="E46" s="3">
-        <v>6372200</v>
+        <v>6562900</v>
       </c>
       <c r="F46" s="3">
-        <v>7012900</v>
+        <v>6549800</v>
       </c>
       <c r="G46" s="3">
-        <v>6685400</v>
+        <v>6144700</v>
       </c>
       <c r="H46" s="3">
-        <v>7581500</v>
+        <v>6762500</v>
       </c>
       <c r="I46" s="3">
+        <v>6446700</v>
+      </c>
+      <c r="J46" s="3">
+        <v>7310800</v>
+      </c>
+      <c r="K46" s="3">
         <v>6564000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>7115900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>5457600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>5287300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>5097500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>5368600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>5397000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>5199900</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>12264600</v>
+        <v>12026900</v>
       </c>
       <c r="E47" s="3">
-        <v>11839100</v>
+        <v>11908800</v>
       </c>
       <c r="F47" s="3">
-        <v>11843500</v>
+        <v>11826600</v>
       </c>
       <c r="G47" s="3">
-        <v>11621100</v>
+        <v>11416300</v>
       </c>
       <c r="H47" s="3">
-        <v>11112800</v>
+        <v>11420500</v>
       </c>
       <c r="I47" s="3">
+        <v>11206100</v>
+      </c>
+      <c r="J47" s="3">
+        <v>10715900</v>
+      </c>
+      <c r="K47" s="3">
         <v>10427800</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>9560700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>9483000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>8899800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>8030500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>7602200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>7603200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>7518000</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>9731400</v>
+        <v>9710100</v>
       </c>
       <c r="E48" s="3">
-        <v>9490400</v>
+        <v>9990800</v>
       </c>
       <c r="F48" s="3">
-        <v>9404500</v>
+        <v>9383900</v>
       </c>
       <c r="G48" s="3">
-        <v>9003400</v>
+        <v>9151500</v>
       </c>
       <c r="H48" s="3">
-        <v>7962700</v>
+        <v>9068600</v>
       </c>
       <c r="I48" s="3">
+        <v>8681900</v>
+      </c>
+      <c r="J48" s="3">
+        <v>7678300</v>
+      </c>
+      <c r="K48" s="3">
         <v>8009300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>8104800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>8927500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>8449400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>8424900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>8936000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>9336800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>8818900</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>6617700</v>
+        <v>6196500</v>
       </c>
       <c r="E49" s="3">
-        <v>6794000</v>
+        <v>6330700</v>
       </c>
       <c r="F49" s="3">
-        <v>6939700</v>
+        <v>6381300</v>
       </c>
       <c r="G49" s="3">
-        <v>7099700</v>
+        <v>6551400</v>
       </c>
       <c r="H49" s="3">
-        <v>4325100</v>
+        <v>6691900</v>
       </c>
       <c r="I49" s="3">
+        <v>6846200</v>
+      </c>
+      <c r="J49" s="3">
+        <v>4170600</v>
+      </c>
+      <c r="K49" s="3">
         <v>4448600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>4511000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>4841700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>4934900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>5000900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>5037500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>5137900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>4591200</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -2404,8 +2631,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -2448,52 +2681,64 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>1540300</v>
+        <v>1387900</v>
       </c>
       <c r="E52" s="3">
-        <v>1280300</v>
+        <v>1342400</v>
       </c>
       <c r="F52" s="3">
-        <v>1210400</v>
+        <v>1485300</v>
       </c>
       <c r="G52" s="3">
-        <v>1180300</v>
+        <v>1234600</v>
       </c>
       <c r="H52" s="3">
-        <v>1094600</v>
+        <v>1167200</v>
       </c>
       <c r="I52" s="3">
+        <v>1138200</v>
+      </c>
+      <c r="J52" s="3">
+        <v>1055500</v>
+      </c>
+      <c r="K52" s="3">
         <v>1073200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>1060500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>707400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>521500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>530700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>521800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>693000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>472200</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -2536,52 +2781,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>36946400</v>
+        <v>35900900</v>
       </c>
       <c r="E54" s="3">
-        <v>35776100</v>
+        <v>36135400</v>
       </c>
       <c r="F54" s="3">
-        <v>36411000</v>
+        <v>35626900</v>
       </c>
       <c r="G54" s="3">
-        <v>35590100</v>
+        <v>34498300</v>
       </c>
       <c r="H54" s="3">
-        <v>32076700</v>
+        <v>35110600</v>
       </c>
       <c r="I54" s="3">
+        <v>34319000</v>
+      </c>
+      <c r="J54" s="3">
+        <v>30931100</v>
+      </c>
+      <c r="K54" s="3">
         <v>30522900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>30352900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>29417200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>28093000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>27084400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>27466000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>28167900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>26600100</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -2598,8 +2855,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -2616,272 +2875,310 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>382400</v>
+        <v>315600</v>
       </c>
       <c r="E57" s="3">
-        <v>317600</v>
+        <v>355000</v>
       </c>
       <c r="F57" s="3">
-        <v>261900</v>
+        <v>368800</v>
       </c>
       <c r="G57" s="3">
-        <v>320300</v>
+        <v>306200</v>
       </c>
       <c r="H57" s="3">
-        <v>225600</v>
+        <v>252500</v>
       </c>
       <c r="I57" s="3">
+        <v>308900</v>
+      </c>
+      <c r="J57" s="3">
+        <v>217500</v>
+      </c>
+      <c r="K57" s="3">
         <v>221100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>204600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>309500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>226300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>219400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>237100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>362200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>276000</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>1155000</v>
+        <v>1190000</v>
       </c>
       <c r="E58" s="3">
-        <v>1250800</v>
+        <v>1087200</v>
       </c>
       <c r="F58" s="3">
-        <v>1482100</v>
+        <v>1113800</v>
       </c>
       <c r="G58" s="3">
-        <v>894000</v>
+        <v>1206200</v>
       </c>
       <c r="H58" s="3">
-        <v>1039100</v>
+        <v>1429100</v>
       </c>
       <c r="I58" s="3">
+        <v>862100</v>
+      </c>
+      <c r="J58" s="3">
+        <v>1002000</v>
+      </c>
+      <c r="K58" s="3">
         <v>856100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>1192300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>1461600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>1452600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>1315500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>944800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>802000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>615100</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>4651000</v>
+        <v>4641300</v>
       </c>
       <c r="E59" s="3">
-        <v>4261900</v>
+        <v>4865900</v>
       </c>
       <c r="F59" s="3">
-        <v>4910200</v>
+        <v>4484900</v>
       </c>
       <c r="G59" s="3">
-        <v>4537700</v>
+        <v>4109700</v>
       </c>
       <c r="H59" s="3">
-        <v>3682800</v>
+        <v>4734800</v>
       </c>
       <c r="I59" s="3">
+        <v>4375600</v>
+      </c>
+      <c r="J59" s="3">
+        <v>3551200</v>
+      </c>
+      <c r="K59" s="3">
         <v>3760600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>4385500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>4484900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>3942300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>3822900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>4448200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>4635500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>3962700</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>6188400</v>
+        <v>6146800</v>
       </c>
       <c r="E60" s="3">
-        <v>5830300</v>
+        <v>6308100</v>
       </c>
       <c r="F60" s="3">
-        <v>6654100</v>
+        <v>5967400</v>
       </c>
       <c r="G60" s="3">
-        <v>5751900</v>
+        <v>5622100</v>
       </c>
       <c r="H60" s="3">
-        <v>4947400</v>
+        <v>6416500</v>
       </c>
       <c r="I60" s="3">
+        <v>5546500</v>
+      </c>
+      <c r="J60" s="3">
+        <v>4770700</v>
+      </c>
+      <c r="K60" s="3">
         <v>4837800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>5782300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>6256000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>5621200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>5357800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>5630000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>5799700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>4853900</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>8043800</v>
+        <v>8245800</v>
       </c>
       <c r="E61" s="3">
-        <v>7560200</v>
+        <v>7804000</v>
       </c>
       <c r="F61" s="3">
-        <v>7650800</v>
+        <v>7756500</v>
       </c>
       <c r="G61" s="3">
-        <v>7213600</v>
+        <v>7290200</v>
       </c>
       <c r="H61" s="3">
-        <v>5781900</v>
+        <v>7377500</v>
       </c>
       <c r="I61" s="3">
+        <v>6955900</v>
+      </c>
+      <c r="J61" s="3">
+        <v>5575400</v>
+      </c>
+      <c r="K61" s="3">
         <v>5547400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>5319600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>5111100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>5104400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>5178200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>5654600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>5830800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>5840500</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>3682600</v>
+        <v>3243200</v>
       </c>
       <c r="E62" s="3">
-        <v>3544600</v>
+        <v>3536300</v>
       </c>
       <c r="F62" s="3">
-        <v>3526100</v>
+        <v>3551000</v>
       </c>
       <c r="G62" s="3">
-        <v>3851200</v>
+        <v>3418000</v>
       </c>
       <c r="H62" s="3">
-        <v>2723800</v>
+        <v>3400200</v>
       </c>
       <c r="I62" s="3">
+        <v>3713600</v>
+      </c>
+      <c r="J62" s="3">
+        <v>2626500</v>
+      </c>
+      <c r="K62" s="3">
         <v>2574400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>2461100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>2184400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>1988400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>1874200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>1860200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>2032600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>1915900</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -2924,8 +3221,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2968,8 +3271,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -3012,52 +3321,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>17837500</v>
+        <v>17519400</v>
       </c>
       <c r="E66" s="3">
-        <v>16852400</v>
+        <v>17540400</v>
       </c>
       <c r="F66" s="3">
-        <v>17728100</v>
+        <v>17200500</v>
       </c>
       <c r="G66" s="3">
-        <v>16714600</v>
+        <v>16250600</v>
       </c>
       <c r="H66" s="3">
-        <v>13687000</v>
+        <v>17095000</v>
       </c>
       <c r="I66" s="3">
+        <v>16117600</v>
+      </c>
+      <c r="J66" s="3">
+        <v>13198100</v>
+      </c>
+      <c r="K66" s="3">
         <v>13130700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>13728400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>13716100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>12834200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>12499800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>13239200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>13793600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>12760400</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -3074,8 +3395,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -3118,8 +3441,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -3162,8 +3491,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -3206,8 +3541,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -3250,52 +3591,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>18755300</v>
+        <v>17706400</v>
       </c>
       <c r="E72" s="3">
-        <v>18585600</v>
+        <v>18010600</v>
       </c>
       <c r="F72" s="3">
-        <v>18342000</v>
+        <v>18085500</v>
       </c>
       <c r="G72" s="3">
-        <v>18601400</v>
+        <v>17921800</v>
       </c>
       <c r="H72" s="3">
-        <v>18225400</v>
+        <v>17687000</v>
       </c>
       <c r="I72" s="3">
+        <v>17937100</v>
+      </c>
+      <c r="J72" s="3">
+        <v>17574500</v>
+      </c>
+      <c r="K72" s="3">
         <v>17434000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>16667600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>15695600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>15173300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>14531800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>14306000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>14357800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>13922500</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -3338,8 +3691,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -3382,8 +3741,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -3426,52 +3791,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>19108800</v>
+        <v>18381500</v>
       </c>
       <c r="E76" s="3">
-        <v>18923600</v>
+        <v>18595000</v>
       </c>
       <c r="F76" s="3">
-        <v>18682900</v>
+        <v>18426400</v>
       </c>
       <c r="G76" s="3">
-        <v>18875500</v>
+        <v>18247800</v>
       </c>
       <c r="H76" s="3">
-        <v>18389700</v>
+        <v>18015700</v>
       </c>
       <c r="I76" s="3">
+        <v>18201400</v>
+      </c>
+      <c r="J76" s="3">
+        <v>17732900</v>
+      </c>
+      <c r="K76" s="3">
         <v>17392200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>16624500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>15701100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>15258700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>14584600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>14226800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>14374300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>13839700</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -3514,101 +3891,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>227400</v>
+        <v>250600</v>
       </c>
       <c r="E81" s="3">
-        <v>218200</v>
+        <v>-24900</v>
       </c>
       <c r="F81" s="3">
-        <v>315400</v>
+        <v>219300</v>
       </c>
       <c r="G81" s="3">
-        <v>404200</v>
+        <v>210400</v>
       </c>
       <c r="H81" s="3">
-        <v>863300</v>
+        <v>304200</v>
       </c>
       <c r="I81" s="3">
+        <v>389800</v>
+      </c>
+      <c r="J81" s="3">
+        <v>832400</v>
+      </c>
+      <c r="K81" s="3">
         <v>762900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>583800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>511800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>700300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>542500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>530200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>432400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>292600</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -3625,52 +4020,60 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>842600</v>
+        <v>825700</v>
       </c>
       <c r="E83" s="3">
-        <v>816100</v>
+        <v>833500</v>
       </c>
       <c r="F83" s="3">
-        <v>783100</v>
+        <v>812500</v>
       </c>
       <c r="G83" s="3">
-        <v>711200</v>
+        <v>787000</v>
       </c>
       <c r="H83" s="3">
-        <v>678100</v>
+        <v>755100</v>
       </c>
       <c r="I83" s="3">
+        <v>685800</v>
+      </c>
+      <c r="J83" s="3">
+        <v>653900</v>
+      </c>
+      <c r="K83" s="3">
         <v>677500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>692100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>732200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>718700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>707600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>715200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>722200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>688100</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -3713,8 +4116,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -3757,8 +4166,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -3801,8 +4216,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -3845,8 +4266,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -3889,52 +4316,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>704200</v>
+        <v>787700</v>
       </c>
       <c r="E89" s="3">
-        <v>866200</v>
+        <v>929800</v>
       </c>
       <c r="F89" s="3">
-        <v>813700</v>
+        <v>679100</v>
       </c>
       <c r="G89" s="3">
-        <v>1389100</v>
+        <v>835300</v>
       </c>
       <c r="H89" s="3">
-        <v>396100</v>
+        <v>784600</v>
       </c>
       <c r="I89" s="3">
+        <v>1339500</v>
+      </c>
+      <c r="J89" s="3">
+        <v>382000</v>
+      </c>
+      <c r="K89" s="3">
         <v>1024900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>829300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>828600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>969400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>776500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>837300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>1379600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>799200</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -3951,52 +4390,60 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-751600</v>
+        <v>-846800</v>
       </c>
       <c r="E91" s="3">
-        <v>-545500</v>
+        <v>-923500</v>
       </c>
       <c r="F91" s="3">
-        <v>-581000</v>
+        <v>-724700</v>
       </c>
       <c r="G91" s="3">
-        <v>-789700</v>
+        <v>-526000</v>
       </c>
       <c r="H91" s="3">
-        <v>-645200</v>
+        <v>-560200</v>
       </c>
       <c r="I91" s="3">
+        <v>-761500</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-622200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-383600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-527100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-730500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-688700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-391900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-608900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-1158400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-855700</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -4039,8 +4486,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -4083,52 +4536,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-959300</v>
+        <v>-998700</v>
       </c>
       <c r="E94" s="3">
-        <v>-386300</v>
+        <v>-1248200</v>
       </c>
       <c r="F94" s="3">
-        <v>-369300</v>
+        <v>-925000</v>
       </c>
       <c r="G94" s="3">
-        <v>-2284100</v>
+        <v>-372500</v>
       </c>
       <c r="H94" s="3">
-        <v>-303200</v>
+        <v>-356200</v>
       </c>
       <c r="I94" s="3">
+        <v>-2202500</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-292400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-356000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-456800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-845900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-805200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-473600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-590600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-755400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-667600</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -4145,52 +4610,60 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-60400</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-58200</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-59300</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-57200</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
       </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-62100</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
         <v>0</v>
       </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-63500</v>
       </c>
     </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -4233,8 +4706,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -4277,8 +4756,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -4321,136 +4806,160 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>113300</v>
+        <v>80100</v>
       </c>
       <c r="E100" s="3">
-        <v>-986500</v>
+        <v>309200</v>
       </c>
       <c r="F100" s="3">
-        <v>17600</v>
+        <v>109200</v>
       </c>
       <c r="G100" s="3">
-        <v>-163300</v>
+        <v>-951300</v>
       </c>
       <c r="H100" s="3">
-        <v>722600</v>
+        <v>17000</v>
       </c>
       <c r="I100" s="3">
+        <v>-157500</v>
+      </c>
+      <c r="J100" s="3">
+        <v>696800</v>
+      </c>
+      <c r="K100" s="3">
         <v>-746200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-13300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>30200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>19200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-603000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-177800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-48400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-343800</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>5800</v>
+        <v>6900</v>
       </c>
       <c r="E101" s="3">
-        <v>-2000</v>
+        <v>-6100</v>
       </c>
       <c r="F101" s="3">
+        <v>5600</v>
+      </c>
+      <c r="G101" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="H101" s="3">
+        <v>300</v>
+      </c>
+      <c r="I101" s="3">
+        <v>2400</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="K101" s="3">
+        <v>2100</v>
+      </c>
+      <c r="L101" s="3">
         <v>400</v>
       </c>
-      <c r="G101" s="3">
-        <v>2500</v>
-      </c>
-      <c r="H101" s="3">
-        <v>-2900</v>
-      </c>
-      <c r="I101" s="3">
-        <v>2100</v>
-      </c>
-      <c r="J101" s="3">
-        <v>400</v>
-      </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-3600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>1100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>2300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-5200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>5600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>-136000</v>
+        <v>-124000</v>
       </c>
       <c r="E102" s="3">
-        <v>-508600</v>
+        <v>-15300</v>
       </c>
       <c r="F102" s="3">
-        <v>462300</v>
+        <v>-131100</v>
       </c>
       <c r="G102" s="3">
-        <v>-1055800</v>
+        <v>-490400</v>
       </c>
       <c r="H102" s="3">
-        <v>812600</v>
+        <v>445800</v>
       </c>
       <c r="I102" s="3">
+        <v>-1018100</v>
+      </c>
+      <c r="J102" s="3">
+        <v>783600</v>
+      </c>
+      <c r="K102" s="3">
         <v>-75200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>359500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>9300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>184400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-297700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>63700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>581400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-216300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SKM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SKM_QTR_FIN.xlsx
@@ -653,7 +653,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,231 +662,244 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3604800</v>
+        <v>3866400</v>
       </c>
       <c r="E8" s="3">
-        <v>3572500</v>
+        <v>3738300</v>
       </c>
       <c r="F8" s="3">
-        <v>3694600</v>
+        <v>3704900</v>
       </c>
       <c r="G8" s="3">
-        <v>3594000</v>
+        <v>3831400</v>
       </c>
       <c r="H8" s="3">
-        <v>3511300</v>
+        <v>3727100</v>
       </c>
       <c r="I8" s="3">
-        <v>3524900</v>
+        <v>3641300</v>
       </c>
       <c r="J8" s="3">
+        <v>3655400</v>
+      </c>
+      <c r="K8" s="3">
         <v>3391000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3489600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3512500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3957600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3909600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3824100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3810900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3917000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3819400</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>157900</v>
+        <v>174200</v>
       </c>
       <c r="E9" s="3">
-        <v>155000</v>
+        <v>163800</v>
       </c>
       <c r="F9" s="3">
-        <v>149000</v>
+        <v>160700</v>
       </c>
       <c r="G9" s="3">
-        <v>152100</v>
+        <v>154500</v>
       </c>
       <c r="H9" s="3">
+        <v>157700</v>
+      </c>
+      <c r="I9" s="3">
+        <v>159100</v>
+      </c>
+      <c r="J9" s="3">
+        <v>136400</v>
+      </c>
+      <c r="K9" s="3">
+        <v>171900</v>
+      </c>
+      <c r="L9" s="3">
+        <v>183800</v>
+      </c>
+      <c r="M9" s="3">
+        <v>180600</v>
+      </c>
+      <c r="N9" s="3">
+        <v>190800</v>
+      </c>
+      <c r="O9" s="3">
+        <v>197200</v>
+      </c>
+      <c r="P9" s="3">
+        <v>187500</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>199000</v>
+      </c>
+      <c r="R9" s="3">
         <v>153400</v>
       </c>
-      <c r="I9" s="3">
-        <v>131500</v>
-      </c>
-      <c r="J9" s="3">
-        <v>171900</v>
-      </c>
-      <c r="K9" s="3">
-        <v>183800</v>
-      </c>
-      <c r="L9" s="3">
-        <v>180600</v>
-      </c>
-      <c r="M9" s="3">
-        <v>190800</v>
-      </c>
-      <c r="N9" s="3">
-        <v>197200</v>
-      </c>
-      <c r="O9" s="3">
-        <v>187500</v>
-      </c>
-      <c r="P9" s="3">
-        <v>199000</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>153400</v>
-      </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>238000</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3446900</v>
+        <v>3692200</v>
       </c>
       <c r="E10" s="3">
-        <v>3417600</v>
+        <v>3574600</v>
       </c>
       <c r="F10" s="3">
-        <v>3545600</v>
+        <v>3544200</v>
       </c>
       <c r="G10" s="3">
-        <v>3441900</v>
+        <v>3676900</v>
       </c>
       <c r="H10" s="3">
-        <v>3357900</v>
+        <v>3569400</v>
       </c>
       <c r="I10" s="3">
-        <v>3393400</v>
+        <v>3482300</v>
       </c>
       <c r="J10" s="3">
+        <v>3519000</v>
+      </c>
+      <c r="K10" s="3">
         <v>3219100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3305800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3331900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>3766900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>3712400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>3636700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>3612000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>3763600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>3581400</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -905,58 +918,62 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>89400</v>
+        <v>88100</v>
       </c>
       <c r="E12" s="3">
-        <v>82400</v>
+        <v>92700</v>
       </c>
       <c r="F12" s="3">
-        <v>75800</v>
+        <v>85400</v>
       </c>
       <c r="G12" s="3">
-        <v>77900</v>
+        <v>78700</v>
       </c>
       <c r="H12" s="3">
         <v>80800</v>
       </c>
       <c r="I12" s="3">
-        <v>85800</v>
+        <v>83800</v>
       </c>
       <c r="J12" s="3">
+        <v>88900</v>
+      </c>
+      <c r="K12" s="3">
         <v>76200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>82500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>75100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>90300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>90800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>83500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>85200</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>82100</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>76900</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1005,108 +1022,117 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-10100</v>
+        <v>10700</v>
       </c>
       <c r="E14" s="3">
-        <v>4200</v>
+        <v>-10500</v>
       </c>
       <c r="F14" s="3">
-        <v>-8000</v>
+        <v>4400</v>
       </c>
       <c r="G14" s="3">
-        <v>1900</v>
+        <v>-8300</v>
       </c>
       <c r="H14" s="3">
+        <v>2000</v>
+      </c>
+      <c r="I14" s="3">
         <v>100</v>
       </c>
-      <c r="I14" s="3">
-        <v>206300</v>
-      </c>
       <c r="J14" s="3">
+        <v>214000</v>
+      </c>
+      <c r="K14" s="3">
         <v>400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>2100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>52300</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>300</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>3700</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>2000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>5700</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>790100</v>
+        <v>827600</v>
       </c>
       <c r="E15" s="3">
-        <v>800300</v>
+        <v>819300</v>
       </c>
       <c r="F15" s="3">
-        <v>779100</v>
+        <v>830000</v>
       </c>
       <c r="G15" s="3">
-        <v>753600</v>
+        <v>808000</v>
       </c>
       <c r="H15" s="3">
-        <v>721800</v>
+        <v>781500</v>
       </c>
       <c r="I15" s="3">
-        <v>652000</v>
+        <v>748600</v>
       </c>
       <c r="J15" s="3">
+        <v>676100</v>
+      </c>
+      <c r="K15" s="3">
         <v>621700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>644900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>660200</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>696900</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>684300</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>674200</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>685500</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>695000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>659700</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1122,108 +1148,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>3350100</v>
+        <v>3575100</v>
       </c>
       <c r="E17" s="3">
-        <v>3445200</v>
+        <v>3474200</v>
       </c>
       <c r="F17" s="3">
-        <v>3441900</v>
+        <v>3572800</v>
       </c>
       <c r="G17" s="3">
-        <v>3334400</v>
+        <v>3569400</v>
       </c>
       <c r="H17" s="3">
-        <v>3250000</v>
+        <v>3457900</v>
       </c>
       <c r="I17" s="3">
-        <v>3548700</v>
+        <v>3370400</v>
       </c>
       <c r="J17" s="3">
+        <v>3680200</v>
+      </c>
+      <c r="K17" s="3">
         <v>3145000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3200300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3239800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3736700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3564600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3455400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3443500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3650900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3442500</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>254700</v>
+        <v>291300</v>
       </c>
       <c r="E18" s="3">
-        <v>127400</v>
+        <v>264200</v>
       </c>
       <c r="F18" s="3">
-        <v>252700</v>
+        <v>132100</v>
       </c>
       <c r="G18" s="3">
-        <v>259600</v>
+        <v>262100</v>
       </c>
       <c r="H18" s="3">
-        <v>261200</v>
+        <v>269200</v>
       </c>
       <c r="I18" s="3">
-        <v>-23900</v>
+        <v>270900</v>
       </c>
       <c r="J18" s="3">
+        <v>-24700</v>
+      </c>
+      <c r="K18" s="3">
         <v>246000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>289300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>272600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>220900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>345000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>368800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>367500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>266100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>376900</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1242,258 +1275,274 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>124400</v>
+        <v>248600</v>
       </c>
       <c r="E20" s="3">
-        <v>-54800</v>
+        <v>129000</v>
       </c>
       <c r="F20" s="3">
-        <v>110300</v>
+        <v>-56800</v>
       </c>
       <c r="G20" s="3">
-        <v>107100</v>
+        <v>114400</v>
       </c>
       <c r="H20" s="3">
-        <v>200500</v>
+        <v>111100</v>
       </c>
       <c r="I20" s="3">
-        <v>585400</v>
+        <v>207900</v>
       </c>
       <c r="J20" s="3">
+        <v>607100</v>
+      </c>
+      <c r="K20" s="3">
         <v>866100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>748000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>552300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>662700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>601900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>355900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>351300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>307600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>78400</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>1204800</v>
+        <v>1406100</v>
       </c>
       <c r="E21" s="3">
-        <v>906000</v>
+        <v>1249400</v>
       </c>
       <c r="F21" s="3">
-        <v>1175500</v>
+        <v>939600</v>
       </c>
       <c r="G21" s="3">
-        <v>1153700</v>
+        <v>1219000</v>
       </c>
       <c r="H21" s="3">
-        <v>1216900</v>
+        <v>1196400</v>
       </c>
       <c r="I21" s="3">
-        <v>1247300</v>
+        <v>1262000</v>
       </c>
       <c r="J21" s="3">
+        <v>1293500</v>
+      </c>
+      <c r="K21" s="3">
         <v>1766000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1714900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1517100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1615900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1665600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1432300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1434000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1295900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1143300</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>79400</v>
+        <v>79300</v>
       </c>
       <c r="E22" s="3">
-        <v>78900</v>
+        <v>82300</v>
       </c>
       <c r="F22" s="3">
-        <v>80000</v>
+        <v>81800</v>
       </c>
       <c r="G22" s="3">
-        <v>80600</v>
+        <v>82900</v>
       </c>
       <c r="H22" s="3">
-        <v>82800</v>
+        <v>83600</v>
       </c>
       <c r="I22" s="3">
-        <v>72300</v>
+        <v>85900</v>
       </c>
       <c r="J22" s="3">
+        <v>75000</v>
+      </c>
+      <c r="K22" s="3">
         <v>57500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>60400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>63100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>68300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>63400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>66100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>67000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>66000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>67200</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>299700</v>
+        <v>460500</v>
       </c>
       <c r="E23" s="3">
-        <v>-6300</v>
+        <v>310800</v>
       </c>
       <c r="F23" s="3">
-        <v>283000</v>
+        <v>-6500</v>
       </c>
       <c r="G23" s="3">
-        <v>286100</v>
+        <v>293500</v>
       </c>
       <c r="H23" s="3">
-        <v>378900</v>
+        <v>296700</v>
       </c>
       <c r="I23" s="3">
-        <v>489200</v>
+        <v>393000</v>
       </c>
       <c r="J23" s="3">
+        <v>507400</v>
+      </c>
+      <c r="K23" s="3">
         <v>1054600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>977000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>761900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>815400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>883600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>658600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>651800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>507700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>388100</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>51100</v>
+        <v>97500</v>
       </c>
       <c r="E24" s="3">
-        <v>30300</v>
+        <v>53000</v>
       </c>
       <c r="F24" s="3">
-        <v>60700</v>
+        <v>31400</v>
       </c>
       <c r="G24" s="3">
-        <v>76300</v>
+        <v>63000</v>
       </c>
       <c r="H24" s="3">
-        <v>76300</v>
+        <v>79100</v>
       </c>
       <c r="I24" s="3">
-        <v>104900</v>
+        <v>79100</v>
       </c>
       <c r="J24" s="3">
+        <v>108800</v>
+      </c>
+      <c r="K24" s="3">
         <v>204200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>208900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>179400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>234000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>185800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>112600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>126700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>80500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>98200</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1542,108 +1591,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>248500</v>
+        <v>363000</v>
       </c>
       <c r="E26" s="3">
-        <v>-36600</v>
+        <v>257800</v>
       </c>
       <c r="F26" s="3">
-        <v>222300</v>
+        <v>-37900</v>
       </c>
       <c r="G26" s="3">
-        <v>209800</v>
+        <v>230500</v>
       </c>
       <c r="H26" s="3">
-        <v>302600</v>
+        <v>217600</v>
       </c>
       <c r="I26" s="3">
-        <v>384300</v>
+        <v>313900</v>
       </c>
       <c r="J26" s="3">
+        <v>398600</v>
+      </c>
+      <c r="K26" s="3">
         <v>850400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>768000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>582400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>581400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>697800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>546000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>525100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>427200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>289900</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>250600</v>
+        <v>355800</v>
       </c>
       <c r="E27" s="3">
-        <v>-24900</v>
+        <v>256800</v>
       </c>
       <c r="F27" s="3">
-        <v>219300</v>
+        <v>-25800</v>
       </c>
       <c r="G27" s="3">
-        <v>210400</v>
+        <v>227400</v>
       </c>
       <c r="H27" s="3">
-        <v>304200</v>
+        <v>218200</v>
       </c>
       <c r="I27" s="3">
-        <v>389800</v>
+        <v>315400</v>
       </c>
       <c r="J27" s="3">
+        <v>404200</v>
+      </c>
+      <c r="K27" s="3">
         <v>832400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>762900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>583800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>511800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>700300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>542500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>530200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>432400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>292600</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1692,8 +1750,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1742,8 +1803,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1792,8 +1856,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1842,108 +1909,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-124400</v>
+        <v>-248600</v>
       </c>
       <c r="E32" s="3">
-        <v>54800</v>
+        <v>-129000</v>
       </c>
       <c r="F32" s="3">
-        <v>-110300</v>
+        <v>56800</v>
       </c>
       <c r="G32" s="3">
-        <v>-107100</v>
+        <v>-114400</v>
       </c>
       <c r="H32" s="3">
-        <v>-200500</v>
+        <v>-111100</v>
       </c>
       <c r="I32" s="3">
-        <v>-585400</v>
+        <v>-207900</v>
       </c>
       <c r="J32" s="3">
+        <v>-607100</v>
+      </c>
+      <c r="K32" s="3">
         <v>-866100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-748000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-552300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-662700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-601900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-355900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-351300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-307600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-78400</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>250600</v>
+        <v>355800</v>
       </c>
       <c r="E33" s="3">
-        <v>-24900</v>
+        <v>256800</v>
       </c>
       <c r="F33" s="3">
-        <v>219300</v>
+        <v>-25800</v>
       </c>
       <c r="G33" s="3">
-        <v>210400</v>
+        <v>227400</v>
       </c>
       <c r="H33" s="3">
-        <v>304200</v>
+        <v>218200</v>
       </c>
       <c r="I33" s="3">
-        <v>389800</v>
+        <v>315400</v>
       </c>
       <c r="J33" s="3">
+        <v>404200</v>
+      </c>
+      <c r="K33" s="3">
         <v>832400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>762900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>583800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>511800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>700300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>542500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>530200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>432400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>292600</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1992,113 +2068,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>250600</v>
+        <v>355800</v>
       </c>
       <c r="E35" s="3">
-        <v>-24900</v>
+        <v>256800</v>
       </c>
       <c r="F35" s="3">
-        <v>219300</v>
+        <v>-25800</v>
       </c>
       <c r="G35" s="3">
-        <v>210400</v>
+        <v>227400</v>
       </c>
       <c r="H35" s="3">
-        <v>304200</v>
+        <v>218200</v>
       </c>
       <c r="I35" s="3">
-        <v>389800</v>
+        <v>315400</v>
       </c>
       <c r="J35" s="3">
+        <v>404200</v>
+      </c>
+      <c r="K35" s="3">
         <v>832400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>762900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>583800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>511800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>700300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>542500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>530200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>432400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>292600</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2117,8 +2202,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2137,458 +2223,486 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>905400</v>
+        <v>1257400</v>
       </c>
       <c r="E41" s="3">
-        <v>1029400</v>
+        <v>938900</v>
       </c>
       <c r="F41" s="3">
-        <v>1044700</v>
+        <v>1067500</v>
       </c>
       <c r="G41" s="3">
-        <v>1175800</v>
+        <v>1083400</v>
       </c>
       <c r="H41" s="3">
-        <v>1666200</v>
+        <v>1219300</v>
       </c>
       <c r="I41" s="3">
-        <v>1220400</v>
+        <v>1727900</v>
       </c>
       <c r="J41" s="3">
+        <v>1265600</v>
+      </c>
+      <c r="K41" s="3">
         <v>2238500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1508800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1584000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1282800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1273500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1089100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1418400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1354700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>773300</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>870900</v>
+        <v>824400</v>
       </c>
       <c r="E42" s="3">
-        <v>730800</v>
+        <v>903200</v>
       </c>
       <c r="F42" s="3">
-        <v>788600</v>
+        <v>757900</v>
       </c>
       <c r="G42" s="3">
-        <v>670200</v>
+        <v>817800</v>
       </c>
       <c r="H42" s="3">
-        <v>652500</v>
+        <v>695000</v>
       </c>
       <c r="I42" s="3">
-        <v>940600</v>
+        <v>676700</v>
       </c>
       <c r="J42" s="3">
+        <v>975400</v>
+      </c>
+      <c r="K42" s="3">
         <v>318100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>452600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>540900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>590800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>626300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>647200</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>612800</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>437300</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>580900</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>2798300</v>
+        <v>2747500</v>
       </c>
       <c r="E43" s="3">
-        <v>2752100</v>
+        <v>2902000</v>
       </c>
       <c r="F43" s="3">
-        <v>2841400</v>
+        <v>2854000</v>
       </c>
       <c r="G43" s="3">
-        <v>2633200</v>
+        <v>2946600</v>
       </c>
       <c r="H43" s="3">
-        <v>2774300</v>
+        <v>2730700</v>
       </c>
       <c r="I43" s="3">
-        <v>2512400</v>
+        <v>2877000</v>
       </c>
       <c r="J43" s="3">
+        <v>2605400</v>
+      </c>
+      <c r="K43" s="3">
         <v>3040500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2736500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3179400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3039200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2826800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2900700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2901300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>3081700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>3293200</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>171700</v>
+      </c>
+      <c r="E44" s="3">
+        <v>174800</v>
+      </c>
+      <c r="F44" s="3">
+        <v>136800</v>
+      </c>
+      <c r="G44" s="3">
         <v>168500</v>
       </c>
-      <c r="E44" s="3">
-        <v>131900</v>
-      </c>
-      <c r="F44" s="3">
-        <v>162400</v>
-      </c>
-      <c r="G44" s="3">
-        <v>181300</v>
-      </c>
       <c r="H44" s="3">
-        <v>213600</v>
+        <v>188100</v>
       </c>
       <c r="I44" s="3">
-        <v>233300</v>
+        <v>221500</v>
       </c>
       <c r="J44" s="3">
+        <v>242000</v>
+      </c>
+      <c r="K44" s="3">
         <v>208700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>217800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>213800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>239700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>219000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>231900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>223700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>233900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>246600</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>1836400</v>
+        <v>1938600</v>
       </c>
       <c r="E45" s="3">
-        <v>1918700</v>
+        <v>1904400</v>
       </c>
       <c r="F45" s="3">
-        <v>1712700</v>
+        <v>1989700</v>
       </c>
       <c r="G45" s="3">
-        <v>1484100</v>
+        <v>1776100</v>
       </c>
       <c r="H45" s="3">
-        <v>1455900</v>
+        <v>1539100</v>
       </c>
       <c r="I45" s="3">
-        <v>1539900</v>
+        <v>1509800</v>
       </c>
       <c r="J45" s="3">
+        <v>1597000</v>
+      </c>
+      <c r="K45" s="3">
         <v>1505000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1648400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1597800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>305100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>341700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>228600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>212400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>289400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>305900</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>6579500</v>
+        <v>6939500</v>
       </c>
       <c r="E46" s="3">
-        <v>6562900</v>
+        <v>6823200</v>
       </c>
       <c r="F46" s="3">
-        <v>6549800</v>
+        <v>6805900</v>
       </c>
       <c r="G46" s="3">
-        <v>6144700</v>
+        <v>6792300</v>
       </c>
       <c r="H46" s="3">
-        <v>6762500</v>
+        <v>6372200</v>
       </c>
       <c r="I46" s="3">
-        <v>6446700</v>
+        <v>7012900</v>
       </c>
       <c r="J46" s="3">
+        <v>6685400</v>
+      </c>
+      <c r="K46" s="3">
         <v>7310800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>6564000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>7115900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>5457600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>5287300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>5097500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>5368600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>5397000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>5199900</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>12026900</v>
+        <v>12955700</v>
       </c>
       <c r="E47" s="3">
-        <v>11908800</v>
+        <v>12472300</v>
       </c>
       <c r="F47" s="3">
-        <v>11826600</v>
+        <v>12349800</v>
       </c>
       <c r="G47" s="3">
-        <v>11416300</v>
+        <v>12264600</v>
       </c>
       <c r="H47" s="3">
-        <v>11420500</v>
+        <v>11839100</v>
       </c>
       <c r="I47" s="3">
-        <v>11206100</v>
+        <v>11843500</v>
       </c>
       <c r="J47" s="3">
+        <v>11621100</v>
+      </c>
+      <c r="K47" s="3">
         <v>10715900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>10427800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>9560700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>9483000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>8899800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>8030500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>7602200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>7603200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>7518000</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>9710100</v>
+        <v>10537200</v>
       </c>
       <c r="E48" s="3">
-        <v>9990800</v>
+        <v>10069700</v>
       </c>
       <c r="F48" s="3">
-        <v>9383900</v>
+        <v>10360800</v>
       </c>
       <c r="G48" s="3">
-        <v>9151500</v>
+        <v>9731400</v>
       </c>
       <c r="H48" s="3">
-        <v>9068600</v>
+        <v>9490400</v>
       </c>
       <c r="I48" s="3">
-        <v>8681900</v>
+        <v>9404500</v>
       </c>
       <c r="J48" s="3">
+        <v>9003400</v>
+      </c>
+      <c r="K48" s="3">
         <v>7678300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>8009300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>8104800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>8927500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>8449400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>8424900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>8936000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>9336800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>8818900</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>6196500</v>
+        <v>6788300</v>
       </c>
       <c r="E49" s="3">
-        <v>6330700</v>
+        <v>6426000</v>
       </c>
       <c r="F49" s="3">
-        <v>6381300</v>
+        <v>6565100</v>
       </c>
       <c r="G49" s="3">
-        <v>6551400</v>
+        <v>6617700</v>
       </c>
       <c r="H49" s="3">
-        <v>6691900</v>
+        <v>6794000</v>
       </c>
       <c r="I49" s="3">
-        <v>6846200</v>
+        <v>6939700</v>
       </c>
       <c r="J49" s="3">
+        <v>7099700</v>
+      </c>
+      <c r="K49" s="3">
         <v>4170600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4448600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4511000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>4841700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>4934900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>5000900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>5037500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>5137900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>4591200</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -2637,8 +2751,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -2687,58 +2804,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>1387900</v>
+        <v>1383300</v>
       </c>
       <c r="E52" s="3">
-        <v>1342400</v>
+        <v>1439300</v>
       </c>
       <c r="F52" s="3">
-        <v>1485300</v>
+        <v>1392100</v>
       </c>
       <c r="G52" s="3">
-        <v>1234600</v>
+        <v>1540300</v>
       </c>
       <c r="H52" s="3">
-        <v>1167200</v>
+        <v>1280300</v>
       </c>
       <c r="I52" s="3">
-        <v>1138200</v>
+        <v>1210400</v>
       </c>
       <c r="J52" s="3">
+        <v>1180300</v>
+      </c>
+      <c r="K52" s="3">
         <v>1055500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1073200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1060500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>707400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>521500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>530700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>521800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>693000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>472200</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -2787,58 +2910,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>35900900</v>
+        <v>38604000</v>
       </c>
       <c r="E54" s="3">
-        <v>36135400</v>
+        <v>37230600</v>
       </c>
       <c r="F54" s="3">
-        <v>35626900</v>
+        <v>37473800</v>
       </c>
       <c r="G54" s="3">
-        <v>34498300</v>
+        <v>36946400</v>
       </c>
       <c r="H54" s="3">
-        <v>35110600</v>
+        <v>35776100</v>
       </c>
       <c r="I54" s="3">
-        <v>34319000</v>
+        <v>36411000</v>
       </c>
       <c r="J54" s="3">
+        <v>35590100</v>
+      </c>
+      <c r="K54" s="3">
         <v>30931100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>30522900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>30352900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>29417200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>28093000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>27084400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>27466000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>28167900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>26600100</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -2857,8 +2986,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -2877,308 +3007,327 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>315600</v>
+        <v>311600</v>
       </c>
       <c r="E57" s="3">
-        <v>355000</v>
+        <v>327300</v>
       </c>
       <c r="F57" s="3">
-        <v>368800</v>
+        <v>368200</v>
       </c>
       <c r="G57" s="3">
-        <v>306200</v>
+        <v>382400</v>
       </c>
       <c r="H57" s="3">
-        <v>252500</v>
+        <v>317600</v>
       </c>
       <c r="I57" s="3">
-        <v>308900</v>
+        <v>261900</v>
       </c>
       <c r="J57" s="3">
+        <v>320300</v>
+      </c>
+      <c r="K57" s="3">
         <v>217500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>221100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>204600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>309500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>226300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>219400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>237100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>362200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>276000</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>1190000</v>
+        <v>999300</v>
       </c>
       <c r="E58" s="3">
-        <v>1087200</v>
+        <v>1234000</v>
       </c>
       <c r="F58" s="3">
-        <v>1113800</v>
+        <v>1127400</v>
       </c>
       <c r="G58" s="3">
-        <v>1206200</v>
+        <v>1155000</v>
       </c>
       <c r="H58" s="3">
-        <v>1429100</v>
+        <v>1250800</v>
       </c>
       <c r="I58" s="3">
-        <v>862100</v>
+        <v>1482100</v>
       </c>
       <c r="J58" s="3">
+        <v>894000</v>
+      </c>
+      <c r="K58" s="3">
         <v>1002000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>856100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1192300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1461600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1452600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1315500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>944800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>802000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>615100</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>4641300</v>
+        <v>4934900</v>
       </c>
       <c r="E59" s="3">
-        <v>4865900</v>
+        <v>4813200</v>
       </c>
       <c r="F59" s="3">
+        <v>5046100</v>
+      </c>
+      <c r="G59" s="3">
+        <v>4651000</v>
+      </c>
+      <c r="H59" s="3">
+        <v>4261900</v>
+      </c>
+      <c r="I59" s="3">
+        <v>4910200</v>
+      </c>
+      <c r="J59" s="3">
+        <v>4537700</v>
+      </c>
+      <c r="K59" s="3">
+        <v>3551200</v>
+      </c>
+      <c r="L59" s="3">
+        <v>3760600</v>
+      </c>
+      <c r="M59" s="3">
+        <v>4385500</v>
+      </c>
+      <c r="N59" s="3">
         <v>4484900</v>
       </c>
-      <c r="G59" s="3">
-        <v>4109700</v>
-      </c>
-      <c r="H59" s="3">
-        <v>4734800</v>
-      </c>
-      <c r="I59" s="3">
-        <v>4375600</v>
-      </c>
-      <c r="J59" s="3">
-        <v>3551200</v>
-      </c>
-      <c r="K59" s="3">
-        <v>3760600</v>
-      </c>
-      <c r="L59" s="3">
-        <v>4385500</v>
-      </c>
-      <c r="M59" s="3">
-        <v>4484900</v>
-      </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3942300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3822900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>4448200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>4635500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3962700</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>6146800</v>
+        <v>6245700</v>
       </c>
       <c r="E60" s="3">
-        <v>6308100</v>
+        <v>6374500</v>
       </c>
       <c r="F60" s="3">
-        <v>5967400</v>
+        <v>6541700</v>
       </c>
       <c r="G60" s="3">
-        <v>5622100</v>
+        <v>6188400</v>
       </c>
       <c r="H60" s="3">
-        <v>6416500</v>
+        <v>5830300</v>
       </c>
       <c r="I60" s="3">
-        <v>5546500</v>
+        <v>6654100</v>
       </c>
       <c r="J60" s="3">
+        <v>5751900</v>
+      </c>
+      <c r="K60" s="3">
         <v>4770700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4837800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>5782300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>6256000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>5621200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>5357800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>5630000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>5799700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>4853900</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>8245800</v>
+        <v>8630500</v>
       </c>
       <c r="E61" s="3">
-        <v>7804000</v>
+        <v>8551200</v>
       </c>
       <c r="F61" s="3">
-        <v>7756500</v>
+        <v>8093000</v>
       </c>
       <c r="G61" s="3">
-        <v>7290200</v>
+        <v>8043800</v>
       </c>
       <c r="H61" s="3">
-        <v>7377500</v>
+        <v>7560200</v>
       </c>
       <c r="I61" s="3">
-        <v>6955900</v>
+        <v>7650800</v>
       </c>
       <c r="J61" s="3">
+        <v>7213600</v>
+      </c>
+      <c r="K61" s="3">
         <v>5575400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>5547400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>5319600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>5111100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>5104400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>5178200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>5654600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>5830800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>5840500</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>3243200</v>
+        <v>3553800</v>
       </c>
       <c r="E62" s="3">
-        <v>3536300</v>
+        <v>3363300</v>
       </c>
       <c r="F62" s="3">
-        <v>3551000</v>
+        <v>3667300</v>
       </c>
       <c r="G62" s="3">
-        <v>3418000</v>
+        <v>3682600</v>
       </c>
       <c r="H62" s="3">
-        <v>3400200</v>
+        <v>3544600</v>
       </c>
       <c r="I62" s="3">
-        <v>3713600</v>
+        <v>3526100</v>
       </c>
       <c r="J62" s="3">
+        <v>3851200</v>
+      </c>
+      <c r="K62" s="3">
         <v>2626500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2574400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2461100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2184400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1988400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1874200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1860200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2032600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1915900</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -3227,8 +3376,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3277,8 +3429,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -3327,58 +3482,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>17519400</v>
+        <v>18866800</v>
       </c>
       <c r="E66" s="3">
-        <v>17540400</v>
+        <v>18168300</v>
       </c>
       <c r="F66" s="3">
-        <v>17200500</v>
+        <v>18190000</v>
       </c>
       <c r="G66" s="3">
-        <v>16250600</v>
+        <v>17837500</v>
       </c>
       <c r="H66" s="3">
-        <v>17095000</v>
+        <v>16852400</v>
       </c>
       <c r="I66" s="3">
-        <v>16117600</v>
+        <v>17728100</v>
       </c>
       <c r="J66" s="3">
+        <v>16714600</v>
+      </c>
+      <c r="K66" s="3">
         <v>13198100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>13130700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>13728400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>13716100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>12834200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>12499800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>13239200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>13793600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>12760400</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -3397,8 +3558,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -3447,8 +3609,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -3497,8 +3662,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -3547,8 +3715,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -3597,58 +3768,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>17706400</v>
+        <v>18719100</v>
       </c>
       <c r="E72" s="3">
-        <v>18010600</v>
+        <v>18362200</v>
       </c>
       <c r="F72" s="3">
-        <v>18085500</v>
+        <v>18677600</v>
       </c>
       <c r="G72" s="3">
-        <v>17921800</v>
+        <v>18755300</v>
       </c>
       <c r="H72" s="3">
-        <v>17687000</v>
+        <v>18585600</v>
       </c>
       <c r="I72" s="3">
-        <v>17937100</v>
+        <v>18342000</v>
       </c>
       <c r="J72" s="3">
+        <v>18601400</v>
+      </c>
+      <c r="K72" s="3">
         <v>17574500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>17434000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>16667600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>15695600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>15173300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>14531800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>14306000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>14357800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>13922500</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -3697,8 +3874,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -3747,8 +3927,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -3797,58 +3980,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>18381500</v>
+        <v>19737200</v>
       </c>
       <c r="E76" s="3">
-        <v>18595000</v>
+        <v>19062300</v>
       </c>
       <c r="F76" s="3">
-        <v>18426400</v>
+        <v>19283700</v>
       </c>
       <c r="G76" s="3">
-        <v>18247800</v>
+        <v>19108800</v>
       </c>
       <c r="H76" s="3">
-        <v>18015700</v>
+        <v>18923600</v>
       </c>
       <c r="I76" s="3">
-        <v>18201400</v>
+        <v>18682900</v>
       </c>
       <c r="J76" s="3">
+        <v>18875500</v>
+      </c>
+      <c r="K76" s="3">
         <v>17732900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>17392200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>16624500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>15701100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>15258700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>14584600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>14226800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>14374300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>13839700</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -3897,113 +4086,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>250600</v>
+        <v>355800</v>
       </c>
       <c r="E81" s="3">
-        <v>-24900</v>
+        <v>256800</v>
       </c>
       <c r="F81" s="3">
-        <v>219300</v>
+        <v>-25800</v>
       </c>
       <c r="G81" s="3">
-        <v>210400</v>
+        <v>227400</v>
       </c>
       <c r="H81" s="3">
-        <v>304200</v>
+        <v>218200</v>
       </c>
       <c r="I81" s="3">
-        <v>389800</v>
+        <v>315400</v>
       </c>
       <c r="J81" s="3">
+        <v>404200</v>
+      </c>
+      <c r="K81" s="3">
         <v>832400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>762900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>583800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>511800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>700300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>542500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>530200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>432400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>292600</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -4022,58 +4220,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>825700</v>
+        <v>866200</v>
       </c>
       <c r="E83" s="3">
-        <v>833500</v>
+        <v>856200</v>
       </c>
       <c r="F83" s="3">
-        <v>812500</v>
+        <v>864300</v>
       </c>
       <c r="G83" s="3">
-        <v>787000</v>
+        <v>842600</v>
       </c>
       <c r="H83" s="3">
-        <v>755100</v>
+        <v>816100</v>
       </c>
       <c r="I83" s="3">
-        <v>685800</v>
+        <v>783100</v>
       </c>
       <c r="J83" s="3">
+        <v>711200</v>
+      </c>
+      <c r="K83" s="3">
         <v>653900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>677500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>692100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>732200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>718700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>707600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>715200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>722200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>688100</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -4122,8 +4324,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -4172,8 +4377,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -4222,8 +4430,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -4272,8 +4483,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -4322,58 +4536,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>787700</v>
+        <v>1606300</v>
       </c>
       <c r="E89" s="3">
-        <v>929800</v>
+        <v>816800</v>
       </c>
       <c r="F89" s="3">
-        <v>679100</v>
+        <v>964200</v>
       </c>
       <c r="G89" s="3">
-        <v>835300</v>
+        <v>704200</v>
       </c>
       <c r="H89" s="3">
-        <v>784600</v>
+        <v>866200</v>
       </c>
       <c r="I89" s="3">
-        <v>1339500</v>
+        <v>813700</v>
       </c>
       <c r="J89" s="3">
+        <v>1389100</v>
+      </c>
+      <c r="K89" s="3">
         <v>382000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1024900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>829300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>828600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>969400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>776500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>837300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1379600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>799200</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -4392,58 +4612,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-846800</v>
+        <v>-546300</v>
       </c>
       <c r="E91" s="3">
-        <v>-923500</v>
+        <v>-878200</v>
       </c>
       <c r="F91" s="3">
-        <v>-724700</v>
+        <v>-957700</v>
       </c>
       <c r="G91" s="3">
-        <v>-526000</v>
+        <v>-751600</v>
       </c>
       <c r="H91" s="3">
-        <v>-560200</v>
+        <v>-545500</v>
       </c>
       <c r="I91" s="3">
-        <v>-761500</v>
+        <v>-581000</v>
       </c>
       <c r="J91" s="3">
+        <v>-789700</v>
+      </c>
+      <c r="K91" s="3">
         <v>-622200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-383600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-527100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-730500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-688700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-391900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-608900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1158400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-855700</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -4492,8 +4716,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -4542,58 +4769,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-998700</v>
+        <v>-534600</v>
       </c>
       <c r="E94" s="3">
-        <v>-1248200</v>
+        <v>-1035700</v>
       </c>
       <c r="F94" s="3">
-        <v>-925000</v>
+        <v>-1294400</v>
       </c>
       <c r="G94" s="3">
-        <v>-372500</v>
+        <v>-959300</v>
       </c>
       <c r="H94" s="3">
-        <v>-356200</v>
+        <v>-386300</v>
       </c>
       <c r="I94" s="3">
-        <v>-2202500</v>
+        <v>-369300</v>
       </c>
       <c r="J94" s="3">
+        <v>-2284100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-292400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-356000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-456800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-845900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-805200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-473600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-590600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-755400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-667600</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -4612,8 +4845,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
@@ -4624,10 +4858,10 @@
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-58200</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-60400</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
@@ -4636,11 +4870,11 @@
         <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-57200</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
         <v>0</v>
       </c>
@@ -4648,11 +4882,11 @@
         <v>0</v>
       </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-62100</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
         <v>0</v>
       </c>
@@ -4660,10 +4894,13 @@
         <v>0</v>
       </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-63500</v>
       </c>
     </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -4712,8 +4949,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -4762,8 +5002,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -4812,154 +5055,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>80100</v>
+        <v>-752700</v>
       </c>
       <c r="E100" s="3">
-        <v>309200</v>
+        <v>83100</v>
       </c>
       <c r="F100" s="3">
-        <v>109200</v>
+        <v>320700</v>
       </c>
       <c r="G100" s="3">
-        <v>-951300</v>
+        <v>113300</v>
       </c>
       <c r="H100" s="3">
-        <v>17000</v>
+        <v>-986500</v>
       </c>
       <c r="I100" s="3">
-        <v>-157500</v>
+        <v>17600</v>
       </c>
       <c r="J100" s="3">
+        <v>-163300</v>
+      </c>
+      <c r="K100" s="3">
         <v>696800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-746200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-13300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>30200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>19200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-603000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-177800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-48400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-343800</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>6900</v>
+        <v>-600</v>
       </c>
       <c r="E101" s="3">
-        <v>-6100</v>
+        <v>7200</v>
       </c>
       <c r="F101" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="G101" s="3">
+        <v>5800</v>
+      </c>
+      <c r="H101" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="I101" s="3">
+        <v>400</v>
+      </c>
+      <c r="J101" s="3">
+        <v>2500</v>
+      </c>
+      <c r="K101" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="L101" s="3">
+        <v>2100</v>
+      </c>
+      <c r="M101" s="3">
+        <v>400</v>
+      </c>
+      <c r="N101" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="O101" s="3">
+        <v>1100</v>
+      </c>
+      <c r="P101" s="3">
+        <v>2300</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="R101" s="3">
         <v>5600</v>
       </c>
-      <c r="G101" s="3">
-        <v>-1900</v>
-      </c>
-      <c r="H101" s="3">
-        <v>300</v>
-      </c>
-      <c r="I101" s="3">
-        <v>2400</v>
-      </c>
-      <c r="J101" s="3">
-        <v>-2800</v>
-      </c>
-      <c r="K101" s="3">
-        <v>2100</v>
-      </c>
-      <c r="L101" s="3">
-        <v>400</v>
-      </c>
-      <c r="M101" s="3">
-        <v>-3600</v>
-      </c>
-      <c r="N101" s="3">
-        <v>1100</v>
-      </c>
-      <c r="O101" s="3">
-        <v>2300</v>
-      </c>
-      <c r="P101" s="3">
-        <v>-5200</v>
-      </c>
-      <c r="Q101" s="3">
-        <v>5600</v>
-      </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>-124000</v>
+        <v>318500</v>
       </c>
       <c r="E102" s="3">
-        <v>-15300</v>
+        <v>-128600</v>
       </c>
       <c r="F102" s="3">
-        <v>-131100</v>
+        <v>-15900</v>
       </c>
       <c r="G102" s="3">
-        <v>-490400</v>
+        <v>-136000</v>
       </c>
       <c r="H102" s="3">
-        <v>445800</v>
+        <v>-508600</v>
       </c>
       <c r="I102" s="3">
-        <v>-1018100</v>
+        <v>462300</v>
       </c>
       <c r="J102" s="3">
+        <v>-1055800</v>
+      </c>
+      <c r="K102" s="3">
         <v>783600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-75200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>359500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>9300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>184400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-297700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>63700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>581400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-216300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SKM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SKM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="92">
   <si>
     <t>SKM</t>
   </si>
@@ -295,6 +295,9 @@
   </si>
   <si>
     <t xml:space="preserve">Change In Cash and Cash Equivalents </t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -653,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,244 +665,257 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3866400</v>
+        <v>4305100</v>
       </c>
       <c r="E8" s="3">
-        <v>3738300</v>
+        <v>4188600</v>
       </c>
       <c r="F8" s="3">
-        <v>3704900</v>
+        <v>4049900</v>
       </c>
       <c r="G8" s="3">
-        <v>3831400</v>
+        <v>4013600</v>
       </c>
       <c r="H8" s="3">
-        <v>3727100</v>
+        <v>4150700</v>
       </c>
       <c r="I8" s="3">
-        <v>3641300</v>
+        <v>4037700</v>
       </c>
       <c r="J8" s="3">
+        <v>3944800</v>
+      </c>
+      <c r="K8" s="3">
         <v>3655400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3391000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3489600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3512500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3957600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3909600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3824100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3810900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3917000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3819400</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>174200</v>
+        <v>183300</v>
       </c>
       <c r="E9" s="3">
-        <v>163800</v>
+        <v>188700</v>
       </c>
       <c r="F9" s="3">
-        <v>160700</v>
+        <v>177400</v>
       </c>
       <c r="G9" s="3">
-        <v>154500</v>
+        <v>174100</v>
       </c>
       <c r="H9" s="3">
-        <v>157700</v>
+        <v>167300</v>
       </c>
       <c r="I9" s="3">
-        <v>159100</v>
+        <v>170800</v>
       </c>
       <c r="J9" s="3">
+        <v>172300</v>
+      </c>
+      <c r="K9" s="3">
         <v>136400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>171900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>183800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>180600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>190800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>197200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>187500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>199000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>153400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>238000</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3692200</v>
+        <v>4121800</v>
       </c>
       <c r="E10" s="3">
-        <v>3574600</v>
+        <v>3999900</v>
       </c>
       <c r="F10" s="3">
-        <v>3544200</v>
+        <v>3872400</v>
       </c>
       <c r="G10" s="3">
-        <v>3676900</v>
+        <v>3839500</v>
       </c>
       <c r="H10" s="3">
-        <v>3569400</v>
+        <v>3983400</v>
       </c>
       <c r="I10" s="3">
-        <v>3482300</v>
+        <v>3866800</v>
       </c>
       <c r="J10" s="3">
+        <v>3772400</v>
+      </c>
+      <c r="K10" s="3">
         <v>3519000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3219100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3305800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>3331900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>3766900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>3712400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>3636700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>3612000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>3763600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>3581400</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -919,61 +935,65 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>88100</v>
+        <v>95400</v>
       </c>
       <c r="E12" s="3">
-        <v>92700</v>
+        <v>95400</v>
       </c>
       <c r="F12" s="3">
-        <v>85400</v>
+        <v>100400</v>
       </c>
       <c r="G12" s="3">
-        <v>78700</v>
+        <v>92600</v>
       </c>
       <c r="H12" s="3">
-        <v>80800</v>
+        <v>85200</v>
       </c>
       <c r="I12" s="3">
-        <v>83800</v>
+        <v>87600</v>
       </c>
       <c r="J12" s="3">
+        <v>90800</v>
+      </c>
+      <c r="K12" s="3">
         <v>88900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>76200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>82500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>75100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>90300</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>90800</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>83500</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>85200</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>82100</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>76900</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1025,114 +1045,123 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>10700</v>
+        <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>-10500</v>
-      </c>
-      <c r="F14" s="3">
-        <v>4400</v>
+        <v>11600</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="G14" s="3">
-        <v>-8300</v>
+        <v>58800</v>
       </c>
       <c r="H14" s="3">
+        <v>200</v>
+      </c>
+      <c r="I14" s="3">
+        <v>2200</v>
+      </c>
+      <c r="J14" s="3">
+        <v>100</v>
+      </c>
+      <c r="K14" s="3">
+        <v>214000</v>
+      </c>
+      <c r="L14" s="3">
+        <v>400</v>
+      </c>
+      <c r="M14" s="3">
+        <v>2100</v>
+      </c>
+      <c r="N14" s="3">
+        <v>800</v>
+      </c>
+      <c r="O14" s="3">
+        <v>52300</v>
+      </c>
+      <c r="P14" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>3700</v>
+      </c>
+      <c r="R14" s="3">
         <v>2000</v>
       </c>
-      <c r="I14" s="3">
-        <v>100</v>
-      </c>
-      <c r="J14" s="3">
-        <v>214000</v>
-      </c>
-      <c r="K14" s="3">
-        <v>400</v>
-      </c>
-      <c r="L14" s="3">
-        <v>2100</v>
-      </c>
-      <c r="M14" s="3">
-        <v>800</v>
-      </c>
-      <c r="N14" s="3">
-        <v>52300</v>
-      </c>
-      <c r="O14" s="3">
-        <v>300</v>
-      </c>
-      <c r="P14" s="3">
-        <v>3700</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>2000</v>
-      </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>5700</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>827600</v>
+        <v>898900</v>
       </c>
       <c r="E15" s="3">
-        <v>819300</v>
+        <v>896600</v>
       </c>
       <c r="F15" s="3">
-        <v>830000</v>
+        <v>887600</v>
       </c>
       <c r="G15" s="3">
-        <v>808000</v>
+        <v>899100</v>
       </c>
       <c r="H15" s="3">
-        <v>781500</v>
+        <v>875300</v>
       </c>
       <c r="I15" s="3">
-        <v>748600</v>
+        <v>846600</v>
       </c>
       <c r="J15" s="3">
+        <v>810900</v>
+      </c>
+      <c r="K15" s="3">
         <v>676100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>621700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>644900</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>660200</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>696900</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>684300</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>674200</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>685500</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>695000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>659700</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1149,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>3575100</v>
+        <v>3976100</v>
       </c>
       <c r="E17" s="3">
-        <v>3474200</v>
+        <v>3873000</v>
       </c>
       <c r="F17" s="3">
-        <v>3572800</v>
+        <v>3775000</v>
       </c>
       <c r="G17" s="3">
-        <v>3569400</v>
+        <v>3924500</v>
       </c>
       <c r="H17" s="3">
-        <v>3457900</v>
+        <v>3876000</v>
       </c>
       <c r="I17" s="3">
-        <v>3370400</v>
+        <v>3746100</v>
       </c>
       <c r="J17" s="3">
+        <v>3651300</v>
+      </c>
+      <c r="K17" s="3">
         <v>3680200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3145000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3200300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3239800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3736700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3564600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3455400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3443500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3650900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3442500</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>291300</v>
+        <v>329000</v>
       </c>
       <c r="E18" s="3">
-        <v>264200</v>
+        <v>315600</v>
       </c>
       <c r="F18" s="3">
-        <v>132100</v>
+        <v>274900</v>
       </c>
       <c r="G18" s="3">
-        <v>262100</v>
+        <v>89100</v>
       </c>
       <c r="H18" s="3">
-        <v>269200</v>
+        <v>274700</v>
       </c>
       <c r="I18" s="3">
-        <v>270900</v>
+        <v>291600</v>
       </c>
       <c r="J18" s="3">
+        <v>293500</v>
+      </c>
+      <c r="K18" s="3">
         <v>-24700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>246000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>289300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>272600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>220900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>345000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>368800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>367500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>266100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>376900</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1276,273 +1312,289 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>248600</v>
+        <v>229600</v>
       </c>
       <c r="E20" s="3">
-        <v>129000</v>
+        <v>269300</v>
       </c>
       <c r="F20" s="3">
-        <v>-56800</v>
+        <v>151000</v>
       </c>
       <c r="G20" s="3">
-        <v>114400</v>
+        <v>-7500</v>
       </c>
       <c r="H20" s="3">
-        <v>111100</v>
+        <v>133100</v>
       </c>
       <c r="I20" s="3">
-        <v>207900</v>
+        <v>120400</v>
       </c>
       <c r="J20" s="3">
+        <v>225300</v>
+      </c>
+      <c r="K20" s="3">
         <v>607100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>866100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>748000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>552300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>662700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>601900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>355900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>351300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>307600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>78400</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>1406100</v>
+        <v>1500100</v>
       </c>
       <c r="E21" s="3">
-        <v>1249400</v>
+        <v>1523300</v>
       </c>
       <c r="F21" s="3">
-        <v>939600</v>
+        <v>1353500</v>
       </c>
       <c r="G21" s="3">
-        <v>1219000</v>
+        <v>1017900</v>
       </c>
       <c r="H21" s="3">
-        <v>1196400</v>
+        <v>1320600</v>
       </c>
       <c r="I21" s="3">
-        <v>1262000</v>
+        <v>1296100</v>
       </c>
       <c r="J21" s="3">
+        <v>1367100</v>
+      </c>
+      <c r="K21" s="3">
         <v>1293500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1766000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1714900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1517100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1615900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1665600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1432300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1434000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1295900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1143300</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>79300</v>
+        <v>83700</v>
       </c>
       <c r="E22" s="3">
-        <v>82300</v>
+        <v>85900</v>
       </c>
       <c r="F22" s="3">
-        <v>81800</v>
+        <v>89200</v>
       </c>
       <c r="G22" s="3">
-        <v>82900</v>
+        <v>88600</v>
       </c>
       <c r="H22" s="3">
-        <v>83600</v>
+        <v>89800</v>
       </c>
       <c r="I22" s="3">
-        <v>85900</v>
+        <v>90600</v>
       </c>
       <c r="J22" s="3">
+        <v>93100</v>
+      </c>
+      <c r="K22" s="3">
         <v>75000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>57500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>60400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>63100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>68300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>63400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>66100</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>67000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>66000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>67200</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>460500</v>
+        <v>474900</v>
       </c>
       <c r="E23" s="3">
-        <v>310800</v>
+        <v>498900</v>
       </c>
       <c r="F23" s="3">
-        <v>-6500</v>
+        <v>336700</v>
       </c>
       <c r="G23" s="3">
-        <v>293500</v>
+        <v>-7100</v>
       </c>
       <c r="H23" s="3">
-        <v>296700</v>
+        <v>317900</v>
       </c>
       <c r="I23" s="3">
-        <v>393000</v>
+        <v>321400</v>
       </c>
       <c r="J23" s="3">
+        <v>425700</v>
+      </c>
+      <c r="K23" s="3">
         <v>507400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1054600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>977000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>761900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>815400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>883600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>658600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>651800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>507700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>388100</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>97500</v>
+        <v>114800</v>
       </c>
       <c r="E24" s="3">
-        <v>53000</v>
+        <v>105700</v>
       </c>
       <c r="F24" s="3">
-        <v>31400</v>
+        <v>57500</v>
       </c>
       <c r="G24" s="3">
-        <v>63000</v>
+        <v>34000</v>
       </c>
       <c r="H24" s="3">
-        <v>79100</v>
+        <v>68200</v>
       </c>
       <c r="I24" s="3">
-        <v>79100</v>
+        <v>85700</v>
       </c>
       <c r="J24" s="3">
+        <v>85700</v>
+      </c>
+      <c r="K24" s="3">
         <v>108800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>204200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>208900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>179400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>234000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>185800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>112600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>126700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>80500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>98200</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1594,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>363000</v>
+        <v>360100</v>
       </c>
       <c r="E26" s="3">
-        <v>257800</v>
+        <v>393300</v>
       </c>
       <c r="F26" s="3">
-        <v>-37900</v>
+        <v>279200</v>
       </c>
       <c r="G26" s="3">
-        <v>230500</v>
+        <v>-41100</v>
       </c>
       <c r="H26" s="3">
-        <v>217600</v>
+        <v>249700</v>
       </c>
       <c r="I26" s="3">
-        <v>313900</v>
+        <v>235700</v>
       </c>
       <c r="J26" s="3">
+        <v>340000</v>
+      </c>
+      <c r="K26" s="3">
         <v>398600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>850400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>768000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>582400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>581400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>697800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>546000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>525100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>427200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>289900</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>355800</v>
+        <v>348700</v>
       </c>
       <c r="E27" s="3">
-        <v>256800</v>
+        <v>385400</v>
       </c>
       <c r="F27" s="3">
-        <v>-25800</v>
+        <v>278200</v>
       </c>
       <c r="G27" s="3">
-        <v>227400</v>
+        <v>-28000</v>
       </c>
       <c r="H27" s="3">
-        <v>218200</v>
+        <v>246300</v>
       </c>
       <c r="I27" s="3">
-        <v>315400</v>
+        <v>236300</v>
       </c>
       <c r="J27" s="3">
+        <v>341700</v>
+      </c>
+      <c r="K27" s="3">
         <v>404200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>832400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>762900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>583800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>511800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>700300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>542500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>530200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>432400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>292600</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1753,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1806,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1859,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1912,114 +1982,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-248600</v>
+        <v>-229600</v>
       </c>
       <c r="E32" s="3">
-        <v>-129000</v>
+        <v>-269300</v>
       </c>
       <c r="F32" s="3">
-        <v>56800</v>
+        <v>-151000</v>
       </c>
       <c r="G32" s="3">
-        <v>-114400</v>
+        <v>7500</v>
       </c>
       <c r="H32" s="3">
-        <v>-111100</v>
+        <v>-133100</v>
       </c>
       <c r="I32" s="3">
-        <v>-207900</v>
+        <v>-120400</v>
       </c>
       <c r="J32" s="3">
+        <v>-225300</v>
+      </c>
+      <c r="K32" s="3">
         <v>-607100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-866100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-748000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-552300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-662700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-601900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-355900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-351300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-307600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-78400</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>355800</v>
+        <v>348700</v>
       </c>
       <c r="E33" s="3">
-        <v>256800</v>
+        <v>385400</v>
       </c>
       <c r="F33" s="3">
-        <v>-25800</v>
+        <v>278200</v>
       </c>
       <c r="G33" s="3">
-        <v>227400</v>
+        <v>-28000</v>
       </c>
       <c r="H33" s="3">
-        <v>218200</v>
+        <v>246300</v>
       </c>
       <c r="I33" s="3">
-        <v>315400</v>
+        <v>236300</v>
       </c>
       <c r="J33" s="3">
+        <v>341700</v>
+      </c>
+      <c r="K33" s="3">
         <v>404200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>832400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>762900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>583800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>511800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>700300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>542500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>530200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>432400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>292600</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2071,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>355800</v>
+        <v>348700</v>
       </c>
       <c r="E35" s="3">
-        <v>256800</v>
+        <v>385400</v>
       </c>
       <c r="F35" s="3">
-        <v>-25800</v>
+        <v>278200</v>
       </c>
       <c r="G35" s="3">
-        <v>227400</v>
+        <v>-28000</v>
       </c>
       <c r="H35" s="3">
-        <v>218200</v>
+        <v>246300</v>
       </c>
       <c r="I35" s="3">
-        <v>315400</v>
+        <v>236300</v>
       </c>
       <c r="J35" s="3">
+        <v>341700</v>
+      </c>
+      <c r="K35" s="3">
         <v>404200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>832400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>762900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>583800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>511800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>700300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>542500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>530200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>432400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>292600</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2203,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2224,485 +2313,513 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>1257400</v>
+        <v>1714300</v>
       </c>
       <c r="E41" s="3">
-        <v>938900</v>
+        <v>1362200</v>
       </c>
       <c r="F41" s="3">
-        <v>1067500</v>
+        <v>1017200</v>
       </c>
       <c r="G41" s="3">
-        <v>1083400</v>
+        <v>1156400</v>
       </c>
       <c r="H41" s="3">
-        <v>1219300</v>
+        <v>1173600</v>
       </c>
       <c r="I41" s="3">
-        <v>1727900</v>
+        <v>1321000</v>
       </c>
       <c r="J41" s="3">
+        <v>1871900</v>
+      </c>
+      <c r="K41" s="3">
         <v>1265600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2238500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1508800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1584000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1282800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1273500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1089100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1418400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1354700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>773300</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>824400</v>
+        <v>993200</v>
       </c>
       <c r="E42" s="3">
-        <v>903200</v>
+        <v>893100</v>
       </c>
       <c r="F42" s="3">
-        <v>757900</v>
+        <v>978400</v>
       </c>
       <c r="G42" s="3">
-        <v>817800</v>
+        <v>821100</v>
       </c>
       <c r="H42" s="3">
-        <v>695000</v>
+        <v>885900</v>
       </c>
       <c r="I42" s="3">
-        <v>676700</v>
+        <v>752900</v>
       </c>
       <c r="J42" s="3">
+        <v>733100</v>
+      </c>
+      <c r="K42" s="3">
         <v>975400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>318100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>452600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>540900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>590800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>626300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>647200</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>612800</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>437300</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>580900</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>2747500</v>
+        <v>3147100</v>
       </c>
       <c r="E43" s="3">
-        <v>2902000</v>
+        <v>2976400</v>
       </c>
       <c r="F43" s="3">
-        <v>2854000</v>
+        <v>3143800</v>
       </c>
       <c r="G43" s="3">
-        <v>2946600</v>
+        <v>3091800</v>
       </c>
       <c r="H43" s="3">
-        <v>2730700</v>
+        <v>3192200</v>
       </c>
       <c r="I43" s="3">
-        <v>2877000</v>
+        <v>2958300</v>
       </c>
       <c r="J43" s="3">
+        <v>3116800</v>
+      </c>
+      <c r="K43" s="3">
         <v>2605400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3040500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2736500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3179400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3039200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2826800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2900700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2901300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>3081700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>3293200</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>171700</v>
+        <v>196600</v>
       </c>
       <c r="E44" s="3">
-        <v>174800</v>
+        <v>186000</v>
       </c>
       <c r="F44" s="3">
-        <v>136800</v>
+        <v>189300</v>
       </c>
       <c r="G44" s="3">
-        <v>168500</v>
+        <v>148200</v>
       </c>
       <c r="H44" s="3">
-        <v>188100</v>
+        <v>182500</v>
       </c>
       <c r="I44" s="3">
-        <v>221500</v>
+        <v>203700</v>
       </c>
       <c r="J44" s="3">
+        <v>239900</v>
+      </c>
+      <c r="K44" s="3">
         <v>242000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>208700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>217800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>213800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>239700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>219000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>231900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>223700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>233900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>246600</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>1938600</v>
+        <v>2168000</v>
       </c>
       <c r="E45" s="3">
-        <v>1904400</v>
+        <v>2100100</v>
       </c>
       <c r="F45" s="3">
-        <v>1989700</v>
+        <v>2063100</v>
       </c>
       <c r="G45" s="3">
-        <v>1776100</v>
+        <v>2155500</v>
       </c>
       <c r="H45" s="3">
-        <v>1539100</v>
+        <v>1924100</v>
       </c>
       <c r="I45" s="3">
-        <v>1509800</v>
+        <v>1667400</v>
       </c>
       <c r="J45" s="3">
+        <v>1635700</v>
+      </c>
+      <c r="K45" s="3">
         <v>1597000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1505000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1648400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1597800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>305100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>341700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>228600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>212400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>289400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>305900</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>6939500</v>
+        <v>8219200</v>
       </c>
       <c r="E46" s="3">
-        <v>6823200</v>
+        <v>7517800</v>
       </c>
       <c r="F46" s="3">
-        <v>6805900</v>
+        <v>7391800</v>
       </c>
       <c r="G46" s="3">
-        <v>6792300</v>
+        <v>7373100</v>
       </c>
       <c r="H46" s="3">
-        <v>6372200</v>
+        <v>7358400</v>
       </c>
       <c r="I46" s="3">
-        <v>7012900</v>
+        <v>6903300</v>
       </c>
       <c r="J46" s="3">
+        <v>7597400</v>
+      </c>
+      <c r="K46" s="3">
         <v>6685400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>7310800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>6564000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>7115900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>5457600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>5287300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>5097500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>5368600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>5397000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>5199900</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>12955700</v>
+        <v>14555500</v>
       </c>
       <c r="E47" s="3">
-        <v>12472300</v>
+        <v>14035400</v>
       </c>
       <c r="F47" s="3">
-        <v>12349800</v>
+        <v>13511700</v>
       </c>
       <c r="G47" s="3">
-        <v>12264600</v>
+        <v>13379000</v>
       </c>
       <c r="H47" s="3">
-        <v>11839100</v>
+        <v>13286700</v>
       </c>
       <c r="I47" s="3">
-        <v>11843500</v>
+        <v>12825700</v>
       </c>
       <c r="J47" s="3">
+        <v>12830400</v>
+      </c>
+      <c r="K47" s="3">
         <v>11621100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>10715900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>10427800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>9560700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>9483000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>8899800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>8030500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>7602200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>7603200</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>7518000</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>10537200</v>
+        <v>11093100</v>
       </c>
       <c r="E48" s="3">
-        <v>10069700</v>
+        <v>11415300</v>
       </c>
       <c r="F48" s="3">
-        <v>10360800</v>
+        <v>10908800</v>
       </c>
       <c r="G48" s="3">
-        <v>9731400</v>
+        <v>11224200</v>
       </c>
       <c r="H48" s="3">
-        <v>9490400</v>
+        <v>10542400</v>
       </c>
       <c r="I48" s="3">
-        <v>9404500</v>
+        <v>10281300</v>
       </c>
       <c r="J48" s="3">
+        <v>10188200</v>
+      </c>
+      <c r="K48" s="3">
         <v>9003400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>7678300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>8009300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>8104800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>8927500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>8449400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>8424900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>8936000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>9336800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>8818900</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>6788300</v>
+        <v>7189200</v>
       </c>
       <c r="E49" s="3">
-        <v>6426000</v>
+        <v>7354000</v>
       </c>
       <c r="F49" s="3">
-        <v>6565100</v>
+        <v>6961500</v>
       </c>
       <c r="G49" s="3">
-        <v>6617700</v>
+        <v>7112200</v>
       </c>
       <c r="H49" s="3">
-        <v>6794000</v>
+        <v>7169100</v>
       </c>
       <c r="I49" s="3">
-        <v>6939700</v>
+        <v>7360200</v>
       </c>
       <c r="J49" s="3">
+        <v>7518000</v>
+      </c>
+      <c r="K49" s="3">
         <v>7099700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4170600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4448600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>4511000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>4841700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>4934900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>5000900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>5037500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>5137900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>4591200</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -2754,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -2807,61 +2927,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>1383300</v>
+        <v>1402200</v>
       </c>
       <c r="E52" s="3">
-        <v>1439300</v>
+        <v>1498500</v>
       </c>
       <c r="F52" s="3">
-        <v>1392100</v>
+        <v>1559300</v>
       </c>
       <c r="G52" s="3">
-        <v>1540300</v>
+        <v>1508100</v>
       </c>
       <c r="H52" s="3">
-        <v>1280300</v>
+        <v>1668700</v>
       </c>
       <c r="I52" s="3">
-        <v>1210400</v>
+        <v>1387000</v>
       </c>
       <c r="J52" s="3">
+        <v>1311200</v>
+      </c>
+      <c r="K52" s="3">
         <v>1180300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1055500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1073200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1060500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>707400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>521500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>530700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>521800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>693000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>472200</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -2913,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>38604000</v>
+        <v>42459200</v>
       </c>
       <c r="E54" s="3">
-        <v>37230600</v>
+        <v>41821000</v>
       </c>
       <c r="F54" s="3">
-        <v>37473800</v>
+        <v>40333100</v>
       </c>
       <c r="G54" s="3">
-        <v>36946400</v>
+        <v>40596600</v>
       </c>
       <c r="H54" s="3">
-        <v>35776100</v>
+        <v>40025200</v>
       </c>
       <c r="I54" s="3">
-        <v>36411000</v>
+        <v>38757400</v>
       </c>
       <c r="J54" s="3">
+        <v>39445300</v>
+      </c>
+      <c r="K54" s="3">
         <v>35590100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>30931100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>30522900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>30352900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>29417200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>28093000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>27084400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>27466000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>28167900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>26600100</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -2987,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -3008,326 +3141,345 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>311600</v>
+        <v>337600</v>
       </c>
       <c r="E57" s="3">
-        <v>327300</v>
+        <v>337500</v>
       </c>
       <c r="F57" s="3">
-        <v>368200</v>
+        <v>354500</v>
       </c>
       <c r="G57" s="3">
-        <v>382400</v>
+        <v>398900</v>
       </c>
       <c r="H57" s="3">
-        <v>317600</v>
+        <v>414300</v>
       </c>
       <c r="I57" s="3">
-        <v>261900</v>
+        <v>344000</v>
       </c>
       <c r="J57" s="3">
+        <v>283700</v>
+      </c>
+      <c r="K57" s="3">
         <v>320300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>217500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>221100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>204600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>309500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>226300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>219400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>237100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>362200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>276000</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>999300</v>
+        <v>1216200</v>
       </c>
       <c r="E58" s="3">
-        <v>1234000</v>
+        <v>1082600</v>
       </c>
       <c r="F58" s="3">
-        <v>1127400</v>
+        <v>1336900</v>
       </c>
       <c r="G58" s="3">
-        <v>1155000</v>
+        <v>1221400</v>
       </c>
       <c r="H58" s="3">
-        <v>1250800</v>
+        <v>1251300</v>
       </c>
       <c r="I58" s="3">
-        <v>1482100</v>
+        <v>1355100</v>
       </c>
       <c r="J58" s="3">
+        <v>1605600</v>
+      </c>
+      <c r="K58" s="3">
         <v>894000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1002000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>856100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1192300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1461600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1452600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1315500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>944800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>802000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>615100</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>4934900</v>
+        <v>5430100</v>
       </c>
       <c r="E59" s="3">
-        <v>4813200</v>
+        <v>5346100</v>
       </c>
       <c r="F59" s="3">
-        <v>5046100</v>
+        <v>5214300</v>
       </c>
       <c r="G59" s="3">
-        <v>4651000</v>
+        <v>5466600</v>
       </c>
       <c r="H59" s="3">
-        <v>4261900</v>
+        <v>5038600</v>
       </c>
       <c r="I59" s="3">
-        <v>4910200</v>
+        <v>4617000</v>
       </c>
       <c r="J59" s="3">
+        <v>5319400</v>
+      </c>
+      <c r="K59" s="3">
         <v>4537700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3551200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3760600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4385500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4484900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3942300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3822900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>4448200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>4635500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>3962700</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>6245700</v>
+        <v>6983900</v>
       </c>
       <c r="E60" s="3">
-        <v>6374500</v>
+        <v>6766200</v>
       </c>
       <c r="F60" s="3">
-        <v>6541700</v>
+        <v>6905700</v>
       </c>
       <c r="G60" s="3">
-        <v>6188400</v>
+        <v>7086800</v>
       </c>
       <c r="H60" s="3">
-        <v>5830300</v>
+        <v>6704100</v>
       </c>
       <c r="I60" s="3">
-        <v>6654100</v>
+        <v>6316200</v>
       </c>
       <c r="J60" s="3">
+        <v>7208600</v>
+      </c>
+      <c r="K60" s="3">
         <v>5751900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4770700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4837800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>5782300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>6256000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>5621200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>5357800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>5630000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>5799700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>4853900</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>8630500</v>
+        <v>9361000</v>
       </c>
       <c r="E61" s="3">
-        <v>8551200</v>
+        <v>9349700</v>
       </c>
       <c r="F61" s="3">
-        <v>8093000</v>
+        <v>9263800</v>
       </c>
       <c r="G61" s="3">
-        <v>8043800</v>
+        <v>8767400</v>
       </c>
       <c r="H61" s="3">
-        <v>7560200</v>
+        <v>8714100</v>
       </c>
       <c r="I61" s="3">
-        <v>7650800</v>
+        <v>8190200</v>
       </c>
       <c r="J61" s="3">
+        <v>8288300</v>
+      </c>
+      <c r="K61" s="3">
         <v>7213600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>5575400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>5547400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>5319600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>5111100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>5104400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>5178200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>5654600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>5830800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>5840500</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>3553800</v>
+        <v>3980400</v>
       </c>
       <c r="E62" s="3">
-        <v>3363300</v>
+        <v>3849900</v>
       </c>
       <c r="F62" s="3">
-        <v>3667300</v>
+        <v>3643600</v>
       </c>
       <c r="G62" s="3">
-        <v>3682600</v>
+        <v>3972900</v>
       </c>
       <c r="H62" s="3">
-        <v>3544600</v>
+        <v>3989400</v>
       </c>
       <c r="I62" s="3">
-        <v>3526100</v>
+        <v>3839900</v>
       </c>
       <c r="J62" s="3">
+        <v>3819900</v>
+      </c>
+      <c r="K62" s="3">
         <v>3851200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2626500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2574400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2461100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2184400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1988400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1874200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1860200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>2032600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1915900</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -3379,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3432,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -3485,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>18866800</v>
+        <v>20806900</v>
       </c>
       <c r="E66" s="3">
-        <v>18168300</v>
+        <v>20439000</v>
       </c>
       <c r="F66" s="3">
-        <v>18190000</v>
+        <v>19682300</v>
       </c>
       <c r="G66" s="3">
-        <v>17837500</v>
+        <v>19705900</v>
       </c>
       <c r="H66" s="3">
-        <v>16852400</v>
+        <v>19324000</v>
       </c>
       <c r="I66" s="3">
-        <v>17728100</v>
+        <v>18256800</v>
       </c>
       <c r="J66" s="3">
+        <v>19205500</v>
+      </c>
+      <c r="K66" s="3">
         <v>16714600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>13198100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>13130700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>13728400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>13716100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>12834200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>12499800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>13239200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>13793600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>12760400</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -3559,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -3612,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -3665,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -3718,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -3771,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>18719100</v>
+        <v>20562100</v>
       </c>
       <c r="E72" s="3">
-        <v>18362200</v>
+        <v>20279000</v>
       </c>
       <c r="F72" s="3">
-        <v>18677600</v>
+        <v>19892400</v>
       </c>
       <c r="G72" s="3">
-        <v>18755300</v>
+        <v>20234100</v>
       </c>
       <c r="H72" s="3">
-        <v>18585600</v>
+        <v>20318200</v>
       </c>
       <c r="I72" s="3">
-        <v>18342000</v>
+        <v>20134400</v>
       </c>
       <c r="J72" s="3">
+        <v>19870500</v>
+      </c>
+      <c r="K72" s="3">
         <v>18601400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>17574500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>17434000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>16667600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>15695600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>15173300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>14531800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>14306000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>14357800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>13922500</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -3877,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -3930,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -3983,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>19737200</v>
+        <v>21652400</v>
       </c>
       <c r="E76" s="3">
-        <v>19062300</v>
+        <v>21382000</v>
       </c>
       <c r="F76" s="3">
-        <v>19283700</v>
+        <v>20650800</v>
       </c>
       <c r="G76" s="3">
-        <v>19108800</v>
+        <v>20890700</v>
       </c>
       <c r="H76" s="3">
-        <v>18923600</v>
+        <v>20701200</v>
       </c>
       <c r="I76" s="3">
-        <v>18682900</v>
+        <v>20500600</v>
       </c>
       <c r="J76" s="3">
+        <v>20239800</v>
+      </c>
+      <c r="K76" s="3">
         <v>18875500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>17732900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>17392200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>16624500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>15701100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>15258700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>14584600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>14226800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>14374300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>13839700</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -4089,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>355800</v>
+        <v>348700</v>
       </c>
       <c r="E81" s="3">
-        <v>256800</v>
+        <v>385400</v>
       </c>
       <c r="F81" s="3">
-        <v>-25800</v>
+        <v>278200</v>
       </c>
       <c r="G81" s="3">
-        <v>227400</v>
+        <v>-28000</v>
       </c>
       <c r="H81" s="3">
-        <v>218200</v>
+        <v>246300</v>
       </c>
       <c r="I81" s="3">
-        <v>315400</v>
+        <v>236300</v>
       </c>
       <c r="J81" s="3">
+        <v>341700</v>
+      </c>
+      <c r="K81" s="3">
         <v>404200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>832400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>762900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>583800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>511800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>700300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>542500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>530200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>432400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>292600</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -4221,61 +4422,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>866200</v>
+        <v>941600</v>
       </c>
       <c r="E83" s="3">
-        <v>856200</v>
+        <v>938400</v>
       </c>
       <c r="F83" s="3">
-        <v>864300</v>
+        <v>927600</v>
       </c>
       <c r="G83" s="3">
-        <v>842600</v>
+        <v>936300</v>
       </c>
       <c r="H83" s="3">
-        <v>816100</v>
+        <v>912800</v>
       </c>
       <c r="I83" s="3">
-        <v>783100</v>
+        <v>884100</v>
       </c>
       <c r="J83" s="3">
+        <v>848400</v>
+      </c>
+      <c r="K83" s="3">
         <v>711200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>653900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>677500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>692100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>732200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>718700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>707600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>715200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>722200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>688100</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -4327,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -4380,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -4433,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -4486,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -4539,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>1606300</v>
+        <v>1493300</v>
       </c>
       <c r="E89" s="3">
-        <v>816800</v>
+        <v>1740200</v>
       </c>
       <c r="F89" s="3">
-        <v>964200</v>
+        <v>884900</v>
       </c>
       <c r="G89" s="3">
-        <v>704200</v>
+        <v>1044600</v>
       </c>
       <c r="H89" s="3">
-        <v>866200</v>
+        <v>762900</v>
       </c>
       <c r="I89" s="3">
-        <v>813700</v>
+        <v>938400</v>
       </c>
       <c r="J89" s="3">
+        <v>881500</v>
+      </c>
+      <c r="K89" s="3">
         <v>1389100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>382000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1024900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>829300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>828600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>969400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>776500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>837300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1379600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>799200</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -4613,61 +4836,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-546300</v>
+        <v>-877400</v>
       </c>
       <c r="E91" s="3">
-        <v>-878200</v>
+        <v>-591900</v>
       </c>
       <c r="F91" s="3">
-        <v>-957700</v>
+        <v>-951400</v>
       </c>
       <c r="G91" s="3">
-        <v>-751600</v>
+        <v>-1037500</v>
       </c>
       <c r="H91" s="3">
-        <v>-545500</v>
+        <v>-814200</v>
       </c>
       <c r="I91" s="3">
-        <v>-581000</v>
+        <v>-590900</v>
       </c>
       <c r="J91" s="3">
+        <v>-629400</v>
+      </c>
+      <c r="K91" s="3">
         <v>-789700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-622200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-383600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-527100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-730500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-688700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-391900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-608900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1158400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-855700</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -4719,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -4772,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-534600</v>
+        <v>-1072000</v>
       </c>
       <c r="E94" s="3">
-        <v>-1035700</v>
+        <v>-579200</v>
       </c>
       <c r="F94" s="3">
-        <v>-1294400</v>
+        <v>-1122000</v>
       </c>
       <c r="G94" s="3">
-        <v>-959300</v>
+        <v>-1402300</v>
       </c>
       <c r="H94" s="3">
-        <v>-386300</v>
+        <v>-1039200</v>
       </c>
       <c r="I94" s="3">
-        <v>-369300</v>
+        <v>-418500</v>
       </c>
       <c r="J94" s="3">
+        <v>-400100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-2284100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-292400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-356000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-456800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-845900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-805200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-473600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-590600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-755400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-667600</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -4846,13 +5082,14 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-66600</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -4861,10 +5098,10 @@
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-60400</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-65400</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
@@ -4873,11 +5110,11 @@
         <v>0</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-57200</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
         <v>0</v>
       </c>
@@ -4885,11 +5122,11 @@
         <v>0</v>
       </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-62100</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
         <v>0</v>
       </c>
@@ -4897,10 +5134,13 @@
         <v>0</v>
       </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-63500</v>
       </c>
     </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -4952,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -5005,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -5058,163 +5304,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>-752700</v>
+        <v>-66900</v>
       </c>
       <c r="E100" s="3">
-        <v>83100</v>
+        <v>-815400</v>
       </c>
       <c r="F100" s="3">
-        <v>320700</v>
+        <v>90000</v>
       </c>
       <c r="G100" s="3">
-        <v>113300</v>
+        <v>347400</v>
       </c>
       <c r="H100" s="3">
-        <v>-986500</v>
+        <v>122700</v>
       </c>
       <c r="I100" s="3">
-        <v>17600</v>
+        <v>-1068700</v>
       </c>
       <c r="J100" s="3">
+        <v>19100</v>
+      </c>
+      <c r="K100" s="3">
         <v>-163300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>696800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-746200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-13300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>30200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>19200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-603000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-177800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-48400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-343800</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E101" s="3">
         <v>-600</v>
       </c>
-      <c r="E101" s="3">
-        <v>7200</v>
-      </c>
       <c r="F101" s="3">
-        <v>-6300</v>
+        <v>7800</v>
       </c>
       <c r="G101" s="3">
-        <v>5800</v>
+        <v>-6800</v>
       </c>
       <c r="H101" s="3">
-        <v>-2000</v>
+        <v>6300</v>
       </c>
       <c r="I101" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="J101" s="3">
         <v>400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>2500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-2800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>2100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-3600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>1100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>2300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-5200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>5600</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>318500</v>
+        <v>352100</v>
       </c>
       <c r="E102" s="3">
-        <v>-128600</v>
+        <v>345000</v>
       </c>
       <c r="F102" s="3">
-        <v>-15900</v>
+        <v>-139300</v>
       </c>
       <c r="G102" s="3">
-        <v>-136000</v>
+        <v>-17200</v>
       </c>
       <c r="H102" s="3">
-        <v>-508600</v>
+        <v>-147300</v>
       </c>
       <c r="I102" s="3">
-        <v>462300</v>
+        <v>-551000</v>
       </c>
       <c r="J102" s="3">
+        <v>500800</v>
+      </c>
+      <c r="K102" s="3">
         <v>-1055800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>783600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-75200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>359500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>9300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>184400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-297700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>63700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>581400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-216300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SKM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SKM_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,269 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4305100</v>
+        <v>4259700</v>
       </c>
       <c r="E8" s="3">
-        <v>4188600</v>
+        <v>4163100</v>
       </c>
       <c r="F8" s="3">
-        <v>4049900</v>
+        <v>4050500</v>
       </c>
       <c r="G8" s="3">
-        <v>4013600</v>
+        <v>3916300</v>
       </c>
       <c r="H8" s="3">
-        <v>4150700</v>
+        <v>3878700</v>
       </c>
       <c r="I8" s="3">
-        <v>4037700</v>
+        <v>4013900</v>
       </c>
       <c r="J8" s="3">
+        <v>3904600</v>
+      </c>
+      <c r="K8" s="3">
         <v>3944800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3655400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3391000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3489600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3512500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3957600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3909600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3824100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3810900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3917000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3819400</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>183300</v>
+        <v>147000</v>
       </c>
       <c r="E9" s="3">
-        <v>188700</v>
+        <v>177200</v>
       </c>
       <c r="F9" s="3">
-        <v>177400</v>
+        <v>182400</v>
       </c>
       <c r="G9" s="3">
-        <v>174100</v>
+        <v>171600</v>
       </c>
       <c r="H9" s="3">
-        <v>167300</v>
+        <v>168400</v>
       </c>
       <c r="I9" s="3">
-        <v>170800</v>
+        <v>161800</v>
       </c>
       <c r="J9" s="3">
+        <v>165200</v>
+      </c>
+      <c r="K9" s="3">
         <v>172300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>136400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>171900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>183800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>180600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>190800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>197200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>187500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>199000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>153400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>238000</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4121800</v>
+        <v>4112800</v>
       </c>
       <c r="E10" s="3">
-        <v>3999900</v>
+        <v>3985900</v>
       </c>
       <c r="F10" s="3">
-        <v>3872400</v>
+        <v>3868000</v>
       </c>
       <c r="G10" s="3">
-        <v>3839500</v>
+        <v>3744800</v>
       </c>
       <c r="H10" s="3">
-        <v>3983400</v>
+        <v>3710300</v>
       </c>
       <c r="I10" s="3">
-        <v>3866800</v>
+        <v>3852000</v>
       </c>
       <c r="J10" s="3">
+        <v>3739400</v>
+      </c>
+      <c r="K10" s="3">
         <v>3772400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3519000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3219100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>3305800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>3331900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>3766900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>3712400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>3636700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>3612000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>3763600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>3581400</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,64 +948,68 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>95400</v>
+        <v>84800</v>
       </c>
       <c r="E12" s="3">
-        <v>95400</v>
+        <v>92300</v>
       </c>
       <c r="F12" s="3">
-        <v>100400</v>
+        <v>92300</v>
       </c>
       <c r="G12" s="3">
-        <v>92600</v>
+        <v>97100</v>
       </c>
       <c r="H12" s="3">
+        <v>89500</v>
+      </c>
+      <c r="I12" s="3">
+        <v>82400</v>
+      </c>
+      <c r="J12" s="3">
+        <v>84700</v>
+      </c>
+      <c r="K12" s="3">
+        <v>90800</v>
+      </c>
+      <c r="L12" s="3">
+        <v>88900</v>
+      </c>
+      <c r="M12" s="3">
+        <v>76200</v>
+      </c>
+      <c r="N12" s="3">
+        <v>82500</v>
+      </c>
+      <c r="O12" s="3">
+        <v>75100</v>
+      </c>
+      <c r="P12" s="3">
+        <v>90300</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>90800</v>
+      </c>
+      <c r="R12" s="3">
+        <v>83500</v>
+      </c>
+      <c r="S12" s="3">
         <v>85200</v>
       </c>
-      <c r="I12" s="3">
-        <v>87600</v>
-      </c>
-      <c r="J12" s="3">
-        <v>90800</v>
-      </c>
-      <c r="K12" s="3">
-        <v>88900</v>
-      </c>
-      <c r="L12" s="3">
-        <v>76200</v>
-      </c>
-      <c r="M12" s="3">
-        <v>82500</v>
-      </c>
-      <c r="N12" s="3">
-        <v>75100</v>
-      </c>
-      <c r="O12" s="3">
-        <v>90300</v>
-      </c>
-      <c r="P12" s="3">
-        <v>90800</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>83500</v>
-      </c>
-      <c r="R12" s="3">
-        <v>85200</v>
-      </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>82100</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>76900</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1048,120 +1064,129 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>172600</v>
       </c>
       <c r="E14" s="3">
-        <v>11600</v>
-      </c>
-      <c r="F14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>11200</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="G14" s="3">
-        <v>58800</v>
-      </c>
       <c r="H14" s="3">
+        <v>56800</v>
+      </c>
+      <c r="I14" s="3">
         <v>200</v>
       </c>
-      <c r="I14" s="3">
-        <v>2200</v>
-      </c>
       <c r="J14" s="3">
+        <v>2100</v>
+      </c>
+      <c r="K14" s="3">
         <v>100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>214000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>400</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>2100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>800</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>52300</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>300</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>3700</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>2000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>5700</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>898900</v>
+        <v>917500</v>
       </c>
       <c r="E15" s="3">
-        <v>896600</v>
+        <v>869300</v>
       </c>
       <c r="F15" s="3">
-        <v>887600</v>
+        <v>867000</v>
       </c>
       <c r="G15" s="3">
-        <v>899100</v>
+        <v>858300</v>
       </c>
       <c r="H15" s="3">
-        <v>875300</v>
+        <v>944500</v>
       </c>
       <c r="I15" s="3">
-        <v>846600</v>
+        <v>846500</v>
       </c>
       <c r="J15" s="3">
+        <v>818700</v>
+      </c>
+      <c r="K15" s="3">
         <v>810900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>676100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>621700</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>644900</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>660200</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>696900</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>684300</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>674200</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>685500</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>695000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>659700</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1204,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>3976100</v>
+        <v>4145200</v>
       </c>
       <c r="E17" s="3">
-        <v>3873000</v>
+        <v>3845000</v>
       </c>
       <c r="F17" s="3">
-        <v>3775000</v>
+        <v>3745300</v>
       </c>
       <c r="G17" s="3">
-        <v>3924500</v>
+        <v>3650600</v>
       </c>
       <c r="H17" s="3">
-        <v>3876000</v>
+        <v>3794100</v>
       </c>
       <c r="I17" s="3">
-        <v>3746100</v>
+        <v>3748300</v>
       </c>
       <c r="J17" s="3">
+        <v>3622600</v>
+      </c>
+      <c r="K17" s="3">
         <v>3651300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3680200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3145000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3200300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3239800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3736700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3564600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3455400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3443500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3650900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3442500</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>329000</v>
+        <v>114600</v>
       </c>
       <c r="E18" s="3">
-        <v>315600</v>
+        <v>318100</v>
       </c>
       <c r="F18" s="3">
-        <v>274900</v>
+        <v>305200</v>
       </c>
       <c r="G18" s="3">
-        <v>89100</v>
+        <v>265800</v>
       </c>
       <c r="H18" s="3">
-        <v>274700</v>
+        <v>84600</v>
       </c>
       <c r="I18" s="3">
-        <v>291600</v>
+        <v>265600</v>
       </c>
       <c r="J18" s="3">
+        <v>282000</v>
+      </c>
+      <c r="K18" s="3">
         <v>293500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-24700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>246000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>289300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>272600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>220900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>345000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>368800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>367500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>266100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>376900</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1313,288 +1345,304 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>229600</v>
+        <v>371000</v>
       </c>
       <c r="E20" s="3">
-        <v>269300</v>
+        <v>222000</v>
       </c>
       <c r="F20" s="3">
-        <v>151000</v>
+        <v>260400</v>
       </c>
       <c r="G20" s="3">
-        <v>-7500</v>
+        <v>146100</v>
       </c>
       <c r="H20" s="3">
-        <v>133100</v>
+        <v>100</v>
       </c>
       <c r="I20" s="3">
-        <v>120400</v>
+        <v>128700</v>
       </c>
       <c r="J20" s="3">
+        <v>116400</v>
+      </c>
+      <c r="K20" s="3">
         <v>225300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>607100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>866100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>748000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>552300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>662700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>601900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>355900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>351300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>307600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>78400</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>1500100</v>
+        <v>1440100</v>
       </c>
       <c r="E21" s="3">
-        <v>1523300</v>
+        <v>1450700</v>
       </c>
       <c r="F21" s="3">
-        <v>1353500</v>
+        <v>1473000</v>
       </c>
       <c r="G21" s="3">
-        <v>1017900</v>
+        <v>1308900</v>
       </c>
       <c r="H21" s="3">
-        <v>1320600</v>
+        <v>990100</v>
       </c>
       <c r="I21" s="3">
-        <v>1296100</v>
+        <v>1277000</v>
       </c>
       <c r="J21" s="3">
+        <v>1253400</v>
+      </c>
+      <c r="K21" s="3">
         <v>1367100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1293500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1766000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1714900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1517100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1615900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1665600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1432300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1434000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1295900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1143300</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>83700</v>
+        <v>101000</v>
       </c>
       <c r="E22" s="3">
-        <v>85900</v>
+        <v>80900</v>
       </c>
       <c r="F22" s="3">
-        <v>89200</v>
+        <v>83100</v>
       </c>
       <c r="G22" s="3">
-        <v>88600</v>
+        <v>86300</v>
       </c>
       <c r="H22" s="3">
-        <v>89800</v>
+        <v>92900</v>
       </c>
       <c r="I22" s="3">
-        <v>90600</v>
+        <v>86900</v>
       </c>
       <c r="J22" s="3">
+        <v>87600</v>
+      </c>
+      <c r="K22" s="3">
         <v>93100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>75000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>57500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>60400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>63100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>68300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>63400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>66100</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>67000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>66000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>67200</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>474900</v>
+        <v>384500</v>
       </c>
       <c r="E23" s="3">
-        <v>498900</v>
+        <v>459200</v>
       </c>
       <c r="F23" s="3">
-        <v>336700</v>
+        <v>482500</v>
       </c>
       <c r="G23" s="3">
-        <v>-7100</v>
+        <v>325600</v>
       </c>
       <c r="H23" s="3">
-        <v>317900</v>
+        <v>-8300</v>
       </c>
       <c r="I23" s="3">
-        <v>321400</v>
+        <v>307500</v>
       </c>
       <c r="J23" s="3">
+        <v>310800</v>
+      </c>
+      <c r="K23" s="3">
         <v>425700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>507400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1054600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>977000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>761900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>815400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>883600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>658600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>651800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>507700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>388100</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>114800</v>
+        <v>62600</v>
       </c>
       <c r="E24" s="3">
-        <v>105700</v>
+        <v>111000</v>
       </c>
       <c r="F24" s="3">
-        <v>57500</v>
+        <v>102200</v>
       </c>
       <c r="G24" s="3">
-        <v>34000</v>
+        <v>55600</v>
       </c>
       <c r="H24" s="3">
-        <v>68200</v>
+        <v>32500</v>
       </c>
       <c r="I24" s="3">
+        <v>66000</v>
+      </c>
+      <c r="J24" s="3">
+        <v>82900</v>
+      </c>
+      <c r="K24" s="3">
         <v>85700</v>
       </c>
-      <c r="J24" s="3">
-        <v>85700</v>
-      </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>108800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>204200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>208900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>179400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>234000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>185800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>112600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>126700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>80500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>98200</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1649,120 +1697,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>360100</v>
+        <v>322000</v>
       </c>
       <c r="E26" s="3">
-        <v>393300</v>
+        <v>348200</v>
       </c>
       <c r="F26" s="3">
-        <v>279200</v>
+        <v>380300</v>
       </c>
       <c r="G26" s="3">
-        <v>-41100</v>
+        <v>270000</v>
       </c>
       <c r="H26" s="3">
-        <v>249700</v>
+        <v>-40800</v>
       </c>
       <c r="I26" s="3">
-        <v>235700</v>
+        <v>241500</v>
       </c>
       <c r="J26" s="3">
+        <v>228000</v>
+      </c>
+      <c r="K26" s="3">
         <v>340000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>398600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>850400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>768000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>582400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>581400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>697800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>546000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>525100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>427200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>289900</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>348700</v>
+        <v>331900</v>
       </c>
       <c r="E27" s="3">
-        <v>385400</v>
+        <v>337200</v>
       </c>
       <c r="F27" s="3">
-        <v>278200</v>
+        <v>372700</v>
       </c>
       <c r="G27" s="3">
-        <v>-28000</v>
+        <v>269100</v>
       </c>
       <c r="H27" s="3">
-        <v>246300</v>
+        <v>-28100</v>
       </c>
       <c r="I27" s="3">
-        <v>236300</v>
+        <v>238200</v>
       </c>
       <c r="J27" s="3">
+        <v>228500</v>
+      </c>
+      <c r="K27" s="3">
         <v>341700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>404200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>832400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>762900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>583800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>511800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>700300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>542500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>530200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>432400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>292600</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1817,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1873,8 +1933,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1929,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1985,120 +2051,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-229600</v>
+        <v>-371000</v>
       </c>
       <c r="E32" s="3">
-        <v>-269300</v>
+        <v>-222000</v>
       </c>
       <c r="F32" s="3">
-        <v>-151000</v>
+        <v>-260400</v>
       </c>
       <c r="G32" s="3">
-        <v>7500</v>
+        <v>-146100</v>
       </c>
       <c r="H32" s="3">
-        <v>-133100</v>
+        <v>-100</v>
       </c>
       <c r="I32" s="3">
-        <v>-120400</v>
+        <v>-128700</v>
       </c>
       <c r="J32" s="3">
+        <v>-116400</v>
+      </c>
+      <c r="K32" s="3">
         <v>-225300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-607100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-866100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-748000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-552300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-662700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-601900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-355900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-351300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-307600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-78400</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>348700</v>
+        <v>331900</v>
       </c>
       <c r="E33" s="3">
-        <v>385400</v>
+        <v>337200</v>
       </c>
       <c r="F33" s="3">
-        <v>278200</v>
+        <v>372700</v>
       </c>
       <c r="G33" s="3">
-        <v>-28000</v>
+        <v>269100</v>
       </c>
       <c r="H33" s="3">
-        <v>246300</v>
+        <v>-28100</v>
       </c>
       <c r="I33" s="3">
-        <v>236300</v>
+        <v>238200</v>
       </c>
       <c r="J33" s="3">
+        <v>228500</v>
+      </c>
+      <c r="K33" s="3">
         <v>341700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>404200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>832400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>762900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>583800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>511800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>700300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>542500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>530200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>432400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>292600</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2153,125 +2228,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>348700</v>
+        <v>331900</v>
       </c>
       <c r="E35" s="3">
-        <v>385400</v>
+        <v>337200</v>
       </c>
       <c r="F35" s="3">
-        <v>278200</v>
+        <v>372700</v>
       </c>
       <c r="G35" s="3">
-        <v>-28000</v>
+        <v>269100</v>
       </c>
       <c r="H35" s="3">
-        <v>246300</v>
+        <v>-28100</v>
       </c>
       <c r="I35" s="3">
-        <v>236300</v>
+        <v>238200</v>
       </c>
       <c r="J35" s="3">
+        <v>228500</v>
+      </c>
+      <c r="K35" s="3">
         <v>341700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>404200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>832400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>762900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>583800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>511800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>700300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>542500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>530200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>432400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>292600</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2292,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2314,512 +2399,540 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>1714300</v>
+        <v>1205300</v>
       </c>
       <c r="E41" s="3">
-        <v>1362200</v>
+        <v>1657700</v>
       </c>
       <c r="F41" s="3">
-        <v>1017200</v>
+        <v>1317300</v>
       </c>
       <c r="G41" s="3">
-        <v>1156400</v>
+        <v>983600</v>
       </c>
       <c r="H41" s="3">
-        <v>1173600</v>
+        <v>1118300</v>
       </c>
       <c r="I41" s="3">
-        <v>1321000</v>
+        <v>1134900</v>
       </c>
       <c r="J41" s="3">
+        <v>1277400</v>
+      </c>
+      <c r="K41" s="3">
         <v>1871900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1265600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2238500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1508800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1584000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1282800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1273500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1089100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1418400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1354700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>773300</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>993200</v>
+        <v>1301800</v>
       </c>
       <c r="E42" s="3">
-        <v>893100</v>
+        <v>960500</v>
       </c>
       <c r="F42" s="3">
-        <v>978400</v>
+        <v>863700</v>
       </c>
       <c r="G42" s="3">
-        <v>821100</v>
+        <v>946200</v>
       </c>
       <c r="H42" s="3">
-        <v>885900</v>
+        <v>794000</v>
       </c>
       <c r="I42" s="3">
-        <v>752900</v>
+        <v>856700</v>
       </c>
       <c r="J42" s="3">
+        <v>728100</v>
+      </c>
+      <c r="K42" s="3">
         <v>733100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>975400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>318100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>452600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>540900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>590800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>626300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>647200</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>612800</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>437300</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>580900</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>3147100</v>
+        <v>2966700</v>
       </c>
       <c r="E43" s="3">
-        <v>2976400</v>
+        <v>3043400</v>
       </c>
       <c r="F43" s="3">
-        <v>3143800</v>
+        <v>2878300</v>
       </c>
       <c r="G43" s="3">
-        <v>3091800</v>
+        <v>3040200</v>
       </c>
       <c r="H43" s="3">
-        <v>3192200</v>
+        <v>2988200</v>
       </c>
       <c r="I43" s="3">
-        <v>2958300</v>
+        <v>3087000</v>
       </c>
       <c r="J43" s="3">
+        <v>2860700</v>
+      </c>
+      <c r="K43" s="3">
         <v>3116800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2605400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3040500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2736500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3179400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3039200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2826800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2900700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2901300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>3081700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>3293200</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>196600</v>
+        <v>150900</v>
       </c>
       <c r="E44" s="3">
-        <v>186000</v>
+        <v>190100</v>
       </c>
       <c r="F44" s="3">
-        <v>189300</v>
+        <v>179800</v>
       </c>
       <c r="G44" s="3">
-        <v>148200</v>
+        <v>183100</v>
       </c>
       <c r="H44" s="3">
-        <v>182500</v>
+        <v>143300</v>
       </c>
       <c r="I44" s="3">
-        <v>203700</v>
+        <v>176500</v>
       </c>
       <c r="J44" s="3">
+        <v>197000</v>
+      </c>
+      <c r="K44" s="3">
         <v>239900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>242000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>208700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>217800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>213800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>239700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>219000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>231900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>223700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>233900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>246600</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>2168000</v>
+        <v>2097400</v>
       </c>
       <c r="E45" s="3">
-        <v>2100100</v>
+        <v>2096500</v>
       </c>
       <c r="F45" s="3">
-        <v>2063100</v>
+        <v>2030900</v>
       </c>
       <c r="G45" s="3">
-        <v>2155500</v>
+        <v>1995100</v>
       </c>
       <c r="H45" s="3">
-        <v>1924100</v>
+        <v>2074000</v>
       </c>
       <c r="I45" s="3">
-        <v>1667400</v>
+        <v>1860700</v>
       </c>
       <c r="J45" s="3">
+        <v>1612400</v>
+      </c>
+      <c r="K45" s="3">
         <v>1635700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1597000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1505000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1648400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1597800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>305100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>341700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>228600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>212400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>289400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>305900</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>8219200</v>
+        <v>7722100</v>
       </c>
       <c r="E46" s="3">
-        <v>7517800</v>
+        <v>7948200</v>
       </c>
       <c r="F46" s="3">
-        <v>7391800</v>
+        <v>7270000</v>
       </c>
       <c r="G46" s="3">
-        <v>7373100</v>
+        <v>7148200</v>
       </c>
       <c r="H46" s="3">
-        <v>7358400</v>
+        <v>7117900</v>
       </c>
       <c r="I46" s="3">
-        <v>6903300</v>
+        <v>7115800</v>
       </c>
       <c r="J46" s="3">
+        <v>6675700</v>
+      </c>
+      <c r="K46" s="3">
         <v>7597400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>6685400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>7310800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>6564000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>7115900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>5457600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>5287300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>5097500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>5368600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>5397000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>5199900</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>14555500</v>
+        <v>14475200</v>
       </c>
       <c r="E47" s="3">
-        <v>14035400</v>
+        <v>14075600</v>
       </c>
       <c r="F47" s="3">
-        <v>13511700</v>
+        <v>13572700</v>
       </c>
       <c r="G47" s="3">
-        <v>13379000</v>
+        <v>13066200</v>
       </c>
       <c r="H47" s="3">
-        <v>13286700</v>
+        <v>12944100</v>
       </c>
       <c r="I47" s="3">
-        <v>12825700</v>
+        <v>12848600</v>
       </c>
       <c r="J47" s="3">
+        <v>12402900</v>
+      </c>
+      <c r="K47" s="3">
         <v>12830400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>11621100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>10715900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>10427800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>9560700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>9483000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>8899800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>8030500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>7602200</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>7603200</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>7518000</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>11093100</v>
+        <v>11771800</v>
       </c>
       <c r="E48" s="3">
-        <v>11415300</v>
+        <v>10727400</v>
       </c>
       <c r="F48" s="3">
-        <v>10908800</v>
+        <v>11038900</v>
       </c>
       <c r="G48" s="3">
-        <v>11224200</v>
+        <v>10549200</v>
       </c>
       <c r="H48" s="3">
-        <v>10542400</v>
+        <v>11381400</v>
       </c>
       <c r="I48" s="3">
-        <v>10281300</v>
+        <v>10194900</v>
       </c>
       <c r="J48" s="3">
+        <v>9942300</v>
+      </c>
+      <c r="K48" s="3">
         <v>10188200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>9003400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>7678300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>8009300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>8104800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>8927500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>8449400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>8424900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>8936000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>9336800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>8818900</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>7189200</v>
+        <v>6858500</v>
       </c>
       <c r="E49" s="3">
-        <v>7354000</v>
+        <v>6952200</v>
       </c>
       <c r="F49" s="3">
-        <v>6961500</v>
+        <v>7111600</v>
       </c>
       <c r="G49" s="3">
-        <v>7112200</v>
+        <v>6732000</v>
       </c>
       <c r="H49" s="3">
-        <v>7169100</v>
+        <v>6877700</v>
       </c>
       <c r="I49" s="3">
-        <v>7360200</v>
+        <v>6932800</v>
       </c>
       <c r="J49" s="3">
+        <v>7117600</v>
+      </c>
+      <c r="K49" s="3">
         <v>7518000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>7099700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4170600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>4448600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>4511000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>4841700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>4934900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>5000900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>5037500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>5137900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>4591200</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -2874,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -2930,64 +3046,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>1402200</v>
+        <v>1330500</v>
       </c>
       <c r="E52" s="3">
-        <v>1498500</v>
+        <v>1356000</v>
       </c>
       <c r="F52" s="3">
-        <v>1559300</v>
+        <v>1449100</v>
       </c>
       <c r="G52" s="3">
-        <v>1508100</v>
+        <v>1507800</v>
       </c>
       <c r="H52" s="3">
-        <v>1668700</v>
+        <v>1456900</v>
       </c>
       <c r="I52" s="3">
-        <v>1387000</v>
+        <v>1613700</v>
       </c>
       <c r="J52" s="3">
+        <v>1341300</v>
+      </c>
+      <c r="K52" s="3">
         <v>1311200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1180300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1055500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1073200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1060500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>707400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>521500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>530700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>521800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>693000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>472200</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -3042,64 +3164,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>42459200</v>
+        <v>42158100</v>
       </c>
       <c r="E54" s="3">
-        <v>41821000</v>
+        <v>41059500</v>
       </c>
       <c r="F54" s="3">
-        <v>40333100</v>
+        <v>40442300</v>
       </c>
       <c r="G54" s="3">
-        <v>40596600</v>
+        <v>39003500</v>
       </c>
       <c r="H54" s="3">
-        <v>40025200</v>
+        <v>39778100</v>
       </c>
       <c r="I54" s="3">
-        <v>38757400</v>
+        <v>38705700</v>
       </c>
       <c r="J54" s="3">
+        <v>37479700</v>
+      </c>
+      <c r="K54" s="3">
         <v>39445300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>35590100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>30931100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>30522900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>30352900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>29417200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>28093000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>27084400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>27466000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>28167900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>26600100</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -3120,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -3142,344 +3271,363 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>337600</v>
+        <v>328200</v>
       </c>
       <c r="E57" s="3">
-        <v>337500</v>
+        <v>326500</v>
       </c>
       <c r="F57" s="3">
-        <v>354500</v>
+        <v>326400</v>
       </c>
       <c r="G57" s="3">
-        <v>398900</v>
+        <v>342900</v>
       </c>
       <c r="H57" s="3">
-        <v>414300</v>
+        <v>385700</v>
       </c>
       <c r="I57" s="3">
-        <v>344000</v>
+        <v>400700</v>
       </c>
       <c r="J57" s="3">
+        <v>332700</v>
+      </c>
+      <c r="K57" s="3">
         <v>283700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>320300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>217500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>221100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>204600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>309500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>226300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>219400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>237100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>362200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>276000</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>1216200</v>
+        <v>1240100</v>
       </c>
       <c r="E58" s="3">
-        <v>1082600</v>
+        <v>1176100</v>
       </c>
       <c r="F58" s="3">
-        <v>1336900</v>
+        <v>1046900</v>
       </c>
       <c r="G58" s="3">
-        <v>1221400</v>
+        <v>1292800</v>
       </c>
       <c r="H58" s="3">
-        <v>1251300</v>
+        <v>1240500</v>
       </c>
       <c r="I58" s="3">
-        <v>1355100</v>
+        <v>1210000</v>
       </c>
       <c r="J58" s="3">
+        <v>1310400</v>
+      </c>
+      <c r="K58" s="3">
         <v>1605600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>894000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1002000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>856100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1192300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1461600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1452600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1315500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>944800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>802000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>615100</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>5430100</v>
+        <v>5628400</v>
       </c>
       <c r="E59" s="3">
-        <v>5346100</v>
+        <v>5251000</v>
       </c>
       <c r="F59" s="3">
-        <v>5214300</v>
+        <v>5169800</v>
       </c>
       <c r="G59" s="3">
-        <v>5466600</v>
+        <v>5042400</v>
       </c>
       <c r="H59" s="3">
-        <v>5038600</v>
+        <v>5283300</v>
       </c>
       <c r="I59" s="3">
-        <v>4617000</v>
+        <v>4872400</v>
       </c>
       <c r="J59" s="3">
+        <v>4464800</v>
+      </c>
+      <c r="K59" s="3">
         <v>5319400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4537700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3551200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3760600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4385500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>4484900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3942300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3822900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>4448200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>4635500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>3962700</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>6983900</v>
+        <v>7196600</v>
       </c>
       <c r="E60" s="3">
-        <v>6766200</v>
+        <v>6753600</v>
       </c>
       <c r="F60" s="3">
-        <v>6905700</v>
+        <v>6543200</v>
       </c>
       <c r="G60" s="3">
-        <v>7086800</v>
+        <v>6678100</v>
       </c>
       <c r="H60" s="3">
-        <v>6704100</v>
+        <v>6909500</v>
       </c>
       <c r="I60" s="3">
-        <v>6316200</v>
+        <v>6483100</v>
       </c>
       <c r="J60" s="3">
+        <v>6107900</v>
+      </c>
+      <c r="K60" s="3">
         <v>7208600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5751900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4770700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4837800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>5782300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>6256000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>5621200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>5357800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>5630000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>5799700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>4853900</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>9361000</v>
+        <v>9456700</v>
       </c>
       <c r="E61" s="3">
-        <v>9349700</v>
+        <v>9052400</v>
       </c>
       <c r="F61" s="3">
-        <v>9263800</v>
+        <v>9041400</v>
       </c>
       <c r="G61" s="3">
-        <v>8767400</v>
+        <v>8958400</v>
       </c>
       <c r="H61" s="3">
-        <v>8714100</v>
+        <v>8927900</v>
       </c>
       <c r="I61" s="3">
-        <v>8190200</v>
+        <v>8426900</v>
       </c>
       <c r="J61" s="3">
+        <v>7920200</v>
+      </c>
+      <c r="K61" s="3">
         <v>8288300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>7213600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>5575400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>5547400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>5319600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>5111100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>5104400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>5178200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>5654600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>5830800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>5840500</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>3980400</v>
+        <v>4036100</v>
       </c>
       <c r="E62" s="3">
-        <v>3849900</v>
+        <v>3849100</v>
       </c>
       <c r="F62" s="3">
-        <v>3643600</v>
+        <v>3723000</v>
       </c>
       <c r="G62" s="3">
-        <v>3972900</v>
+        <v>3523500</v>
       </c>
       <c r="H62" s="3">
-        <v>3989400</v>
+        <v>3861800</v>
       </c>
       <c r="I62" s="3">
-        <v>3839900</v>
+        <v>3857900</v>
       </c>
       <c r="J62" s="3">
+        <v>3713300</v>
+      </c>
+      <c r="K62" s="3">
         <v>3819900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3851200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2626500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2574400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2461100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2184400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1988400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1874200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1860200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>2032600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1915900</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -3534,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3590,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -3646,64 +3800,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>20806900</v>
+        <v>21263500</v>
       </c>
       <c r="E66" s="3">
-        <v>20439000</v>
+        <v>20120900</v>
       </c>
       <c r="F66" s="3">
-        <v>19682300</v>
+        <v>19765200</v>
       </c>
       <c r="G66" s="3">
-        <v>19705900</v>
+        <v>19033400</v>
       </c>
       <c r="H66" s="3">
-        <v>19324000</v>
+        <v>19581900</v>
       </c>
       <c r="I66" s="3">
-        <v>18256800</v>
+        <v>18686900</v>
       </c>
       <c r="J66" s="3">
+        <v>17654900</v>
+      </c>
+      <c r="K66" s="3">
         <v>19205500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>16714600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>13198100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>13130700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>13728400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>13716100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>12834200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>12499800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>13239200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>13793600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>12760400</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -3724,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -3780,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -3836,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -3892,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -3948,64 +4118,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>20562100</v>
+        <v>20224100</v>
       </c>
       <c r="E72" s="3">
-        <v>20279000</v>
+        <v>19884200</v>
       </c>
       <c r="F72" s="3">
-        <v>19892400</v>
+        <v>19610500</v>
       </c>
       <c r="G72" s="3">
-        <v>20234100</v>
+        <v>19236600</v>
       </c>
       <c r="H72" s="3">
-        <v>20318200</v>
+        <v>19561200</v>
       </c>
       <c r="I72" s="3">
-        <v>20134400</v>
+        <v>19648400</v>
       </c>
       <c r="J72" s="3">
+        <v>19470600</v>
+      </c>
+      <c r="K72" s="3">
         <v>19870500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>18601400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>17574500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>17434000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>16667600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>15695600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>15173300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>14531800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>14306000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>14357800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>13922500</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -4060,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -4116,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -4172,64 +4354,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>21652400</v>
+        <v>20894600</v>
       </c>
       <c r="E76" s="3">
-        <v>21382000</v>
+        <v>20938500</v>
       </c>
       <c r="F76" s="3">
-        <v>20650800</v>
+        <v>20677100</v>
       </c>
       <c r="G76" s="3">
-        <v>20890700</v>
+        <v>19970000</v>
       </c>
       <c r="H76" s="3">
-        <v>20701200</v>
+        <v>20196200</v>
       </c>
       <c r="I76" s="3">
-        <v>20500600</v>
+        <v>20018800</v>
       </c>
       <c r="J76" s="3">
+        <v>19824800</v>
+      </c>
+      <c r="K76" s="3">
         <v>20239800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>18875500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>17732900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>17392200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>16624500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>15701100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>15258700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>14584600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>14226800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>14374300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>13839700</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -4284,125 +4472,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>348700</v>
+        <v>331900</v>
       </c>
       <c r="E81" s="3">
-        <v>385400</v>
+        <v>337200</v>
       </c>
       <c r="F81" s="3">
-        <v>278200</v>
+        <v>372700</v>
       </c>
       <c r="G81" s="3">
-        <v>-28000</v>
+        <v>269100</v>
       </c>
       <c r="H81" s="3">
-        <v>246300</v>
+        <v>-28100</v>
       </c>
       <c r="I81" s="3">
-        <v>236300</v>
+        <v>238200</v>
       </c>
       <c r="J81" s="3">
+        <v>228500</v>
+      </c>
+      <c r="K81" s="3">
         <v>341700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>404200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>832400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>762900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>583800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>511800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>700300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>542500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>530200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>432400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>292600</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -4423,64 +4620,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>941600</v>
+        <v>954500</v>
       </c>
       <c r="E83" s="3">
-        <v>938400</v>
+        <v>910600</v>
       </c>
       <c r="F83" s="3">
-        <v>927600</v>
+        <v>907500</v>
       </c>
       <c r="G83" s="3">
-        <v>936300</v>
+        <v>897000</v>
       </c>
       <c r="H83" s="3">
-        <v>912800</v>
+        <v>905500</v>
       </c>
       <c r="I83" s="3">
-        <v>884100</v>
+        <v>882700</v>
       </c>
       <c r="J83" s="3">
+        <v>855000</v>
+      </c>
+      <c r="K83" s="3">
         <v>848400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>711200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>653900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>677500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>692100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>732200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>718700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>707600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>715200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>722200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>688100</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -4535,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -4591,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -4647,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -4703,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -4759,64 +4972,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>1493300</v>
+        <v>1140700</v>
       </c>
       <c r="E89" s="3">
-        <v>1740200</v>
+        <v>1444000</v>
       </c>
       <c r="F89" s="3">
-        <v>884900</v>
+        <v>1682800</v>
       </c>
       <c r="G89" s="3">
-        <v>1044600</v>
+        <v>855700</v>
       </c>
       <c r="H89" s="3">
-        <v>762900</v>
+        <v>1010100</v>
       </c>
       <c r="I89" s="3">
-        <v>938400</v>
+        <v>737800</v>
       </c>
       <c r="J89" s="3">
+        <v>907500</v>
+      </c>
+      <c r="K89" s="3">
         <v>881500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1389100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>382000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1024900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>829300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>828600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>969400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>776500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>837300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1379600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>799200</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -4837,64 +5056,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-877400</v>
+        <v>-790000</v>
       </c>
       <c r="E91" s="3">
-        <v>-591900</v>
+        <v>-848500</v>
       </c>
       <c r="F91" s="3">
-        <v>-951400</v>
+        <v>-572300</v>
       </c>
       <c r="G91" s="3">
-        <v>-1037500</v>
+        <v>-920000</v>
       </c>
       <c r="H91" s="3">
-        <v>-814200</v>
+        <v>-1003300</v>
       </c>
       <c r="I91" s="3">
-        <v>-590900</v>
+        <v>-787400</v>
       </c>
       <c r="J91" s="3">
+        <v>-571500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-629400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-789700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-622200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-383600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-527100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-730500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-688700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-391900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-608900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1158400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-855700</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -4949,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -5005,64 +5231,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-1072000</v>
+        <v>-1058600</v>
       </c>
       <c r="E94" s="3">
-        <v>-579200</v>
+        <v>-1036700</v>
       </c>
       <c r="F94" s="3">
-        <v>-1122000</v>
+        <v>-560100</v>
       </c>
       <c r="G94" s="3">
-        <v>-1402300</v>
+        <v>-1085000</v>
       </c>
       <c r="H94" s="3">
-        <v>-1039200</v>
+        <v>-1356100</v>
       </c>
       <c r="I94" s="3">
-        <v>-418500</v>
+        <v>-1005000</v>
       </c>
       <c r="J94" s="3">
+        <v>-404700</v>
+      </c>
+      <c r="K94" s="3">
         <v>-400100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2284100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-292400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-356000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-456800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-845900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-805200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-473600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-590600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-755400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-667600</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -5083,16 +5315,17 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-66600</v>
+        <v>-9500</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-64400</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
@@ -5101,10 +5334,10 @@
         <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-65400</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-63200</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
@@ -5113,11 +5346,11 @@
         <v>0</v>
       </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-57200</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
         <v>0</v>
       </c>
@@ -5125,11 +5358,11 @@
         <v>0</v>
       </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-62100</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
         <v>0</v>
       </c>
@@ -5137,10 +5370,13 @@
         <v>0</v>
       </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-63500</v>
       </c>
     </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -5195,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -5251,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -5307,172 +5549,184 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>-66900</v>
+        <v>-516500</v>
       </c>
       <c r="E100" s="3">
-        <v>-815400</v>
+        <v>-64600</v>
       </c>
       <c r="F100" s="3">
-        <v>90000</v>
+        <v>-788500</v>
       </c>
       <c r="G100" s="3">
-        <v>347400</v>
+        <v>87000</v>
       </c>
       <c r="H100" s="3">
-        <v>122700</v>
+        <v>335900</v>
       </c>
       <c r="I100" s="3">
-        <v>-1068700</v>
+        <v>118700</v>
       </c>
       <c r="J100" s="3">
+        <v>-1033500</v>
+      </c>
+      <c r="K100" s="3">
         <v>19100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-163300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>696800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-746200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-13300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>30200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>19200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-603000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-177800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-48400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-343800</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>-2300</v>
+        <v>-18000</v>
       </c>
       <c r="E101" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="F101" s="3">
         <v>-600</v>
       </c>
-      <c r="F101" s="3">
-        <v>7800</v>
-      </c>
       <c r="G101" s="3">
-        <v>-6800</v>
+        <v>7500</v>
       </c>
       <c r="H101" s="3">
-        <v>6300</v>
+        <v>-6600</v>
       </c>
       <c r="I101" s="3">
-        <v>-2200</v>
+        <v>6100</v>
       </c>
       <c r="J101" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="K101" s="3">
         <v>400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>2500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-2800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>2100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-3600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>1100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>2300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-5200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>5600</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>352100</v>
+        <v>-452400</v>
       </c>
       <c r="E102" s="3">
-        <v>345000</v>
+        <v>340500</v>
       </c>
       <c r="F102" s="3">
-        <v>-139300</v>
+        <v>333600</v>
       </c>
       <c r="G102" s="3">
-        <v>-17200</v>
+        <v>-134700</v>
       </c>
       <c r="H102" s="3">
-        <v>-147300</v>
+        <v>-16600</v>
       </c>
       <c r="I102" s="3">
-        <v>-551000</v>
+        <v>-142500</v>
       </c>
       <c r="J102" s="3">
+        <v>-532800</v>
+      </c>
+      <c r="K102" s="3">
         <v>500800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1055800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>783600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-75200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>359500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>9300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>184400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-297700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>63700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>581400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-216300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SKM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SKM_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,269 +665,282 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4259700</v>
+        <v>4254600</v>
       </c>
       <c r="E8" s="3">
-        <v>4163100</v>
+        <v>4308100</v>
       </c>
       <c r="F8" s="3">
-        <v>4050500</v>
+        <v>4210400</v>
       </c>
       <c r="G8" s="3">
-        <v>3916300</v>
+        <v>4096500</v>
       </c>
       <c r="H8" s="3">
-        <v>3878700</v>
+        <v>3961000</v>
       </c>
       <c r="I8" s="3">
-        <v>4013900</v>
+        <v>3922700</v>
       </c>
       <c r="J8" s="3">
+        <v>4059500</v>
+      </c>
+      <c r="K8" s="3">
         <v>3904600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3944800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3655400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3391000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3489600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3512500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3957600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3909600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3824100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3810900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3917000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>3819400</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>147000</v>
+        <v>172600</v>
       </c>
       <c r="E9" s="3">
-        <v>177200</v>
+        <v>148600</v>
       </c>
       <c r="F9" s="3">
-        <v>182400</v>
+        <v>179200</v>
       </c>
       <c r="G9" s="3">
-        <v>171600</v>
+        <v>184500</v>
       </c>
       <c r="H9" s="3">
-        <v>168400</v>
+        <v>173500</v>
       </c>
       <c r="I9" s="3">
-        <v>161800</v>
+        <v>170300</v>
       </c>
       <c r="J9" s="3">
+        <v>163700</v>
+      </c>
+      <c r="K9" s="3">
         <v>165200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>172300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>136400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>171900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>183800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>180600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>190800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>197200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>187500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>199000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>153400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>238000</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4112800</v>
+        <v>4082000</v>
       </c>
       <c r="E10" s="3">
-        <v>3985900</v>
+        <v>4159500</v>
       </c>
       <c r="F10" s="3">
-        <v>3868000</v>
+        <v>4031200</v>
       </c>
       <c r="G10" s="3">
-        <v>3744800</v>
+        <v>3912000</v>
       </c>
       <c r="H10" s="3">
-        <v>3710300</v>
+        <v>3787500</v>
       </c>
       <c r="I10" s="3">
-        <v>3852000</v>
+        <v>3752500</v>
       </c>
       <c r="J10" s="3">
+        <v>3895800</v>
+      </c>
+      <c r="K10" s="3">
         <v>3739400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3772400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3519000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>3219100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>3305800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>3331900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>3766900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>3712400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>3636700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>3612000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>3763600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>3581400</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -949,67 +962,71 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>84800</v>
+        <v>89600</v>
       </c>
       <c r="E12" s="3">
-        <v>92300</v>
+        <v>85800</v>
       </c>
       <c r="F12" s="3">
-        <v>92300</v>
+        <v>93300</v>
       </c>
       <c r="G12" s="3">
-        <v>97100</v>
+        <v>93400</v>
       </c>
       <c r="H12" s="3">
-        <v>89500</v>
+        <v>98200</v>
       </c>
       <c r="I12" s="3">
-        <v>82400</v>
+        <v>90500</v>
       </c>
       <c r="J12" s="3">
+        <v>83300</v>
+      </c>
+      <c r="K12" s="3">
         <v>84700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>90800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>88900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>76200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>82500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>75100</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>90300</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>90800</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>83500</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>85200</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>82100</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>76900</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1067,126 +1084,135 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>172600</v>
+        <v>-4500</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>174500</v>
       </c>
       <c r="F14" s="3">
-        <v>11200</v>
-      </c>
-      <c r="G14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>11300</v>
+      </c>
+      <c r="H14" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="H14" s="3">
-        <v>56800</v>
-      </c>
       <c r="I14" s="3">
+        <v>57500</v>
+      </c>
+      <c r="J14" s="3">
         <v>200</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>2100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>214000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>400</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>2100</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>800</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>52300</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>300</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>3700</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>2000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>5700</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>917500</v>
+        <v>886900</v>
       </c>
       <c r="E15" s="3">
-        <v>869300</v>
+        <v>927900</v>
       </c>
       <c r="F15" s="3">
-        <v>867000</v>
+        <v>879200</v>
       </c>
       <c r="G15" s="3">
-        <v>858300</v>
+        <v>876900</v>
       </c>
       <c r="H15" s="3">
-        <v>944500</v>
+        <v>876500</v>
       </c>
       <c r="I15" s="3">
-        <v>846500</v>
+        <v>955200</v>
       </c>
       <c r="J15" s="3">
+        <v>856100</v>
+      </c>
+      <c r="K15" s="3">
         <v>818700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>810900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>676100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>621700</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>644900</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>660200</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>696900</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>684300</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>674200</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>685500</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>695000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>659700</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,126 +1231,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>4145200</v>
+        <v>3904100</v>
       </c>
       <c r="E17" s="3">
-        <v>3845000</v>
+        <v>4192300</v>
       </c>
       <c r="F17" s="3">
-        <v>3745300</v>
+        <v>3888700</v>
       </c>
       <c r="G17" s="3">
-        <v>3650600</v>
+        <v>3787900</v>
       </c>
       <c r="H17" s="3">
-        <v>3794100</v>
+        <v>3692900</v>
       </c>
       <c r="I17" s="3">
-        <v>3748300</v>
+        <v>3837200</v>
       </c>
       <c r="J17" s="3">
+        <v>3790900</v>
+      </c>
+      <c r="K17" s="3">
         <v>3622600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3651300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3680200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3145000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3200300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3239800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3736700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3564600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3455400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3443500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3650900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>3442500</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>114600</v>
+        <v>350500</v>
       </c>
       <c r="E18" s="3">
-        <v>318100</v>
+        <v>115900</v>
       </c>
       <c r="F18" s="3">
-        <v>305200</v>
+        <v>321700</v>
       </c>
       <c r="G18" s="3">
-        <v>265800</v>
+        <v>308600</v>
       </c>
       <c r="H18" s="3">
-        <v>84600</v>
+        <v>268200</v>
       </c>
       <c r="I18" s="3">
-        <v>265600</v>
+        <v>85500</v>
       </c>
       <c r="J18" s="3">
+        <v>268600</v>
+      </c>
+      <c r="K18" s="3">
         <v>282000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>293500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-24700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>246000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>289300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>272600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>220900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>345000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>368800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>367500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>266100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>376900</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1346,303 +1379,319 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>371000</v>
+        <v>335100</v>
       </c>
       <c r="E20" s="3">
-        <v>222000</v>
+        <v>375200</v>
       </c>
       <c r="F20" s="3">
-        <v>260400</v>
+        <v>224500</v>
       </c>
       <c r="G20" s="3">
-        <v>146100</v>
+        <v>263400</v>
       </c>
       <c r="H20" s="3">
+        <v>149100</v>
+      </c>
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
-        <v>128700</v>
-      </c>
       <c r="J20" s="3">
+        <v>130200</v>
+      </c>
+      <c r="K20" s="3">
         <v>116400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>225300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>607100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>866100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>748000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>552300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>662700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>601900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>355900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>351300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>307600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>78400</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>1440100</v>
+        <v>1605500</v>
       </c>
       <c r="E21" s="3">
-        <v>1450700</v>
+        <v>1456400</v>
       </c>
       <c r="F21" s="3">
-        <v>1473000</v>
+        <v>1467100</v>
       </c>
       <c r="G21" s="3">
-        <v>1308900</v>
+        <v>1489800</v>
       </c>
       <c r="H21" s="3">
-        <v>990100</v>
+        <v>1324500</v>
       </c>
       <c r="I21" s="3">
-        <v>1277000</v>
+        <v>1001400</v>
       </c>
       <c r="J21" s="3">
+        <v>1291600</v>
+      </c>
+      <c r="K21" s="3">
         <v>1253400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1367100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1293500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1766000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1714900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1517100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1615900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1665600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1432300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1434000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1295900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1143300</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>101000</v>
+        <v>77000</v>
       </c>
       <c r="E22" s="3">
-        <v>80900</v>
+        <v>102200</v>
       </c>
       <c r="F22" s="3">
-        <v>83100</v>
+        <v>81800</v>
       </c>
       <c r="G22" s="3">
-        <v>86300</v>
+        <v>84000</v>
       </c>
       <c r="H22" s="3">
-        <v>92900</v>
+        <v>89500</v>
       </c>
       <c r="I22" s="3">
-        <v>86900</v>
+        <v>94000</v>
       </c>
       <c r="J22" s="3">
+        <v>87900</v>
+      </c>
+      <c r="K22" s="3">
         <v>87600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>93100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>75000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>57500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>60400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>63100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>68300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>63400</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>66100</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>67000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>66000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>67200</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>384500</v>
+        <v>608600</v>
       </c>
       <c r="E23" s="3">
-        <v>459200</v>
+        <v>388900</v>
       </c>
       <c r="F23" s="3">
-        <v>482500</v>
+        <v>464400</v>
       </c>
       <c r="G23" s="3">
-        <v>325600</v>
+        <v>488000</v>
       </c>
       <c r="H23" s="3">
-        <v>-8300</v>
+        <v>327800</v>
       </c>
       <c r="I23" s="3">
-        <v>307500</v>
+        <v>-8400</v>
       </c>
       <c r="J23" s="3">
+        <v>311000</v>
+      </c>
+      <c r="K23" s="3">
         <v>310800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>425700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>507400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1054600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>977000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>761900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>815400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>883600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>658600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>651800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>507700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>388100</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>62600</v>
+        <v>99600</v>
       </c>
       <c r="E24" s="3">
-        <v>111000</v>
+        <v>63300</v>
       </c>
       <c r="F24" s="3">
-        <v>102200</v>
+        <v>112300</v>
       </c>
       <c r="G24" s="3">
-        <v>55600</v>
+        <v>103300</v>
       </c>
       <c r="H24" s="3">
-        <v>32500</v>
+        <v>55500</v>
       </c>
       <c r="I24" s="3">
-        <v>66000</v>
+        <v>32900</v>
       </c>
       <c r="J24" s="3">
+        <v>66700</v>
+      </c>
+      <c r="K24" s="3">
         <v>82900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>85700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>108800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>204200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>208900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>179400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>234000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>185800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>112600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>126700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>80500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>98200</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1700,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>322000</v>
+        <v>509100</v>
       </c>
       <c r="E26" s="3">
-        <v>348200</v>
+        <v>325600</v>
       </c>
       <c r="F26" s="3">
-        <v>380300</v>
+        <v>352200</v>
       </c>
       <c r="G26" s="3">
-        <v>270000</v>
+        <v>384600</v>
       </c>
       <c r="H26" s="3">
-        <v>-40800</v>
+        <v>272300</v>
       </c>
       <c r="I26" s="3">
-        <v>241500</v>
+        <v>-41300</v>
       </c>
       <c r="J26" s="3">
+        <v>244200</v>
+      </c>
+      <c r="K26" s="3">
         <v>228000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>340000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>398600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>850400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>768000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>582400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>581400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>697800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>546000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>525100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>427200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>289900</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>331900</v>
+        <v>493600</v>
       </c>
       <c r="E27" s="3">
-        <v>337200</v>
+        <v>335600</v>
       </c>
       <c r="F27" s="3">
-        <v>372700</v>
+        <v>341100</v>
       </c>
       <c r="G27" s="3">
-        <v>269100</v>
+        <v>376900</v>
       </c>
       <c r="H27" s="3">
-        <v>-28100</v>
+        <v>271300</v>
       </c>
       <c r="I27" s="3">
-        <v>238200</v>
+        <v>-28400</v>
       </c>
       <c r="J27" s="3">
+        <v>240900</v>
+      </c>
+      <c r="K27" s="3">
         <v>228500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>341700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>404200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>832400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>762900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>583800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>511800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>700300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>542500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>530200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>432400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>292600</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1877,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1936,8 +1997,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2054,126 +2121,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-371000</v>
+        <v>-335100</v>
       </c>
       <c r="E32" s="3">
-        <v>-222000</v>
+        <v>-375200</v>
       </c>
       <c r="F32" s="3">
-        <v>-260400</v>
+        <v>-224500</v>
       </c>
       <c r="G32" s="3">
-        <v>-146100</v>
+        <v>-263400</v>
       </c>
       <c r="H32" s="3">
+        <v>-149100</v>
+      </c>
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
-        <v>-128700</v>
-      </c>
       <c r="J32" s="3">
+        <v>-130200</v>
+      </c>
+      <c r="K32" s="3">
         <v>-116400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-225300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-607100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-866100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-748000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-552300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-662700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-601900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-355900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-351300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-307600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-78400</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>331900</v>
+        <v>493600</v>
       </c>
       <c r="E33" s="3">
-        <v>337200</v>
+        <v>335600</v>
       </c>
       <c r="F33" s="3">
-        <v>372700</v>
+        <v>341100</v>
       </c>
       <c r="G33" s="3">
-        <v>269100</v>
+        <v>376900</v>
       </c>
       <c r="H33" s="3">
-        <v>-28100</v>
+        <v>271300</v>
       </c>
       <c r="I33" s="3">
-        <v>238200</v>
+        <v>-28400</v>
       </c>
       <c r="J33" s="3">
+        <v>240900</v>
+      </c>
+      <c r="K33" s="3">
         <v>228500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>341700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>404200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>832400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>762900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>583800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>511800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>700300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>542500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>530200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>432400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>292600</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2231,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>331900</v>
+        <v>493600</v>
       </c>
       <c r="E35" s="3">
-        <v>337200</v>
+        <v>335600</v>
       </c>
       <c r="F35" s="3">
-        <v>372700</v>
+        <v>341100</v>
       </c>
       <c r="G35" s="3">
-        <v>269100</v>
+        <v>376900</v>
       </c>
       <c r="H35" s="3">
-        <v>-28100</v>
+        <v>271300</v>
       </c>
       <c r="I35" s="3">
-        <v>238200</v>
+        <v>-28400</v>
       </c>
       <c r="J35" s="3">
+        <v>240900</v>
+      </c>
+      <c r="K35" s="3">
         <v>228500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>341700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>404200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>832400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>762900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>583800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>511800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>700300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>542500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>530200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>432400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>292600</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2400,539 +2486,567 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>1205300</v>
+        <v>1095900</v>
       </c>
       <c r="E41" s="3">
-        <v>1657700</v>
+        <v>1219000</v>
       </c>
       <c r="F41" s="3">
-        <v>1317300</v>
+        <v>1676600</v>
       </c>
       <c r="G41" s="3">
-        <v>983600</v>
+        <v>1332200</v>
       </c>
       <c r="H41" s="3">
-        <v>1118300</v>
+        <v>994800</v>
       </c>
       <c r="I41" s="3">
-        <v>1134900</v>
+        <v>1131000</v>
       </c>
       <c r="J41" s="3">
+        <v>1147800</v>
+      </c>
+      <c r="K41" s="3">
         <v>1277400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1871900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1265600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2238500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1508800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1584000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1282800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1273500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1089100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1418400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1354700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>773300</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>1301800</v>
+        <v>1297400</v>
       </c>
       <c r="E42" s="3">
-        <v>960500</v>
+        <v>1316600</v>
       </c>
       <c r="F42" s="3">
-        <v>863700</v>
+        <v>971400</v>
       </c>
       <c r="G42" s="3">
-        <v>946200</v>
+        <v>873500</v>
       </c>
       <c r="H42" s="3">
-        <v>794000</v>
+        <v>956900</v>
       </c>
       <c r="I42" s="3">
-        <v>856700</v>
+        <v>803000</v>
       </c>
       <c r="J42" s="3">
+        <v>866400</v>
+      </c>
+      <c r="K42" s="3">
         <v>728100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>733100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>975400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>318100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>452600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>540900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>590800</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>626300</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>647200</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>612800</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>437300</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>580900</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>2966700</v>
+        <v>3180400</v>
       </c>
       <c r="E43" s="3">
-        <v>3043400</v>
+        <v>3000400</v>
       </c>
       <c r="F43" s="3">
-        <v>2878300</v>
+        <v>3078000</v>
       </c>
       <c r="G43" s="3">
-        <v>3040200</v>
+        <v>2911000</v>
       </c>
       <c r="H43" s="3">
-        <v>2988200</v>
+        <v>3074700</v>
       </c>
       <c r="I43" s="3">
-        <v>3087000</v>
+        <v>3022100</v>
       </c>
       <c r="J43" s="3">
+        <v>3122000</v>
+      </c>
+      <c r="K43" s="3">
         <v>2860700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3116800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2605400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3040500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2736500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3179400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>3039200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2826800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2900700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2901300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>3081700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>3293200</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>150900</v>
+        <v>197200</v>
       </c>
       <c r="E44" s="3">
-        <v>190100</v>
+        <v>152600</v>
       </c>
       <c r="F44" s="3">
-        <v>179800</v>
+        <v>192300</v>
       </c>
       <c r="G44" s="3">
-        <v>183100</v>
+        <v>181900</v>
       </c>
       <c r="H44" s="3">
-        <v>143300</v>
+        <v>185200</v>
       </c>
       <c r="I44" s="3">
-        <v>176500</v>
+        <v>145000</v>
       </c>
       <c r="J44" s="3">
+        <v>178500</v>
+      </c>
+      <c r="K44" s="3">
         <v>197000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>239900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>242000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>208700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>217800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>213800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>239700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>219000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>231900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>223700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>233900</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>246600</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>2097400</v>
+        <v>2119200</v>
       </c>
       <c r="E45" s="3">
-        <v>2096500</v>
+        <v>2121300</v>
       </c>
       <c r="F45" s="3">
-        <v>2030900</v>
+        <v>2120300</v>
       </c>
       <c r="G45" s="3">
-        <v>1995100</v>
+        <v>2054000</v>
       </c>
       <c r="H45" s="3">
-        <v>2074000</v>
+        <v>2017700</v>
       </c>
       <c r="I45" s="3">
-        <v>1860700</v>
+        <v>2097600</v>
       </c>
       <c r="J45" s="3">
+        <v>1881800</v>
+      </c>
+      <c r="K45" s="3">
         <v>1612400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1635700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1597000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1505000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1648400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1597800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>305100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>341700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>228600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>212400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>289400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>305900</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>7722100</v>
+        <v>7890000</v>
       </c>
       <c r="E46" s="3">
-        <v>7948200</v>
+        <v>7809800</v>
       </c>
       <c r="F46" s="3">
-        <v>7270000</v>
+        <v>8038600</v>
       </c>
       <c r="G46" s="3">
-        <v>7148200</v>
+        <v>7352600</v>
       </c>
       <c r="H46" s="3">
-        <v>7117900</v>
+        <v>7229400</v>
       </c>
       <c r="I46" s="3">
-        <v>7115800</v>
+        <v>7198800</v>
       </c>
       <c r="J46" s="3">
+        <v>7196700</v>
+      </c>
+      <c r="K46" s="3">
         <v>6675700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>7597400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>6685400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>7310800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>6564000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>7115900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>5457600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>5287300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>5097500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>5368600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>5397000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>5199900</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>14475200</v>
+        <v>14991400</v>
       </c>
       <c r="E47" s="3">
-        <v>14075600</v>
+        <v>14639700</v>
       </c>
       <c r="F47" s="3">
-        <v>13572700</v>
+        <v>14235600</v>
       </c>
       <c r="G47" s="3">
-        <v>13066200</v>
+        <v>13726900</v>
       </c>
       <c r="H47" s="3">
-        <v>12944100</v>
+        <v>13214700</v>
       </c>
       <c r="I47" s="3">
-        <v>12848600</v>
+        <v>13091200</v>
       </c>
       <c r="J47" s="3">
+        <v>12994600</v>
+      </c>
+      <c r="K47" s="3">
         <v>12402900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>12830400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>11621100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>10715900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>10427800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>9560700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>9483000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>8899800</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>8030500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>7602200</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>7603200</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>7518000</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>11771800</v>
+        <v>11481400</v>
       </c>
       <c r="E48" s="3">
-        <v>10727400</v>
+        <v>11905600</v>
       </c>
       <c r="F48" s="3">
-        <v>11038900</v>
+        <v>10849300</v>
       </c>
       <c r="G48" s="3">
-        <v>10549200</v>
+        <v>11164400</v>
       </c>
       <c r="H48" s="3">
-        <v>11381400</v>
+        <v>10669100</v>
       </c>
       <c r="I48" s="3">
-        <v>10194900</v>
+        <v>11510800</v>
       </c>
       <c r="J48" s="3">
+        <v>10310700</v>
+      </c>
+      <c r="K48" s="3">
         <v>9942300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>10188200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>9003400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>7678300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>8009300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>8104800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>8927500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>8449400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>8424900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>8936000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>9336800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>8818900</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>6858500</v>
+        <v>6761600</v>
       </c>
       <c r="E49" s="3">
-        <v>6952200</v>
+        <v>6936400</v>
       </c>
       <c r="F49" s="3">
-        <v>7111600</v>
+        <v>7031200</v>
       </c>
       <c r="G49" s="3">
-        <v>6732000</v>
+        <v>7192400</v>
       </c>
       <c r="H49" s="3">
-        <v>6877700</v>
+        <v>6808500</v>
       </c>
       <c r="I49" s="3">
-        <v>6932800</v>
+        <v>6955900</v>
       </c>
       <c r="J49" s="3">
+        <v>7011600</v>
+      </c>
+      <c r="K49" s="3">
         <v>7117600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>7518000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>7099700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>4170600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>4448600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>4511000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>4841700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>4934900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>5000900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>5037500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>5137900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>4591200</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -3049,67 +3166,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>1330500</v>
+        <v>1383200</v>
       </c>
       <c r="E52" s="3">
-        <v>1356000</v>
+        <v>1345600</v>
       </c>
       <c r="F52" s="3">
-        <v>1449100</v>
+        <v>1371400</v>
       </c>
       <c r="G52" s="3">
-        <v>1507800</v>
+        <v>1465600</v>
       </c>
       <c r="H52" s="3">
-        <v>1456900</v>
+        <v>1525000</v>
       </c>
       <c r="I52" s="3">
-        <v>1613700</v>
+        <v>1473500</v>
       </c>
       <c r="J52" s="3">
+        <v>1632000</v>
+      </c>
+      <c r="K52" s="3">
         <v>1341300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1311200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1180300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1055500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1073200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1060500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>707400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>521500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>530700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>521800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>693000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>472200</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -3167,67 +3290,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>42158100</v>
+        <v>42507700</v>
       </c>
       <c r="E54" s="3">
-        <v>41059500</v>
+        <v>42637200</v>
       </c>
       <c r="F54" s="3">
-        <v>40442300</v>
+        <v>41526100</v>
       </c>
       <c r="G54" s="3">
-        <v>39003500</v>
+        <v>40901900</v>
       </c>
       <c r="H54" s="3">
-        <v>39778100</v>
+        <v>39446700</v>
       </c>
       <c r="I54" s="3">
-        <v>38705700</v>
+        <v>40230100</v>
       </c>
       <c r="J54" s="3">
+        <v>39145600</v>
+      </c>
+      <c r="K54" s="3">
         <v>37479700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>39445300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>35590100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>30931100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>30522900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>30352900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>29417200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>28093000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>27084400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>27466000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>28167900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>26600100</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -3272,362 +3402,381 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>328200</v>
+        <v>299500</v>
       </c>
       <c r="E57" s="3">
-        <v>326500</v>
+        <v>331900</v>
       </c>
       <c r="F57" s="3">
-        <v>326400</v>
+        <v>330200</v>
       </c>
       <c r="G57" s="3">
-        <v>342900</v>
+        <v>330100</v>
       </c>
       <c r="H57" s="3">
-        <v>385700</v>
+        <v>346800</v>
       </c>
       <c r="I57" s="3">
-        <v>400700</v>
+        <v>390100</v>
       </c>
       <c r="J57" s="3">
+        <v>405200</v>
+      </c>
+      <c r="K57" s="3">
         <v>332700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>283700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>320300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>217500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>221100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>204600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>309500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>226300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>219400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>237100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>362200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>276000</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>1240100</v>
+        <v>1486600</v>
       </c>
       <c r="E58" s="3">
-        <v>1176100</v>
+        <v>1254200</v>
       </c>
       <c r="F58" s="3">
-        <v>1046900</v>
+        <v>1189400</v>
       </c>
       <c r="G58" s="3">
-        <v>1292800</v>
+        <v>1058800</v>
       </c>
       <c r="H58" s="3">
-        <v>1240500</v>
+        <v>1307500</v>
       </c>
       <c r="I58" s="3">
-        <v>1210000</v>
+        <v>1254600</v>
       </c>
       <c r="J58" s="3">
+        <v>1223800</v>
+      </c>
+      <c r="K58" s="3">
         <v>1310400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1605600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>894000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1002000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>856100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1192300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1461600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1452600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1315500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>944800</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>802000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>615100</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>5628400</v>
+        <v>5422500</v>
       </c>
       <c r="E59" s="3">
-        <v>5251000</v>
+        <v>5692300</v>
       </c>
       <c r="F59" s="3">
-        <v>5169800</v>
+        <v>5310700</v>
       </c>
       <c r="G59" s="3">
-        <v>5042400</v>
+        <v>5228600</v>
       </c>
       <c r="H59" s="3">
-        <v>5283300</v>
+        <v>5099700</v>
       </c>
       <c r="I59" s="3">
-        <v>4872400</v>
+        <v>5343300</v>
       </c>
       <c r="J59" s="3">
+        <v>4927800</v>
+      </c>
+      <c r="K59" s="3">
         <v>4464800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>5319400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4537700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3551200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3760600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>4385500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>4484900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3942300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3822900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>4448200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>4635500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>3962700</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>7196600</v>
+        <v>7208600</v>
       </c>
       <c r="E60" s="3">
-        <v>6753600</v>
+        <v>7278400</v>
       </c>
       <c r="F60" s="3">
-        <v>6543200</v>
+        <v>6830400</v>
       </c>
       <c r="G60" s="3">
-        <v>6678100</v>
+        <v>6617500</v>
       </c>
       <c r="H60" s="3">
-        <v>6909500</v>
+        <v>6753900</v>
       </c>
       <c r="I60" s="3">
-        <v>6483100</v>
+        <v>6988000</v>
       </c>
       <c r="J60" s="3">
+        <v>6556800</v>
+      </c>
+      <c r="K60" s="3">
         <v>6107900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>7208600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>5751900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4770700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>4837800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>5782300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>6256000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>5621200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>5357800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>5630000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>5799700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>4853900</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>9456700</v>
+        <v>9472700</v>
       </c>
       <c r="E61" s="3">
-        <v>9052400</v>
+        <v>9564200</v>
       </c>
       <c r="F61" s="3">
-        <v>9041400</v>
+        <v>9155300</v>
       </c>
       <c r="G61" s="3">
-        <v>8958400</v>
+        <v>9144200</v>
       </c>
       <c r="H61" s="3">
-        <v>8927900</v>
+        <v>9060200</v>
       </c>
       <c r="I61" s="3">
-        <v>8426900</v>
+        <v>9029300</v>
       </c>
       <c r="J61" s="3">
+        <v>8522600</v>
+      </c>
+      <c r="K61" s="3">
         <v>7920200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>8288300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>7213600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>5575400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>5547400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>5319600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>5111100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>5104400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>5178200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>5654600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>5830800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>5840500</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>4036100</v>
+        <v>3959900</v>
       </c>
       <c r="E62" s="3">
-        <v>3849100</v>
+        <v>4082000</v>
       </c>
       <c r="F62" s="3">
-        <v>3723000</v>
+        <v>3892900</v>
       </c>
       <c r="G62" s="3">
-        <v>3523500</v>
+        <v>3765300</v>
       </c>
       <c r="H62" s="3">
-        <v>3861800</v>
+        <v>3563500</v>
       </c>
       <c r="I62" s="3">
-        <v>3857900</v>
+        <v>3905700</v>
       </c>
       <c r="J62" s="3">
+        <v>3901800</v>
+      </c>
+      <c r="K62" s="3">
         <v>3713300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3819900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3851200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2626500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2574400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2461100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2184400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1988400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1874200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1860200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>2032600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1915900</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -3803,67 +3958,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>21263500</v>
+        <v>21239200</v>
       </c>
       <c r="E66" s="3">
-        <v>20120900</v>
+        <v>21505100</v>
       </c>
       <c r="F66" s="3">
-        <v>19765200</v>
+        <v>20349600</v>
       </c>
       <c r="G66" s="3">
-        <v>19033400</v>
+        <v>19989800</v>
       </c>
       <c r="H66" s="3">
-        <v>19581900</v>
+        <v>19249700</v>
       </c>
       <c r="I66" s="3">
-        <v>18686900</v>
+        <v>19804400</v>
       </c>
       <c r="J66" s="3">
+        <v>18899300</v>
+      </c>
+      <c r="K66" s="3">
         <v>17654900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>19205500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>16714600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>13198100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>13130700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>13728400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>13716100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>12834200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>12499800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>13239200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>13793600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>12760400</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -4062,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -4121,67 +4292,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>20224100</v>
+        <v>20359500</v>
       </c>
       <c r="E72" s="3">
-        <v>19884200</v>
+        <v>20453900</v>
       </c>
       <c r="F72" s="3">
-        <v>19610500</v>
+        <v>20110200</v>
       </c>
       <c r="G72" s="3">
-        <v>19236600</v>
+        <v>19833300</v>
       </c>
       <c r="H72" s="3">
-        <v>19561200</v>
+        <v>19455200</v>
       </c>
       <c r="I72" s="3">
-        <v>19648400</v>
+        <v>19783500</v>
       </c>
       <c r="J72" s="3">
+        <v>19871700</v>
+      </c>
+      <c r="K72" s="3">
         <v>19470600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>19870500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>18601400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>17574500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>17434000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>16667600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>15695600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>15173300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>14531800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>14306000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>14357800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>13922500</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -4357,67 +4540,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>20894600</v>
+        <v>21268500</v>
       </c>
       <c r="E76" s="3">
-        <v>20938500</v>
+        <v>21132100</v>
       </c>
       <c r="F76" s="3">
-        <v>20677100</v>
+        <v>21176500</v>
       </c>
       <c r="G76" s="3">
-        <v>19970000</v>
+        <v>20912000</v>
       </c>
       <c r="H76" s="3">
-        <v>20196200</v>
+        <v>20197000</v>
       </c>
       <c r="I76" s="3">
-        <v>20018800</v>
+        <v>20425700</v>
       </c>
       <c r="J76" s="3">
+        <v>20246300</v>
+      </c>
+      <c r="K76" s="3">
         <v>19824800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>20239800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>18875500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>17732900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>17392200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>16624500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>15701100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>15258700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>14584600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>14226800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>14374300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>13839700</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -4475,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>331900</v>
+        <v>493600</v>
       </c>
       <c r="E81" s="3">
-        <v>337200</v>
+        <v>335600</v>
       </c>
       <c r="F81" s="3">
-        <v>372700</v>
+        <v>341100</v>
       </c>
       <c r="G81" s="3">
-        <v>269100</v>
+        <v>376900</v>
       </c>
       <c r="H81" s="3">
-        <v>-28100</v>
+        <v>271300</v>
       </c>
       <c r="I81" s="3">
-        <v>238200</v>
+        <v>-28400</v>
       </c>
       <c r="J81" s="3">
+        <v>240900</v>
+      </c>
+      <c r="K81" s="3">
         <v>228500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>341700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>404200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>832400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>762900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>583800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>511800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>700300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>542500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>530200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>432400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>292600</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -4621,67 +4819,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>954500</v>
+        <v>919900</v>
       </c>
       <c r="E83" s="3">
-        <v>910600</v>
+        <v>965400</v>
       </c>
       <c r="F83" s="3">
-        <v>907500</v>
+        <v>920900</v>
       </c>
       <c r="G83" s="3">
-        <v>897000</v>
+        <v>917800</v>
       </c>
       <c r="H83" s="3">
-        <v>905500</v>
+        <v>907200</v>
       </c>
       <c r="I83" s="3">
-        <v>882700</v>
+        <v>915800</v>
       </c>
       <c r="J83" s="3">
+        <v>892700</v>
+      </c>
+      <c r="K83" s="3">
         <v>855000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>848400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>711200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>653900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>677500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>692100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>732200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>718700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>707600</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>715200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>722200</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>688100</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -4975,67 +5189,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>1140700</v>
+        <v>793100</v>
       </c>
       <c r="E89" s="3">
-        <v>1444000</v>
+        <v>1153600</v>
       </c>
       <c r="F89" s="3">
-        <v>1682800</v>
+        <v>1460400</v>
       </c>
       <c r="G89" s="3">
-        <v>855700</v>
+        <v>1701900</v>
       </c>
       <c r="H89" s="3">
-        <v>1010100</v>
+        <v>865500</v>
       </c>
       <c r="I89" s="3">
-        <v>737800</v>
+        <v>1021600</v>
       </c>
       <c r="J89" s="3">
+        <v>746100</v>
+      </c>
+      <c r="K89" s="3">
         <v>907500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>881500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1389100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>382000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1024900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>829300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>828600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>969400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>776500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>837300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1379600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>799200</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -5057,67 +5277,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-790000</v>
+        <v>-672100</v>
       </c>
       <c r="E91" s="3">
-        <v>-848500</v>
+        <v>-799000</v>
       </c>
       <c r="F91" s="3">
-        <v>-572300</v>
+        <v>-858100</v>
       </c>
       <c r="G91" s="3">
-        <v>-920000</v>
+        <v>-578800</v>
       </c>
       <c r="H91" s="3">
-        <v>-1003300</v>
+        <v>-930500</v>
       </c>
       <c r="I91" s="3">
-        <v>-787400</v>
+        <v>-1014700</v>
       </c>
       <c r="J91" s="3">
+        <v>-796300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-571500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-629400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-789700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-622200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-383600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-527100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-730500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-688700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-391900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-608900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-1158400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-855700</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -5234,67 +5461,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-1058600</v>
+        <v>-466100</v>
       </c>
       <c r="E94" s="3">
-        <v>-1036700</v>
+        <v>-1070600</v>
       </c>
       <c r="F94" s="3">
-        <v>-560100</v>
+        <v>-1048500</v>
       </c>
       <c r="G94" s="3">
-        <v>-1085000</v>
+        <v>-566400</v>
       </c>
       <c r="H94" s="3">
-        <v>-1356100</v>
+        <v>-1097300</v>
       </c>
       <c r="I94" s="3">
-        <v>-1005000</v>
+        <v>-1371500</v>
       </c>
       <c r="J94" s="3">
+        <v>-1016400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-404700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-400100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2284100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-292400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-356000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-456800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-845900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-805200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-473600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-590600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-755400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-667600</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -5316,19 +5549,20 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-9500</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-64400</v>
+        <v>-9600</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-65100</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
@@ -5337,10 +5571,10 @@
         <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>-63200</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-64000</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
@@ -5349,11 +5583,11 @@
         <v>0</v>
       </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-57200</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
         <v>0</v>
       </c>
@@ -5361,11 +5595,11 @@
         <v>0</v>
       </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-62100</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
         <v>0</v>
       </c>
@@ -5373,10 +5607,13 @@
         <v>0</v>
       </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-63500</v>
       </c>
     </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -5552,181 +5795,193 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>-516500</v>
+        <v>-454400</v>
       </c>
       <c r="E100" s="3">
-        <v>-64600</v>
+        <v>-522400</v>
       </c>
       <c r="F100" s="3">
-        <v>-788500</v>
+        <v>-65400</v>
       </c>
       <c r="G100" s="3">
-        <v>87000</v>
+        <v>-797500</v>
       </c>
       <c r="H100" s="3">
-        <v>335900</v>
+        <v>88000</v>
       </c>
       <c r="I100" s="3">
-        <v>118700</v>
+        <v>339800</v>
       </c>
       <c r="J100" s="3">
+        <v>120000</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1033500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>19100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-163300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>696800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-746200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-13300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>30200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>19200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-603000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-177800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-48400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-343800</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>-18000</v>
+        <v>4400</v>
       </c>
       <c r="E101" s="3">
-        <v>-2200</v>
+        <v>-18200</v>
       </c>
       <c r="F101" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="G101" s="3">
         <v>-600</v>
       </c>
-      <c r="G101" s="3">
-        <v>7500</v>
-      </c>
       <c r="H101" s="3">
-        <v>-6600</v>
+        <v>7600</v>
       </c>
       <c r="I101" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="J101" s="3">
         <v>6100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-2100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>2500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-2800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>2100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-3600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>1100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>2300</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-5200</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>5600</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>-452400</v>
+        <v>-123100</v>
       </c>
       <c r="E102" s="3">
-        <v>340500</v>
+        <v>-457600</v>
       </c>
       <c r="F102" s="3">
-        <v>333600</v>
+        <v>344300</v>
       </c>
       <c r="G102" s="3">
-        <v>-134700</v>
+        <v>337400</v>
       </c>
       <c r="H102" s="3">
-        <v>-16600</v>
+        <v>-136200</v>
       </c>
       <c r="I102" s="3">
-        <v>-142500</v>
+        <v>-16800</v>
       </c>
       <c r="J102" s="3">
+        <v>-144100</v>
+      </c>
+      <c r="K102" s="3">
         <v>-532800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>500800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1055800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>783600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-75200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>359500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>9300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>184400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-297700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>63700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>581400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-216300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SKM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SKM_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,282 +665,295 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4254600</v>
+        <v>4095500</v>
       </c>
       <c r="E8" s="3">
-        <v>4308100</v>
+        <v>4063400</v>
       </c>
       <c r="F8" s="3">
-        <v>4210400</v>
+        <v>4114500</v>
       </c>
       <c r="G8" s="3">
-        <v>4096500</v>
+        <v>4021200</v>
       </c>
       <c r="H8" s="3">
-        <v>3961000</v>
+        <v>3912800</v>
       </c>
       <c r="I8" s="3">
-        <v>3922700</v>
+        <v>3783000</v>
       </c>
       <c r="J8" s="3">
+        <v>3746400</v>
+      </c>
+      <c r="K8" s="3">
         <v>4059500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3904600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3944800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3655400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3391000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3489600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3512500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3957600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3909600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3824100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3810900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>3917000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>3819400</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>172600</v>
+        <v>155700</v>
       </c>
       <c r="E9" s="3">
-        <v>148600</v>
+        <v>164800</v>
       </c>
       <c r="F9" s="3">
-        <v>179200</v>
+        <v>142000</v>
       </c>
       <c r="G9" s="3">
-        <v>184500</v>
+        <v>171200</v>
       </c>
       <c r="H9" s="3">
-        <v>173500</v>
+        <v>176200</v>
       </c>
       <c r="I9" s="3">
-        <v>170300</v>
+        <v>165700</v>
       </c>
       <c r="J9" s="3">
+        <v>162600</v>
+      </c>
+      <c r="K9" s="3">
         <v>163700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>165200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>172300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>136400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>171900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>183800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>180600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>190800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>197200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>187500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>199000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>153400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>238000</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4082000</v>
+        <v>3939800</v>
       </c>
       <c r="E10" s="3">
-        <v>4159500</v>
+        <v>3898500</v>
       </c>
       <c r="F10" s="3">
-        <v>4031200</v>
+        <v>3972500</v>
       </c>
       <c r="G10" s="3">
-        <v>3912000</v>
+        <v>3850000</v>
       </c>
       <c r="H10" s="3">
-        <v>3787500</v>
+        <v>3736600</v>
       </c>
       <c r="I10" s="3">
-        <v>3752500</v>
+        <v>3617300</v>
       </c>
       <c r="J10" s="3">
+        <v>3583800</v>
+      </c>
+      <c r="K10" s="3">
         <v>3895800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3739400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3772400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>3519000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>3219100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>3305800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>3331900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>3766900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>3712400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>3636700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>3612000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>3763600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>3581400</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,70 +976,74 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>89600</v>
+        <v>86000</v>
       </c>
       <c r="E12" s="3">
-        <v>85800</v>
+        <v>85600</v>
       </c>
       <c r="F12" s="3">
-        <v>93300</v>
+        <v>81900</v>
       </c>
       <c r="G12" s="3">
-        <v>93400</v>
+        <v>89100</v>
       </c>
       <c r="H12" s="3">
-        <v>98200</v>
+        <v>89200</v>
       </c>
       <c r="I12" s="3">
-        <v>90500</v>
+        <v>93800</v>
       </c>
       <c r="J12" s="3">
+        <v>86500</v>
+      </c>
+      <c r="K12" s="3">
         <v>83300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>84700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>90800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>88900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>76200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>82500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>75100</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>90300</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>90800</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>83500</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>85200</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>82100</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>76900</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1087,132 +1104,141 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-4500</v>
+        <v>4500</v>
       </c>
       <c r="E14" s="3">
-        <v>174500</v>
+        <v>-4300</v>
       </c>
       <c r="F14" s="3">
-        <v>0</v>
+        <v>166700</v>
       </c>
       <c r="G14" s="3">
-        <v>11300</v>
-      </c>
-      <c r="H14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>10800</v>
+      </c>
+      <c r="I14" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="I14" s="3">
-        <v>57500</v>
-      </c>
       <c r="J14" s="3">
+        <v>54900</v>
+      </c>
+      <c r="K14" s="3">
         <v>200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>2100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>214000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>400</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>2100</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>800</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>52300</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>300</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>3700</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>2000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>5700</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>886900</v>
+        <v>848100</v>
       </c>
       <c r="E15" s="3">
-        <v>927900</v>
+        <v>847000</v>
       </c>
       <c r="F15" s="3">
-        <v>879200</v>
+        <v>886200</v>
       </c>
       <c r="G15" s="3">
-        <v>876900</v>
+        <v>839600</v>
       </c>
       <c r="H15" s="3">
-        <v>876500</v>
+        <v>847400</v>
       </c>
       <c r="I15" s="3">
-        <v>955200</v>
+        <v>837100</v>
       </c>
       <c r="J15" s="3">
+        <v>912300</v>
+      </c>
+      <c r="K15" s="3">
         <v>856100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>818700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>810900</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>676100</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>621700</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>644900</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>660200</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>696900</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>684300</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>674200</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>685500</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>695000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>659700</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1258,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>3904100</v>
+        <v>3762900</v>
       </c>
       <c r="E17" s="3">
-        <v>4192300</v>
+        <v>3728700</v>
       </c>
       <c r="F17" s="3">
-        <v>3888700</v>
+        <v>4003900</v>
       </c>
       <c r="G17" s="3">
-        <v>3787900</v>
+        <v>3713900</v>
       </c>
       <c r="H17" s="3">
-        <v>3692900</v>
+        <v>3619500</v>
       </c>
       <c r="I17" s="3">
-        <v>3837200</v>
+        <v>3526900</v>
       </c>
       <c r="J17" s="3">
+        <v>3664800</v>
+      </c>
+      <c r="K17" s="3">
         <v>3790900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3622600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3651300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3680200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3145000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3200300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3239800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3736700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3564600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3455400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3443500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>3650900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>3442500</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>350500</v>
+        <v>332600</v>
       </c>
       <c r="E18" s="3">
-        <v>115900</v>
+        <v>334700</v>
       </c>
       <c r="F18" s="3">
-        <v>321700</v>
+        <v>110700</v>
       </c>
       <c r="G18" s="3">
-        <v>308600</v>
+        <v>307300</v>
       </c>
       <c r="H18" s="3">
-        <v>268200</v>
+        <v>293300</v>
       </c>
       <c r="I18" s="3">
-        <v>85500</v>
+        <v>256100</v>
       </c>
       <c r="J18" s="3">
+        <v>81700</v>
+      </c>
+      <c r="K18" s="3">
         <v>268600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>282000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>293500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-24700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>246000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>289300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>272600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>220900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>345000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>368800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>367500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>266100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>376900</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1380,318 +1413,334 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>335100</v>
+        <v>600300</v>
       </c>
       <c r="E20" s="3">
-        <v>375200</v>
+        <v>320100</v>
       </c>
       <c r="F20" s="3">
-        <v>224500</v>
+        <v>358300</v>
       </c>
       <c r="G20" s="3">
-        <v>263400</v>
+        <v>214400</v>
       </c>
       <c r="H20" s="3">
-        <v>149100</v>
+        <v>336000</v>
       </c>
       <c r="I20" s="3">
+        <v>142400</v>
+      </c>
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>130200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>116400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>225300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>607100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>866100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>748000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>552300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>662700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>601900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>355900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>351300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>307600</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>78400</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>1605500</v>
+        <v>1813600</v>
       </c>
       <c r="E21" s="3">
-        <v>1456400</v>
+        <v>1533300</v>
       </c>
       <c r="F21" s="3">
-        <v>1467100</v>
+        <v>1391000</v>
       </c>
       <c r="G21" s="3">
-        <v>1489800</v>
+        <v>1401200</v>
       </c>
       <c r="H21" s="3">
-        <v>1324500</v>
+        <v>1505900</v>
       </c>
       <c r="I21" s="3">
-        <v>1001400</v>
+        <v>1264900</v>
       </c>
       <c r="J21" s="3">
+        <v>956400</v>
+      </c>
+      <c r="K21" s="3">
         <v>1291600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1253400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1367100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1293500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1766000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1714900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1517100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1615900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1665600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1432300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1434000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1295900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1143300</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>77000</v>
+        <v>74200</v>
       </c>
       <c r="E22" s="3">
-        <v>102200</v>
+        <v>73500</v>
       </c>
       <c r="F22" s="3">
-        <v>81800</v>
+        <v>97600</v>
       </c>
       <c r="G22" s="3">
-        <v>84000</v>
+        <v>78100</v>
       </c>
       <c r="H22" s="3">
-        <v>89500</v>
+        <v>162700</v>
       </c>
       <c r="I22" s="3">
-        <v>94000</v>
+        <v>85400</v>
       </c>
       <c r="J22" s="3">
+        <v>89700</v>
+      </c>
+      <c r="K22" s="3">
         <v>87900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>87600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>93100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>75000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>57500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>60400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>63100</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>68300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>63400</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>66100</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>67000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>66000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>67200</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>608600</v>
+        <v>858700</v>
       </c>
       <c r="E23" s="3">
-        <v>388900</v>
+        <v>581300</v>
       </c>
       <c r="F23" s="3">
-        <v>464400</v>
+        <v>371400</v>
       </c>
       <c r="G23" s="3">
-        <v>488000</v>
+        <v>443500</v>
       </c>
       <c r="H23" s="3">
-        <v>327800</v>
+        <v>466600</v>
       </c>
       <c r="I23" s="3">
-        <v>-8400</v>
+        <v>313100</v>
       </c>
       <c r="J23" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="K23" s="3">
         <v>311000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>310800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>425700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>507400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1054600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>977000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>761900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>815400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>883600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>658600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>651800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>507700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>388100</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>99600</v>
+        <v>182300</v>
       </c>
       <c r="E24" s="3">
-        <v>63300</v>
+        <v>95100</v>
       </c>
       <c r="F24" s="3">
-        <v>112300</v>
+        <v>60400</v>
       </c>
       <c r="G24" s="3">
-        <v>103300</v>
+        <v>107200</v>
       </c>
       <c r="H24" s="3">
-        <v>55500</v>
+        <v>99100</v>
       </c>
       <c r="I24" s="3">
-        <v>32900</v>
+        <v>53000</v>
       </c>
       <c r="J24" s="3">
+        <v>31400</v>
+      </c>
+      <c r="K24" s="3">
         <v>66700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>82900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>85700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>108800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>204200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>208900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>179400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>234000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>185800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>112600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>126700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>80500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>98200</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1752,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>509100</v>
+        <v>676300</v>
       </c>
       <c r="E26" s="3">
-        <v>325600</v>
+        <v>486200</v>
       </c>
       <c r="F26" s="3">
-        <v>352200</v>
+        <v>311000</v>
       </c>
       <c r="G26" s="3">
-        <v>384600</v>
+        <v>336300</v>
       </c>
       <c r="H26" s="3">
-        <v>272300</v>
+        <v>367500</v>
       </c>
       <c r="I26" s="3">
-        <v>-41300</v>
+        <v>260100</v>
       </c>
       <c r="J26" s="3">
+        <v>-39400</v>
+      </c>
+      <c r="K26" s="3">
         <v>244200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>228000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>340000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>398600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>850400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>768000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>582400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>581400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>697800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>546000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>525100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>427200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>289900</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>493600</v>
+        <v>647800</v>
       </c>
       <c r="E27" s="3">
-        <v>335600</v>
+        <v>471400</v>
       </c>
       <c r="F27" s="3">
-        <v>341100</v>
+        <v>320500</v>
       </c>
       <c r="G27" s="3">
-        <v>376900</v>
+        <v>325700</v>
       </c>
       <c r="H27" s="3">
-        <v>271300</v>
+        <v>360100</v>
       </c>
       <c r="I27" s="3">
-        <v>-28400</v>
+        <v>259100</v>
       </c>
       <c r="J27" s="3">
+        <v>-27200</v>
+      </c>
+      <c r="K27" s="3">
         <v>240900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>228500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>341700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>404200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>832400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>762900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>583800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>511800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>700300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>542500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>530200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>432400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>292600</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2124,132 +2191,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-335100</v>
+        <v>-600300</v>
       </c>
       <c r="E32" s="3">
-        <v>-375200</v>
+        <v>-320100</v>
       </c>
       <c r="F32" s="3">
-        <v>-224500</v>
+        <v>-358300</v>
       </c>
       <c r="G32" s="3">
-        <v>-263400</v>
+        <v>-214400</v>
       </c>
       <c r="H32" s="3">
-        <v>-149100</v>
+        <v>-336000</v>
       </c>
       <c r="I32" s="3">
+        <v>-142400</v>
+      </c>
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-130200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-116400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-225300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-607100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-866100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-748000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-552300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-662700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-601900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-355900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-351300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-307600</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-78400</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>493600</v>
+        <v>647800</v>
       </c>
       <c r="E33" s="3">
-        <v>335600</v>
+        <v>471400</v>
       </c>
       <c r="F33" s="3">
-        <v>341100</v>
+        <v>320500</v>
       </c>
       <c r="G33" s="3">
-        <v>376900</v>
+        <v>325700</v>
       </c>
       <c r="H33" s="3">
-        <v>271300</v>
+        <v>360100</v>
       </c>
       <c r="I33" s="3">
-        <v>-28400</v>
+        <v>259100</v>
       </c>
       <c r="J33" s="3">
+        <v>-27200</v>
+      </c>
+      <c r="K33" s="3">
         <v>240900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>228500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>341700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>404200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>832400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>762900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>583800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>511800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>700300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>542500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>530200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>432400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>292600</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2310,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>493600</v>
+        <v>647800</v>
       </c>
       <c r="E35" s="3">
-        <v>335600</v>
+        <v>471400</v>
       </c>
       <c r="F35" s="3">
-        <v>341100</v>
+        <v>320500</v>
       </c>
       <c r="G35" s="3">
-        <v>376900</v>
+        <v>325700</v>
       </c>
       <c r="H35" s="3">
-        <v>271300</v>
+        <v>360100</v>
       </c>
       <c r="I35" s="3">
-        <v>-28400</v>
+        <v>259100</v>
       </c>
       <c r="J35" s="3">
+        <v>-27200</v>
+      </c>
+      <c r="K35" s="3">
         <v>240900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>228500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>341700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>404200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>832400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>762900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>583800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>511800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>700300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>542500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>530200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>432400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>292600</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2487,566 +2573,594 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>1095900</v>
+        <v>1308400</v>
       </c>
       <c r="E41" s="3">
-        <v>1219000</v>
+        <v>1046600</v>
       </c>
       <c r="F41" s="3">
-        <v>1676600</v>
+        <v>1164200</v>
       </c>
       <c r="G41" s="3">
-        <v>1332200</v>
+        <v>1601200</v>
       </c>
       <c r="H41" s="3">
-        <v>994800</v>
+        <v>1272400</v>
       </c>
       <c r="I41" s="3">
-        <v>1131000</v>
+        <v>950100</v>
       </c>
       <c r="J41" s="3">
+        <v>1080200</v>
+      </c>
+      <c r="K41" s="3">
         <v>1147800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1277400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1871900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1265600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2238500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1508800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1584000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1282800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1273500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1089100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1418400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1354700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>773300</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>1297400</v>
+        <v>1344600</v>
       </c>
       <c r="E42" s="3">
-        <v>1316600</v>
+        <v>1239100</v>
       </c>
       <c r="F42" s="3">
-        <v>971400</v>
+        <v>1257400</v>
       </c>
       <c r="G42" s="3">
-        <v>873500</v>
+        <v>927700</v>
       </c>
       <c r="H42" s="3">
-        <v>956900</v>
+        <v>834200</v>
       </c>
       <c r="I42" s="3">
-        <v>803000</v>
+        <v>913900</v>
       </c>
       <c r="J42" s="3">
+        <v>766900</v>
+      </c>
+      <c r="K42" s="3">
         <v>866400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>728100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>733100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>975400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>318100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>452600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>540900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>590800</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>626300</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>647200</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>612800</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>437300</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>580900</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>3180400</v>
+        <v>2929000</v>
       </c>
       <c r="E43" s="3">
-        <v>3000400</v>
+        <v>3037500</v>
       </c>
       <c r="F43" s="3">
-        <v>3078000</v>
+        <v>2865600</v>
       </c>
       <c r="G43" s="3">
-        <v>2911000</v>
+        <v>2939600</v>
       </c>
       <c r="H43" s="3">
-        <v>3074700</v>
+        <v>2780200</v>
       </c>
       <c r="I43" s="3">
-        <v>3022100</v>
+        <v>2936500</v>
       </c>
       <c r="J43" s="3">
+        <v>2886300</v>
+      </c>
+      <c r="K43" s="3">
         <v>3122000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2860700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3116800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2605400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3040500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2736500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>3179400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>3039200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2826800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2900700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>2901300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>3081700</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>3293200</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>197200</v>
+        <v>180000</v>
       </c>
       <c r="E44" s="3">
-        <v>152600</v>
+        <v>188300</v>
       </c>
       <c r="F44" s="3">
-        <v>192300</v>
+        <v>145700</v>
       </c>
       <c r="G44" s="3">
-        <v>181900</v>
+        <v>183600</v>
       </c>
       <c r="H44" s="3">
-        <v>185200</v>
+        <v>173700</v>
       </c>
       <c r="I44" s="3">
-        <v>145000</v>
+        <v>176800</v>
       </c>
       <c r="J44" s="3">
+        <v>138400</v>
+      </c>
+      <c r="K44" s="3">
         <v>178500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>197000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>239900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>242000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>208700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>217800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>213800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>239700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>219000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>231900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>223700</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>233900</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>246600</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>2119200</v>
+        <v>2007700</v>
       </c>
       <c r="E45" s="3">
-        <v>2121300</v>
+        <v>2023900</v>
       </c>
       <c r="F45" s="3">
-        <v>2120300</v>
+        <v>2025900</v>
       </c>
       <c r="G45" s="3">
-        <v>2054000</v>
+        <v>2025000</v>
       </c>
       <c r="H45" s="3">
-        <v>2017700</v>
+        <v>1961700</v>
       </c>
       <c r="I45" s="3">
-        <v>2097600</v>
+        <v>1927100</v>
       </c>
       <c r="J45" s="3">
+        <v>2003300</v>
+      </c>
+      <c r="K45" s="3">
         <v>1881800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1612400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1635700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1597000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1505000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1648400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1597800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>305100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>341700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>228600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>212400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>289400</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>305900</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>7890000</v>
+        <v>7769800</v>
       </c>
       <c r="E46" s="3">
-        <v>7809800</v>
+        <v>7535400</v>
       </c>
       <c r="F46" s="3">
-        <v>8038600</v>
+        <v>7458800</v>
       </c>
       <c r="G46" s="3">
-        <v>7352600</v>
+        <v>7677300</v>
       </c>
       <c r="H46" s="3">
-        <v>7229400</v>
+        <v>7022100</v>
       </c>
       <c r="I46" s="3">
-        <v>7198800</v>
+        <v>6904500</v>
       </c>
       <c r="J46" s="3">
+        <v>6875200</v>
+      </c>
+      <c r="K46" s="3">
         <v>7196700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>6675700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>7597400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>6685400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>7310800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>6564000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>7115900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>5457600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>5287300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>5097500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>5368600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>5397000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>5199900</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>14991400</v>
+        <v>15830700</v>
       </c>
       <c r="E47" s="3">
-        <v>14639700</v>
+        <v>14317700</v>
       </c>
       <c r="F47" s="3">
-        <v>14235600</v>
+        <v>13981800</v>
       </c>
       <c r="G47" s="3">
-        <v>13726900</v>
+        <v>13595800</v>
       </c>
       <c r="H47" s="3">
-        <v>13214700</v>
+        <v>13110000</v>
       </c>
       <c r="I47" s="3">
-        <v>13091200</v>
+        <v>12620800</v>
       </c>
       <c r="J47" s="3">
+        <v>12502800</v>
+      </c>
+      <c r="K47" s="3">
         <v>12994600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>12402900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>12830400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>11621100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>10715900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>10427800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>9560700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>9483000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>8899800</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>8030500</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>7602200</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>7603200</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>7518000</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>11481400</v>
+        <v>11257200</v>
       </c>
       <c r="E48" s="3">
-        <v>11905600</v>
+        <v>10965400</v>
       </c>
       <c r="F48" s="3">
-        <v>10849300</v>
+        <v>11370500</v>
       </c>
       <c r="G48" s="3">
-        <v>11164400</v>
+        <v>10361700</v>
       </c>
       <c r="H48" s="3">
-        <v>10669100</v>
+        <v>10662600</v>
       </c>
       <c r="I48" s="3">
-        <v>11510800</v>
+        <v>10189600</v>
       </c>
       <c r="J48" s="3">
+        <v>10993400</v>
+      </c>
+      <c r="K48" s="3">
         <v>10310700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>9942300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>10188200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>9003400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>7678300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>8009300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>8104800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>8927500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>8449400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>8424900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>8936000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>9336800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>8818900</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>6761600</v>
+        <v>6379700</v>
       </c>
       <c r="E49" s="3">
-        <v>6936400</v>
+        <v>6457700</v>
       </c>
       <c r="F49" s="3">
-        <v>7031200</v>
+        <v>6624700</v>
       </c>
       <c r="G49" s="3">
-        <v>7192400</v>
+        <v>6715200</v>
       </c>
       <c r="H49" s="3">
-        <v>6808500</v>
+        <v>6869200</v>
       </c>
       <c r="I49" s="3">
-        <v>6955900</v>
+        <v>6502500</v>
       </c>
       <c r="J49" s="3">
+        <v>6643300</v>
+      </c>
+      <c r="K49" s="3">
         <v>7011600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>7117600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>7518000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>7099700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>4170600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>4448600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>4511000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>4841700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>4934900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>5000900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>5037500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>5137900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>4591200</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -3169,70 +3286,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>1383200</v>
+        <v>1311600</v>
       </c>
       <c r="E52" s="3">
-        <v>1345600</v>
+        <v>1321000</v>
       </c>
       <c r="F52" s="3">
-        <v>1371400</v>
+        <v>1285200</v>
       </c>
       <c r="G52" s="3">
-        <v>1465600</v>
+        <v>1309700</v>
       </c>
       <c r="H52" s="3">
-        <v>1525000</v>
+        <v>1399700</v>
       </c>
       <c r="I52" s="3">
-        <v>1473500</v>
+        <v>1456400</v>
       </c>
       <c r="J52" s="3">
+        <v>1407300</v>
+      </c>
+      <c r="K52" s="3">
         <v>1632000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1341300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1311200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1180300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1055500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1073200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1060500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>707400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>521500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>530700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>521800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>693000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>472200</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -3293,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>42507700</v>
+        <v>42549000</v>
       </c>
       <c r="E54" s="3">
-        <v>42637200</v>
+        <v>40597200</v>
       </c>
       <c r="F54" s="3">
-        <v>41526100</v>
+        <v>40720900</v>
       </c>
       <c r="G54" s="3">
-        <v>40901900</v>
+        <v>39659700</v>
       </c>
       <c r="H54" s="3">
-        <v>39446700</v>
+        <v>39063600</v>
       </c>
       <c r="I54" s="3">
-        <v>40230100</v>
+        <v>37673800</v>
       </c>
       <c r="J54" s="3">
+        <v>38422000</v>
+      </c>
+      <c r="K54" s="3">
         <v>39145600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>37479700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>39445300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>35590100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>30931100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>30522900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>30352900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>29417200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>28093000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>27084400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>27466000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>28167900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>26600100</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -3403,380 +3533,399 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>299500</v>
+        <v>258700</v>
       </c>
       <c r="E57" s="3">
-        <v>331900</v>
+        <v>286000</v>
       </c>
       <c r="F57" s="3">
-        <v>330200</v>
+        <v>317000</v>
       </c>
       <c r="G57" s="3">
-        <v>330100</v>
+        <v>315400</v>
       </c>
       <c r="H57" s="3">
-        <v>346800</v>
+        <v>315300</v>
       </c>
       <c r="I57" s="3">
-        <v>390100</v>
+        <v>331200</v>
       </c>
       <c r="J57" s="3">
+        <v>372600</v>
+      </c>
+      <c r="K57" s="3">
         <v>405200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>332700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>283700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>320300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>217500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>221100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>204600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>309500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>226300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>219400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>237100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>362200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>276000</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>1486600</v>
+        <v>1410900</v>
       </c>
       <c r="E58" s="3">
-        <v>1254200</v>
+        <v>1419800</v>
       </c>
       <c r="F58" s="3">
-        <v>1189400</v>
+        <v>1197800</v>
       </c>
       <c r="G58" s="3">
-        <v>1058800</v>
+        <v>1136000</v>
       </c>
       <c r="H58" s="3">
-        <v>1307500</v>
+        <v>1011200</v>
       </c>
       <c r="I58" s="3">
-        <v>1254600</v>
+        <v>1248700</v>
       </c>
       <c r="J58" s="3">
+        <v>1198200</v>
+      </c>
+      <c r="K58" s="3">
         <v>1223800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1310400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1605600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>894000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1002000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>856100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1192300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1461600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1452600</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1315500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>944800</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>802000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>615100</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>5422500</v>
+        <v>4978900</v>
       </c>
       <c r="E59" s="3">
-        <v>5692300</v>
+        <v>5178800</v>
       </c>
       <c r="F59" s="3">
-        <v>5310700</v>
+        <v>5436500</v>
       </c>
       <c r="G59" s="3">
-        <v>5228600</v>
+        <v>5072000</v>
       </c>
       <c r="H59" s="3">
-        <v>5099700</v>
+        <v>4993600</v>
       </c>
       <c r="I59" s="3">
-        <v>5343300</v>
+        <v>4870500</v>
       </c>
       <c r="J59" s="3">
+        <v>5103100</v>
+      </c>
+      <c r="K59" s="3">
         <v>4927800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4464800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>5319400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4537700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3551200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3760600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>4385500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>4484900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3942300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>3822900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>4448200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>4635500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>3962700</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>6648500</v>
+      </c>
+      <c r="E60" s="3">
+        <v>6884600</v>
+      </c>
+      <c r="F60" s="3">
+        <v>6951300</v>
+      </c>
+      <c r="G60" s="3">
+        <v>6523400</v>
+      </c>
+      <c r="H60" s="3">
+        <v>6320100</v>
+      </c>
+      <c r="I60" s="3">
+        <v>6450400</v>
+      </c>
+      <c r="J60" s="3">
+        <v>6673900</v>
+      </c>
+      <c r="K60" s="3">
+        <v>6556800</v>
+      </c>
+      <c r="L60" s="3">
+        <v>6107900</v>
+      </c>
+      <c r="M60" s="3">
         <v>7208600</v>
       </c>
-      <c r="E60" s="3">
-        <v>7278400</v>
-      </c>
-      <c r="F60" s="3">
-        <v>6830400</v>
-      </c>
-      <c r="G60" s="3">
-        <v>6617500</v>
-      </c>
-      <c r="H60" s="3">
-        <v>6753900</v>
-      </c>
-      <c r="I60" s="3">
-        <v>6988000</v>
-      </c>
-      <c r="J60" s="3">
-        <v>6556800</v>
-      </c>
-      <c r="K60" s="3">
-        <v>6107900</v>
-      </c>
-      <c r="L60" s="3">
-        <v>7208600</v>
-      </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>5751900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>4770700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>4837800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>5782300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>6256000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>5621200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>5357800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>5630000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>5799700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>4853900</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>9472700</v>
+        <v>9259100</v>
       </c>
       <c r="E61" s="3">
-        <v>9564200</v>
+        <v>9047000</v>
       </c>
       <c r="F61" s="3">
-        <v>9155300</v>
+        <v>9134300</v>
       </c>
       <c r="G61" s="3">
-        <v>9144200</v>
+        <v>8743800</v>
       </c>
       <c r="H61" s="3">
-        <v>9060200</v>
+        <v>8733200</v>
       </c>
       <c r="I61" s="3">
-        <v>9029300</v>
+        <v>8653000</v>
       </c>
       <c r="J61" s="3">
+        <v>8623500</v>
+      </c>
+      <c r="K61" s="3">
         <v>8522600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>7920200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>8288300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>7213600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>5575400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>5547400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>5319600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>5111100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>5104400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>5178200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>5654600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>5830800</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>5840500</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>3959900</v>
+        <v>4195600</v>
       </c>
       <c r="E62" s="3">
-        <v>4082000</v>
+        <v>3781900</v>
       </c>
       <c r="F62" s="3">
-        <v>3892900</v>
+        <v>3898500</v>
       </c>
       <c r="G62" s="3">
-        <v>3765300</v>
+        <v>3717900</v>
       </c>
       <c r="H62" s="3">
-        <v>3563500</v>
+        <v>3596100</v>
       </c>
       <c r="I62" s="3">
-        <v>3905700</v>
+        <v>3403400</v>
       </c>
       <c r="J62" s="3">
+        <v>3730200</v>
+      </c>
+      <c r="K62" s="3">
         <v>3901800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3713300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3819900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3851200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2626500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2574400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2461100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2184400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1988400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1874200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1860200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>2032600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1915900</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -3961,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>21239200</v>
+        <v>20871000</v>
       </c>
       <c r="E66" s="3">
-        <v>21505100</v>
+        <v>20284600</v>
       </c>
       <c r="F66" s="3">
-        <v>20349600</v>
+        <v>20538600</v>
       </c>
       <c r="G66" s="3">
-        <v>19989800</v>
+        <v>19435000</v>
       </c>
       <c r="H66" s="3">
-        <v>19249700</v>
+        <v>19091400</v>
       </c>
       <c r="I66" s="3">
-        <v>19804400</v>
+        <v>18384600</v>
       </c>
       <c r="J66" s="3">
+        <v>18914300</v>
+      </c>
+      <c r="K66" s="3">
         <v>18899300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>17654900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>19205500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>16714600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>13198100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>13130700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>13728400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>13716100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>12834200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>12499800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>13239200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>13793600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>12760400</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -4295,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>20359500</v>
+        <v>18427500</v>
       </c>
       <c r="E72" s="3">
-        <v>20453900</v>
+        <v>19444400</v>
       </c>
       <c r="F72" s="3">
-        <v>20110200</v>
+        <v>19534600</v>
       </c>
       <c r="G72" s="3">
-        <v>19833300</v>
+        <v>19206400</v>
       </c>
       <c r="H72" s="3">
-        <v>19455200</v>
+        <v>18941900</v>
       </c>
       <c r="I72" s="3">
-        <v>19783500</v>
+        <v>18580800</v>
       </c>
       <c r="J72" s="3">
+        <v>18894400</v>
+      </c>
+      <c r="K72" s="3">
         <v>19871700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>19470600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>19870500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>18601400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>17574500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>17434000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>16667600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>15695600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>15173300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>14531800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>14306000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>14357800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>13922500</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -4543,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>21268500</v>
+        <v>21677900</v>
       </c>
       <c r="E76" s="3">
-        <v>21132100</v>
+        <v>20312600</v>
       </c>
       <c r="F76" s="3">
-        <v>21176500</v>
+        <v>20182300</v>
       </c>
       <c r="G76" s="3">
-        <v>20912000</v>
+        <v>20224700</v>
       </c>
       <c r="H76" s="3">
-        <v>20197000</v>
+        <v>19972200</v>
       </c>
       <c r="I76" s="3">
-        <v>20425700</v>
+        <v>19289200</v>
       </c>
       <c r="J76" s="3">
+        <v>19507700</v>
+      </c>
+      <c r="K76" s="3">
         <v>20246300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>19824800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>20239800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>18875500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>17732900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>17392200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>16624500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>15701100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>15258700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>14584600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>14226800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>14374300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>13839700</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -4667,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>493600</v>
+        <v>647800</v>
       </c>
       <c r="E81" s="3">
-        <v>335600</v>
+        <v>471400</v>
       </c>
       <c r="F81" s="3">
-        <v>341100</v>
+        <v>320500</v>
       </c>
       <c r="G81" s="3">
-        <v>376900</v>
+        <v>325700</v>
       </c>
       <c r="H81" s="3">
-        <v>271300</v>
+        <v>360100</v>
       </c>
       <c r="I81" s="3">
-        <v>-28400</v>
+        <v>259100</v>
       </c>
       <c r="J81" s="3">
+        <v>-27200</v>
+      </c>
+      <c r="K81" s="3">
         <v>240900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>228500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>341700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>404200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>832400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>762900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>583800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>511800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>700300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>542500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>530200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>432400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>292600</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -4820,70 +5018,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>919900</v>
+        <v>880700</v>
       </c>
       <c r="E83" s="3">
-        <v>965400</v>
+        <v>878500</v>
       </c>
       <c r="F83" s="3">
-        <v>920900</v>
+        <v>922000</v>
       </c>
       <c r="G83" s="3">
-        <v>917800</v>
+        <v>879500</v>
       </c>
       <c r="H83" s="3">
-        <v>907200</v>
+        <v>876600</v>
       </c>
       <c r="I83" s="3">
-        <v>915800</v>
+        <v>866400</v>
       </c>
       <c r="J83" s="3">
+        <v>874600</v>
+      </c>
+      <c r="K83" s="3">
         <v>892700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>855000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>848400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>711200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>653900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>677500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>692100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>732200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>718700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>707600</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>715200</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>722200</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>688100</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -5192,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>793100</v>
+        <v>1178300</v>
       </c>
       <c r="E89" s="3">
-        <v>1153600</v>
+        <v>757400</v>
       </c>
       <c r="F89" s="3">
-        <v>1460400</v>
+        <v>1101800</v>
       </c>
       <c r="G89" s="3">
-        <v>1701900</v>
+        <v>1394800</v>
       </c>
       <c r="H89" s="3">
-        <v>865500</v>
+        <v>1625500</v>
       </c>
       <c r="I89" s="3">
-        <v>1021600</v>
+        <v>826600</v>
       </c>
       <c r="J89" s="3">
+        <v>975700</v>
+      </c>
+      <c r="K89" s="3">
         <v>746100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>907500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>881500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1389100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>382000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1024900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>829300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>828600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>969400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>776500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>837300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1379600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>799200</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -5278,70 +5498,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-672100</v>
+        <v>-471300</v>
       </c>
       <c r="E91" s="3">
-        <v>-799000</v>
+        <v>-641900</v>
       </c>
       <c r="F91" s="3">
-        <v>-858100</v>
+        <v>-763100</v>
       </c>
       <c r="G91" s="3">
-        <v>-578800</v>
+        <v>-819600</v>
       </c>
       <c r="H91" s="3">
-        <v>-930500</v>
+        <v>-552800</v>
       </c>
       <c r="I91" s="3">
-        <v>-1014700</v>
+        <v>-888700</v>
       </c>
       <c r="J91" s="3">
+        <v>-969100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-796300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-571500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-629400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-789700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-622200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-383600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-527100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-730500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-688700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-391900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-608900</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-1158400</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-855700</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -5464,70 +5691,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-466100</v>
+        <v>-866400</v>
       </c>
       <c r="E94" s="3">
-        <v>-1070600</v>
+        <v>-445200</v>
       </c>
       <c r="F94" s="3">
-        <v>-1048500</v>
+        <v>-1022500</v>
       </c>
       <c r="G94" s="3">
-        <v>-566400</v>
+        <v>-1001300</v>
       </c>
       <c r="H94" s="3">
-        <v>-1097300</v>
+        <v>-541000</v>
       </c>
       <c r="I94" s="3">
-        <v>-1371500</v>
+        <v>-1048000</v>
       </c>
       <c r="J94" s="3">
+        <v>-1309800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1016400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-404700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-400100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2284100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-292400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-356000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-456800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-845900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-805200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-473600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-590600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-755400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-667600</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
@@ -5559,13 +5793,13 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-9600</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-65100</v>
+        <v>-9200</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-62200</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
@@ -5574,11 +5808,11 @@
         <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-64000</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
         <v>0</v>
       </c>
@@ -5586,11 +5820,11 @@
         <v>0</v>
       </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-57200</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
         <v>0</v>
       </c>
@@ -5598,11 +5832,11 @@
         <v>0</v>
       </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-62100</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
         <v>0</v>
       </c>
@@ -5610,10 +5844,13 @@
         <v>0</v>
       </c>
       <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-63500</v>
       </c>
     </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -5798,190 +6041,202 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>-454400</v>
+        <v>-49700</v>
       </c>
       <c r="E100" s="3">
-        <v>-522400</v>
+        <v>-434000</v>
       </c>
       <c r="F100" s="3">
-        <v>-65400</v>
+        <v>-498900</v>
       </c>
       <c r="G100" s="3">
-        <v>-797500</v>
+        <v>-62400</v>
       </c>
       <c r="H100" s="3">
-        <v>88000</v>
+        <v>-761700</v>
       </c>
       <c r="I100" s="3">
-        <v>339800</v>
+        <v>84100</v>
       </c>
       <c r="J100" s="3">
+        <v>324500</v>
+      </c>
+      <c r="K100" s="3">
         <v>120000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1033500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>19100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-163300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>696800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-746200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-13300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>30200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>19200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-603000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-177800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-48400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-343800</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>4400</v>
+        <v>-400</v>
       </c>
       <c r="E101" s="3">
-        <v>-18200</v>
+        <v>4200</v>
       </c>
       <c r="F101" s="3">
-        <v>-2300</v>
+        <v>-17400</v>
       </c>
       <c r="G101" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="H101" s="3">
         <v>-600</v>
       </c>
-      <c r="H101" s="3">
-        <v>7600</v>
-      </c>
       <c r="I101" s="3">
-        <v>-6700</v>
+        <v>7300</v>
       </c>
       <c r="J101" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="K101" s="3">
         <v>6100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-2100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>2500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-2800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>2100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-3600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>1100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>2300</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-5200</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>5600</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>-123100</v>
+        <v>261800</v>
       </c>
       <c r="E102" s="3">
-        <v>-457600</v>
+        <v>-117600</v>
       </c>
       <c r="F102" s="3">
-        <v>344300</v>
+        <v>-437000</v>
       </c>
       <c r="G102" s="3">
-        <v>337400</v>
+        <v>328900</v>
       </c>
       <c r="H102" s="3">
-        <v>-136200</v>
+        <v>322300</v>
       </c>
       <c r="I102" s="3">
-        <v>-16800</v>
+        <v>-130100</v>
       </c>
       <c r="J102" s="3">
+        <v>-16100</v>
+      </c>
+      <c r="K102" s="3">
         <v>-144100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-532800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>500800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1055800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>783600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-75200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>359500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>9300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>184400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-297700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>63700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>581400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-216300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SKM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SKM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="92">
   <si>
     <t>SKM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,295 +665,308 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4095500</v>
+        <v>4172700</v>
       </c>
       <c r="E8" s="3">
-        <v>4063400</v>
+        <v>4047300</v>
       </c>
       <c r="F8" s="3">
-        <v>4114500</v>
+        <v>4015600</v>
       </c>
       <c r="G8" s="3">
-        <v>4021200</v>
+        <v>4066100</v>
       </c>
       <c r="H8" s="3">
-        <v>3912800</v>
+        <v>3974400</v>
       </c>
       <c r="I8" s="3">
-        <v>3783000</v>
+        <v>3866800</v>
       </c>
       <c r="J8" s="3">
+        <v>3738500</v>
+      </c>
+      <c r="K8" s="3">
         <v>3746400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4059500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3904600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3944800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3655400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3391000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3489600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3512500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3957600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3909600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3824100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>3810900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>3917000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>3819400</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>155700</v>
+        <v>154700</v>
       </c>
       <c r="E9" s="3">
-        <v>164800</v>
+        <v>153900</v>
       </c>
       <c r="F9" s="3">
-        <v>142000</v>
+        <v>162900</v>
       </c>
       <c r="G9" s="3">
-        <v>171200</v>
+        <v>140300</v>
       </c>
       <c r="H9" s="3">
-        <v>176200</v>
+        <v>169200</v>
       </c>
       <c r="I9" s="3">
-        <v>165700</v>
+        <v>174200</v>
       </c>
       <c r="J9" s="3">
+        <v>163800</v>
+      </c>
+      <c r="K9" s="3">
         <v>162600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>163700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>165200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>172300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>136400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>171900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>183800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>180600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>190800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>197200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>187500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>199000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>153400</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>238000</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3939800</v>
+        <v>4018000</v>
       </c>
       <c r="E10" s="3">
-        <v>3898500</v>
+        <v>3893500</v>
       </c>
       <c r="F10" s="3">
-        <v>3972500</v>
+        <v>3852700</v>
       </c>
       <c r="G10" s="3">
-        <v>3850000</v>
+        <v>3925800</v>
       </c>
       <c r="H10" s="3">
-        <v>3736600</v>
+        <v>3805200</v>
       </c>
       <c r="I10" s="3">
-        <v>3617300</v>
+        <v>3692600</v>
       </c>
       <c r="J10" s="3">
+        <v>3574700</v>
+      </c>
+      <c r="K10" s="3">
         <v>3583800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3895800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3739400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>3772400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>3519000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>3219100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>3305800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>3331900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>3766900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>3712400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>3636700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>3612000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>3763600</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>3581400</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,73 +990,77 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>86000</v>
+        <v>82200</v>
       </c>
       <c r="E12" s="3">
-        <v>85600</v>
+        <v>84900</v>
       </c>
       <c r="F12" s="3">
-        <v>81900</v>
+        <v>84600</v>
       </c>
       <c r="G12" s="3">
-        <v>89100</v>
+        <v>81000</v>
       </c>
       <c r="H12" s="3">
-        <v>89200</v>
+        <v>88100</v>
       </c>
       <c r="I12" s="3">
-        <v>93800</v>
+        <v>88100</v>
       </c>
       <c r="J12" s="3">
+        <v>92700</v>
+      </c>
+      <c r="K12" s="3">
         <v>86500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>83300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>84700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>90800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>88900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>76200</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>82500</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>75100</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>90300</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>90800</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>83500</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>85200</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>82100</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>76900</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1107,138 +1124,147 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E14" s="3">
         <v>4500</v>
       </c>
-      <c r="E14" s="3">
-        <v>-4300</v>
-      </c>
       <c r="F14" s="3">
-        <v>166700</v>
+        <v>-4200</v>
       </c>
       <c r="G14" s="3">
-        <v>0</v>
+        <v>164700</v>
       </c>
       <c r="H14" s="3">
-        <v>10800</v>
-      </c>
-      <c r="I14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>10700</v>
+      </c>
+      <c r="J14" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>54900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>2100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>214000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>400</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>2100</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>800</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>52300</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>300</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>3700</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>2000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>5700</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>848100</v>
+        <v>852100</v>
       </c>
       <c r="E15" s="3">
-        <v>847000</v>
+        <v>838200</v>
       </c>
       <c r="F15" s="3">
-        <v>886200</v>
+        <v>837000</v>
       </c>
       <c r="G15" s="3">
-        <v>839600</v>
+        <v>875800</v>
       </c>
       <c r="H15" s="3">
-        <v>847400</v>
+        <v>846000</v>
       </c>
       <c r="I15" s="3">
-        <v>837100</v>
+        <v>837400</v>
       </c>
       <c r="J15" s="3">
+        <v>827200</v>
+      </c>
+      <c r="K15" s="3">
         <v>912300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>856100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>818700</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>810900</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>676100</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>621700</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>644900</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>660200</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>696900</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>684300</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>674200</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>685500</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>695000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>659700</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1285,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>3762900</v>
+        <v>3836700</v>
       </c>
       <c r="E17" s="3">
-        <v>3728700</v>
+        <v>3718700</v>
       </c>
       <c r="F17" s="3">
-        <v>4003900</v>
+        <v>3684800</v>
       </c>
       <c r="G17" s="3">
-        <v>3713900</v>
+        <v>3956700</v>
       </c>
       <c r="H17" s="3">
-        <v>3619500</v>
+        <v>3673700</v>
       </c>
       <c r="I17" s="3">
-        <v>3526900</v>
+        <v>3576900</v>
       </c>
       <c r="J17" s="3">
+        <v>3485400</v>
+      </c>
+      <c r="K17" s="3">
         <v>3664800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3790900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3622600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3651300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3680200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3145000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3200300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3239800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3736700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3564600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3455400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>3443500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>3650900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>3442500</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>332600</v>
+        <v>336000</v>
       </c>
       <c r="E18" s="3">
-        <v>334700</v>
+        <v>328700</v>
       </c>
       <c r="F18" s="3">
-        <v>110700</v>
+        <v>330800</v>
       </c>
       <c r="G18" s="3">
-        <v>307300</v>
+        <v>109400</v>
       </c>
       <c r="H18" s="3">
-        <v>293300</v>
+        <v>300700</v>
       </c>
       <c r="I18" s="3">
-        <v>256100</v>
+        <v>289900</v>
       </c>
       <c r="J18" s="3">
+        <v>253100</v>
+      </c>
+      <c r="K18" s="3">
         <v>81700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>268600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>282000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>293500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-24700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>246000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>289300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>272600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>220900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>345000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>368800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>367500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>266100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>376900</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1414,333 +1447,349 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>600300</v>
+        <v>533400</v>
       </c>
       <c r="E20" s="3">
-        <v>320100</v>
+        <v>593200</v>
       </c>
       <c r="F20" s="3">
-        <v>358300</v>
+        <v>316300</v>
       </c>
       <c r="G20" s="3">
-        <v>214400</v>
+        <v>354100</v>
       </c>
       <c r="H20" s="3">
-        <v>336000</v>
+        <v>289900</v>
       </c>
       <c r="I20" s="3">
-        <v>142400</v>
+        <v>332100</v>
       </c>
       <c r="J20" s="3">
+        <v>140700</v>
+      </c>
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>130200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>116400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>225300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>607100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>866100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>748000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>552300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>662700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>601900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>355900</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>351300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>307600</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>78400</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>1813600</v>
+        <v>1753400</v>
       </c>
       <c r="E21" s="3">
-        <v>1533300</v>
+        <v>1792300</v>
       </c>
       <c r="F21" s="3">
-        <v>1391000</v>
+        <v>1515300</v>
       </c>
       <c r="G21" s="3">
-        <v>1401200</v>
+        <v>1374600</v>
       </c>
       <c r="H21" s="3">
-        <v>1505900</v>
+        <v>1459800</v>
       </c>
       <c r="I21" s="3">
-        <v>1264900</v>
+        <v>1488200</v>
       </c>
       <c r="J21" s="3">
+        <v>1250100</v>
+      </c>
+      <c r="K21" s="3">
         <v>956400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1291600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1253400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1367100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1293500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1766000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1714900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1517100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1615900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1665600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1432300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1434000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1295900</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1143300</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>74200</v>
+        <v>76200</v>
       </c>
       <c r="E22" s="3">
-        <v>73500</v>
+        <v>73300</v>
       </c>
       <c r="F22" s="3">
-        <v>97600</v>
+        <v>72700</v>
       </c>
       <c r="G22" s="3">
-        <v>78100</v>
+        <v>96400</v>
       </c>
       <c r="H22" s="3">
-        <v>162700</v>
+        <v>156700</v>
       </c>
       <c r="I22" s="3">
-        <v>85400</v>
+        <v>160800</v>
       </c>
       <c r="J22" s="3">
+        <v>84400</v>
+      </c>
+      <c r="K22" s="3">
         <v>89700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>87900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>87600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>93100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>75000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>57500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>60400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>63100</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>68300</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>63400</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>66100</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>67000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>66000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>67200</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>858700</v>
+        <v>793200</v>
       </c>
       <c r="E23" s="3">
-        <v>581300</v>
+        <v>848600</v>
       </c>
       <c r="F23" s="3">
-        <v>371400</v>
+        <v>574400</v>
       </c>
       <c r="G23" s="3">
-        <v>443500</v>
+        <v>367000</v>
       </c>
       <c r="H23" s="3">
-        <v>466600</v>
+        <v>433900</v>
       </c>
       <c r="I23" s="3">
-        <v>313100</v>
+        <v>461100</v>
       </c>
       <c r="J23" s="3">
+        <v>309400</v>
+      </c>
+      <c r="K23" s="3">
         <v>-8000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>311000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>310800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>425700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>507400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1054600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>977000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>761900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>815400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>883600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>658600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>651800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>507700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>388100</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>182300</v>
+        <v>174600</v>
       </c>
       <c r="E24" s="3">
-        <v>95100</v>
+        <v>180200</v>
       </c>
       <c r="F24" s="3">
-        <v>60400</v>
+        <v>94000</v>
       </c>
       <c r="G24" s="3">
-        <v>107200</v>
+        <v>59700</v>
       </c>
       <c r="H24" s="3">
-        <v>99100</v>
+        <v>104800</v>
       </c>
       <c r="I24" s="3">
-        <v>53000</v>
+        <v>98000</v>
       </c>
       <c r="J24" s="3">
+        <v>52400</v>
+      </c>
+      <c r="K24" s="3">
         <v>31400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>66700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>82900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>85700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>108800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>204200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>208900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>179400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>234000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>185800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>112600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>126700</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>80500</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>98200</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>676300</v>
+        <v>618700</v>
       </c>
       <c r="E26" s="3">
-        <v>486200</v>
+        <v>668400</v>
       </c>
       <c r="F26" s="3">
-        <v>311000</v>
+        <v>480500</v>
       </c>
       <c r="G26" s="3">
-        <v>336300</v>
+        <v>307300</v>
       </c>
       <c r="H26" s="3">
-        <v>367500</v>
+        <v>329100</v>
       </c>
       <c r="I26" s="3">
-        <v>260100</v>
+        <v>363200</v>
       </c>
       <c r="J26" s="3">
+        <v>257000</v>
+      </c>
+      <c r="K26" s="3">
         <v>-39400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>244200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>228000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>340000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>398600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>850400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>768000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>582400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>581400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>697800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>546000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>525100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>427200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>289900</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>647800</v>
+        <v>655600</v>
       </c>
       <c r="E27" s="3">
-        <v>471400</v>
+        <v>640200</v>
       </c>
       <c r="F27" s="3">
-        <v>320500</v>
+        <v>465800</v>
       </c>
       <c r="G27" s="3">
-        <v>325700</v>
+        <v>316800</v>
       </c>
       <c r="H27" s="3">
-        <v>360100</v>
+        <v>318600</v>
       </c>
       <c r="I27" s="3">
-        <v>259100</v>
+        <v>355900</v>
       </c>
       <c r="J27" s="3">
+        <v>256100</v>
+      </c>
+      <c r="K27" s="3">
         <v>-27200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>240900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>228500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>341700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>404200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>832400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>762900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>583800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>511800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>700300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>542500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>530200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>432400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>292600</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2194,138 +2261,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-600300</v>
+        <v>-533400</v>
       </c>
       <c r="E32" s="3">
-        <v>-320100</v>
+        <v>-593200</v>
       </c>
       <c r="F32" s="3">
-        <v>-358300</v>
+        <v>-316300</v>
       </c>
       <c r="G32" s="3">
-        <v>-214400</v>
+        <v>-354100</v>
       </c>
       <c r="H32" s="3">
-        <v>-336000</v>
+        <v>-289900</v>
       </c>
       <c r="I32" s="3">
-        <v>-142400</v>
+        <v>-332100</v>
       </c>
       <c r="J32" s="3">
+        <v>-140700</v>
+      </c>
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-130200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-116400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-225300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-607100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-866100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-748000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-552300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-662700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-601900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-355900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-351300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-307600</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-78400</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>647800</v>
+        <v>655600</v>
       </c>
       <c r="E33" s="3">
-        <v>471400</v>
+        <v>640200</v>
       </c>
       <c r="F33" s="3">
-        <v>320500</v>
+        <v>465800</v>
       </c>
       <c r="G33" s="3">
-        <v>325700</v>
+        <v>316800</v>
       </c>
       <c r="H33" s="3">
-        <v>360100</v>
+        <v>318600</v>
       </c>
       <c r="I33" s="3">
-        <v>259100</v>
+        <v>355900</v>
       </c>
       <c r="J33" s="3">
+        <v>256100</v>
+      </c>
+      <c r="K33" s="3">
         <v>-27200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>240900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>228500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>341700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>404200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>832400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>762900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>583800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>511800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>700300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>542500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>530200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>432400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>292600</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>647800</v>
+        <v>655600</v>
       </c>
       <c r="E35" s="3">
-        <v>471400</v>
+        <v>640200</v>
       </c>
       <c r="F35" s="3">
-        <v>320500</v>
+        <v>465800</v>
       </c>
       <c r="G35" s="3">
-        <v>325700</v>
+        <v>316800</v>
       </c>
       <c r="H35" s="3">
-        <v>360100</v>
+        <v>318600</v>
       </c>
       <c r="I35" s="3">
-        <v>259100</v>
+        <v>355900</v>
       </c>
       <c r="J35" s="3">
+        <v>256100</v>
+      </c>
+      <c r="K35" s="3">
         <v>-27200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>240900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>228500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>341700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>404200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>832400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>762900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>583800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>511800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>700300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>542500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>530200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>432400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>292600</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2574,593 +2660,621 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>1308400</v>
+        <v>1252900</v>
       </c>
       <c r="E41" s="3">
-        <v>1046600</v>
+        <v>1293000</v>
       </c>
       <c r="F41" s="3">
-        <v>1164200</v>
+        <v>1034300</v>
       </c>
       <c r="G41" s="3">
-        <v>1601200</v>
+        <v>1150500</v>
       </c>
       <c r="H41" s="3">
-        <v>1272400</v>
+        <v>1582400</v>
       </c>
       <c r="I41" s="3">
-        <v>950100</v>
+        <v>1257400</v>
       </c>
       <c r="J41" s="3">
+        <v>938900</v>
+      </c>
+      <c r="K41" s="3">
         <v>1080200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1147800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1277400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1871900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1265600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2238500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1508800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1584000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1282800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1273500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1089100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1418400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1354700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>773300</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>1344600</v>
+        <v>1416700</v>
       </c>
       <c r="E42" s="3">
-        <v>1239100</v>
+        <v>1328800</v>
       </c>
       <c r="F42" s="3">
-        <v>1257400</v>
+        <v>1224500</v>
       </c>
       <c r="G42" s="3">
-        <v>927700</v>
+        <v>1242600</v>
       </c>
       <c r="H42" s="3">
-        <v>834200</v>
+        <v>916800</v>
       </c>
       <c r="I42" s="3">
-        <v>913900</v>
+        <v>824400</v>
       </c>
       <c r="J42" s="3">
+        <v>903200</v>
+      </c>
+      <c r="K42" s="3">
         <v>766900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>866400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>728100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>733100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>975400</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>318100</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>452600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>540900</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>590800</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>626300</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>647200</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>612800</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>437300</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>580900</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>2929000</v>
+        <v>3105100</v>
       </c>
       <c r="E43" s="3">
-        <v>3037500</v>
+        <v>2894600</v>
       </c>
       <c r="F43" s="3">
-        <v>2865600</v>
+        <v>3001700</v>
       </c>
       <c r="G43" s="3">
-        <v>2939600</v>
+        <v>2831800</v>
       </c>
       <c r="H43" s="3">
-        <v>2780200</v>
+        <v>2905100</v>
       </c>
       <c r="I43" s="3">
-        <v>2936500</v>
+        <v>2747500</v>
       </c>
       <c r="J43" s="3">
+        <v>2902000</v>
+      </c>
+      <c r="K43" s="3">
         <v>2886300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3122000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2860700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3116800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2605400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3040500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2736500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>3179400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>3039200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2826800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>2900700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>2901300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>3081700</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>3293200</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>180000</v>
+        <v>166500</v>
       </c>
       <c r="E44" s="3">
-        <v>188300</v>
+        <v>177900</v>
       </c>
       <c r="F44" s="3">
-        <v>145700</v>
+        <v>186100</v>
       </c>
       <c r="G44" s="3">
-        <v>183600</v>
+        <v>144000</v>
       </c>
       <c r="H44" s="3">
-        <v>173700</v>
+        <v>181500</v>
       </c>
       <c r="I44" s="3">
-        <v>176800</v>
+        <v>171700</v>
       </c>
       <c r="J44" s="3">
+        <v>174800</v>
+      </c>
+      <c r="K44" s="3">
         <v>138400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>178500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>197000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>239900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>242000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>208700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>217800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>213800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>239700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>219000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>231900</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>223700</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>233900</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>246600</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>2007700</v>
+        <v>1887200</v>
       </c>
       <c r="E45" s="3">
-        <v>2023900</v>
+        <v>1984100</v>
       </c>
       <c r="F45" s="3">
-        <v>2025900</v>
+        <v>2000100</v>
       </c>
       <c r="G45" s="3">
-        <v>2025000</v>
+        <v>2002100</v>
       </c>
       <c r="H45" s="3">
-        <v>1961700</v>
+        <v>2001200</v>
       </c>
       <c r="I45" s="3">
-        <v>1927100</v>
+        <v>1938600</v>
       </c>
       <c r="J45" s="3">
+        <v>1904400</v>
+      </c>
+      <c r="K45" s="3">
         <v>2003300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1881800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1612400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1635700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1597000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1505000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1648400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1597800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>305100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>341700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>228600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>212400</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>289400</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>305900</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>7769800</v>
+        <v>7828400</v>
       </c>
       <c r="E46" s="3">
-        <v>7535400</v>
+        <v>7678400</v>
       </c>
       <c r="F46" s="3">
-        <v>7458800</v>
+        <v>7446800</v>
       </c>
       <c r="G46" s="3">
-        <v>7677300</v>
+        <v>7371100</v>
       </c>
       <c r="H46" s="3">
-        <v>7022100</v>
+        <v>7587000</v>
       </c>
       <c r="I46" s="3">
-        <v>6904500</v>
+        <v>6939500</v>
       </c>
       <c r="J46" s="3">
+        <v>6823200</v>
+      </c>
+      <c r="K46" s="3">
         <v>6875200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>7196700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>6675700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>7597400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>6685400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>7310800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>6564000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>7115900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>5457600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>5287300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>5097500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>5368600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>5397000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>5199900</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>15830700</v>
+        <v>16844500</v>
       </c>
       <c r="E47" s="3">
-        <v>14317700</v>
+        <v>15644400</v>
       </c>
       <c r="F47" s="3">
-        <v>13981800</v>
+        <v>14149200</v>
       </c>
       <c r="G47" s="3">
-        <v>13595800</v>
+        <v>13817300</v>
       </c>
       <c r="H47" s="3">
-        <v>13110000</v>
+        <v>13435800</v>
       </c>
       <c r="I47" s="3">
-        <v>12620800</v>
+        <v>12955700</v>
       </c>
       <c r="J47" s="3">
+        <v>12472300</v>
+      </c>
+      <c r="K47" s="3">
         <v>12502800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>12994600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>12402900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>12830400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>11621100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>10715900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>10427800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>9560700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>9483000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>8899800</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>8030500</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>7602200</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>7603200</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>7518000</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>11257200</v>
+        <v>11037900</v>
       </c>
       <c r="E48" s="3">
-        <v>10965400</v>
+        <v>11124800</v>
       </c>
       <c r="F48" s="3">
-        <v>11370500</v>
+        <v>10836400</v>
       </c>
       <c r="G48" s="3">
-        <v>10361700</v>
+        <v>11236700</v>
       </c>
       <c r="H48" s="3">
-        <v>10662600</v>
+        <v>10239800</v>
       </c>
       <c r="I48" s="3">
-        <v>10189600</v>
+        <v>10537200</v>
       </c>
       <c r="J48" s="3">
+        <v>10069700</v>
+      </c>
+      <c r="K48" s="3">
         <v>10993400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>10310700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>9942300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>10188200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>9003400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>7678300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>8009300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>8104800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>8927500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>8449400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>8424900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>8936000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>9336800</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>8818900</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>6379700</v>
+        <v>6311500</v>
       </c>
       <c r="E49" s="3">
-        <v>6457700</v>
+        <v>6304600</v>
       </c>
       <c r="F49" s="3">
-        <v>6624700</v>
+        <v>6381800</v>
       </c>
       <c r="G49" s="3">
-        <v>6715200</v>
+        <v>6546700</v>
       </c>
       <c r="H49" s="3">
-        <v>6869200</v>
+        <v>6636200</v>
       </c>
       <c r="I49" s="3">
-        <v>6502500</v>
+        <v>6788300</v>
       </c>
       <c r="J49" s="3">
+        <v>6426000</v>
+      </c>
+      <c r="K49" s="3">
         <v>6643300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>7011600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>7117600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>7518000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>7099700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>4170600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>4448600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>4511000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>4841700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>4934900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>5000900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>5037500</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>5137900</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>4591200</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -3289,73 +3406,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>1311600</v>
+        <v>1386800</v>
       </c>
       <c r="E52" s="3">
-        <v>1321000</v>
+        <v>1296200</v>
       </c>
       <c r="F52" s="3">
-        <v>1285200</v>
+        <v>1305500</v>
       </c>
       <c r="G52" s="3">
-        <v>1309700</v>
+        <v>1270000</v>
       </c>
       <c r="H52" s="3">
-        <v>1399700</v>
+        <v>1294300</v>
       </c>
       <c r="I52" s="3">
-        <v>1456400</v>
+        <v>1383300</v>
       </c>
       <c r="J52" s="3">
+        <v>1439300</v>
+      </c>
+      <c r="K52" s="3">
         <v>1407300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1632000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1341300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1311200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1180300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1055500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1073200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1060500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>707400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>521500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>530700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>521800</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>693000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>472200</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -3419,73 +3542,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>42549000</v>
+        <v>43409100</v>
       </c>
       <c r="E54" s="3">
-        <v>40597200</v>
+        <v>42048400</v>
       </c>
       <c r="F54" s="3">
-        <v>40720900</v>
+        <v>40119600</v>
       </c>
       <c r="G54" s="3">
-        <v>39659700</v>
+        <v>40241800</v>
       </c>
       <c r="H54" s="3">
-        <v>39063600</v>
+        <v>39193100</v>
       </c>
       <c r="I54" s="3">
-        <v>37673800</v>
+        <v>38604000</v>
       </c>
       <c r="J54" s="3">
+        <v>37230600</v>
+      </c>
+      <c r="K54" s="3">
         <v>38422000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>39145600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>37479700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>39445300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>35590100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>30931100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>30522900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>30352900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>29417200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>28093000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>27084400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>27466000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>28167900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>26600100</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -3534,398 +3664,417 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>258700</v>
+        <v>284200</v>
       </c>
       <c r="E57" s="3">
-        <v>286000</v>
+        <v>255600</v>
       </c>
       <c r="F57" s="3">
-        <v>317000</v>
+        <v>282700</v>
       </c>
       <c r="G57" s="3">
-        <v>315400</v>
+        <v>313200</v>
       </c>
       <c r="H57" s="3">
-        <v>315300</v>
+        <v>311700</v>
       </c>
       <c r="I57" s="3">
-        <v>331200</v>
+        <v>311600</v>
       </c>
       <c r="J57" s="3">
+        <v>327300</v>
+      </c>
+      <c r="K57" s="3">
         <v>372600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>405200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>332700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>283700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>320300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>217500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>221100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>204600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>309500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>226300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>219400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>237100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>362200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>276000</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>1410900</v>
+        <v>1591400</v>
       </c>
       <c r="E58" s="3">
-        <v>1419800</v>
+        <v>1394300</v>
       </c>
       <c r="F58" s="3">
-        <v>1197800</v>
+        <v>1403100</v>
       </c>
       <c r="G58" s="3">
-        <v>1136000</v>
+        <v>1183700</v>
       </c>
       <c r="H58" s="3">
-        <v>1011200</v>
+        <v>1122600</v>
       </c>
       <c r="I58" s="3">
-        <v>1248700</v>
+        <v>999300</v>
       </c>
       <c r="J58" s="3">
+        <v>1234000</v>
+      </c>
+      <c r="K58" s="3">
         <v>1198200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1223800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1310400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1605600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>894000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1002000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>856100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1192300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1461600</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1452600</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1315500</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>944800</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>802000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>615100</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>4978900</v>
+        <v>5164000</v>
       </c>
       <c r="E59" s="3">
-        <v>5178800</v>
+        <v>4920400</v>
       </c>
       <c r="F59" s="3">
-        <v>5436500</v>
+        <v>5117800</v>
       </c>
       <c r="G59" s="3">
-        <v>5072000</v>
+        <v>5372500</v>
       </c>
       <c r="H59" s="3">
-        <v>4993600</v>
+        <v>5012400</v>
       </c>
       <c r="I59" s="3">
-        <v>4870500</v>
+        <v>4934900</v>
       </c>
       <c r="J59" s="3">
+        <v>4813200</v>
+      </c>
+      <c r="K59" s="3">
         <v>5103100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4927800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4464800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>5319400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4537700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3551200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3760600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>4385500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>4484900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>3942300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>3822900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>4448200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>4635500</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>3962700</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>6648500</v>
+        <v>7039600</v>
       </c>
       <c r="E60" s="3">
-        <v>6884600</v>
+        <v>6570300</v>
       </c>
       <c r="F60" s="3">
-        <v>6951300</v>
+        <v>6803600</v>
       </c>
       <c r="G60" s="3">
-        <v>6523400</v>
+        <v>6869500</v>
       </c>
       <c r="H60" s="3">
-        <v>6320100</v>
+        <v>6446600</v>
       </c>
       <c r="I60" s="3">
-        <v>6450400</v>
+        <v>6245700</v>
       </c>
       <c r="J60" s="3">
+        <v>6374500</v>
+      </c>
+      <c r="K60" s="3">
         <v>6673900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6556800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6107900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>7208600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>5751900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>4770700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>4837800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>5782300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>6256000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>5621200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>5357800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>5630000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>5799700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>4853900</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>9259100</v>
+        <v>9145800</v>
       </c>
       <c r="E61" s="3">
-        <v>9047000</v>
+        <v>9150100</v>
       </c>
       <c r="F61" s="3">
-        <v>9134300</v>
+        <v>8940600</v>
       </c>
       <c r="G61" s="3">
-        <v>8743800</v>
+        <v>9026900</v>
       </c>
       <c r="H61" s="3">
-        <v>8733200</v>
+        <v>8641000</v>
       </c>
       <c r="I61" s="3">
-        <v>8653000</v>
+        <v>8630500</v>
       </c>
       <c r="J61" s="3">
+        <v>8551200</v>
+      </c>
+      <c r="K61" s="3">
         <v>8623500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>8522600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>7920200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>8288300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>7213600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>5575400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>5547400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>5319600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>5111100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>5104400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>5178200</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>5654600</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>5830800</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>5840500</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>4195600</v>
+        <v>4389300</v>
       </c>
       <c r="E62" s="3">
-        <v>3781900</v>
+        <v>4146200</v>
       </c>
       <c r="F62" s="3">
-        <v>3898500</v>
+        <v>3737400</v>
       </c>
       <c r="G62" s="3">
-        <v>3717900</v>
+        <v>3852600</v>
       </c>
       <c r="H62" s="3">
-        <v>3596100</v>
+        <v>3674200</v>
       </c>
       <c r="I62" s="3">
-        <v>3403400</v>
+        <v>3553800</v>
       </c>
       <c r="J62" s="3">
+        <v>3363300</v>
+      </c>
+      <c r="K62" s="3">
         <v>3730200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3901800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3713300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3819900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>3851200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2626500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2574400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2461100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>2184400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1988400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1874200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1860200</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>2032600</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1915900</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -4119,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>20871000</v>
+        <v>21343500</v>
       </c>
       <c r="E66" s="3">
-        <v>20284600</v>
+        <v>20625500</v>
       </c>
       <c r="F66" s="3">
-        <v>20538600</v>
+        <v>20046000</v>
       </c>
       <c r="G66" s="3">
-        <v>19435000</v>
+        <v>20297000</v>
       </c>
       <c r="H66" s="3">
-        <v>19091400</v>
+        <v>19206300</v>
       </c>
       <c r="I66" s="3">
-        <v>18384600</v>
+        <v>18866800</v>
       </c>
       <c r="J66" s="3">
+        <v>18168300</v>
+      </c>
+      <c r="K66" s="3">
         <v>18914300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>18899300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>17654900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>19205500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>16714600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>13198100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>13130700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>13728400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>13716100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>12834200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>12499800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>13239200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>13793600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>12760400</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>18427500</v>
+        <v>18737900</v>
       </c>
       <c r="E72" s="3">
-        <v>19444400</v>
+        <v>18210700</v>
       </c>
       <c r="F72" s="3">
-        <v>19534600</v>
+        <v>19215700</v>
       </c>
       <c r="G72" s="3">
-        <v>19206400</v>
+        <v>19304800</v>
       </c>
       <c r="H72" s="3">
-        <v>18941900</v>
+        <v>18980400</v>
       </c>
       <c r="I72" s="3">
-        <v>18580800</v>
+        <v>18719100</v>
       </c>
       <c r="J72" s="3">
+        <v>18362200</v>
+      </c>
+      <c r="K72" s="3">
         <v>18894400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>19871700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>19470600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>19870500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>18601400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>17574500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>17434000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>16667600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>15695600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>15173300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>14531800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>14306000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>14357800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>13922500</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>21677900</v>
+        <v>22065600</v>
       </c>
       <c r="E76" s="3">
-        <v>20312600</v>
+        <v>21422900</v>
       </c>
       <c r="F76" s="3">
-        <v>20182300</v>
+        <v>20073600</v>
       </c>
       <c r="G76" s="3">
-        <v>20224700</v>
+        <v>19944900</v>
       </c>
       <c r="H76" s="3">
-        <v>19972200</v>
+        <v>19986800</v>
       </c>
       <c r="I76" s="3">
-        <v>19289200</v>
+        <v>19737200</v>
       </c>
       <c r="J76" s="3">
+        <v>19062300</v>
+      </c>
+      <c r="K76" s="3">
         <v>19507700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>20246300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>19824800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>20239800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>18875500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>17732900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>17392200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>16624500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>15701100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>15258700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>14584600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>14226800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>14374300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>13839700</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>647800</v>
+        <v>655600</v>
       </c>
       <c r="E81" s="3">
-        <v>471400</v>
+        <v>640200</v>
       </c>
       <c r="F81" s="3">
-        <v>320500</v>
+        <v>465800</v>
       </c>
       <c r="G81" s="3">
-        <v>325700</v>
+        <v>316800</v>
       </c>
       <c r="H81" s="3">
-        <v>360100</v>
+        <v>318600</v>
       </c>
       <c r="I81" s="3">
-        <v>259100</v>
+        <v>355900</v>
       </c>
       <c r="J81" s="3">
+        <v>256100</v>
+      </c>
+      <c r="K81" s="3">
         <v>-27200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>240900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>228500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>341700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>404200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>832400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>762900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>583800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>511800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>700300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>542500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>530200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>432400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>292600</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -5019,73 +5217,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>880700</v>
+        <v>884000</v>
       </c>
       <c r="E83" s="3">
-        <v>878500</v>
+        <v>870400</v>
       </c>
       <c r="F83" s="3">
-        <v>922000</v>
+        <v>868200</v>
       </c>
       <c r="G83" s="3">
-        <v>879500</v>
+        <v>911100</v>
       </c>
       <c r="H83" s="3">
-        <v>876600</v>
+        <v>869200</v>
       </c>
       <c r="I83" s="3">
-        <v>866400</v>
+        <v>866200</v>
       </c>
       <c r="J83" s="3">
+        <v>856200</v>
+      </c>
+      <c r="K83" s="3">
         <v>874600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>892700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>855000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>848400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>711200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>653900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>677500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>692100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>732200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>718700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>707600</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>715200</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>722200</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>688100</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -5409,73 +5623,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>1178300</v>
+        <v>1180400</v>
       </c>
       <c r="E89" s="3">
-        <v>757400</v>
+        <v>1164500</v>
       </c>
       <c r="F89" s="3">
-        <v>1101800</v>
+        <v>748500</v>
       </c>
       <c r="G89" s="3">
-        <v>1394800</v>
+        <v>1088800</v>
       </c>
       <c r="H89" s="3">
-        <v>1625500</v>
+        <v>1378400</v>
       </c>
       <c r="I89" s="3">
-        <v>826600</v>
+        <v>1606300</v>
       </c>
       <c r="J89" s="3">
+        <v>816800</v>
+      </c>
+      <c r="K89" s="3">
         <v>975700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>746100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>907500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>881500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1389100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>382000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1024900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>829300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>828600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>969400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>776500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>837300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1379600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>799200</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -5499,73 +5719,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-471300</v>
+        <v>-676200</v>
       </c>
       <c r="E91" s="3">
-        <v>-641900</v>
+        <v>-465800</v>
       </c>
       <c r="F91" s="3">
-        <v>-763100</v>
+        <v>-634300</v>
       </c>
       <c r="G91" s="3">
-        <v>-819600</v>
+        <v>-754100</v>
       </c>
       <c r="H91" s="3">
-        <v>-552800</v>
+        <v>-809900</v>
       </c>
       <c r="I91" s="3">
-        <v>-888700</v>
+        <v>-546300</v>
       </c>
       <c r="J91" s="3">
+        <v>-878200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-969100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-796300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-571500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-629400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-789700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-622200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-383600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-527100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-730500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-688700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-391900</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-608900</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-1158400</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-855700</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -5694,73 +5921,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-866400</v>
+        <v>-979000</v>
       </c>
       <c r="E94" s="3">
-        <v>-445200</v>
+        <v>-856200</v>
       </c>
       <c r="F94" s="3">
-        <v>-1022500</v>
+        <v>-440000</v>
       </c>
       <c r="G94" s="3">
-        <v>-1001300</v>
+        <v>-1010500</v>
       </c>
       <c r="H94" s="3">
-        <v>-541000</v>
+        <v>-989600</v>
       </c>
       <c r="I94" s="3">
-        <v>-1048000</v>
+        <v>-534600</v>
       </c>
       <c r="J94" s="3">
+        <v>-1035700</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1309800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1016400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-404700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-400100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2284100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-292400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-356000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-456800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-845900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-805200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-473600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-590600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-755400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-667600</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -5784,25 +6017,26 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-149400</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-9200</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-62200</v>
+        <v>-9000</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-61400</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
@@ -5811,11 +6045,11 @@
         <v>0</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-64000</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
         <v>0</v>
       </c>
@@ -5823,11 +6057,11 @@
         <v>0</v>
       </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-57200</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
         <v>0</v>
       </c>
@@ -5835,11 +6069,11 @@
         <v>0</v>
       </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-62100</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
         <v>0</v>
       </c>
@@ -5847,10 +6081,13 @@
         <v>0</v>
       </c>
       <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
         <v>-63500</v>
       </c>
     </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -6044,199 +6287,211 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>-49700</v>
+        <v>-247400</v>
       </c>
       <c r="E100" s="3">
-        <v>-434000</v>
+        <v>-49200</v>
       </c>
       <c r="F100" s="3">
-        <v>-498900</v>
+        <v>-428900</v>
       </c>
       <c r="G100" s="3">
-        <v>-62400</v>
+        <v>-493000</v>
       </c>
       <c r="H100" s="3">
-        <v>-761700</v>
+        <v>-61700</v>
       </c>
       <c r="I100" s="3">
-        <v>84100</v>
+        <v>-752700</v>
       </c>
       <c r="J100" s="3">
+        <v>83100</v>
+      </c>
+      <c r="K100" s="3">
         <v>324500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>120000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1033500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>19100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-163300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>696800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-746200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-13300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>30200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>19200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-603000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-177800</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-48400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-343800</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E101" s="3">
         <v>-400</v>
       </c>
-      <c r="E101" s="3">
-        <v>4200</v>
-      </c>
       <c r="F101" s="3">
-        <v>-17400</v>
+        <v>4100</v>
       </c>
       <c r="G101" s="3">
-        <v>-2200</v>
+        <v>-17100</v>
       </c>
       <c r="H101" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="I101" s="3">
         <v>-600</v>
       </c>
-      <c r="I101" s="3">
-        <v>7300</v>
-      </c>
       <c r="J101" s="3">
+        <v>7200</v>
+      </c>
+      <c r="K101" s="3">
         <v>-6400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>6100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-2100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>2500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-2800</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>2100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>400</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-3600</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>1100</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>2300</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-5200</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>5600</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>261800</v>
+        <v>-40100</v>
       </c>
       <c r="E102" s="3">
-        <v>-117600</v>
+        <v>258700</v>
       </c>
       <c r="F102" s="3">
-        <v>-437000</v>
+        <v>-116200</v>
       </c>
       <c r="G102" s="3">
-        <v>328900</v>
+        <v>-431900</v>
       </c>
       <c r="H102" s="3">
-        <v>322300</v>
+        <v>325000</v>
       </c>
       <c r="I102" s="3">
-        <v>-130100</v>
+        <v>318500</v>
       </c>
       <c r="J102" s="3">
+        <v>-128600</v>
+      </c>
+      <c r="K102" s="3">
         <v>-16100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-144100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-532800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>500800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1055800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>783600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-75200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>359500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>9300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>184400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-297700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>63700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>581400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-216300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SKM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SKM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="92">
   <si>
     <t>SKM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,308 +665,320 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4172700</v>
+        <v>13566400</v>
       </c>
       <c r="E8" s="3">
-        <v>4047300</v>
+        <v>4023700</v>
       </c>
       <c r="F8" s="3">
-        <v>4015600</v>
+        <v>3902800</v>
       </c>
       <c r="G8" s="3">
-        <v>4066100</v>
+        <v>3872200</v>
       </c>
       <c r="H8" s="3">
-        <v>3974400</v>
+        <v>13031100</v>
       </c>
       <c r="I8" s="3">
-        <v>3866800</v>
+        <v>3832500</v>
       </c>
       <c r="J8" s="3">
+        <v>3728700</v>
+      </c>
+      <c r="K8" s="3">
         <v>3738500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3746400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4059500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3904600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3944800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3655400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3391000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3489600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3512500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3957600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3909600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>3824100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>3810900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>3917000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>3819400</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>154700</v>
+        <v>607200</v>
       </c>
       <c r="E9" s="3">
-        <v>153900</v>
+        <v>149200</v>
       </c>
       <c r="F9" s="3">
-        <v>162900</v>
+        <v>148400</v>
       </c>
       <c r="G9" s="3">
-        <v>140300</v>
+        <v>157100</v>
       </c>
       <c r="H9" s="3">
-        <v>169200</v>
+        <v>624300</v>
       </c>
       <c r="I9" s="3">
-        <v>174200</v>
+        <v>163100</v>
       </c>
       <c r="J9" s="3">
+        <v>167900</v>
+      </c>
+      <c r="K9" s="3">
         <v>163800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>162600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>163700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>165200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>172300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>136400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>171900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>183800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>180600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>190800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>197200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>187500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>199000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>153400</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>238000</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4018000</v>
+        <v>12959200</v>
       </c>
       <c r="E10" s="3">
-        <v>3893500</v>
+        <v>3874500</v>
       </c>
       <c r="F10" s="3">
-        <v>3852700</v>
+        <v>3754400</v>
       </c>
       <c r="G10" s="3">
-        <v>3925800</v>
+        <v>3715100</v>
       </c>
       <c r="H10" s="3">
-        <v>3805200</v>
+        <v>12406800</v>
       </c>
       <c r="I10" s="3">
-        <v>3692600</v>
+        <v>3669300</v>
       </c>
       <c r="J10" s="3">
+        <v>3560800</v>
+      </c>
+      <c r="K10" s="3">
         <v>3574700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3583800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3895800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>3739400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>3772400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>3519000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>3219100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>3305800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>3331900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>3766900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>3712400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>3636700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>3612000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>3763600</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>3581400</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,76 +1003,80 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>82200</v>
+        <v>281600</v>
       </c>
       <c r="E12" s="3">
+        <v>79300</v>
+      </c>
+      <c r="F12" s="3">
+        <v>81900</v>
+      </c>
+      <c r="G12" s="3">
+        <v>81600</v>
+      </c>
+      <c r="H12" s="3">
+        <v>286100</v>
+      </c>
+      <c r="I12" s="3">
         <v>84900</v>
       </c>
-      <c r="F12" s="3">
-        <v>84600</v>
-      </c>
-      <c r="G12" s="3">
-        <v>81000</v>
-      </c>
-      <c r="H12" s="3">
-        <v>88100</v>
-      </c>
-      <c r="I12" s="3">
-        <v>88100</v>
-      </c>
       <c r="J12" s="3">
+        <v>85000</v>
+      </c>
+      <c r="K12" s="3">
         <v>92700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>86500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>83300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>84700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>90800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>88900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>76200</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>82500</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>75100</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>90300</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>90800</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>83500</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>85200</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>82100</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>76900</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1127,144 +1143,153 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E14" s="3">
-        <v>4500</v>
-      </c>
       <c r="F14" s="3">
-        <v>-4200</v>
+        <v>4300</v>
       </c>
       <c r="G14" s="3">
-        <v>164700</v>
+        <v>-4100</v>
       </c>
       <c r="H14" s="3">
-        <v>0</v>
+        <v>162600</v>
       </c>
       <c r="I14" s="3">
-        <v>10700</v>
-      </c>
-      <c r="J14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>10300</v>
+      </c>
+      <c r="K14" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>54900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>200</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>2100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>100</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>214000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>400</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>2100</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>800</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>52300</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>300</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>3700</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>2000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>5700</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>852100</v>
+        <v>2974800</v>
       </c>
       <c r="E15" s="3">
-        <v>838200</v>
+        <v>821600</v>
       </c>
       <c r="F15" s="3">
-        <v>837000</v>
+        <v>808200</v>
       </c>
       <c r="G15" s="3">
-        <v>875800</v>
+        <v>807200</v>
       </c>
       <c r="H15" s="3">
-        <v>846000</v>
+        <v>2968400</v>
       </c>
       <c r="I15" s="3">
-        <v>837400</v>
+        <v>815800</v>
       </c>
       <c r="J15" s="3">
+        <v>807500</v>
+      </c>
+      <c r="K15" s="3">
         <v>827200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>912300</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>856100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>818700</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>810900</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>676100</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>621700</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>644900</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>660200</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>696900</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>684300</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>674200</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>685500</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>695000</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>659700</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1311,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>3836700</v>
+        <v>12445300</v>
       </c>
       <c r="E17" s="3">
-        <v>3718700</v>
+        <v>3699700</v>
       </c>
       <c r="F17" s="3">
-        <v>3684800</v>
+        <v>3585900</v>
       </c>
       <c r="G17" s="3">
-        <v>3956700</v>
+        <v>3553200</v>
       </c>
       <c r="H17" s="3">
-        <v>3673700</v>
+        <v>12182300</v>
       </c>
       <c r="I17" s="3">
-        <v>3576900</v>
+        <v>3542500</v>
       </c>
       <c r="J17" s="3">
+        <v>3449200</v>
+      </c>
+      <c r="K17" s="3">
         <v>3485400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3664800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3790900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3622600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3651300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3680200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3145000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3200300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3239800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3736700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3564600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>3455400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>3443500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>3650900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>3442500</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>336000</v>
+        <v>1121100</v>
       </c>
       <c r="E18" s="3">
-        <v>328700</v>
+        <v>324000</v>
       </c>
       <c r="F18" s="3">
-        <v>330800</v>
+        <v>316900</v>
       </c>
       <c r="G18" s="3">
-        <v>109400</v>
+        <v>319000</v>
       </c>
       <c r="H18" s="3">
-        <v>300700</v>
+        <v>848800</v>
       </c>
       <c r="I18" s="3">
-        <v>289900</v>
+        <v>290000</v>
       </c>
       <c r="J18" s="3">
+        <v>279500</v>
+      </c>
+      <c r="K18" s="3">
         <v>253100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>81700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>268600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>282000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>293500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-24700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>246000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>289300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>272600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>220900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>345000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>368800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>367500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>266100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>376900</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1448,348 +1480,364 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>533400</v>
+        <v>497300</v>
       </c>
       <c r="E20" s="3">
-        <v>593200</v>
+        <v>514400</v>
       </c>
       <c r="F20" s="3">
-        <v>316300</v>
+        <v>572000</v>
       </c>
       <c r="G20" s="3">
-        <v>354100</v>
+        <v>305000</v>
       </c>
       <c r="H20" s="3">
-        <v>289900</v>
+        <v>118500</v>
       </c>
       <c r="I20" s="3">
-        <v>332100</v>
+        <v>279500</v>
       </c>
       <c r="J20" s="3">
+        <v>320200</v>
+      </c>
+      <c r="K20" s="3">
         <v>140700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>130200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>116400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>225300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>607100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>866100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>748000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>552300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>662700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>601900</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>355900</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>351300</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>307600</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>78400</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>1753400</v>
+        <v>4951000</v>
       </c>
       <c r="E21" s="3">
-        <v>1792300</v>
+        <v>1690800</v>
       </c>
       <c r="F21" s="3">
-        <v>1515300</v>
+        <v>1728300</v>
       </c>
       <c r="G21" s="3">
-        <v>1374600</v>
+        <v>1461200</v>
       </c>
       <c r="H21" s="3">
-        <v>1459800</v>
+        <v>4345000</v>
       </c>
       <c r="I21" s="3">
-        <v>1488200</v>
+        <v>1407600</v>
       </c>
       <c r="J21" s="3">
+        <v>1435000</v>
+      </c>
+      <c r="K21" s="3">
         <v>1250100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>956400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1291600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1253400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1367100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1293500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1766000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1714900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1517100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1615900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1665600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1432300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1434000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1295900</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1143300</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>76200</v>
+        <v>226600</v>
       </c>
       <c r="E22" s="3">
-        <v>73300</v>
+        <v>73400</v>
       </c>
       <c r="F22" s="3">
-        <v>72700</v>
+        <v>70700</v>
       </c>
       <c r="G22" s="3">
-        <v>96400</v>
+        <v>70100</v>
       </c>
       <c r="H22" s="3">
-        <v>156700</v>
+        <v>234100</v>
       </c>
       <c r="I22" s="3">
-        <v>160800</v>
+        <v>151100</v>
       </c>
       <c r="J22" s="3">
+        <v>155100</v>
+      </c>
+      <c r="K22" s="3">
         <v>84400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>89700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>87900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>87600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>93100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>75000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>57500</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>60400</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>63100</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>68300</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>63400</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>66100</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>67000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>66000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>67200</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>793200</v>
+        <v>1391700</v>
       </c>
       <c r="E23" s="3">
-        <v>848600</v>
+        <v>764900</v>
       </c>
       <c r="F23" s="3">
-        <v>574400</v>
+        <v>818300</v>
       </c>
       <c r="G23" s="3">
-        <v>367000</v>
+        <v>553900</v>
       </c>
       <c r="H23" s="3">
-        <v>433900</v>
+        <v>733200</v>
       </c>
       <c r="I23" s="3">
-        <v>461100</v>
+        <v>418400</v>
       </c>
       <c r="J23" s="3">
+        <v>444700</v>
+      </c>
+      <c r="K23" s="3">
         <v>309400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-8000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>311000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>310800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>425700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>507400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1054600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>977000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>761900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>815400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>883600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>658600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>651800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>507700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>388100</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>174600</v>
+        <v>361900</v>
       </c>
       <c r="E24" s="3">
-        <v>180200</v>
+        <v>168300</v>
       </c>
       <c r="F24" s="3">
-        <v>94000</v>
+        <v>173800</v>
       </c>
       <c r="G24" s="3">
-        <v>59700</v>
+        <v>90600</v>
       </c>
       <c r="H24" s="3">
-        <v>104800</v>
+        <v>179200</v>
       </c>
       <c r="I24" s="3">
-        <v>98000</v>
+        <v>101100</v>
       </c>
       <c r="J24" s="3">
+        <v>94500</v>
+      </c>
+      <c r="K24" s="3">
         <v>52400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>31400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>66700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>82900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>85700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>108800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>204200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>208900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>179400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>234000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>185800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>112600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>126700</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>80500</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>98200</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1856,144 +1904,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>618700</v>
+        <v>1029800</v>
       </c>
       <c r="E26" s="3">
-        <v>668400</v>
+        <v>596600</v>
       </c>
       <c r="F26" s="3">
-        <v>480500</v>
+        <v>644500</v>
       </c>
       <c r="G26" s="3">
-        <v>307300</v>
+        <v>463300</v>
       </c>
       <c r="H26" s="3">
-        <v>329100</v>
+        <v>554000</v>
       </c>
       <c r="I26" s="3">
-        <v>363200</v>
+        <v>317400</v>
       </c>
       <c r="J26" s="3">
+        <v>350200</v>
+      </c>
+      <c r="K26" s="3">
         <v>257000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-39400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>244200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>228000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>340000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>398600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>850400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>768000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>582400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>581400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>697800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>546000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>525100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>427200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>289900</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>655600</v>
+        <v>974200</v>
       </c>
       <c r="E27" s="3">
-        <v>640200</v>
+        <v>632200</v>
       </c>
       <c r="F27" s="3">
-        <v>465800</v>
+        <v>617300</v>
       </c>
       <c r="G27" s="3">
-        <v>316800</v>
+        <v>449200</v>
       </c>
       <c r="H27" s="3">
-        <v>318600</v>
+        <v>513400</v>
       </c>
       <c r="I27" s="3">
-        <v>355900</v>
+        <v>307300</v>
       </c>
       <c r="J27" s="3">
+        <v>343200</v>
+      </c>
+      <c r="K27" s="3">
         <v>256100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-27200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>240900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>228500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>341700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>404200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>832400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>762900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>583800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>511800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>700300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>542500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>530200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>432400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>292600</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2060,31 +2117,34 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
-      </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
+        <v>963900</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3">
-        <v>0</v>
+        <v>693200</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -2128,8 +2188,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2264,144 +2330,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-533400</v>
+        <v>-497300</v>
       </c>
       <c r="E32" s="3">
-        <v>-593200</v>
+        <v>-514400</v>
       </c>
       <c r="F32" s="3">
-        <v>-316300</v>
+        <v>-572000</v>
       </c>
       <c r="G32" s="3">
-        <v>-354100</v>
+        <v>-305000</v>
       </c>
       <c r="H32" s="3">
-        <v>-289900</v>
+        <v>-118500</v>
       </c>
       <c r="I32" s="3">
-        <v>-332100</v>
+        <v>-279500</v>
       </c>
       <c r="J32" s="3">
+        <v>-320200</v>
+      </c>
+      <c r="K32" s="3">
         <v>-140700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-130200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-116400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-225300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-607100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-866100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-748000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-552300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-662700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-601900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-355900</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-351300</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-307600</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-78400</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>655600</v>
+        <v>1938100</v>
       </c>
       <c r="E33" s="3">
-        <v>640200</v>
+        <v>632200</v>
       </c>
       <c r="F33" s="3">
-        <v>465800</v>
+        <v>617300</v>
       </c>
       <c r="G33" s="3">
-        <v>316800</v>
+        <v>449200</v>
       </c>
       <c r="H33" s="3">
-        <v>318600</v>
+        <v>1206600</v>
       </c>
       <c r="I33" s="3">
-        <v>355900</v>
+        <v>307300</v>
       </c>
       <c r="J33" s="3">
+        <v>343200</v>
+      </c>
+      <c r="K33" s="3">
         <v>256100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-27200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>240900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>228500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>341700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>404200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>832400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>762900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>583800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>511800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>700300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>542500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>530200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>432400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>292600</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2468,149 +2543,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>655600</v>
+        <v>1938100</v>
       </c>
       <c r="E35" s="3">
-        <v>640200</v>
+        <v>632200</v>
       </c>
       <c r="F35" s="3">
-        <v>465800</v>
+        <v>617300</v>
       </c>
       <c r="G35" s="3">
-        <v>316800</v>
+        <v>449200</v>
       </c>
       <c r="H35" s="3">
-        <v>318600</v>
+        <v>1206600</v>
       </c>
       <c r="I35" s="3">
-        <v>355900</v>
+        <v>307300</v>
       </c>
       <c r="J35" s="3">
+        <v>343200</v>
+      </c>
+      <c r="K35" s="3">
         <v>256100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-27200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>240900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>228500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>341700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>404200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>832400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>762900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>583800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>511800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>700300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>542500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>530200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>432400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>292600</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2661,620 +2746,648 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>1252900</v>
+        <v>706900</v>
       </c>
       <c r="E41" s="3">
-        <v>1293000</v>
+        <v>1208200</v>
       </c>
       <c r="F41" s="3">
-        <v>1034300</v>
+        <v>1246800</v>
       </c>
       <c r="G41" s="3">
-        <v>1150500</v>
+        <v>997400</v>
       </c>
       <c r="H41" s="3">
-        <v>1582400</v>
+        <v>1109400</v>
       </c>
       <c r="I41" s="3">
-        <v>1257400</v>
+        <v>1525900</v>
       </c>
       <c r="J41" s="3">
+        <v>1212500</v>
+      </c>
+      <c r="K41" s="3">
         <v>938900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1080200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1147800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1277400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1871900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1265600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2238500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1508800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1584000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1282800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1273500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1089100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1418400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1354700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>773300</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>1416700</v>
+        <v>351700</v>
       </c>
       <c r="E42" s="3">
-        <v>1328800</v>
+        <v>1366100</v>
       </c>
       <c r="F42" s="3">
-        <v>1224500</v>
+        <v>1281300</v>
       </c>
       <c r="G42" s="3">
-        <v>1242600</v>
+        <v>1180800</v>
       </c>
       <c r="H42" s="3">
-        <v>916800</v>
+        <v>1198200</v>
       </c>
       <c r="I42" s="3">
-        <v>824400</v>
+        <v>884100</v>
       </c>
       <c r="J42" s="3">
+        <v>795000</v>
+      </c>
+      <c r="K42" s="3">
         <v>903200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>766900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>866400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>728100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>733100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>975400</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>318100</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>452600</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>540900</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>590800</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>626300</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>647200</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>612800</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>437300</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>580900</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>3105100</v>
+        <v>2114300</v>
       </c>
       <c r="E43" s="3">
-        <v>2894600</v>
+        <v>2994200</v>
       </c>
       <c r="F43" s="3">
-        <v>3001700</v>
+        <v>2791200</v>
       </c>
       <c r="G43" s="3">
-        <v>2831800</v>
+        <v>2894500</v>
       </c>
       <c r="H43" s="3">
-        <v>2905100</v>
+        <v>2730700</v>
       </c>
       <c r="I43" s="3">
-        <v>2747500</v>
+        <v>2801300</v>
       </c>
       <c r="J43" s="3">
+        <v>2649400</v>
+      </c>
+      <c r="K43" s="3">
         <v>2902000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2886300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3122000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2860700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3116800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2605400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>3040500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2736500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>3179400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>3039200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>2826800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>2900700</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>2901300</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>3081700</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>3293200</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>166500</v>
+        <v>165800</v>
       </c>
       <c r="E44" s="3">
-        <v>177900</v>
+        <v>160500</v>
       </c>
       <c r="F44" s="3">
-        <v>186100</v>
+        <v>171500</v>
       </c>
       <c r="G44" s="3">
-        <v>144000</v>
+        <v>179400</v>
       </c>
       <c r="H44" s="3">
-        <v>181500</v>
+        <v>138900</v>
       </c>
       <c r="I44" s="3">
-        <v>171700</v>
+        <v>175000</v>
       </c>
       <c r="J44" s="3">
+        <v>165500</v>
+      </c>
+      <c r="K44" s="3">
         <v>174800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>138400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>178500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>197000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>239900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>242000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>208700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>217800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>213800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>239700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>219000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>231900</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>223700</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>233900</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>246600</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>1887200</v>
+        <v>1807000</v>
       </c>
       <c r="E45" s="3">
-        <v>1984100</v>
+        <v>1819800</v>
       </c>
       <c r="F45" s="3">
-        <v>2000100</v>
+        <v>1913200</v>
       </c>
       <c r="G45" s="3">
-        <v>2002100</v>
+        <v>1928700</v>
       </c>
       <c r="H45" s="3">
-        <v>2001200</v>
+        <v>1930600</v>
       </c>
       <c r="I45" s="3">
-        <v>1938600</v>
+        <v>1929800</v>
       </c>
       <c r="J45" s="3">
+        <v>1869300</v>
+      </c>
+      <c r="K45" s="3">
         <v>1904400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2003300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1881800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1612400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1635700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1597000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1505000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1648400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1597800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>305100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>341700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>228600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>212400</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>289400</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>305900</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>7828400</v>
+        <v>5145700</v>
       </c>
       <c r="E46" s="3">
-        <v>7678400</v>
+        <v>7548800</v>
       </c>
       <c r="F46" s="3">
-        <v>7446800</v>
+        <v>7404100</v>
       </c>
       <c r="G46" s="3">
-        <v>7371100</v>
+        <v>7180800</v>
       </c>
       <c r="H46" s="3">
-        <v>7587000</v>
+        <v>7107800</v>
       </c>
       <c r="I46" s="3">
-        <v>6939500</v>
+        <v>7316000</v>
       </c>
       <c r="J46" s="3">
+        <v>6691700</v>
+      </c>
+      <c r="K46" s="3">
         <v>6823200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>6875200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>7196700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>6675700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>7597400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>6685400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>7310800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>6564000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>7115900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>5457600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>5287300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>5097500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>5368600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>5397000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>5199900</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>16844500</v>
+        <v>3450100</v>
       </c>
       <c r="E47" s="3">
-        <v>15644400</v>
+        <v>16242900</v>
       </c>
       <c r="F47" s="3">
-        <v>14149200</v>
+        <v>15085700</v>
       </c>
       <c r="G47" s="3">
-        <v>13817300</v>
+        <v>13643900</v>
       </c>
       <c r="H47" s="3">
-        <v>13435800</v>
+        <v>13323800</v>
       </c>
       <c r="I47" s="3">
-        <v>12955700</v>
+        <v>12956000</v>
       </c>
       <c r="J47" s="3">
+        <v>12493000</v>
+      </c>
+      <c r="K47" s="3">
         <v>12472300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>12502800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>12994600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>12402900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>12830400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>11621100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>10715900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>10427800</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>9560700</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>9483000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>8899800</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>8030500</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>7602200</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>7603200</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>7518000</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>11037900</v>
+        <v>10444400</v>
       </c>
       <c r="E48" s="3">
-        <v>11124800</v>
+        <v>10643700</v>
       </c>
       <c r="F48" s="3">
-        <v>10836400</v>
+        <v>10727400</v>
       </c>
       <c r="G48" s="3">
-        <v>11236700</v>
+        <v>10449400</v>
       </c>
       <c r="H48" s="3">
-        <v>10239800</v>
+        <v>10835400</v>
       </c>
       <c r="I48" s="3">
-        <v>10537200</v>
+        <v>9874100</v>
       </c>
       <c r="J48" s="3">
+        <v>10160800</v>
+      </c>
+      <c r="K48" s="3">
         <v>10069700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>10993400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>10310700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>9942300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>10188200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>9003400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>7678300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>8009300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>8104800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>8927500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>8449400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>8424900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>8936000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>9336800</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>8818900</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>6311500</v>
+        <v>4813200</v>
       </c>
       <c r="E49" s="3">
-        <v>6304600</v>
+        <v>6086000</v>
       </c>
       <c r="F49" s="3">
-        <v>6381800</v>
+        <v>6079500</v>
       </c>
       <c r="G49" s="3">
-        <v>6546700</v>
+        <v>6153900</v>
       </c>
       <c r="H49" s="3">
-        <v>6636200</v>
+        <v>6312900</v>
       </c>
       <c r="I49" s="3">
-        <v>6788300</v>
+        <v>6399200</v>
       </c>
       <c r="J49" s="3">
+        <v>6545900</v>
+      </c>
+      <c r="K49" s="3">
         <v>6426000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>6643300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>7011600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>7117600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>7518000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>7099700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>4170600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>4448600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>4511000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>4841700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>4934900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>5000900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>5037500</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>5137900</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>4591200</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -3409,76 +3525,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>1386800</v>
+        <v>1184800</v>
       </c>
       <c r="E52" s="3">
-        <v>1296200</v>
+        <v>1337300</v>
       </c>
       <c r="F52" s="3">
-        <v>1305500</v>
+        <v>1249900</v>
       </c>
       <c r="G52" s="3">
-        <v>1270000</v>
+        <v>1258900</v>
       </c>
       <c r="H52" s="3">
-        <v>1294300</v>
+        <v>1224700</v>
       </c>
       <c r="I52" s="3">
-        <v>1383300</v>
+        <v>1248100</v>
       </c>
       <c r="J52" s="3">
+        <v>1333900</v>
+      </c>
+      <c r="K52" s="3">
         <v>1439300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1407300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1632000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1341300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1311200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1180300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1055500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1073200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1060500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>707400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>521500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>530700</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>521800</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>693000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>472200</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -3545,76 +3667,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>43409100</v>
+        <v>25038100</v>
       </c>
       <c r="E54" s="3">
-        <v>42048400</v>
+        <v>41858800</v>
       </c>
       <c r="F54" s="3">
-        <v>40119600</v>
+        <v>40546700</v>
       </c>
       <c r="G54" s="3">
-        <v>40241800</v>
+        <v>38686800</v>
       </c>
       <c r="H54" s="3">
-        <v>39193100</v>
+        <v>38804600</v>
       </c>
       <c r="I54" s="3">
-        <v>38604000</v>
+        <v>37793400</v>
       </c>
       <c r="J54" s="3">
+        <v>37225300</v>
+      </c>
+      <c r="K54" s="3">
         <v>37230600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>38422000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>39145600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>37479700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>39445300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>35590100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>30931100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>30522900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>30352900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>29417200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>28093000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>27084400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>27466000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>28167900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>26600100</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -3665,416 +3794,435 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>284200</v>
+        <v>154400</v>
       </c>
       <c r="E57" s="3">
-        <v>255600</v>
+        <v>274000</v>
       </c>
       <c r="F57" s="3">
-        <v>282700</v>
+        <v>246500</v>
       </c>
       <c r="G57" s="3">
-        <v>313200</v>
+        <v>272600</v>
       </c>
       <c r="H57" s="3">
-        <v>311700</v>
+        <v>302100</v>
       </c>
       <c r="I57" s="3">
-        <v>311600</v>
+        <v>300500</v>
       </c>
       <c r="J57" s="3">
+        <v>300500</v>
+      </c>
+      <c r="K57" s="3">
         <v>327300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>372600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>405200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>332700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>283700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>320300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>217500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>221100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>204600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>309500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>226300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>219400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>237100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>362200</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>276000</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>1591400</v>
+        <v>1452200</v>
       </c>
       <c r="E58" s="3">
-        <v>1394300</v>
+        <v>1534600</v>
       </c>
       <c r="F58" s="3">
-        <v>1403100</v>
+        <v>1344500</v>
       </c>
       <c r="G58" s="3">
-        <v>1183700</v>
+        <v>1353000</v>
       </c>
       <c r="H58" s="3">
-        <v>1122600</v>
+        <v>1141400</v>
       </c>
       <c r="I58" s="3">
-        <v>999300</v>
+        <v>1082500</v>
       </c>
       <c r="J58" s="3">
+        <v>963600</v>
+      </c>
+      <c r="K58" s="3">
         <v>1234000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1198200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1223800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1310400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1605600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>894000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1002000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>856100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1192300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1461600</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1452600</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1315500</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>944800</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>802000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>615100</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>5164000</v>
+        <v>4031400</v>
       </c>
       <c r="E59" s="3">
-        <v>4920400</v>
+        <v>4979600</v>
       </c>
       <c r="F59" s="3">
-        <v>5117800</v>
+        <v>4744600</v>
       </c>
       <c r="G59" s="3">
-        <v>5372500</v>
+        <v>4935100</v>
       </c>
       <c r="H59" s="3">
-        <v>5012400</v>
+        <v>5180700</v>
       </c>
       <c r="I59" s="3">
-        <v>4934900</v>
+        <v>4833400</v>
       </c>
       <c r="J59" s="3">
+        <v>4758600</v>
+      </c>
+      <c r="K59" s="3">
         <v>4813200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>5103100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4927800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4464800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>5319400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>4537700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3551200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3760600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>4385500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>4484900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>3942300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>3822900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>4448200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>4635500</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>3962700</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>7039600</v>
+        <v>5638000</v>
       </c>
       <c r="E60" s="3">
-        <v>6570300</v>
+        <v>6788200</v>
       </c>
       <c r="F60" s="3">
-        <v>6803600</v>
+        <v>6335600</v>
       </c>
       <c r="G60" s="3">
-        <v>6869500</v>
+        <v>6560600</v>
       </c>
       <c r="H60" s="3">
-        <v>6446600</v>
+        <v>6624200</v>
       </c>
       <c r="I60" s="3">
-        <v>6245700</v>
+        <v>6216400</v>
       </c>
       <c r="J60" s="3">
+        <v>6022700</v>
+      </c>
+      <c r="K60" s="3">
         <v>6374500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6673900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6556800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>6107900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>7208600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>5751900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>4770700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>4837800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>5782300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>6256000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>5621200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>5357800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>5630000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>5799700</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>4853900</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>9145800</v>
+        <v>6946000</v>
       </c>
       <c r="E61" s="3">
-        <v>9150100</v>
+        <v>8819100</v>
       </c>
       <c r="F61" s="3">
-        <v>8940600</v>
+        <v>8823400</v>
       </c>
       <c r="G61" s="3">
-        <v>9026900</v>
+        <v>8621300</v>
       </c>
       <c r="H61" s="3">
-        <v>8641000</v>
+        <v>8704500</v>
       </c>
       <c r="I61" s="3">
-        <v>8630500</v>
+        <v>8332400</v>
       </c>
       <c r="J61" s="3">
+        <v>8322200</v>
+      </c>
+      <c r="K61" s="3">
         <v>8551200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>8623500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>8522600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>7920200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>8288300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>7213600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>5575400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>5547400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>5319600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>5111100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>5104400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>5178200</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>5654600</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>5830800</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>5840500</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>4389300</v>
+        <v>2462800</v>
       </c>
       <c r="E62" s="3">
-        <v>4146200</v>
+        <v>4232500</v>
       </c>
       <c r="F62" s="3">
-        <v>3737400</v>
+        <v>3998200</v>
       </c>
       <c r="G62" s="3">
-        <v>3852600</v>
+        <v>3603900</v>
       </c>
       <c r="H62" s="3">
-        <v>3674200</v>
+        <v>3715000</v>
       </c>
       <c r="I62" s="3">
-        <v>3553800</v>
+        <v>3543000</v>
       </c>
       <c r="J62" s="3">
+        <v>3426800</v>
+      </c>
+      <c r="K62" s="3">
         <v>3363300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3730200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3901800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3713300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>3819900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>3851200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2626500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2574400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>2461100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>2184400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1988400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1874200</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1860200</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>2032600</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>1915900</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -4277,76 +4431,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>21343500</v>
+        <v>15658900</v>
       </c>
       <c r="E66" s="3">
-        <v>20625500</v>
+        <v>20581300</v>
       </c>
       <c r="F66" s="3">
-        <v>20046000</v>
+        <v>19888900</v>
       </c>
       <c r="G66" s="3">
-        <v>20297000</v>
+        <v>19330100</v>
       </c>
       <c r="H66" s="3">
-        <v>19206300</v>
+        <v>19572100</v>
       </c>
       <c r="I66" s="3">
-        <v>18866800</v>
+        <v>18520400</v>
       </c>
       <c r="J66" s="3">
+        <v>18193000</v>
+      </c>
+      <c r="K66" s="3">
         <v>18168300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>18914300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>18899300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>17654900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>19205500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>16714600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>13198100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>13130700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>13728400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>13716100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>12834200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>12499800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>13239200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>13793600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>12760400</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -4507,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -4575,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -4643,76 +4813,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>18737900</v>
+        <v>18174200</v>
       </c>
       <c r="E72" s="3">
-        <v>18210700</v>
+        <v>18068700</v>
       </c>
       <c r="F72" s="3">
-        <v>19215700</v>
+        <v>17560300</v>
       </c>
       <c r="G72" s="3">
-        <v>19304800</v>
+        <v>18529400</v>
       </c>
       <c r="H72" s="3">
-        <v>18980400</v>
+        <v>18615300</v>
       </c>
       <c r="I72" s="3">
-        <v>18719100</v>
+        <v>18302500</v>
       </c>
       <c r="J72" s="3">
+        <v>18050600</v>
+      </c>
+      <c r="K72" s="3">
         <v>18362200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>18894400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>19871700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>19470600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>19870500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>18601400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>17574500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>17434000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>16667600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>15695600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>15173300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>14531800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>14306000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>14357800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>13922500</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -4915,76 +5097,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>22065600</v>
+        <v>9379300</v>
       </c>
       <c r="E76" s="3">
-        <v>21422900</v>
+        <v>21277500</v>
       </c>
       <c r="F76" s="3">
-        <v>20073600</v>
+        <v>20657800</v>
       </c>
       <c r="G76" s="3">
-        <v>19944900</v>
+        <v>19356700</v>
       </c>
       <c r="H76" s="3">
-        <v>19986800</v>
+        <v>19232600</v>
       </c>
       <c r="I76" s="3">
-        <v>19737200</v>
+        <v>19273000</v>
       </c>
       <c r="J76" s="3">
+        <v>19032300</v>
+      </c>
+      <c r="K76" s="3">
         <v>19062300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>19507700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>20246300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>19824800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>20239800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>18875500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>17732900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>17392200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>16624500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>15701100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>15258700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>14584600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>14226800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>14374300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>13839700</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -5051,149 +5239,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>655600</v>
+        <v>1938100</v>
       </c>
       <c r="E81" s="3">
-        <v>640200</v>
+        <v>632200</v>
       </c>
       <c r="F81" s="3">
-        <v>465800</v>
+        <v>617300</v>
       </c>
       <c r="G81" s="3">
-        <v>316800</v>
+        <v>449200</v>
       </c>
       <c r="H81" s="3">
-        <v>318600</v>
+        <v>1206600</v>
       </c>
       <c r="I81" s="3">
-        <v>355900</v>
+        <v>307300</v>
       </c>
       <c r="J81" s="3">
+        <v>343200</v>
+      </c>
+      <c r="K81" s="3">
         <v>256100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-27200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>240900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>228500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>341700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>404200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>832400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>762900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>583800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>511800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>700300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>542500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>530200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>432400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>292600</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -5218,76 +5415,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>884000</v>
+        <v>3332700</v>
       </c>
       <c r="E83" s="3">
-        <v>870400</v>
+        <v>852400</v>
       </c>
       <c r="F83" s="3">
-        <v>868200</v>
+        <v>839300</v>
       </c>
       <c r="G83" s="3">
-        <v>911100</v>
+        <v>837200</v>
       </c>
       <c r="H83" s="3">
-        <v>869200</v>
+        <v>3377700</v>
       </c>
       <c r="I83" s="3">
-        <v>866200</v>
+        <v>838100</v>
       </c>
       <c r="J83" s="3">
+        <v>835300</v>
+      </c>
+      <c r="K83" s="3">
         <v>856200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>874600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>892700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>855000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>848400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>711200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>653900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>677500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>692100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>732200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>718700</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>707600</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>715200</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>722200</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>688100</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -5626,76 +5839,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>1180400</v>
+        <v>4075300</v>
       </c>
       <c r="E89" s="3">
-        <v>1164500</v>
+        <v>1138200</v>
       </c>
       <c r="F89" s="3">
-        <v>748500</v>
+        <v>1122900</v>
       </c>
       <c r="G89" s="3">
-        <v>1088800</v>
+        <v>721800</v>
       </c>
       <c r="H89" s="3">
-        <v>1378400</v>
+        <v>4715700</v>
       </c>
       <c r="I89" s="3">
-        <v>1606300</v>
+        <v>1329200</v>
       </c>
       <c r="J89" s="3">
+        <v>1549000</v>
+      </c>
+      <c r="K89" s="3">
         <v>816800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>975700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>746100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>907500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>881500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1389100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>382000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1024900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>829300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>828600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>969400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>776500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>837300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1379600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>799200</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -5720,76 +5939,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-676200</v>
+        <v>-2361800</v>
       </c>
       <c r="E91" s="3">
-        <v>-465800</v>
+        <v>-652000</v>
       </c>
       <c r="F91" s="3">
-        <v>-634300</v>
+        <v>-449100</v>
       </c>
       <c r="G91" s="3">
-        <v>-754100</v>
+        <v>-611700</v>
       </c>
       <c r="H91" s="3">
-        <v>-809900</v>
+        <v>-2881800</v>
       </c>
       <c r="I91" s="3">
-        <v>-546300</v>
+        <v>-781000</v>
       </c>
       <c r="J91" s="3">
+        <v>-526800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-878200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-969100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-796300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-571500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-629400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-789700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-622200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-383600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-527100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-730500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-688700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-391900</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-608900</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-1158400</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-855700</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -5924,76 +6150,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-979000</v>
+        <v>-2823800</v>
       </c>
       <c r="E94" s="3">
-        <v>-856200</v>
+        <v>-944000</v>
       </c>
       <c r="F94" s="3">
-        <v>-440000</v>
+        <v>-825600</v>
       </c>
       <c r="G94" s="3">
-        <v>-1010500</v>
+        <v>-424200</v>
       </c>
       <c r="H94" s="3">
-        <v>-989600</v>
+        <v>-3442800</v>
       </c>
       <c r="I94" s="3">
-        <v>-534600</v>
+        <v>-954200</v>
       </c>
       <c r="J94" s="3">
+        <v>-515500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1035700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1309800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1016400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-404700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-400100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2284100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-292400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-356000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-456800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-845900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-805200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-473600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-590600</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-755400</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-667600</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -6018,28 +6250,29 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-149400</v>
+        <v>-833100</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-144100</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-9000</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-61400</v>
+        <v>-601100</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-59200</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
@@ -6048,11 +6281,11 @@
         <v>0</v>
       </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-64000</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
         <v>0</v>
       </c>
@@ -6060,11 +6293,11 @@
         <v>0</v>
       </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-57200</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
         <v>0</v>
       </c>
@@ -6072,11 +6305,11 @@
         <v>0</v>
       </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-62100</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
       <c r="V96" s="3">
         <v>0</v>
       </c>
@@ -6084,10 +6317,13 @@
         <v>0</v>
       </c>
       <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-63500</v>
       </c>
     </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -6290,208 +6532,220 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>-247400</v>
+        <v>-1663400</v>
       </c>
       <c r="E100" s="3">
-        <v>-49200</v>
+        <v>-238500</v>
       </c>
       <c r="F100" s="3">
-        <v>-428900</v>
+        <v>-47400</v>
       </c>
       <c r="G100" s="3">
-        <v>-493000</v>
+        <v>-413600</v>
       </c>
       <c r="H100" s="3">
-        <v>-61700</v>
+        <v>-1180600</v>
       </c>
       <c r="I100" s="3">
-        <v>-752700</v>
+        <v>-59500</v>
       </c>
       <c r="J100" s="3">
+        <v>-725800</v>
+      </c>
+      <c r="K100" s="3">
         <v>83100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>324500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>120000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1033500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>19100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-163300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>696800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-746200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-13300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>30200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>19200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-603000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-177800</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-48400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-343800</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>5900</v>
+        <v>9400</v>
       </c>
       <c r="E101" s="3">
+        <v>5700</v>
+      </c>
+      <c r="F101" s="3">
         <v>-400</v>
       </c>
-      <c r="F101" s="3">
-        <v>4100</v>
-      </c>
       <c r="G101" s="3">
-        <v>-17100</v>
+        <v>4000</v>
       </c>
       <c r="H101" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="I101" s="3">
         <v>-2100</v>
       </c>
-      <c r="I101" s="3">
-        <v>-600</v>
-      </c>
       <c r="J101" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K101" s="3">
         <v>7200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-6400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>6100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-2100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>2500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>2100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>400</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-3600</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>1100</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>2300</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-5200</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>5600</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>-40100</v>
+        <v>-402500</v>
       </c>
       <c r="E102" s="3">
-        <v>258700</v>
+        <v>-38700</v>
       </c>
       <c r="F102" s="3">
-        <v>-116200</v>
+        <v>249400</v>
       </c>
       <c r="G102" s="3">
-        <v>-431900</v>
+        <v>-112000</v>
       </c>
       <c r="H102" s="3">
-        <v>325000</v>
+        <v>80100</v>
       </c>
       <c r="I102" s="3">
-        <v>318500</v>
+        <v>313400</v>
       </c>
       <c r="J102" s="3">
+        <v>307100</v>
+      </c>
+      <c r="K102" s="3">
         <v>-128600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-16100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-144100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-532800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>500800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1055800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>783600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-75200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>359500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>9300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>184400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-297700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>63700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>581400</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-216300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SKM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SKM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="92">
   <si>
     <t>SKM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,320 +665,333 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>13566400</v>
+        <v>3293500</v>
       </c>
       <c r="E8" s="3">
-        <v>4023700</v>
+        <v>12896400</v>
       </c>
       <c r="F8" s="3">
-        <v>3902800</v>
+        <v>3825000</v>
       </c>
       <c r="G8" s="3">
-        <v>3872200</v>
+        <v>3710100</v>
       </c>
       <c r="H8" s="3">
-        <v>13031100</v>
+        <v>3167100</v>
       </c>
       <c r="I8" s="3">
-        <v>3832500</v>
+        <v>12387600</v>
       </c>
       <c r="J8" s="3">
+        <v>3643200</v>
+      </c>
+      <c r="K8" s="3">
         <v>3728700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3738500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3746400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4059500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3904600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3944800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3655400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3391000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3489600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3512500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3957600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>3909600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>3824100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>3810900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>3917000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>3819400</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>607200</v>
+        <v>145800</v>
       </c>
       <c r="E9" s="3">
-        <v>149200</v>
+        <v>577200</v>
       </c>
       <c r="F9" s="3">
-        <v>148400</v>
+        <v>141800</v>
       </c>
       <c r="G9" s="3">
-        <v>157100</v>
+        <v>141100</v>
       </c>
       <c r="H9" s="3">
-        <v>624300</v>
+        <v>149300</v>
       </c>
       <c r="I9" s="3">
-        <v>163100</v>
+        <v>593400</v>
       </c>
       <c r="J9" s="3">
+        <v>155100</v>
+      </c>
+      <c r="K9" s="3">
         <v>167900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>163800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>162600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>163700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>165200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>172300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>136400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>171900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>183800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>180600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>190800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>197200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>187500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>199000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>153400</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>238000</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>12959200</v>
+        <v>3147600</v>
       </c>
       <c r="E10" s="3">
-        <v>3874500</v>
+        <v>12319200</v>
       </c>
       <c r="F10" s="3">
-        <v>3754400</v>
+        <v>3683200</v>
       </c>
       <c r="G10" s="3">
-        <v>3715100</v>
+        <v>3569000</v>
       </c>
       <c r="H10" s="3">
-        <v>12406800</v>
+        <v>3017800</v>
       </c>
       <c r="I10" s="3">
-        <v>3669300</v>
+        <v>11794100</v>
       </c>
       <c r="J10" s="3">
+        <v>3488100</v>
+      </c>
+      <c r="K10" s="3">
         <v>3560800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3574700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3583800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>3895800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>3739400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>3772400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>3519000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>3219100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>3305800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>3331900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>3766900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>3712400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>3636700</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>3612000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>3763600</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>3581400</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1004,79 +1017,83 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>281600</v>
+        <v>60100</v>
       </c>
       <c r="E12" s="3">
-        <v>79300</v>
+        <v>267700</v>
       </c>
       <c r="F12" s="3">
-        <v>81900</v>
+        <v>75300</v>
       </c>
       <c r="G12" s="3">
-        <v>81600</v>
+        <v>77900</v>
       </c>
       <c r="H12" s="3">
-        <v>286100</v>
+        <v>64300</v>
       </c>
       <c r="I12" s="3">
-        <v>84900</v>
+        <v>272000</v>
       </c>
       <c r="J12" s="3">
+        <v>80700</v>
+      </c>
+      <c r="K12" s="3">
         <v>85000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>92700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>86500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>83300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>84700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>90800</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>88900</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>76200</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>82500</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>75100</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>90300</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>90800</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>83500</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>85200</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>82100</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>76900</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1146,150 +1163,159 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
-        <v>2500</v>
-      </c>
-      <c r="E14" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="F14" s="3">
-        <v>4300</v>
+      <c r="E14" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="G14" s="3">
-        <v>-4100</v>
+        <v>4100</v>
       </c>
       <c r="H14" s="3">
-        <v>162600</v>
+        <v>-3900</v>
       </c>
       <c r="I14" s="3">
-        <v>0</v>
+        <v>154500</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>10300</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="L14" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>54900</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>200</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>2100</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>100</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>214000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>400</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>2100</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>800</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>52300</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>300</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>3700</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>2000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>5700</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>2974800</v>
+        <v>701400</v>
       </c>
       <c r="E15" s="3">
-        <v>821600</v>
+        <v>2827900</v>
       </c>
       <c r="F15" s="3">
-        <v>808200</v>
+        <v>781000</v>
       </c>
       <c r="G15" s="3">
-        <v>807200</v>
+        <v>768300</v>
       </c>
       <c r="H15" s="3">
-        <v>2968400</v>
+        <v>700000</v>
       </c>
       <c r="I15" s="3">
-        <v>815800</v>
+        <v>2821800</v>
       </c>
       <c r="J15" s="3">
+        <v>775500</v>
+      </c>
+      <c r="K15" s="3">
         <v>807500</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>827200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>912300</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>856100</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>818700</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>810900</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>676100</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>621700</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>644900</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>660200</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>696900</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>684300</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>674200</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>685500</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>695000</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>659700</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,150 +1338,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>12445300</v>
+        <v>2960500</v>
       </c>
       <c r="E17" s="3">
-        <v>3699700</v>
+        <v>11830700</v>
       </c>
       <c r="F17" s="3">
-        <v>3585900</v>
+        <v>3517000</v>
       </c>
       <c r="G17" s="3">
-        <v>3553200</v>
+        <v>3408800</v>
       </c>
       <c r="H17" s="3">
-        <v>12182300</v>
+        <v>2878900</v>
       </c>
       <c r="I17" s="3">
-        <v>3542500</v>
+        <v>11580700</v>
       </c>
       <c r="J17" s="3">
+        <v>3367600</v>
+      </c>
+      <c r="K17" s="3">
         <v>3449200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3485400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3664800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3790900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3622600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3651300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3680200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3145000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3200300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3239800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3736700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>3564600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>3455400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>3443500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>3650900</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>3442500</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>1121100</v>
+        <v>332900</v>
       </c>
       <c r="E18" s="3">
-        <v>324000</v>
+        <v>1065700</v>
       </c>
       <c r="F18" s="3">
-        <v>316900</v>
+        <v>308000</v>
       </c>
       <c r="G18" s="3">
-        <v>319000</v>
+        <v>301300</v>
       </c>
       <c r="H18" s="3">
-        <v>848800</v>
+        <v>288100</v>
       </c>
       <c r="I18" s="3">
-        <v>290000</v>
+        <v>806900</v>
       </c>
       <c r="J18" s="3">
+        <v>275700</v>
+      </c>
+      <c r="K18" s="3">
         <v>279500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>253100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>81700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>268600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>282000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>293500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-24700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>246000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>289300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>272600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>220900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>345000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>368800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>367500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>266100</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>376900</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1481,363 +1514,379 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>497300</v>
+        <v>-24200</v>
       </c>
       <c r="E20" s="3">
-        <v>514400</v>
+        <v>472700</v>
       </c>
       <c r="F20" s="3">
-        <v>572000</v>
+        <v>489000</v>
       </c>
       <c r="G20" s="3">
-        <v>305000</v>
+        <v>543800</v>
       </c>
       <c r="H20" s="3">
-        <v>118500</v>
+        <v>139100</v>
       </c>
       <c r="I20" s="3">
-        <v>279500</v>
+        <v>112700</v>
       </c>
       <c r="J20" s="3">
+        <v>265700</v>
+      </c>
+      <c r="K20" s="3">
         <v>320200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>140700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>130200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>116400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>225300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>607100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>866100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>748000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>552300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>662700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>601900</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>355900</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>351300</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>307600</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>78400</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>4951000</v>
+        <v>1037300</v>
       </c>
       <c r="E21" s="3">
-        <v>1690800</v>
+        <v>4706500</v>
       </c>
       <c r="F21" s="3">
-        <v>1728300</v>
+        <v>1607300</v>
       </c>
       <c r="G21" s="3">
-        <v>1461200</v>
+        <v>1642900</v>
       </c>
       <c r="H21" s="3">
-        <v>4345000</v>
+        <v>1223100</v>
       </c>
       <c r="I21" s="3">
-        <v>1407600</v>
+        <v>4130400</v>
       </c>
       <c r="J21" s="3">
+        <v>1338100</v>
+      </c>
+      <c r="K21" s="3">
         <v>1435000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1250100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>956400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1291600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1253400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1367100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1293500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1766000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1714900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1517100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1615900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1665600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1432300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1434000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1295900</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1143300</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>226600</v>
+        <v>56900</v>
       </c>
       <c r="E22" s="3">
-        <v>73400</v>
+        <v>215400</v>
       </c>
       <c r="F22" s="3">
-        <v>70700</v>
+        <v>69800</v>
       </c>
       <c r="G22" s="3">
-        <v>70100</v>
+        <v>67200</v>
       </c>
       <c r="H22" s="3">
-        <v>234100</v>
+        <v>52600</v>
       </c>
       <c r="I22" s="3">
-        <v>151100</v>
+        <v>222500</v>
       </c>
       <c r="J22" s="3">
+        <v>143600</v>
+      </c>
+      <c r="K22" s="3">
         <v>155100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>84400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>89700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>87900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>87600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>93100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>75000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>57500</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>60400</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>63100</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>68300</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>63400</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>66100</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>67000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>66000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>67200</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>1391700</v>
+        <v>251800</v>
       </c>
       <c r="E23" s="3">
-        <v>764900</v>
+        <v>1323000</v>
       </c>
       <c r="F23" s="3">
-        <v>818300</v>
+        <v>727100</v>
       </c>
       <c r="G23" s="3">
-        <v>553900</v>
+        <v>777900</v>
       </c>
       <c r="H23" s="3">
-        <v>733200</v>
+        <v>374600</v>
       </c>
       <c r="I23" s="3">
-        <v>418400</v>
+        <v>697000</v>
       </c>
       <c r="J23" s="3">
+        <v>397800</v>
+      </c>
+      <c r="K23" s="3">
         <v>444700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>309400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-8000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>311000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>310800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>425700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>507400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1054600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>977000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>761900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>815400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>883600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>658600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>651800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>507700</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>388100</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>361900</v>
+        <v>82100</v>
       </c>
       <c r="E24" s="3">
-        <v>168300</v>
+        <v>344000</v>
       </c>
       <c r="F24" s="3">
-        <v>173800</v>
+        <v>160000</v>
       </c>
       <c r="G24" s="3">
-        <v>90600</v>
+        <v>165200</v>
       </c>
       <c r="H24" s="3">
-        <v>179200</v>
+        <v>100700</v>
       </c>
       <c r="I24" s="3">
-        <v>101100</v>
+        <v>170400</v>
       </c>
       <c r="J24" s="3">
+        <v>96100</v>
+      </c>
+      <c r="K24" s="3">
         <v>94500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>52400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>31400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>66700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>82900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>85700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>108800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>204200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>208900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>179400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>234000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>185800</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>112600</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>126700</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>80500</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>98200</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1907,150 +1956,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>1029800</v>
+        <v>169700</v>
       </c>
       <c r="E26" s="3">
-        <v>596600</v>
+        <v>979000</v>
       </c>
       <c r="F26" s="3">
-        <v>644500</v>
+        <v>567100</v>
       </c>
       <c r="G26" s="3">
-        <v>463300</v>
+        <v>612700</v>
       </c>
       <c r="H26" s="3">
-        <v>554000</v>
+        <v>274000</v>
       </c>
       <c r="I26" s="3">
-        <v>317400</v>
+        <v>526600</v>
       </c>
       <c r="J26" s="3">
+        <v>301700</v>
+      </c>
+      <c r="K26" s="3">
         <v>350200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>257000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-39400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>244200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>228000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>340000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>398600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>850400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>768000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>582400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>581400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>697800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>546000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>525100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>427200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>289900</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>974200</v>
+        <v>159800</v>
       </c>
       <c r="E27" s="3">
-        <v>632200</v>
+        <v>926100</v>
       </c>
       <c r="F27" s="3">
-        <v>617300</v>
+        <v>601000</v>
       </c>
       <c r="G27" s="3">
-        <v>449200</v>
+        <v>586800</v>
       </c>
       <c r="H27" s="3">
-        <v>513400</v>
+        <v>263600</v>
       </c>
       <c r="I27" s="3">
-        <v>307300</v>
+        <v>488000</v>
       </c>
       <c r="J27" s="3">
+        <v>292100</v>
+      </c>
+      <c r="K27" s="3">
         <v>343200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>256100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-27200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>240900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>228500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>341700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>404200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>832400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>762900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>583800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>511800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>700300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>542500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>530200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>432400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>292600</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2120,16 +2178,19 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="3">
-        <v>963900</v>
-      </c>
-      <c r="E29" s="3" t="s">
+      <c r="D29" s="3" t="s">
         <v>91</v>
+      </c>
+      <c r="E29" s="3">
+        <v>916300</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>91</v>
@@ -2138,16 +2199,16 @@
         <v>91</v>
       </c>
       <c r="H29" s="3">
-        <v>693200</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>91</v>
+        <v>163400</v>
+      </c>
+      <c r="I29" s="3">
+        <v>658900</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
+      <c r="K29" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="L29" s="3">
         <v>0</v>
@@ -2191,8 +2252,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2262,8 +2326,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2333,150 +2400,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-497300</v>
+        <v>24200</v>
       </c>
       <c r="E32" s="3">
-        <v>-514400</v>
+        <v>-472700</v>
       </c>
       <c r="F32" s="3">
-        <v>-572000</v>
+        <v>-489000</v>
       </c>
       <c r="G32" s="3">
-        <v>-305000</v>
+        <v>-543800</v>
       </c>
       <c r="H32" s="3">
-        <v>-118500</v>
+        <v>-139100</v>
       </c>
       <c r="I32" s="3">
-        <v>-279500</v>
+        <v>-112700</v>
       </c>
       <c r="J32" s="3">
+        <v>-265700</v>
+      </c>
+      <c r="K32" s="3">
         <v>-320200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-140700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-130200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-116400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-225300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-607100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-866100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-748000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-552300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-662700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-601900</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-355900</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-351300</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-307600</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-78400</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>1938100</v>
+        <v>159800</v>
       </c>
       <c r="E33" s="3">
-        <v>632200</v>
+        <v>1842400</v>
       </c>
       <c r="F33" s="3">
-        <v>617300</v>
+        <v>601000</v>
       </c>
       <c r="G33" s="3">
-        <v>449200</v>
+        <v>586800</v>
       </c>
       <c r="H33" s="3">
-        <v>1206600</v>
+        <v>427000</v>
       </c>
       <c r="I33" s="3">
-        <v>307300</v>
+        <v>1147000</v>
       </c>
       <c r="J33" s="3">
+        <v>292100</v>
+      </c>
+      <c r="K33" s="3">
         <v>343200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>256100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-27200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>240900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>228500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>341700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>404200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>832400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>762900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>583800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>511800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>700300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>542500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>530200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>432400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>292600</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2546,155 +2622,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>1938100</v>
+        <v>159800</v>
       </c>
       <c r="E35" s="3">
-        <v>632200</v>
+        <v>1842400</v>
       </c>
       <c r="F35" s="3">
-        <v>617300</v>
+        <v>601000</v>
       </c>
       <c r="G35" s="3">
-        <v>449200</v>
+        <v>586800</v>
       </c>
       <c r="H35" s="3">
-        <v>1206600</v>
+        <v>427000</v>
       </c>
       <c r="I35" s="3">
-        <v>307300</v>
+        <v>1147000</v>
       </c>
       <c r="J35" s="3">
+        <v>292100</v>
+      </c>
+      <c r="K35" s="3">
         <v>343200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>256100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-27200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>240900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>228500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>341700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>404200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>832400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>762900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>583800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>511800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>700300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>542500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>530200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>432400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>292600</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2720,8 +2805,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2747,647 +2833,675 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>706900</v>
+        <v>688900</v>
       </c>
       <c r="E41" s="3">
-        <v>1208200</v>
+        <v>672000</v>
       </c>
       <c r="F41" s="3">
-        <v>1246800</v>
+        <v>1148500</v>
       </c>
       <c r="G41" s="3">
-        <v>997400</v>
+        <v>1185300</v>
       </c>
       <c r="H41" s="3">
-        <v>1109400</v>
+        <v>948100</v>
       </c>
       <c r="I41" s="3">
-        <v>1525900</v>
+        <v>1054600</v>
       </c>
       <c r="J41" s="3">
+        <v>1450500</v>
+      </c>
+      <c r="K41" s="3">
         <v>1212500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>938900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1080200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1147800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1277400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1871900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1265600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2238500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1508800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1584000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1282800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1273500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1089100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1418400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1354700</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>773300</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>351700</v>
+        <v>378500</v>
       </c>
       <c r="E42" s="3">
-        <v>1366100</v>
+        <v>334300</v>
       </c>
       <c r="F42" s="3">
-        <v>1281300</v>
+        <v>1298700</v>
       </c>
       <c r="G42" s="3">
-        <v>1180800</v>
+        <v>1218100</v>
       </c>
       <c r="H42" s="3">
-        <v>1198200</v>
+        <v>1122500</v>
       </c>
       <c r="I42" s="3">
-        <v>884100</v>
+        <v>1139100</v>
       </c>
       <c r="J42" s="3">
+        <v>840400</v>
+      </c>
+      <c r="K42" s="3">
         <v>795000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>903200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>766900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>866400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>728100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>733100</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>975400</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>318100</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>452600</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>540900</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>590800</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>626300</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>647200</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>612800</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>437300</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>580900</v>
       </c>
     </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>2114300</v>
+        <v>2117900</v>
       </c>
       <c r="E43" s="3">
-        <v>2994200</v>
+        <v>2009900</v>
       </c>
       <c r="F43" s="3">
-        <v>2791200</v>
+        <v>2846300</v>
       </c>
       <c r="G43" s="3">
-        <v>2894500</v>
+        <v>2653300</v>
       </c>
       <c r="H43" s="3">
-        <v>2730700</v>
+        <v>2751600</v>
       </c>
       <c r="I43" s="3">
-        <v>2801300</v>
+        <v>2595900</v>
       </c>
       <c r="J43" s="3">
+        <v>2663000</v>
+      </c>
+      <c r="K43" s="3">
         <v>2649400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2902000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2886300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3122000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2860700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3116800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2605400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>3040500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2736500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>3179400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>3039200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>2826800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>2900700</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>2901300</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>3081700</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>3293200</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>165800</v>
+        <v>172000</v>
       </c>
       <c r="E44" s="3">
-        <v>160500</v>
+        <v>157600</v>
       </c>
       <c r="F44" s="3">
-        <v>171500</v>
+        <v>152600</v>
       </c>
       <c r="G44" s="3">
-        <v>179400</v>
+        <v>163100</v>
       </c>
       <c r="H44" s="3">
-        <v>138900</v>
+        <v>170600</v>
       </c>
       <c r="I44" s="3">
-        <v>175000</v>
+        <v>132000</v>
       </c>
       <c r="J44" s="3">
+        <v>166300</v>
+      </c>
+      <c r="K44" s="3">
         <v>165500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>174800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>138400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>178500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>197000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>239900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>242000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>208700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>217800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>213800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>239700</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>219000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>231900</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>223700</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>233900</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>246600</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>1807000</v>
+        <v>1682200</v>
       </c>
       <c r="E45" s="3">
-        <v>1819800</v>
+        <v>1717800</v>
       </c>
       <c r="F45" s="3">
-        <v>1913200</v>
+        <v>1730000</v>
       </c>
       <c r="G45" s="3">
-        <v>1928700</v>
+        <v>1818800</v>
       </c>
       <c r="H45" s="3">
-        <v>1930600</v>
+        <v>1833400</v>
       </c>
       <c r="I45" s="3">
-        <v>1929800</v>
+        <v>1835300</v>
       </c>
       <c r="J45" s="3">
+        <v>1834500</v>
+      </c>
+      <c r="K45" s="3">
         <v>1869300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1904400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2003300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1881800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1612400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1635700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1597000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1505000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1648400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1597800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>305100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>341700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>228600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>212400</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>289400</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>305900</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>5145700</v>
+        <v>5039500</v>
       </c>
       <c r="E46" s="3">
-        <v>7548800</v>
+        <v>4891600</v>
       </c>
       <c r="F46" s="3">
-        <v>7404100</v>
+        <v>7176100</v>
       </c>
       <c r="G46" s="3">
-        <v>7180800</v>
+        <v>7038500</v>
       </c>
       <c r="H46" s="3">
-        <v>7107800</v>
+        <v>6826200</v>
       </c>
       <c r="I46" s="3">
-        <v>7316000</v>
+        <v>6756800</v>
       </c>
       <c r="J46" s="3">
+        <v>6954700</v>
+      </c>
+      <c r="K46" s="3">
         <v>6691700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>6823200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>6875200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>7196700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>6675700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>7597400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>6685400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>7310800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>6564000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>7115900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>5457600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>5287300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>5097500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>5368600</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>5397000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>5199900</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>3450100</v>
+        <v>3235400</v>
       </c>
       <c r="E47" s="3">
-        <v>16242900</v>
+        <v>3279700</v>
       </c>
       <c r="F47" s="3">
-        <v>15085700</v>
+        <v>15440800</v>
       </c>
       <c r="G47" s="3">
-        <v>13643900</v>
+        <v>14340700</v>
       </c>
       <c r="H47" s="3">
-        <v>13323800</v>
+        <v>12970100</v>
       </c>
       <c r="I47" s="3">
-        <v>12956000</v>
+        <v>12665800</v>
       </c>
       <c r="J47" s="3">
+        <v>12316200</v>
+      </c>
+      <c r="K47" s="3">
         <v>12493000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>12472300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>12502800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>12994600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>12402900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>12830400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>11621100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>10715900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>10427800</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>9560700</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>9483000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>8899800</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>8030500</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>7602200</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>7603200</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>7518000</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>10444400</v>
+        <v>9698000</v>
       </c>
       <c r="E48" s="3">
-        <v>10643700</v>
+        <v>9928600</v>
       </c>
       <c r="F48" s="3">
-        <v>10727400</v>
+        <v>10118100</v>
       </c>
       <c r="G48" s="3">
-        <v>10449400</v>
+        <v>10197700</v>
       </c>
       <c r="H48" s="3">
-        <v>10835400</v>
+        <v>9933400</v>
       </c>
       <c r="I48" s="3">
-        <v>9874100</v>
+        <v>10300300</v>
       </c>
       <c r="J48" s="3">
+        <v>9386500</v>
+      </c>
+      <c r="K48" s="3">
         <v>10160800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>10069700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>10993400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>10310700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>9942300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>10188200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>9003400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>7678300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>8009300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>8104800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>8927500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>8449400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>8424900</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>8936000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>9336800</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>8818900</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>4813200</v>
+        <v>4434400</v>
       </c>
       <c r="E49" s="3">
-        <v>6086000</v>
+        <v>4575500</v>
       </c>
       <c r="F49" s="3">
-        <v>6079500</v>
+        <v>5785500</v>
       </c>
       <c r="G49" s="3">
-        <v>6153900</v>
+        <v>5779300</v>
       </c>
       <c r="H49" s="3">
-        <v>6312900</v>
+        <v>5850000</v>
       </c>
       <c r="I49" s="3">
-        <v>6399200</v>
+        <v>6001200</v>
       </c>
       <c r="J49" s="3">
+        <v>6083200</v>
+      </c>
+      <c r="K49" s="3">
         <v>6545900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>6426000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>6643300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>7011600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>7117600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>7518000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>7099700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>4170600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>4448600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>4511000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>4841700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>4934900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>5000900</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>5037500</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>5137900</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>4591200</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -3457,8 +3571,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -3528,79 +3645,85 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>1184800</v>
+        <v>1135100</v>
       </c>
       <c r="E52" s="3">
-        <v>1337300</v>
+        <v>1126300</v>
       </c>
       <c r="F52" s="3">
-        <v>1249900</v>
+        <v>1271300</v>
       </c>
       <c r="G52" s="3">
-        <v>1258900</v>
+        <v>1188200</v>
       </c>
       <c r="H52" s="3">
-        <v>1224700</v>
+        <v>1196700</v>
       </c>
       <c r="I52" s="3">
-        <v>1248100</v>
+        <v>1164200</v>
       </c>
       <c r="J52" s="3">
+        <v>1186500</v>
+      </c>
+      <c r="K52" s="3">
         <v>1333900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1439300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1407300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1632000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1341300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1311200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1180300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1055500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1073200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1060500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>707400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>521500</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>530700</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>521800</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>693000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>472200</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -3670,79 +3793,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>25038100</v>
+        <v>23542500</v>
       </c>
       <c r="E54" s="3">
-        <v>41858800</v>
+        <v>23801700</v>
       </c>
       <c r="F54" s="3">
-        <v>40546700</v>
+        <v>39791700</v>
       </c>
       <c r="G54" s="3">
-        <v>38686800</v>
+        <v>38544400</v>
       </c>
       <c r="H54" s="3">
-        <v>38804600</v>
+        <v>36776300</v>
       </c>
       <c r="I54" s="3">
-        <v>37793400</v>
+        <v>36888400</v>
       </c>
       <c r="J54" s="3">
+        <v>35927000</v>
+      </c>
+      <c r="K54" s="3">
         <v>37225300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>37230600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>38422000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>39145600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>37479700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>39445300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>35590100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>30931100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>30522900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>30352900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>29417200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>28093000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>27084400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>27466000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>28167900</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>26600100</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -3768,8 +3897,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -3795,434 +3925,453 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>154400</v>
+        <v>116300</v>
       </c>
       <c r="E57" s="3">
-        <v>274000</v>
+        <v>146700</v>
       </c>
       <c r="F57" s="3">
-        <v>246500</v>
+        <v>260500</v>
       </c>
       <c r="G57" s="3">
-        <v>272600</v>
+        <v>234300</v>
       </c>
       <c r="H57" s="3">
-        <v>302100</v>
+        <v>259100</v>
       </c>
       <c r="I57" s="3">
+        <v>287100</v>
+      </c>
+      <c r="J57" s="3">
+        <v>285700</v>
+      </c>
+      <c r="K57" s="3">
         <v>300500</v>
       </c>
-      <c r="J57" s="3">
-        <v>300500</v>
-      </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>327300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>372600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>405200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>332700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>283700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>320300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>217500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>221100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>204600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>309500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>226300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>219400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>237100</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>362200</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>276000</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>1452200</v>
+        <v>1409000</v>
       </c>
       <c r="E58" s="3">
-        <v>1534600</v>
+        <v>1380500</v>
       </c>
       <c r="F58" s="3">
-        <v>1344500</v>
+        <v>1458800</v>
       </c>
       <c r="G58" s="3">
-        <v>1353000</v>
+        <v>1278100</v>
       </c>
       <c r="H58" s="3">
-        <v>1141400</v>
+        <v>1286200</v>
       </c>
       <c r="I58" s="3">
-        <v>1082500</v>
+        <v>1085100</v>
       </c>
       <c r="J58" s="3">
+        <v>1029100</v>
+      </c>
+      <c r="K58" s="3">
         <v>963600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1234000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1198200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1223800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1310400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1605600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>894000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1002000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>856100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1192300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1461600</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1452600</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1315500</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>944800</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>802000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>615100</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>4031400</v>
+        <v>3814800</v>
       </c>
       <c r="E59" s="3">
-        <v>4979600</v>
+        <v>3832300</v>
       </c>
       <c r="F59" s="3">
-        <v>4744600</v>
+        <v>4733700</v>
       </c>
       <c r="G59" s="3">
-        <v>4935100</v>
+        <v>4510300</v>
       </c>
       <c r="H59" s="3">
-        <v>5180700</v>
+        <v>4691400</v>
       </c>
       <c r="I59" s="3">
-        <v>4833400</v>
+        <v>4924800</v>
       </c>
       <c r="J59" s="3">
+        <v>4594700</v>
+      </c>
+      <c r="K59" s="3">
         <v>4758600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4813200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>5103100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4927800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4464800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>5319400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>4537700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3551200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3760600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>4385500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>4484900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>3942300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>3822900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>4448200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>4635500</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>3962700</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>5638000</v>
+        <v>5340200</v>
       </c>
       <c r="E60" s="3">
-        <v>6788200</v>
+        <v>5359500</v>
       </c>
       <c r="F60" s="3">
-        <v>6335600</v>
+        <v>6453000</v>
       </c>
       <c r="G60" s="3">
-        <v>6560600</v>
+        <v>6022800</v>
       </c>
       <c r="H60" s="3">
-        <v>6624200</v>
+        <v>6236700</v>
       </c>
       <c r="I60" s="3">
-        <v>6216400</v>
+        <v>6297000</v>
       </c>
       <c r="J60" s="3">
+        <v>5909400</v>
+      </c>
+      <c r="K60" s="3">
         <v>6022700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6374500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6673900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>6556800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>6107900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>7208600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>5751900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>4770700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>4837800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>5782300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>6256000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>5621200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>5357800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>5630000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>5799700</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>4853900</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>6946000</v>
+        <v>6669800</v>
       </c>
       <c r="E61" s="3">
-        <v>8819100</v>
+        <v>6603000</v>
       </c>
       <c r="F61" s="3">
-        <v>8823400</v>
+        <v>8383600</v>
       </c>
       <c r="G61" s="3">
-        <v>8621300</v>
+        <v>8387600</v>
       </c>
       <c r="H61" s="3">
-        <v>8704500</v>
+        <v>8195500</v>
       </c>
       <c r="I61" s="3">
-        <v>8332400</v>
+        <v>8274600</v>
       </c>
       <c r="J61" s="3">
+        <v>7920900</v>
+      </c>
+      <c r="K61" s="3">
         <v>8322200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>8551200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>8623500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>8522600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>7920200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>8288300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>7213600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>5575400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>5547400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>5319600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>5111100</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>5104400</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>5178200</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>5654600</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>5830800</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>5840500</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>2462800</v>
+        <v>2085000</v>
       </c>
       <c r="E62" s="3">
-        <v>4232500</v>
+        <v>2341100</v>
       </c>
       <c r="F62" s="3">
-        <v>3998200</v>
+        <v>4023500</v>
       </c>
       <c r="G62" s="3">
-        <v>3603900</v>
+        <v>3800700</v>
       </c>
       <c r="H62" s="3">
-        <v>3715000</v>
+        <v>3425900</v>
       </c>
       <c r="I62" s="3">
-        <v>3543000</v>
+        <v>3531600</v>
       </c>
       <c r="J62" s="3">
+        <v>3368000</v>
+      </c>
+      <c r="K62" s="3">
         <v>3426800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3363300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3730200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3901800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>3713300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>3819900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>3851200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2626500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>2574400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>2461100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>2184400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1988400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1874200</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1860200</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>2032600</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>1915900</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -4292,8 +4441,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4363,8 +4515,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -4434,79 +4589,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>15658900</v>
+        <v>14683200</v>
       </c>
       <c r="E66" s="3">
-        <v>20581300</v>
+        <v>14885600</v>
       </c>
       <c r="F66" s="3">
-        <v>19888900</v>
+        <v>19564900</v>
       </c>
       <c r="G66" s="3">
-        <v>19330100</v>
+        <v>18906700</v>
       </c>
       <c r="H66" s="3">
-        <v>19572100</v>
+        <v>18375500</v>
       </c>
       <c r="I66" s="3">
-        <v>18520400</v>
+        <v>18605600</v>
       </c>
       <c r="J66" s="3">
+        <v>17605800</v>
+      </c>
+      <c r="K66" s="3">
         <v>18193000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>18168300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>18914300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>18899300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>17654900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>19205500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>16714600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>13198100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>13130700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>13728400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>13716100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>12834200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>12499800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>13239200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>13793600</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>12760400</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -4532,8 +4693,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -4603,8 +4765,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -4674,8 +4839,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -4745,8 +4913,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -4816,79 +4987,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>18174200</v>
+        <v>17168800</v>
       </c>
       <c r="E72" s="3">
-        <v>18068700</v>
+        <v>17276800</v>
       </c>
       <c r="F72" s="3">
-        <v>17560300</v>
+        <v>17176400</v>
       </c>
       <c r="G72" s="3">
-        <v>18529400</v>
+        <v>16693200</v>
       </c>
       <c r="H72" s="3">
-        <v>18615300</v>
+        <v>17614400</v>
       </c>
       <c r="I72" s="3">
-        <v>18302500</v>
+        <v>17696100</v>
       </c>
       <c r="J72" s="3">
+        <v>17398700</v>
+      </c>
+      <c r="K72" s="3">
         <v>18050600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>18362200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>18894400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>19871700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>19470600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>19870500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>18601400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>17574500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>17434000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>16667600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>15695600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>15173300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>14531800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>14306000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>14357800</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>13922500</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -4958,8 +5135,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -5029,8 +5209,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -5100,79 +5283,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>9379300</v>
+        <v>8859300</v>
       </c>
       <c r="E76" s="3">
-        <v>21277500</v>
+        <v>8916100</v>
       </c>
       <c r="F76" s="3">
-        <v>20657800</v>
+        <v>20226800</v>
       </c>
       <c r="G76" s="3">
-        <v>19356700</v>
+        <v>19637700</v>
       </c>
       <c r="H76" s="3">
-        <v>19232600</v>
+        <v>18400800</v>
       </c>
       <c r="I76" s="3">
-        <v>19273000</v>
+        <v>18282800</v>
       </c>
       <c r="J76" s="3">
+        <v>18321200</v>
+      </c>
+      <c r="K76" s="3">
         <v>19032300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>19062300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>19507700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>20246300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>19824800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>20239800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>18875500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>17732900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>17392200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>16624500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>15701100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>15258700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>14584600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>14226800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>14374300</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>13839700</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -5242,155 +5431,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>1938100</v>
+        <v>159800</v>
       </c>
       <c r="E81" s="3">
-        <v>632200</v>
+        <v>1842400</v>
       </c>
       <c r="F81" s="3">
-        <v>617300</v>
+        <v>601000</v>
       </c>
       <c r="G81" s="3">
-        <v>449200</v>
+        <v>586800</v>
       </c>
       <c r="H81" s="3">
-        <v>1206600</v>
+        <v>427000</v>
       </c>
       <c r="I81" s="3">
-        <v>307300</v>
+        <v>1147000</v>
       </c>
       <c r="J81" s="3">
+        <v>292100</v>
+      </c>
+      <c r="K81" s="3">
         <v>343200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>256100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-27200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>240900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>228500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>341700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>404200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>832400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>762900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>583800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>511800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>700300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>542500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>530200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>432400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>292600</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -5416,79 +5614,83 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>3332700</v>
+        <v>728600</v>
       </c>
       <c r="E83" s="3">
-        <v>852400</v>
+        <v>3168100</v>
       </c>
       <c r="F83" s="3">
-        <v>839300</v>
+        <v>810300</v>
       </c>
       <c r="G83" s="3">
-        <v>837200</v>
+        <v>797800</v>
       </c>
       <c r="H83" s="3">
-        <v>3377700</v>
+        <v>795900</v>
       </c>
       <c r="I83" s="3">
-        <v>838100</v>
+        <v>3210900</v>
       </c>
       <c r="J83" s="3">
+        <v>796700</v>
+      </c>
+      <c r="K83" s="3">
         <v>835300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>856200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>874600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>892700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>855000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>848400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>711200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>653900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>677500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>692100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>732200</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>718700</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>707600</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>715200</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>722200</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>688100</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -5558,8 +5760,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -5629,8 +5834,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -5700,8 +5908,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -5771,8 +5982,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -5842,79 +6056,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>4075300</v>
+        <v>996900</v>
       </c>
       <c r="E89" s="3">
-        <v>1138200</v>
+        <v>3874100</v>
       </c>
       <c r="F89" s="3">
-        <v>1122900</v>
+        <v>1082000</v>
       </c>
       <c r="G89" s="3">
-        <v>721800</v>
+        <v>1067400</v>
       </c>
       <c r="H89" s="3">
-        <v>4715700</v>
+        <v>686100</v>
       </c>
       <c r="I89" s="3">
-        <v>1329200</v>
+        <v>4482800</v>
       </c>
       <c r="J89" s="3">
+        <v>1263500</v>
+      </c>
+      <c r="K89" s="3">
         <v>1549000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>816800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>975700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>746100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>907500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>881500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1389100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>382000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1024900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>829300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>828600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>969400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>776500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>837300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>1379600</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>799200</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -5940,79 +6160,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-2361800</v>
+        <v>-575600</v>
       </c>
       <c r="E91" s="3">
-        <v>-652000</v>
+        <v>-2245200</v>
       </c>
       <c r="F91" s="3">
-        <v>-449100</v>
+        <v>-619800</v>
       </c>
       <c r="G91" s="3">
-        <v>-611700</v>
+        <v>-426900</v>
       </c>
       <c r="H91" s="3">
-        <v>-2881800</v>
+        <v>-581500</v>
       </c>
       <c r="I91" s="3">
-        <v>-781000</v>
+        <v>-2739500</v>
       </c>
       <c r="J91" s="3">
+        <v>-742400</v>
+      </c>
+      <c r="K91" s="3">
         <v>-526800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-878200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-969100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-796300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-571500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-629400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-789700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-622200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-383600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-527100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-730500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-688700</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-391900</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-608900</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-1158400</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-855700</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -6082,8 +6306,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -6153,79 +6380,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-2823800</v>
+        <v>-616500</v>
       </c>
       <c r="E94" s="3">
-        <v>-944000</v>
+        <v>-2684400</v>
       </c>
       <c r="F94" s="3">
-        <v>-825600</v>
+        <v>-897400</v>
       </c>
       <c r="G94" s="3">
-        <v>-424200</v>
+        <v>-784900</v>
       </c>
       <c r="H94" s="3">
-        <v>-3442800</v>
+        <v>-403300</v>
       </c>
       <c r="I94" s="3">
-        <v>-954200</v>
+        <v>-3272800</v>
       </c>
       <c r="J94" s="3">
+        <v>-907100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-515500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1035700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1309800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1016400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-404700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-400100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-2284100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-292400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-356000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-456800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-845900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-805200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-473600</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-590600</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-755400</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-667600</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -6251,31 +6484,32 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-833100</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-144100</v>
+        <v>-792000</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-137000</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-601100</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>-59200</v>
+        <v>-571400</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-56300</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
@@ -6284,11 +6518,11 @@
         <v>0</v>
       </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-64000</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
         <v>0</v>
       </c>
@@ -6296,11 +6530,11 @@
         <v>0</v>
       </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-57200</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
         <v>0</v>
       </c>
@@ -6308,11 +6542,11 @@
         <v>0</v>
       </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-62100</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
       <c r="W96" s="3">
         <v>0</v>
       </c>
@@ -6320,10 +6554,13 @@
         <v>0</v>
       </c>
       <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-63500</v>
       </c>
     </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -6393,8 +6630,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -6464,8 +6704,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -6535,217 +6778,229 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>-1663400</v>
+        <v>-364600</v>
       </c>
       <c r="E100" s="3">
-        <v>-238500</v>
+        <v>-1581300</v>
       </c>
       <c r="F100" s="3">
-        <v>-47400</v>
+        <v>-226800</v>
       </c>
       <c r="G100" s="3">
-        <v>-413600</v>
+        <v>-45100</v>
       </c>
       <c r="H100" s="3">
-        <v>-1180600</v>
+        <v>-393200</v>
       </c>
       <c r="I100" s="3">
-        <v>-59500</v>
+        <v>-1122300</v>
       </c>
       <c r="J100" s="3">
+        <v>-56600</v>
+      </c>
+      <c r="K100" s="3">
         <v>-725800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>83100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>324500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>120000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1033500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>19100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-163300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>696800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-746200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-13300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>30200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>19200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-603000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-177800</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-48400</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-343800</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>9400</v>
+        <v>1100</v>
       </c>
       <c r="E101" s="3">
-        <v>5700</v>
+        <v>8900</v>
       </c>
       <c r="F101" s="3">
+        <v>5400</v>
+      </c>
+      <c r="G101" s="3">
         <v>-400</v>
       </c>
-      <c r="G101" s="3">
-        <v>4000</v>
-      </c>
       <c r="H101" s="3">
-        <v>-12200</v>
+        <v>3800</v>
       </c>
       <c r="I101" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="K101" s="3">
+        <v>-500</v>
+      </c>
+      <c r="L101" s="3">
+        <v>7200</v>
+      </c>
+      <c r="M101" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="N101" s="3">
+        <v>6100</v>
+      </c>
+      <c r="O101" s="3">
         <v>-2100</v>
       </c>
-      <c r="J101" s="3">
-        <v>-500</v>
-      </c>
-      <c r="K101" s="3">
-        <v>7200</v>
-      </c>
-      <c r="L101" s="3">
-        <v>-6400</v>
-      </c>
-      <c r="M101" s="3">
-        <v>6100</v>
-      </c>
-      <c r="N101" s="3">
-        <v>-2100</v>
-      </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>2500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-2800</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>2100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>400</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-3600</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>1100</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>2300</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-5200</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>5600</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>-402500</v>
+        <v>16900</v>
       </c>
       <c r="E102" s="3">
-        <v>-38700</v>
+        <v>-382600</v>
       </c>
       <c r="F102" s="3">
-        <v>249400</v>
+        <v>-36800</v>
       </c>
       <c r="G102" s="3">
-        <v>-112000</v>
+        <v>237100</v>
       </c>
       <c r="H102" s="3">
-        <v>80100</v>
+        <v>-106500</v>
       </c>
       <c r="I102" s="3">
-        <v>313400</v>
+        <v>76100</v>
       </c>
       <c r="J102" s="3">
+        <v>297900</v>
+      </c>
+      <c r="K102" s="3">
         <v>307100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-128600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-16100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-144100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-532800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>500800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1055800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>783600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-75200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>359500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>9300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>184400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-297700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>63700</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>581400</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-216300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SKM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SKM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="92">
   <si>
     <t>SKM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,333 +665,346 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3293500</v>
+        <v>3217400</v>
       </c>
       <c r="E8" s="3">
-        <v>12896400</v>
+        <v>3207900</v>
       </c>
       <c r="F8" s="3">
-        <v>3825000</v>
+        <v>12561400</v>
       </c>
       <c r="G8" s="3">
-        <v>3710100</v>
+        <v>3725600</v>
       </c>
       <c r="H8" s="3">
-        <v>3167100</v>
+        <v>3093900</v>
       </c>
       <c r="I8" s="3">
-        <v>12387600</v>
+        <v>3084800</v>
       </c>
       <c r="J8" s="3">
+        <v>12065800</v>
+      </c>
+      <c r="K8" s="3">
         <v>3643200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3728700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3738500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3746400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4059500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3904600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3944800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3655400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3391000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3489600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3512500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>3957600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>3909600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>3824100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>3810900</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>3917000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>3819400</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>145800</v>
+        <v>138900</v>
       </c>
       <c r="E9" s="3">
-        <v>577200</v>
+        <v>142000</v>
       </c>
       <c r="F9" s="3">
-        <v>141800</v>
+        <v>562200</v>
       </c>
       <c r="G9" s="3">
-        <v>141100</v>
+        <v>138100</v>
       </c>
       <c r="H9" s="3">
-        <v>149300</v>
+        <v>137400</v>
       </c>
       <c r="I9" s="3">
-        <v>593400</v>
+        <v>145500</v>
       </c>
       <c r="J9" s="3">
+        <v>578000</v>
+      </c>
+      <c r="K9" s="3">
         <v>155100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>167900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>163800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>162600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>163700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>165200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>172300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>136400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>171900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>183800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>180600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>190800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>197200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>187500</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>199000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>153400</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>238000</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3147600</v>
+        <v>3078500</v>
       </c>
       <c r="E10" s="3">
-        <v>12319200</v>
+        <v>3065900</v>
       </c>
       <c r="F10" s="3">
-        <v>3683200</v>
+        <v>11999200</v>
       </c>
       <c r="G10" s="3">
-        <v>3569000</v>
+        <v>3587500</v>
       </c>
       <c r="H10" s="3">
-        <v>3017800</v>
+        <v>2956500</v>
       </c>
       <c r="I10" s="3">
-        <v>11794100</v>
+        <v>2939400</v>
       </c>
       <c r="J10" s="3">
+        <v>11487800</v>
+      </c>
+      <c r="K10" s="3">
         <v>3488100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3560800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3574700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>3583800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>3895800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>3739400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>3772400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>3519000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>3219100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>3305800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>3331900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>3766900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>3712400</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>3636700</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>3612000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>3763600</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>3581400</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1018,82 +1031,86 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>60100</v>
+        <v>66500</v>
       </c>
       <c r="E12" s="3">
-        <v>267700</v>
+        <v>58600</v>
       </c>
       <c r="F12" s="3">
-        <v>75300</v>
+        <v>260800</v>
       </c>
       <c r="G12" s="3">
-        <v>77900</v>
+        <v>73400</v>
       </c>
       <c r="H12" s="3">
-        <v>64300</v>
+        <v>62000</v>
       </c>
       <c r="I12" s="3">
-        <v>272000</v>
+        <v>62600</v>
       </c>
       <c r="J12" s="3">
+        <v>264900</v>
+      </c>
+      <c r="K12" s="3">
         <v>80700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>85000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>92700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>86500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>83300</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>84700</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>90800</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>88900</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>76200</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>82500</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>75100</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>90300</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>90800</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>83500</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>85200</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>82100</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>76900</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1166,156 +1183,165 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F14" s="3">
         <v>2400</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="G14" s="3">
-        <v>4100</v>
-      </c>
       <c r="H14" s="3">
-        <v>-3900</v>
+        <v>4000</v>
       </c>
       <c r="I14" s="3">
-        <v>154500</v>
+        <v>-3800</v>
       </c>
       <c r="J14" s="3">
-        <v>0</v>
+        <v>150500</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>10300</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="M14" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>54900</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>200</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>2100</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>100</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>214000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>400</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>2100</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>800</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>52300</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>300</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>3700</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>2000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>5700</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>701400</v>
+        <v>680500</v>
       </c>
       <c r="E15" s="3">
-        <v>2827900</v>
+        <v>683200</v>
       </c>
       <c r="F15" s="3">
-        <v>781000</v>
+        <v>2754400</v>
       </c>
       <c r="G15" s="3">
-        <v>768300</v>
+        <v>760800</v>
       </c>
       <c r="H15" s="3">
-        <v>700000</v>
+        <v>684800</v>
       </c>
       <c r="I15" s="3">
-        <v>2821800</v>
+        <v>681800</v>
       </c>
       <c r="J15" s="3">
+        <v>2748500</v>
+      </c>
+      <c r="K15" s="3">
         <v>775500</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>807500</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>827200</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>912300</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>856100</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>818700</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>810900</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>676100</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>621700</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>644900</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>660200</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>696900</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>684300</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>674200</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>685500</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>695000</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>659700</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,156 +1365,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>2960500</v>
+        <v>2872700</v>
       </c>
       <c r="E17" s="3">
-        <v>11830700</v>
+        <v>2883600</v>
       </c>
       <c r="F17" s="3">
-        <v>3517000</v>
+        <v>11523400</v>
       </c>
       <c r="G17" s="3">
-        <v>3408800</v>
+        <v>3425600</v>
       </c>
       <c r="H17" s="3">
-        <v>2878900</v>
+        <v>2797100</v>
       </c>
       <c r="I17" s="3">
-        <v>11580700</v>
+        <v>2804200</v>
       </c>
       <c r="J17" s="3">
+        <v>11279900</v>
+      </c>
+      <c r="K17" s="3">
         <v>3367600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3449200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3485400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3664800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3790900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3622600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3651300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3680200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3145000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3200300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3239800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>3736700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>3564600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>3455400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>3443500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>3650900</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>3442500</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>332900</v>
+        <v>344700</v>
       </c>
       <c r="E18" s="3">
-        <v>1065700</v>
+        <v>324300</v>
       </c>
       <c r="F18" s="3">
-        <v>308000</v>
+        <v>1038000</v>
       </c>
       <c r="G18" s="3">
-        <v>301300</v>
+        <v>300000</v>
       </c>
       <c r="H18" s="3">
-        <v>288100</v>
+        <v>296800</v>
       </c>
       <c r="I18" s="3">
-        <v>806900</v>
+        <v>280700</v>
       </c>
       <c r="J18" s="3">
+        <v>785900</v>
+      </c>
+      <c r="K18" s="3">
         <v>275700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>279500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>253100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>81700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>268600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>282000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>293500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-24700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>246000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>289300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>272600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>220900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>345000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>368800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>367500</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>266100</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>376900</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1515,156 +1548,163 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-24200</v>
+        <v>14300</v>
       </c>
       <c r="E20" s="3">
-        <v>472700</v>
+        <v>-23600</v>
       </c>
       <c r="F20" s="3">
-        <v>489000</v>
+        <v>460400</v>
       </c>
       <c r="G20" s="3">
-        <v>543800</v>
+        <v>476300</v>
       </c>
       <c r="H20" s="3">
-        <v>139100</v>
+        <v>188000</v>
       </c>
       <c r="I20" s="3">
-        <v>112700</v>
+        <v>135500</v>
       </c>
       <c r="J20" s="3">
+        <v>109700</v>
+      </c>
+      <c r="K20" s="3">
         <v>265700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>320200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>140700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>130200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>116400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>225300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>607100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>866100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>748000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>552300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>662700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>601900</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>355900</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>351300</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>307600</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>78400</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>1037300</v>
+        <v>1064500</v>
       </c>
       <c r="E21" s="3">
-        <v>4706500</v>
+        <v>1010400</v>
       </c>
       <c r="F21" s="3">
-        <v>1607300</v>
+        <v>4584200</v>
       </c>
       <c r="G21" s="3">
-        <v>1642900</v>
+        <v>1565500</v>
       </c>
       <c r="H21" s="3">
-        <v>1223100</v>
+        <v>1261900</v>
       </c>
       <c r="I21" s="3">
-        <v>4130400</v>
+        <v>1191400</v>
       </c>
       <c r="J21" s="3">
+        <v>4023100</v>
+      </c>
+      <c r="K21" s="3">
         <v>1338100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1435000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1250100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>956400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1291600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1253400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1367100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1293500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1766000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1714900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1517100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1615900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1665600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1432300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1434000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1295900</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>1143300</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1672,221 +1712,230 @@
         <v>56900</v>
       </c>
       <c r="E22" s="3">
-        <v>215400</v>
+        <v>55400</v>
       </c>
       <c r="F22" s="3">
-        <v>69800</v>
+        <v>209800</v>
       </c>
       <c r="G22" s="3">
+        <v>68000</v>
+      </c>
+      <c r="H22" s="3">
+        <v>51600</v>
+      </c>
+      <c r="I22" s="3">
+        <v>51300</v>
+      </c>
+      <c r="J22" s="3">
+        <v>216700</v>
+      </c>
+      <c r="K22" s="3">
+        <v>143600</v>
+      </c>
+      <c r="L22" s="3">
+        <v>155100</v>
+      </c>
+      <c r="M22" s="3">
+        <v>84400</v>
+      </c>
+      <c r="N22" s="3">
+        <v>89700</v>
+      </c>
+      <c r="O22" s="3">
+        <v>87900</v>
+      </c>
+      <c r="P22" s="3">
+        <v>87600</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>93100</v>
+      </c>
+      <c r="R22" s="3">
+        <v>75000</v>
+      </c>
+      <c r="S22" s="3">
+        <v>57500</v>
+      </c>
+      <c r="T22" s="3">
+        <v>60400</v>
+      </c>
+      <c r="U22" s="3">
+        <v>63100</v>
+      </c>
+      <c r="V22" s="3">
+        <v>68300</v>
+      </c>
+      <c r="W22" s="3">
+        <v>63400</v>
+      </c>
+      <c r="X22" s="3">
+        <v>66100</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>67000</v>
+      </c>
+      <c r="Z22" s="3">
+        <v>66000</v>
+      </c>
+      <c r="AA22" s="3">
         <v>67200</v>
       </c>
-      <c r="H22" s="3">
-        <v>52600</v>
-      </c>
-      <c r="I22" s="3">
-        <v>222500</v>
-      </c>
-      <c r="J22" s="3">
-        <v>143600</v>
-      </c>
-      <c r="K22" s="3">
-        <v>155100</v>
-      </c>
-      <c r="L22" s="3">
-        <v>84400</v>
-      </c>
-      <c r="M22" s="3">
-        <v>89700</v>
-      </c>
-      <c r="N22" s="3">
-        <v>87900</v>
-      </c>
-      <c r="O22" s="3">
-        <v>87600</v>
-      </c>
-      <c r="P22" s="3">
-        <v>93100</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>75000</v>
-      </c>
-      <c r="R22" s="3">
-        <v>57500</v>
-      </c>
-      <c r="S22" s="3">
-        <v>60400</v>
-      </c>
-      <c r="T22" s="3">
-        <v>63100</v>
-      </c>
-      <c r="U22" s="3">
-        <v>68300</v>
-      </c>
-      <c r="V22" s="3">
-        <v>63400</v>
-      </c>
-      <c r="W22" s="3">
-        <v>66100</v>
-      </c>
-      <c r="X22" s="3">
-        <v>67000</v>
-      </c>
-      <c r="Y22" s="3">
-        <v>66000</v>
-      </c>
-      <c r="Z22" s="3">
-        <v>67200</v>
-      </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>251800</v>
+        <v>302100</v>
       </c>
       <c r="E23" s="3">
-        <v>1323000</v>
+        <v>245300</v>
       </c>
       <c r="F23" s="3">
-        <v>727100</v>
+        <v>1288600</v>
       </c>
       <c r="G23" s="3">
-        <v>777900</v>
+        <v>708200</v>
       </c>
       <c r="H23" s="3">
-        <v>374600</v>
+        <v>433200</v>
       </c>
       <c r="I23" s="3">
-        <v>697000</v>
+        <v>364900</v>
       </c>
       <c r="J23" s="3">
+        <v>678900</v>
+      </c>
+      <c r="K23" s="3">
         <v>397800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>444700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>309400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-8000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>311000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>310800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>425700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>507400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1054600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>977000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>761900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>815400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>883600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>658600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>651800</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>507700</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>388100</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>82100</v>
+        <v>108500</v>
       </c>
       <c r="E24" s="3">
-        <v>344000</v>
+        <v>80000</v>
       </c>
       <c r="F24" s="3">
-        <v>160000</v>
+        <v>335100</v>
       </c>
       <c r="G24" s="3">
-        <v>165200</v>
+        <v>155900</v>
       </c>
       <c r="H24" s="3">
-        <v>100700</v>
+        <v>102700</v>
       </c>
       <c r="I24" s="3">
-        <v>170400</v>
+        <v>98000</v>
       </c>
       <c r="J24" s="3">
+        <v>165900</v>
+      </c>
+      <c r="K24" s="3">
         <v>96100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>94500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>52400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>31400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>66700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>82900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>85700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>108800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>204200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>208900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>179400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>234000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>185800</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>112600</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>126700</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>80500</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>98200</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1959,156 +2008,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>169700</v>
+        <v>193600</v>
       </c>
       <c r="E26" s="3">
-        <v>979000</v>
+        <v>165300</v>
       </c>
       <c r="F26" s="3">
-        <v>567100</v>
+        <v>953500</v>
       </c>
       <c r="G26" s="3">
-        <v>612700</v>
+        <v>552400</v>
       </c>
       <c r="H26" s="3">
-        <v>274000</v>
+        <v>330500</v>
       </c>
       <c r="I26" s="3">
-        <v>526600</v>
+        <v>266900</v>
       </c>
       <c r="J26" s="3">
+        <v>513000</v>
+      </c>
+      <c r="K26" s="3">
         <v>301700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>350200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>257000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-39400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>244200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>228000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>340000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>398600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>850400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>768000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>582400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>581400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>697800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>546000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>525100</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>427200</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>289900</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>159800</v>
+        <v>187600</v>
       </c>
       <c r="E27" s="3">
-        <v>926100</v>
+        <v>155700</v>
       </c>
       <c r="F27" s="3">
-        <v>601000</v>
+        <v>902100</v>
       </c>
       <c r="G27" s="3">
-        <v>586800</v>
+        <v>585400</v>
       </c>
       <c r="H27" s="3">
-        <v>263600</v>
+        <v>313600</v>
       </c>
       <c r="I27" s="3">
-        <v>488000</v>
+        <v>256800</v>
       </c>
       <c r="J27" s="3">
+        <v>475400</v>
+      </c>
+      <c r="K27" s="3">
         <v>292100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>343200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>256100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-27200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>240900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>228500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>341700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>404200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>832400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>762900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>583800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>511800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>700300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>542500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>530200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>432400</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>292600</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2181,37 +2239,40 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E29" s="3">
-        <v>916300</v>
-      </c>
-      <c r="F29" s="3" t="s">
+      <c r="E29" s="3" t="s">
         <v>91</v>
+      </c>
+      <c r="F29" s="3">
+        <v>892500</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>91</v>
       </c>
       <c r="H29" s="3">
-        <v>163400</v>
+        <v>257900</v>
       </c>
       <c r="I29" s="3">
-        <v>658900</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>91</v>
+        <v>159200</v>
+      </c>
+      <c r="J29" s="3">
+        <v>641800</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
+      <c r="L29" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="M29" s="3">
         <v>0</v>
@@ -2255,8 +2316,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2329,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2403,156 +2470,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>24200</v>
+        <v>-14300</v>
       </c>
       <c r="E32" s="3">
-        <v>-472700</v>
+        <v>23600</v>
       </c>
       <c r="F32" s="3">
-        <v>-489000</v>
+        <v>-460400</v>
       </c>
       <c r="G32" s="3">
-        <v>-543800</v>
+        <v>-476300</v>
       </c>
       <c r="H32" s="3">
-        <v>-139100</v>
+        <v>-188000</v>
       </c>
       <c r="I32" s="3">
-        <v>-112700</v>
+        <v>-135500</v>
       </c>
       <c r="J32" s="3">
+        <v>-109700</v>
+      </c>
+      <c r="K32" s="3">
         <v>-265700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-320200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-140700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-130200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-116400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-225300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-607100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-866100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-748000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-552300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-662700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-601900</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-355900</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-351300</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-307600</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-78400</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>159800</v>
+        <v>187600</v>
       </c>
       <c r="E33" s="3">
-        <v>1842400</v>
+        <v>155700</v>
       </c>
       <c r="F33" s="3">
-        <v>601000</v>
+        <v>1794600</v>
       </c>
       <c r="G33" s="3">
-        <v>586800</v>
+        <v>585400</v>
       </c>
       <c r="H33" s="3">
-        <v>427000</v>
+        <v>571600</v>
       </c>
       <c r="I33" s="3">
-        <v>1147000</v>
+        <v>415900</v>
       </c>
       <c r="J33" s="3">
+        <v>1117200</v>
+      </c>
+      <c r="K33" s="3">
         <v>292100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>343200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>256100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-27200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>240900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>228500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>341700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>404200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>832400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>762900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>583800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>511800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>700300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>542500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>530200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>432400</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>292600</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2625,161 +2701,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>159800</v>
+        <v>187600</v>
       </c>
       <c r="E35" s="3">
-        <v>1842400</v>
+        <v>155700</v>
       </c>
       <c r="F35" s="3">
-        <v>601000</v>
+        <v>1794600</v>
       </c>
       <c r="G35" s="3">
-        <v>586800</v>
+        <v>585400</v>
       </c>
       <c r="H35" s="3">
-        <v>427000</v>
+        <v>571600</v>
       </c>
       <c r="I35" s="3">
-        <v>1147000</v>
+        <v>415900</v>
       </c>
       <c r="J35" s="3">
+        <v>1117200</v>
+      </c>
+      <c r="K35" s="3">
         <v>292100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>343200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>256100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-27200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>240900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>228500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>341700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>404200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>832400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>762900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>583800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>511800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>700300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>542500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>530200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>432400</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>292600</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2806,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2834,674 +2920,702 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>688900</v>
+        <v>864700</v>
       </c>
       <c r="E41" s="3">
-        <v>672000</v>
+        <v>671000</v>
       </c>
       <c r="F41" s="3">
-        <v>1148500</v>
+        <v>654500</v>
       </c>
       <c r="G41" s="3">
-        <v>1185300</v>
+        <v>1118700</v>
       </c>
       <c r="H41" s="3">
-        <v>948100</v>
+        <v>1154500</v>
       </c>
       <c r="I41" s="3">
-        <v>1054600</v>
+        <v>923500</v>
       </c>
       <c r="J41" s="3">
+        <v>1027200</v>
+      </c>
+      <c r="K41" s="3">
         <v>1450500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1212500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>938900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1080200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1147800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1277400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1871900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1265600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2238500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1508800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1584000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1282800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1273500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1089100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1418400</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>1354700</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>773300</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>378500</v>
+        <v>516400</v>
       </c>
       <c r="E42" s="3">
-        <v>334300</v>
+        <v>368700</v>
       </c>
       <c r="F42" s="3">
-        <v>1298700</v>
+        <v>325600</v>
       </c>
       <c r="G42" s="3">
-        <v>1218100</v>
+        <v>1264900</v>
       </c>
       <c r="H42" s="3">
-        <v>1122500</v>
+        <v>1186400</v>
       </c>
       <c r="I42" s="3">
-        <v>1139100</v>
+        <v>1093300</v>
       </c>
       <c r="J42" s="3">
+        <v>1109500</v>
+      </c>
+      <c r="K42" s="3">
         <v>840400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>795000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>903200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>766900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>866400</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>728100</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>733100</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>975400</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>318100</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>452600</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>540900</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>590800</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>626300</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>647200</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>612800</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>437300</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>580900</v>
       </c>
     </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>2117900</v>
+        <v>2056100</v>
       </c>
       <c r="E43" s="3">
-        <v>2009900</v>
+        <v>2062900</v>
       </c>
       <c r="F43" s="3">
-        <v>2846300</v>
+        <v>1957700</v>
       </c>
       <c r="G43" s="3">
-        <v>2653300</v>
+        <v>2772400</v>
       </c>
       <c r="H43" s="3">
-        <v>2751600</v>
+        <v>2584400</v>
       </c>
       <c r="I43" s="3">
-        <v>2595900</v>
+        <v>2680100</v>
       </c>
       <c r="J43" s="3">
+        <v>2528400</v>
+      </c>
+      <c r="K43" s="3">
         <v>2663000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2649400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2902000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2886300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3122000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2860700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>3116800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2605400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>3040500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2736500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>3179400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>3039200</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>2826800</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>2900700</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>2901300</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>3081700</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>3293200</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>172000</v>
+        <v>137500</v>
       </c>
       <c r="E44" s="3">
-        <v>157600</v>
+        <v>167600</v>
       </c>
       <c r="F44" s="3">
-        <v>152600</v>
+        <v>153500</v>
       </c>
       <c r="G44" s="3">
-        <v>163100</v>
+        <v>148700</v>
       </c>
       <c r="H44" s="3">
-        <v>170600</v>
+        <v>158800</v>
       </c>
       <c r="I44" s="3">
-        <v>132000</v>
+        <v>166100</v>
       </c>
       <c r="J44" s="3">
+        <v>128600</v>
+      </c>
+      <c r="K44" s="3">
         <v>166300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>165500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>174800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>138400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>178500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>197000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>239900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>242000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>208700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>217800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>213800</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>239700</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>219000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>231900</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>223700</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>233900</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>246600</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>1682200</v>
+        <v>1721200</v>
       </c>
       <c r="E45" s="3">
-        <v>1717800</v>
+        <v>1638500</v>
       </c>
       <c r="F45" s="3">
-        <v>1730000</v>
+        <v>1673200</v>
       </c>
       <c r="G45" s="3">
-        <v>1818800</v>
+        <v>1685000</v>
       </c>
       <c r="H45" s="3">
-        <v>1833400</v>
+        <v>1771500</v>
       </c>
       <c r="I45" s="3">
-        <v>1835300</v>
+        <v>1785800</v>
       </c>
       <c r="J45" s="3">
+        <v>1787600</v>
+      </c>
+      <c r="K45" s="3">
         <v>1834500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1869300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1904400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2003300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1881800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1612400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1635700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1597000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1505000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1648400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1597800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>305100</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>341700</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>228600</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>212400</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>289400</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>305900</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>5039500</v>
+        <v>5295900</v>
       </c>
       <c r="E46" s="3">
-        <v>4891600</v>
+        <v>4908600</v>
       </c>
       <c r="F46" s="3">
-        <v>7176100</v>
+        <v>4764500</v>
       </c>
       <c r="G46" s="3">
-        <v>7038500</v>
+        <v>6989700</v>
       </c>
       <c r="H46" s="3">
-        <v>6826200</v>
+        <v>6855700</v>
       </c>
       <c r="I46" s="3">
-        <v>6756800</v>
+        <v>6648900</v>
       </c>
       <c r="J46" s="3">
+        <v>6581300</v>
+      </c>
+      <c r="K46" s="3">
         <v>6954700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>6691700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>6823200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>6875200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>7196700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>6675700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>7597400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>6685400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>7310800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>6564000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>7115900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>5457600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>5287300</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>5097500</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>5368600</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>5397000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>5199900</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>3235400</v>
+        <v>2874800</v>
       </c>
       <c r="E47" s="3">
-        <v>3279700</v>
+        <v>3151400</v>
       </c>
       <c r="F47" s="3">
-        <v>15440800</v>
+        <v>3194500</v>
       </c>
       <c r="G47" s="3">
-        <v>14340700</v>
+        <v>15039700</v>
       </c>
       <c r="H47" s="3">
-        <v>12970100</v>
+        <v>13968200</v>
       </c>
       <c r="I47" s="3">
-        <v>12665800</v>
+        <v>12633200</v>
       </c>
       <c r="J47" s="3">
+        <v>12336800</v>
+      </c>
+      <c r="K47" s="3">
         <v>12316200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>12493000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>12472300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>12502800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>12994600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>12402900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>12830400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>11621100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>10715900</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>10427800</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>9560700</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>9483000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>8899800</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>8030500</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>7602200</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>7603200</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>7518000</v>
       </c>
     </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>9698000</v>
+        <v>9521100</v>
       </c>
       <c r="E48" s="3">
-        <v>9928600</v>
+        <v>9446100</v>
       </c>
       <c r="F48" s="3">
-        <v>10118100</v>
+        <v>9670700</v>
       </c>
       <c r="G48" s="3">
-        <v>10197700</v>
+        <v>9855200</v>
       </c>
       <c r="H48" s="3">
-        <v>9933400</v>
+        <v>9932800</v>
       </c>
       <c r="I48" s="3">
-        <v>10300300</v>
+        <v>9675400</v>
       </c>
       <c r="J48" s="3">
+        <v>10032800</v>
+      </c>
+      <c r="K48" s="3">
         <v>9386500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>10160800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>10069700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>10993400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>10310700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>9942300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>10188200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>9003400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>7678300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>8009300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>8104800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>8927500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>8449400</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>8424900</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>8936000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>9336800</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>8818900</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>4434400</v>
+        <v>4198900</v>
       </c>
       <c r="E49" s="3">
-        <v>4575500</v>
+        <v>4319300</v>
       </c>
       <c r="F49" s="3">
-        <v>5785500</v>
+        <v>4456700</v>
       </c>
       <c r="G49" s="3">
-        <v>5779300</v>
+        <v>5635200</v>
       </c>
       <c r="H49" s="3">
-        <v>5850000</v>
+        <v>5629100</v>
       </c>
       <c r="I49" s="3">
-        <v>6001200</v>
+        <v>5698000</v>
       </c>
       <c r="J49" s="3">
+        <v>5845300</v>
+      </c>
+      <c r="K49" s="3">
         <v>6083200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>6545900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>6426000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>6643300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>7011600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>7117600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>7518000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>7099700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>4170600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>4448600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>4511000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>4841700</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>4934900</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>5000900</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>5037500</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>5137900</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>4591200</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -3574,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -3648,82 +3765,88 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>1135100</v>
+        <v>1095600</v>
       </c>
       <c r="E52" s="3">
-        <v>1126300</v>
+        <v>1105600</v>
       </c>
       <c r="F52" s="3">
-        <v>1271300</v>
+        <v>1097000</v>
       </c>
       <c r="G52" s="3">
-        <v>1188200</v>
+        <v>1238200</v>
       </c>
       <c r="H52" s="3">
-        <v>1196700</v>
+        <v>1157300</v>
       </c>
       <c r="I52" s="3">
-        <v>1164200</v>
+        <v>1165600</v>
       </c>
       <c r="J52" s="3">
+        <v>1134000</v>
+      </c>
+      <c r="K52" s="3">
         <v>1186500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1333900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1439300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1407300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1632000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1341300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1311200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1180300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1055500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1073200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1060500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>707400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>521500</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>530700</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>521800</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>693000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>472200</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -3796,82 +3919,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>23542500</v>
+        <v>22986300</v>
       </c>
       <c r="E54" s="3">
-        <v>23801700</v>
+        <v>22931000</v>
       </c>
       <c r="F54" s="3">
-        <v>39791700</v>
+        <v>23183500</v>
       </c>
       <c r="G54" s="3">
-        <v>38544400</v>
+        <v>38758100</v>
       </c>
       <c r="H54" s="3">
-        <v>36776300</v>
+        <v>37543200</v>
       </c>
       <c r="I54" s="3">
-        <v>36888400</v>
+        <v>35821100</v>
       </c>
       <c r="J54" s="3">
+        <v>35930200</v>
+      </c>
+      <c r="K54" s="3">
         <v>35927000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>37225300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>37230600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>38422000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>39145600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>37479700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>39445300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>35590100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>30931100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>30522900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>30352900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>29417200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>28093000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>27084400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>27466000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>28167900</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>26600100</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -3898,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -3926,452 +4056,471 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>116300</v>
+        <v>84900</v>
       </c>
       <c r="E57" s="3">
-        <v>146700</v>
+        <v>113300</v>
       </c>
       <c r="F57" s="3">
-        <v>260500</v>
+        <v>142900</v>
       </c>
       <c r="G57" s="3">
-        <v>234300</v>
+        <v>253700</v>
       </c>
       <c r="H57" s="3">
-        <v>259100</v>
+        <v>228200</v>
       </c>
       <c r="I57" s="3">
-        <v>287100</v>
+        <v>252400</v>
       </c>
       <c r="J57" s="3">
+        <v>279700</v>
+      </c>
+      <c r="K57" s="3">
         <v>285700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>300500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>327300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>372600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>405200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>332700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>283700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>320300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>217500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>221100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>204600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>309500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>226300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>219400</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>237100</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>362200</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>276000</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>1409000</v>
+        <v>1895200</v>
       </c>
       <c r="E58" s="3">
-        <v>1380500</v>
+        <v>1372400</v>
       </c>
       <c r="F58" s="3">
-        <v>1458800</v>
+        <v>1344700</v>
       </c>
       <c r="G58" s="3">
-        <v>1278100</v>
+        <v>1420900</v>
       </c>
       <c r="H58" s="3">
-        <v>1286200</v>
+        <v>1244900</v>
       </c>
       <c r="I58" s="3">
-        <v>1085100</v>
+        <v>1252800</v>
       </c>
       <c r="J58" s="3">
+        <v>1056900</v>
+      </c>
+      <c r="K58" s="3">
         <v>1029100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>963600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1234000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1198200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1223800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1310400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1605600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>894000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1002000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>856100</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1192300</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1461600</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1452600</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1315500</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>944800</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>802000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>615100</v>
       </c>
     </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>3814800</v>
+        <v>3701900</v>
       </c>
       <c r="E59" s="3">
-        <v>3832300</v>
+        <v>3715700</v>
       </c>
       <c r="F59" s="3">
-        <v>4733700</v>
+        <v>3732700</v>
       </c>
       <c r="G59" s="3">
-        <v>4510300</v>
+        <v>4610800</v>
       </c>
       <c r="H59" s="3">
-        <v>4691400</v>
+        <v>4393200</v>
       </c>
       <c r="I59" s="3">
-        <v>4924800</v>
+        <v>4569500</v>
       </c>
       <c r="J59" s="3">
+        <v>4796900</v>
+      </c>
+      <c r="K59" s="3">
         <v>4594700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4758600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4813200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>5103100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4927800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>4464800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>5319400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>4537700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3551200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>3760600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>4385500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>4484900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>3942300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>3822900</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>4448200</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>4635500</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>3962700</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>5340200</v>
+        <v>5682000</v>
       </c>
       <c r="E60" s="3">
-        <v>5359500</v>
+        <v>5201500</v>
       </c>
       <c r="F60" s="3">
-        <v>6453000</v>
+        <v>5220300</v>
       </c>
       <c r="G60" s="3">
-        <v>6022800</v>
+        <v>6285400</v>
       </c>
       <c r="H60" s="3">
-        <v>6236700</v>
+        <v>5866300</v>
       </c>
       <c r="I60" s="3">
-        <v>6297000</v>
+        <v>6074700</v>
       </c>
       <c r="J60" s="3">
+        <v>6133500</v>
+      </c>
+      <c r="K60" s="3">
         <v>5909400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6022700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6374500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>6673900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>6556800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>6107900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>7208600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>5751900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>4770700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>4837800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>5782300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>6256000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>5621200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>5357800</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>5630000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>5799700</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>4853900</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>6669800</v>
+        <v>6221100</v>
       </c>
       <c r="E61" s="3">
-        <v>6603000</v>
+        <v>6496600</v>
       </c>
       <c r="F61" s="3">
-        <v>8383600</v>
+        <v>6431400</v>
       </c>
       <c r="G61" s="3">
-        <v>8387600</v>
+        <v>8165900</v>
       </c>
       <c r="H61" s="3">
-        <v>8195500</v>
+        <v>8169800</v>
       </c>
       <c r="I61" s="3">
-        <v>8274600</v>
+        <v>7982600</v>
       </c>
       <c r="J61" s="3">
+        <v>8059700</v>
+      </c>
+      <c r="K61" s="3">
         <v>7920900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>8322200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>8551200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>8623500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>8522600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>7920200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>8288300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>7213600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>5575400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>5547400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>5319600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>5111100</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>5104400</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>5178200</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>5654600</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>5830800</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>5840500</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>2085000</v>
+        <v>1973300</v>
       </c>
       <c r="E62" s="3">
-        <v>2341100</v>
+        <v>2030800</v>
       </c>
       <c r="F62" s="3">
-        <v>4023500</v>
+        <v>2280300</v>
       </c>
       <c r="G62" s="3">
-        <v>3800700</v>
+        <v>3919000</v>
       </c>
       <c r="H62" s="3">
-        <v>3425900</v>
+        <v>3702000</v>
       </c>
       <c r="I62" s="3">
-        <v>3531600</v>
+        <v>3337000</v>
       </c>
       <c r="J62" s="3">
+        <v>3439900</v>
+      </c>
+      <c r="K62" s="3">
         <v>3368000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3426800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3363300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3730200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>3901800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>3713300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>3819900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>3851200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>2626500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>2574400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>2461100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>2184400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1988400</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1874200</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>1860200</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>2032600</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>1915900</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -4444,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4518,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -4592,82 +4747,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>14683200</v>
+        <v>14467600</v>
       </c>
       <c r="E66" s="3">
-        <v>14885600</v>
+        <v>14301800</v>
       </c>
       <c r="F66" s="3">
-        <v>19564900</v>
+        <v>14498900</v>
       </c>
       <c r="G66" s="3">
-        <v>18906700</v>
+        <v>19056700</v>
       </c>
       <c r="H66" s="3">
-        <v>18375500</v>
+        <v>18415600</v>
       </c>
       <c r="I66" s="3">
-        <v>18605600</v>
+        <v>17898200</v>
       </c>
       <c r="J66" s="3">
+        <v>18122300</v>
+      </c>
+      <c r="K66" s="3">
         <v>17605800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>18193000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>18168300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>18914300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>18899300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>17654900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>19205500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>16714600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>13198100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>13130700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>13728400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>13716100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>12834200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>12499800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>13239200</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>13793600</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>12760400</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -4694,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -4768,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -4842,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -4916,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -4990,82 +5161,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>17168800</v>
+        <v>16782600</v>
       </c>
       <c r="E72" s="3">
-        <v>17276800</v>
+        <v>16722800</v>
       </c>
       <c r="F72" s="3">
-        <v>17176400</v>
+        <v>16828000</v>
       </c>
       <c r="G72" s="3">
-        <v>16693200</v>
+        <v>16730300</v>
       </c>
       <c r="H72" s="3">
-        <v>17614400</v>
+        <v>16259600</v>
       </c>
       <c r="I72" s="3">
-        <v>17696100</v>
+        <v>17156900</v>
       </c>
       <c r="J72" s="3">
+        <v>17236400</v>
+      </c>
+      <c r="K72" s="3">
         <v>17398700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>18050600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>18362200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>18894400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>19871700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>19470600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>19870500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>18601400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>17574500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>17434000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>16667600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>15695600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>15173300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>14531800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>14306000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>14357800</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>13922500</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -5138,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -5212,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -5286,82 +5469,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>8859300</v>
+        <v>8518700</v>
       </c>
       <c r="E76" s="3">
-        <v>8916100</v>
+        <v>8629200</v>
       </c>
       <c r="F76" s="3">
-        <v>20226800</v>
+        <v>8684500</v>
       </c>
       <c r="G76" s="3">
-        <v>19637700</v>
+        <v>19701400</v>
       </c>
       <c r="H76" s="3">
-        <v>18400800</v>
+        <v>19127600</v>
       </c>
       <c r="I76" s="3">
-        <v>18282800</v>
+        <v>17922900</v>
       </c>
       <c r="J76" s="3">
+        <v>17807900</v>
+      </c>
+      <c r="K76" s="3">
         <v>18321200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>19032300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>19062300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>19507700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>20246300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>19824800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>20239800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>18875500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>17732900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>17392200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>16624500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>15701100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>15258700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>14584600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>14226800</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>14374300</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>13839700</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -5434,161 +5623,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>159800</v>
+        <v>187600</v>
       </c>
       <c r="E81" s="3">
-        <v>1842400</v>
+        <v>155700</v>
       </c>
       <c r="F81" s="3">
-        <v>601000</v>
+        <v>1794600</v>
       </c>
       <c r="G81" s="3">
-        <v>586800</v>
+        <v>585400</v>
       </c>
       <c r="H81" s="3">
-        <v>427000</v>
+        <v>571600</v>
       </c>
       <c r="I81" s="3">
-        <v>1147000</v>
+        <v>415900</v>
       </c>
       <c r="J81" s="3">
+        <v>1117200</v>
+      </c>
+      <c r="K81" s="3">
         <v>292100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>343200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>256100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-27200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>240900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>228500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>341700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>404200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>832400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>762900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>583800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>511800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>700300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>542500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>530200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>432400</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>292600</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -5615,82 +5813,86 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>728600</v>
+        <v>705500</v>
       </c>
       <c r="E83" s="3">
-        <v>3168100</v>
+        <v>709700</v>
       </c>
       <c r="F83" s="3">
-        <v>810300</v>
+        <v>3085800</v>
       </c>
       <c r="G83" s="3">
-        <v>797800</v>
+        <v>789300</v>
       </c>
       <c r="H83" s="3">
-        <v>795900</v>
+        <v>777100</v>
       </c>
       <c r="I83" s="3">
-        <v>3210900</v>
+        <v>775200</v>
       </c>
       <c r="J83" s="3">
+        <v>3127500</v>
+      </c>
+      <c r="K83" s="3">
         <v>796700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>835300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>856200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>874600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>892700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>855000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>848400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>711200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>653900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>677500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>692100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>732200</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>718700</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>707600</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>715200</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>722200</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>688100</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -5763,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -5837,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -5911,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -5985,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -6059,82 +6273,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>996900</v>
+        <v>1081200</v>
       </c>
       <c r="E89" s="3">
-        <v>3874100</v>
+        <v>971000</v>
       </c>
       <c r="F89" s="3">
-        <v>1082000</v>
+        <v>3773500</v>
       </c>
       <c r="G89" s="3">
-        <v>1067400</v>
+        <v>1053900</v>
       </c>
       <c r="H89" s="3">
-        <v>686100</v>
+        <v>1039700</v>
       </c>
       <c r="I89" s="3">
-        <v>4482800</v>
+        <v>668300</v>
       </c>
       <c r="J89" s="3">
+        <v>4366400</v>
+      </c>
+      <c r="K89" s="3">
         <v>1263500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1549000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>816800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>975700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>746100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>907500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>881500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1389100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>382000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1024900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>829300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>828600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>969400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>776500</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>837300</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>1379600</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>799200</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -6161,82 +6381,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-575600</v>
+        <v>-400500</v>
       </c>
       <c r="E91" s="3">
-        <v>-2245200</v>
+        <v>-560600</v>
       </c>
       <c r="F91" s="3">
-        <v>-619800</v>
+        <v>-2186900</v>
       </c>
       <c r="G91" s="3">
-        <v>-426900</v>
+        <v>-603700</v>
       </c>
       <c r="H91" s="3">
-        <v>-581500</v>
+        <v>-415900</v>
       </c>
       <c r="I91" s="3">
-        <v>-2739500</v>
+        <v>-566400</v>
       </c>
       <c r="J91" s="3">
+        <v>-2668400</v>
+      </c>
+      <c r="K91" s="3">
         <v>-742400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-526800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-878200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-969100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-796300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-571500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-629400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-789700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-622200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-383600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-527100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-730500</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-688700</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-391900</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-608900</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-1158400</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-855700</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -6309,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -6383,82 +6610,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-616500</v>
+        <v>-587500</v>
       </c>
       <c r="E94" s="3">
-        <v>-2684400</v>
+        <v>-600500</v>
       </c>
       <c r="F94" s="3">
-        <v>-897400</v>
+        <v>-2614600</v>
       </c>
       <c r="G94" s="3">
-        <v>-784900</v>
+        <v>-874100</v>
       </c>
       <c r="H94" s="3">
-        <v>-403300</v>
+        <v>-764500</v>
       </c>
       <c r="I94" s="3">
-        <v>-3272800</v>
+        <v>-392800</v>
       </c>
       <c r="J94" s="3">
+        <v>-3187800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-907100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-515500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1035700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1309800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1016400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-404700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-400100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-2284100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-292400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-356000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-456800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-845900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-805200</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-473600</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-590600</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-755400</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-667600</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -6485,8 +6718,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
@@ -6494,26 +6728,26 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-792000</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-137000</v>
+        <v>-771400</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-133400</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>-571400</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>-556600</v>
+      </c>
+      <c r="K96" s="3">
         <v>-56300</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
         <v>0</v>
       </c>
@@ -6521,11 +6755,11 @@
         <v>0</v>
       </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-64000</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
         <v>0</v>
       </c>
@@ -6533,11 +6767,11 @@
         <v>0</v>
       </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-57200</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
         <v>0</v>
       </c>
@@ -6545,11 +6779,11 @@
         <v>0</v>
       </c>
       <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-62100</v>
       </c>
-      <c r="W96" s="3">
-        <v>0</v>
-      </c>
       <c r="X96" s="3">
         <v>0</v>
       </c>
@@ -6557,10 +6791,13 @@
         <v>0</v>
       </c>
       <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
         <v>-63500</v>
       </c>
     </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -6633,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -6707,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -6781,226 +7024,238 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>-364600</v>
+        <v>-305600</v>
       </c>
       <c r="E100" s="3">
-        <v>-1581300</v>
+        <v>-355200</v>
       </c>
       <c r="F100" s="3">
-        <v>-226800</v>
+        <v>-1540200</v>
       </c>
       <c r="G100" s="3">
-        <v>-45100</v>
+        <v>-220900</v>
       </c>
       <c r="H100" s="3">
-        <v>-393200</v>
+        <v>-43900</v>
       </c>
       <c r="I100" s="3">
-        <v>-1122300</v>
+        <v>-382900</v>
       </c>
       <c r="J100" s="3">
+        <v>-1093200</v>
+      </c>
+      <c r="K100" s="3">
         <v>-56600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-725800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>83100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>324500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>120000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1033500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>19100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-163300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>696800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-746200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-13300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>30200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>19200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-603000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-177800</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-48400</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-343800</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E101" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F101" s="3">
+        <v>8700</v>
+      </c>
+      <c r="G101" s="3">
+        <v>5300</v>
+      </c>
+      <c r="H101" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I101" s="3">
+        <v>3700</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="K101" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="L101" s="3">
+        <v>-500</v>
+      </c>
+      <c r="M101" s="3">
+        <v>7200</v>
+      </c>
+      <c r="N101" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="O101" s="3">
+        <v>6100</v>
+      </c>
+      <c r="P101" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>400</v>
+      </c>
+      <c r="R101" s="3">
+        <v>2500</v>
+      </c>
+      <c r="S101" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="T101" s="3">
+        <v>2100</v>
+      </c>
+      <c r="U101" s="3">
+        <v>400</v>
+      </c>
+      <c r="V101" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="W101" s="3">
         <v>1100</v>
       </c>
-      <c r="E101" s="3">
-        <v>8900</v>
-      </c>
-      <c r="F101" s="3">
-        <v>5400</v>
-      </c>
-      <c r="G101" s="3">
-        <v>-400</v>
-      </c>
-      <c r="H101" s="3">
-        <v>3800</v>
-      </c>
-      <c r="I101" s="3">
-        <v>-11600</v>
-      </c>
-      <c r="J101" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="K101" s="3">
-        <v>-500</v>
-      </c>
-      <c r="L101" s="3">
-        <v>7200</v>
-      </c>
-      <c r="M101" s="3">
-        <v>-6400</v>
-      </c>
-      <c r="N101" s="3">
-        <v>6100</v>
-      </c>
-      <c r="O101" s="3">
-        <v>-2100</v>
-      </c>
-      <c r="P101" s="3">
-        <v>400</v>
-      </c>
-      <c r="Q101" s="3">
-        <v>2500</v>
-      </c>
-      <c r="R101" s="3">
-        <v>-2800</v>
-      </c>
-      <c r="S101" s="3">
-        <v>2100</v>
-      </c>
-      <c r="T101" s="3">
-        <v>400</v>
-      </c>
-      <c r="U101" s="3">
-        <v>-3600</v>
-      </c>
-      <c r="V101" s="3">
-        <v>1100</v>
-      </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>2300</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-5200</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>5600</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>16900</v>
+        <v>193700</v>
       </c>
       <c r="E102" s="3">
-        <v>-382600</v>
+        <v>16400</v>
       </c>
       <c r="F102" s="3">
-        <v>-36800</v>
+        <v>-372700</v>
       </c>
       <c r="G102" s="3">
-        <v>237100</v>
+        <v>-35800</v>
       </c>
       <c r="H102" s="3">
-        <v>-106500</v>
+        <v>231000</v>
       </c>
       <c r="I102" s="3">
-        <v>76100</v>
+        <v>-103700</v>
       </c>
       <c r="J102" s="3">
+        <v>74100</v>
+      </c>
+      <c r="K102" s="3">
         <v>297900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>307100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-128600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-16100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-144100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-532800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>500800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1055800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>783600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-75200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>359500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>9300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>184400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-297700</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>63700</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>581400</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-216300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SKM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SKM_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,346 +665,359 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3217400</v>
+        <v>3214200</v>
       </c>
       <c r="E8" s="3">
-        <v>3207900</v>
+        <v>3174500</v>
       </c>
       <c r="F8" s="3">
-        <v>12561400</v>
+        <v>3165100</v>
       </c>
       <c r="G8" s="3">
-        <v>3725600</v>
+        <v>12394000</v>
       </c>
       <c r="H8" s="3">
-        <v>3093900</v>
+        <v>3119100</v>
       </c>
       <c r="I8" s="3">
-        <v>3084800</v>
+        <v>3052600</v>
       </c>
       <c r="J8" s="3">
+        <v>3043700</v>
+      </c>
+      <c r="K8" s="3">
         <v>12065800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3643200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3728700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3738500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3746400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4059500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3904600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3944800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3655400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3391000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3489600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>3512500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>3957600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>3909600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>3824100</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>3810900</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>3917000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>3819400</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>138900</v>
+        <v>133200</v>
       </c>
       <c r="E9" s="3">
-        <v>142000</v>
+        <v>137100</v>
       </c>
       <c r="F9" s="3">
-        <v>562200</v>
+        <v>140100</v>
       </c>
       <c r="G9" s="3">
-        <v>138100</v>
+        <v>554700</v>
       </c>
       <c r="H9" s="3">
-        <v>137400</v>
+        <v>136300</v>
       </c>
       <c r="I9" s="3">
-        <v>145500</v>
+        <v>135600</v>
       </c>
       <c r="J9" s="3">
+        <v>143500</v>
+      </c>
+      <c r="K9" s="3">
         <v>578000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>155100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>167900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>163800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>162600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>163700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>165200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>172300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>136400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>171900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>183800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>180600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>190800</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>197200</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>187500</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>199000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>153400</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>238000</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3078500</v>
+        <v>3080900</v>
       </c>
       <c r="E10" s="3">
-        <v>3065900</v>
+        <v>3037400</v>
       </c>
       <c r="F10" s="3">
-        <v>11999200</v>
+        <v>3025000</v>
       </c>
       <c r="G10" s="3">
-        <v>3587500</v>
+        <v>11839200</v>
       </c>
       <c r="H10" s="3">
-        <v>2956500</v>
+        <v>2982800</v>
       </c>
       <c r="I10" s="3">
-        <v>2939400</v>
+        <v>2917000</v>
       </c>
       <c r="J10" s="3">
+        <v>2900200</v>
+      </c>
+      <c r="K10" s="3">
         <v>11487800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3488100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3560800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>3574700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>3583800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>3895800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>3739400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>3772400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>3519000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>3219100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>3305800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>3331900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>3766900</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>3712400</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>3636700</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>3612000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>3763600</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>3581400</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,85 +1045,89 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>66500</v>
+        <v>62600</v>
       </c>
       <c r="E12" s="3">
-        <v>58600</v>
+        <v>65600</v>
       </c>
       <c r="F12" s="3">
-        <v>260800</v>
+        <v>57800</v>
       </c>
       <c r="G12" s="3">
-        <v>73400</v>
+        <v>257300</v>
       </c>
       <c r="H12" s="3">
-        <v>62000</v>
+        <v>59500</v>
       </c>
       <c r="I12" s="3">
-        <v>62600</v>
+        <v>61200</v>
       </c>
       <c r="J12" s="3">
+        <v>61800</v>
+      </c>
+      <c r="K12" s="3">
         <v>264900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>80700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>85000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>92700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>86500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>83300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>84700</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>90800</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>88900</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>76200</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>82500</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>75100</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>90300</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>90800</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>83500</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>85200</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>82100</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>76900</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1186,162 +1203,171 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>91</v>
+      <c r="D14" s="3">
+        <v>300</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="F14" s="3">
-        <v>2400</v>
-      </c>
-      <c r="G14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="H14" s="3">
-        <v>4000</v>
+      <c r="G14" s="3">
+        <v>2300</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="I14" s="3">
-        <v>-3800</v>
+        <v>3900</v>
       </c>
       <c r="J14" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="K14" s="3">
         <v>150500</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>10300</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="N14" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>54900</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>200</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>2100</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>100</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>214000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>400</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>2100</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>800</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>52300</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>300</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>3700</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>2000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>5700</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>680500</v>
+        <v>666900</v>
       </c>
       <c r="E15" s="3">
-        <v>683200</v>
+        <v>671400</v>
       </c>
       <c r="F15" s="3">
-        <v>2754400</v>
+        <v>674100</v>
       </c>
       <c r="G15" s="3">
-        <v>760800</v>
+        <v>2717700</v>
       </c>
       <c r="H15" s="3">
-        <v>684800</v>
+        <v>686800</v>
       </c>
       <c r="I15" s="3">
-        <v>681800</v>
+        <v>675600</v>
       </c>
       <c r="J15" s="3">
+        <v>672700</v>
+      </c>
+      <c r="K15" s="3">
         <v>2748500</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>775500</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>807500</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>827200</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>912300</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>856100</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>818700</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>810900</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>676100</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>621700</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>644900</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>660200</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>696900</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>684300</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>674200</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>685500</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>695000</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>659700</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,162 +1392,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>2872700</v>
+        <v>2869900</v>
       </c>
       <c r="E17" s="3">
-        <v>2883600</v>
+        <v>2834400</v>
       </c>
       <c r="F17" s="3">
-        <v>11523400</v>
+        <v>2845200</v>
       </c>
       <c r="G17" s="3">
-        <v>3425600</v>
+        <v>11369800</v>
       </c>
       <c r="H17" s="3">
-        <v>2797100</v>
+        <v>2828300</v>
       </c>
       <c r="I17" s="3">
-        <v>2804200</v>
+        <v>2759800</v>
       </c>
       <c r="J17" s="3">
+        <v>2766800</v>
+      </c>
+      <c r="K17" s="3">
         <v>11279900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3367600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3449200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3485400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3664800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3790900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3622600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3651300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3680200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3145000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3200300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>3239800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>3736700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>3564600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>3455400</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>3443500</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>3650900</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>3442500</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>344700</v>
+        <v>344300</v>
       </c>
       <c r="E18" s="3">
-        <v>324300</v>
+        <v>340100</v>
       </c>
       <c r="F18" s="3">
-        <v>1038000</v>
+        <v>320000</v>
       </c>
       <c r="G18" s="3">
-        <v>300000</v>
+        <v>1024200</v>
       </c>
       <c r="H18" s="3">
-        <v>296800</v>
+        <v>290800</v>
       </c>
       <c r="I18" s="3">
-        <v>280700</v>
+        <v>292800</v>
       </c>
       <c r="J18" s="3">
+        <v>276900</v>
+      </c>
+      <c r="K18" s="3">
         <v>785900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>275700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>279500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>253100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>81700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>268600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>282000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>293500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-24700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>246000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>289300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>272600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>220900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>345000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>368800</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>367500</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>266100</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>376900</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1549,393 +1582,409 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>14300</v>
+        <v>-20100</v>
       </c>
       <c r="E20" s="3">
-        <v>-23600</v>
+        <v>14100</v>
       </c>
       <c r="F20" s="3">
-        <v>460400</v>
+        <v>-23300</v>
       </c>
       <c r="G20" s="3">
-        <v>476300</v>
+        <v>454300</v>
       </c>
       <c r="H20" s="3">
-        <v>188000</v>
+        <v>27500</v>
       </c>
       <c r="I20" s="3">
-        <v>135500</v>
+        <v>185500</v>
       </c>
       <c r="J20" s="3">
+        <v>133700</v>
+      </c>
+      <c r="K20" s="3">
         <v>109700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>265700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>320200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>140700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>130200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>116400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>225300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>607100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>866100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>748000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>552300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>662700</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>601900</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>355900</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>351300</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>307600</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>78400</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>1064500</v>
+        <v>1014900</v>
       </c>
       <c r="E21" s="3">
-        <v>1010400</v>
+        <v>1050300</v>
       </c>
       <c r="F21" s="3">
-        <v>4584200</v>
+        <v>996900</v>
       </c>
       <c r="G21" s="3">
-        <v>1565500</v>
+        <v>4523100</v>
       </c>
       <c r="H21" s="3">
-        <v>1261900</v>
+        <v>1097100</v>
       </c>
       <c r="I21" s="3">
-        <v>1191400</v>
+        <v>1245100</v>
       </c>
       <c r="J21" s="3">
+        <v>1175500</v>
+      </c>
+      <c r="K21" s="3">
         <v>4023100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1338100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1435000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1250100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>956400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1291600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1253400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1367100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1293500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1766000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1714900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1517100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1615900</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1665600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1432300</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1434000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>1295900</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>1143300</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>56900</v>
+        <v>56000</v>
       </c>
       <c r="E22" s="3">
-        <v>55400</v>
+        <v>56100</v>
       </c>
       <c r="F22" s="3">
-        <v>209800</v>
+        <v>54700</v>
       </c>
       <c r="G22" s="3">
-        <v>68000</v>
+        <v>207000</v>
       </c>
       <c r="H22" s="3">
-        <v>51600</v>
+        <v>52600</v>
       </c>
       <c r="I22" s="3">
-        <v>51300</v>
+        <v>50900</v>
       </c>
       <c r="J22" s="3">
+        <v>50600</v>
+      </c>
+      <c r="K22" s="3">
         <v>216700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>143600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>155100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>84400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>89700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>87900</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>87600</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>93100</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>75000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>57500</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>60400</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>63100</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>68300</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>63400</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>66100</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>67000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>66000</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>67200</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>302100</v>
+        <v>268100</v>
       </c>
       <c r="E23" s="3">
-        <v>245300</v>
+        <v>298000</v>
       </c>
       <c r="F23" s="3">
-        <v>1288600</v>
+        <v>242000</v>
       </c>
       <c r="G23" s="3">
-        <v>708200</v>
+        <v>1271500</v>
       </c>
       <c r="H23" s="3">
-        <v>433200</v>
+        <v>265700</v>
       </c>
       <c r="I23" s="3">
-        <v>364900</v>
+        <v>427400</v>
       </c>
       <c r="J23" s="3">
+        <v>360000</v>
+      </c>
+      <c r="K23" s="3">
         <v>678900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>397800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>444700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>309400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-8000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>311000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>310800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>425700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>507400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1054600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>977000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>761900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>815400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>883600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>658600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>651800</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>507700</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>388100</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>108500</v>
+        <v>86400</v>
       </c>
       <c r="E24" s="3">
-        <v>80000</v>
+        <v>107000</v>
       </c>
       <c r="F24" s="3">
-        <v>335100</v>
+        <v>78900</v>
       </c>
       <c r="G24" s="3">
-        <v>155900</v>
+        <v>330600</v>
       </c>
       <c r="H24" s="3">
-        <v>102700</v>
+        <v>70700</v>
       </c>
       <c r="I24" s="3">
-        <v>98000</v>
+        <v>101300</v>
       </c>
       <c r="J24" s="3">
+        <v>96700</v>
+      </c>
+      <c r="K24" s="3">
         <v>165900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>96100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>94500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>52400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>31400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>66700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>82900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>85700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>108800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>204200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>208900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>179400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>234000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>185800</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>112600</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>126700</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>80500</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>98200</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2011,162 +2060,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>193600</v>
+        <v>181700</v>
       </c>
       <c r="E26" s="3">
-        <v>165300</v>
+        <v>191000</v>
       </c>
       <c r="F26" s="3">
-        <v>953500</v>
+        <v>163100</v>
       </c>
       <c r="G26" s="3">
-        <v>552400</v>
+        <v>940800</v>
       </c>
       <c r="H26" s="3">
-        <v>330500</v>
+        <v>195000</v>
       </c>
       <c r="I26" s="3">
-        <v>266900</v>
+        <v>326100</v>
       </c>
       <c r="J26" s="3">
+        <v>263300</v>
+      </c>
+      <c r="K26" s="3">
         <v>513000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>301700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>350200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>257000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-39400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>244200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>228000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>340000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>398600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>850400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>768000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>582400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>581400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>697800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>546000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>525100</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>427200</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>289900</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>187600</v>
+        <v>170900</v>
       </c>
       <c r="E27" s="3">
-        <v>155700</v>
+        <v>185100</v>
       </c>
       <c r="F27" s="3">
-        <v>902100</v>
+        <v>153600</v>
       </c>
       <c r="G27" s="3">
-        <v>585400</v>
+        <v>890000</v>
       </c>
       <c r="H27" s="3">
-        <v>313600</v>
+        <v>187400</v>
       </c>
       <c r="I27" s="3">
-        <v>256800</v>
+        <v>309500</v>
       </c>
       <c r="J27" s="3">
+        <v>253300</v>
+      </c>
+      <c r="K27" s="3">
         <v>475400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>292100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>343200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>256100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-27200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>240900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>228500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>341700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>404200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>832400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>762900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>583800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>511800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>700300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>542500</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>530200</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>432400</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>292600</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2253,29 +2314,29 @@
       <c r="E29" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="F29" s="3">
-        <v>892500</v>
-      </c>
-      <c r="G29" s="3" t="s">
+      <c r="F29" s="3" t="s">
         <v>91</v>
       </c>
+      <c r="G29" s="3">
+        <v>880600</v>
+      </c>
       <c r="H29" s="3">
-        <v>257900</v>
+        <v>390200</v>
       </c>
       <c r="I29" s="3">
-        <v>159200</v>
+        <v>254500</v>
       </c>
       <c r="J29" s="3">
+        <v>157000</v>
+      </c>
+      <c r="K29" s="3">
         <v>641800</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
+      <c r="M29" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="N29" s="3">
         <v>0</v>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2473,162 +2540,171 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-14300</v>
+        <v>20100</v>
       </c>
       <c r="E32" s="3">
-        <v>23600</v>
+        <v>-14100</v>
       </c>
       <c r="F32" s="3">
-        <v>-460400</v>
+        <v>23300</v>
       </c>
       <c r="G32" s="3">
-        <v>-476300</v>
+        <v>-454300</v>
       </c>
       <c r="H32" s="3">
-        <v>-188000</v>
+        <v>-27500</v>
       </c>
       <c r="I32" s="3">
-        <v>-135500</v>
+        <v>-185500</v>
       </c>
       <c r="J32" s="3">
+        <v>-133700</v>
+      </c>
+      <c r="K32" s="3">
         <v>-109700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-265700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-320200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-140700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-130200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-116400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-225300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-607100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-866100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-748000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-552300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-662700</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-601900</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-355900</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-351300</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-307600</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-78400</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>187600</v>
+        <v>170900</v>
       </c>
       <c r="E33" s="3">
-        <v>155700</v>
+        <v>185100</v>
       </c>
       <c r="F33" s="3">
-        <v>1794600</v>
+        <v>153600</v>
       </c>
       <c r="G33" s="3">
-        <v>585400</v>
+        <v>1770600</v>
       </c>
       <c r="H33" s="3">
-        <v>571600</v>
+        <v>577600</v>
       </c>
       <c r="I33" s="3">
-        <v>415900</v>
+        <v>563900</v>
       </c>
       <c r="J33" s="3">
+        <v>410400</v>
+      </c>
+      <c r="K33" s="3">
         <v>1117200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>292100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>343200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>256100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-27200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>240900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>228500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>341700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>404200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>832400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>762900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>583800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>511800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>700300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>542500</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>530200</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>432400</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>292600</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2704,167 +2780,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>187600</v>
+        <v>170900</v>
       </c>
       <c r="E35" s="3">
-        <v>155700</v>
+        <v>185100</v>
       </c>
       <c r="F35" s="3">
-        <v>1794600</v>
+        <v>153600</v>
       </c>
       <c r="G35" s="3">
-        <v>585400</v>
+        <v>1770600</v>
       </c>
       <c r="H35" s="3">
-        <v>571600</v>
+        <v>577600</v>
       </c>
       <c r="I35" s="3">
-        <v>415900</v>
+        <v>563900</v>
       </c>
       <c r="J35" s="3">
+        <v>410400</v>
+      </c>
+      <c r="K35" s="3">
         <v>1117200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>292100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>343200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>256100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-27200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>240900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>228500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>341700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>404200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>832400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>762900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>583800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>511800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>700300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>542500</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>530200</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>432400</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>292600</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2921,701 +3007,729 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>864700</v>
+        <v>881700</v>
       </c>
       <c r="E41" s="3">
-        <v>671000</v>
+        <v>853200</v>
       </c>
       <c r="F41" s="3">
-        <v>654500</v>
+        <v>662000</v>
       </c>
       <c r="G41" s="3">
-        <v>1118700</v>
+        <v>645800</v>
       </c>
       <c r="H41" s="3">
-        <v>1154500</v>
+        <v>1103700</v>
       </c>
       <c r="I41" s="3">
-        <v>923500</v>
+        <v>1139100</v>
       </c>
       <c r="J41" s="3">
+        <v>911200</v>
+      </c>
+      <c r="K41" s="3">
         <v>1027200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1450500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1212500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>938900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1080200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1147800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1277400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1871900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1265600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2238500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1508800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1584000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1282800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1273500</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1089100</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>1418400</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>1354700</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>773300</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>516400</v>
+        <v>479200</v>
       </c>
       <c r="E42" s="3">
-        <v>368700</v>
+        <v>509500</v>
       </c>
       <c r="F42" s="3">
-        <v>325600</v>
+        <v>363800</v>
       </c>
       <c r="G42" s="3">
-        <v>1264900</v>
+        <v>321300</v>
       </c>
       <c r="H42" s="3">
-        <v>1186400</v>
+        <v>1248100</v>
       </c>
       <c r="I42" s="3">
-        <v>1093300</v>
+        <v>1170600</v>
       </c>
       <c r="J42" s="3">
+        <v>1078700</v>
+      </c>
+      <c r="K42" s="3">
         <v>1109500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>840400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>795000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>903200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>766900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>866400</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>728100</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>733100</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>975400</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>318100</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>452600</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>540900</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>590800</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>626300</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>647200</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>612800</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>437300</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>580900</v>
       </c>
     </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>2056100</v>
+        <v>2080400</v>
       </c>
       <c r="E43" s="3">
-        <v>2062900</v>
+        <v>2028700</v>
       </c>
       <c r="F43" s="3">
-        <v>1957700</v>
+        <v>2035400</v>
       </c>
       <c r="G43" s="3">
-        <v>2772400</v>
+        <v>1931600</v>
       </c>
       <c r="H43" s="3">
-        <v>2584400</v>
+        <v>2735400</v>
       </c>
       <c r="I43" s="3">
-        <v>2680100</v>
+        <v>2550000</v>
       </c>
       <c r="J43" s="3">
+        <v>2644400</v>
+      </c>
+      <c r="K43" s="3">
         <v>2528400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2663000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2649400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2902000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2886300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3122000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2860700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>3116800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2605400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>3040500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>2736500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>3179400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>3039200</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>2826800</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>2900700</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>2901300</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>3081700</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>3293200</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>137500</v>
+        <v>145400</v>
       </c>
       <c r="E44" s="3">
-        <v>167600</v>
+        <v>135600</v>
       </c>
       <c r="F44" s="3">
-        <v>153500</v>
+        <v>165300</v>
       </c>
       <c r="G44" s="3">
-        <v>148700</v>
+        <v>151400</v>
       </c>
       <c r="H44" s="3">
-        <v>158800</v>
+        <v>146700</v>
       </c>
       <c r="I44" s="3">
-        <v>166100</v>
+        <v>156700</v>
       </c>
       <c r="J44" s="3">
+        <v>163900</v>
+      </c>
+      <c r="K44" s="3">
         <v>128600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>166300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>165500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>174800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>138400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>178500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>197000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>239900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>242000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>208700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>217800</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>213800</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>239700</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>219000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>231900</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>223700</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>233900</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>246600</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>1721200</v>
+        <v>1829200</v>
       </c>
       <c r="E45" s="3">
-        <v>1638500</v>
+        <v>1698300</v>
       </c>
       <c r="F45" s="3">
-        <v>1673200</v>
+        <v>1616700</v>
       </c>
       <c r="G45" s="3">
-        <v>1685000</v>
+        <v>1650900</v>
       </c>
       <c r="H45" s="3">
-        <v>1771500</v>
+        <v>1662600</v>
       </c>
       <c r="I45" s="3">
-        <v>1785800</v>
+        <v>1747900</v>
       </c>
       <c r="J45" s="3">
+        <v>1762000</v>
+      </c>
+      <c r="K45" s="3">
         <v>1787600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1834500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1869300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1904400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2003300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1881800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1612400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1635700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1597000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1505000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1648400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1597800</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>305100</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>341700</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>228600</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>212400</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>289400</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>305900</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>5295900</v>
+        <v>5415800</v>
       </c>
       <c r="E46" s="3">
-        <v>4908600</v>
+        <v>5225300</v>
       </c>
       <c r="F46" s="3">
-        <v>4764500</v>
+        <v>4843200</v>
       </c>
       <c r="G46" s="3">
-        <v>6989700</v>
+        <v>4701000</v>
       </c>
       <c r="H46" s="3">
-        <v>6855700</v>
+        <v>6896500</v>
       </c>
       <c r="I46" s="3">
-        <v>6648900</v>
+        <v>6764300</v>
       </c>
       <c r="J46" s="3">
+        <v>6560200</v>
+      </c>
+      <c r="K46" s="3">
         <v>6581300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>6954700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>6691700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>6823200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>6875200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>7196700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>6675700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>7597400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>6685400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>7310800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>6564000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>7115900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>5457600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>5287300</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>5097500</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>5368600</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>5397000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>5199900</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>2874800</v>
+        <v>2794300</v>
       </c>
       <c r="E47" s="3">
-        <v>3151400</v>
+        <v>2836500</v>
       </c>
       <c r="F47" s="3">
-        <v>3194500</v>
+        <v>3109300</v>
       </c>
       <c r="G47" s="3">
-        <v>15039700</v>
+        <v>3151900</v>
       </c>
       <c r="H47" s="3">
-        <v>13968200</v>
+        <v>14839200</v>
       </c>
       <c r="I47" s="3">
-        <v>12633200</v>
+        <v>13782000</v>
       </c>
       <c r="J47" s="3">
+        <v>12464800</v>
+      </c>
+      <c r="K47" s="3">
         <v>12336800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>12316200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>12493000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>12472300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>12502800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>12994600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>12402900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>12830400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>11621100</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>10715900</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>10427800</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>9560700</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>9483000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>8899800</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>8030500</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>7602200</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>7603200</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>7518000</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>9521100</v>
+        <v>9229100</v>
       </c>
       <c r="E48" s="3">
-        <v>9446100</v>
+        <v>9394100</v>
       </c>
       <c r="F48" s="3">
-        <v>9670700</v>
+        <v>9320200</v>
       </c>
       <c r="G48" s="3">
-        <v>9855200</v>
+        <v>9541800</v>
       </c>
       <c r="H48" s="3">
-        <v>9932800</v>
+        <v>9723800</v>
       </c>
       <c r="I48" s="3">
-        <v>9675400</v>
+        <v>9800400</v>
       </c>
       <c r="J48" s="3">
+        <v>9546300</v>
+      </c>
+      <c r="K48" s="3">
         <v>10032800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>9386500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>10160800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>10069700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>10993400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>10310700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>9942300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>10188200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>9003400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>7678300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>8009300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>8104800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>8927500</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>8449400</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>8424900</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>8936000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>9336800</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>8818900</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>4198900</v>
+        <v>4023000</v>
       </c>
       <c r="E49" s="3">
-        <v>4319300</v>
+        <v>4142900</v>
       </c>
       <c r="F49" s="3">
-        <v>4456700</v>
+        <v>4261700</v>
       </c>
       <c r="G49" s="3">
-        <v>5635200</v>
+        <v>4397300</v>
       </c>
       <c r="H49" s="3">
-        <v>5629100</v>
+        <v>5560100</v>
       </c>
       <c r="I49" s="3">
-        <v>5698000</v>
+        <v>5554100</v>
       </c>
       <c r="J49" s="3">
+        <v>5622000</v>
+      </c>
+      <c r="K49" s="3">
         <v>5845300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>6083200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>6545900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>6426000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>6643300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>7011600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>7117600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>7518000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>7099700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>4170600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>4448600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>4511000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>4841700</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>4934900</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>5000900</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>5037500</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>5137900</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>4591200</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -3768,85 +3885,91 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>1095600</v>
+        <v>1129800</v>
       </c>
       <c r="E52" s="3">
-        <v>1105600</v>
+        <v>1081000</v>
       </c>
       <c r="F52" s="3">
-        <v>1097000</v>
+        <v>1090900</v>
       </c>
       <c r="G52" s="3">
-        <v>1238200</v>
+        <v>1082400</v>
       </c>
       <c r="H52" s="3">
-        <v>1157300</v>
+        <v>1221700</v>
       </c>
       <c r="I52" s="3">
-        <v>1165600</v>
+        <v>1141900</v>
       </c>
       <c r="J52" s="3">
+        <v>1150100</v>
+      </c>
+      <c r="K52" s="3">
         <v>1134000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1186500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1333900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1439300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1407300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1632000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1341300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1311200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1180300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1055500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1073200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1060500</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>707400</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>521500</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>530700</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>521800</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>693000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>472200</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -3922,85 +4045,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>22986300</v>
+        <v>22592000</v>
       </c>
       <c r="E54" s="3">
-        <v>22931000</v>
+        <v>22679800</v>
       </c>
       <c r="F54" s="3">
-        <v>23183500</v>
+        <v>22625300</v>
       </c>
       <c r="G54" s="3">
-        <v>38758100</v>
+        <v>22874300</v>
       </c>
       <c r="H54" s="3">
-        <v>37543200</v>
+        <v>38241300</v>
       </c>
       <c r="I54" s="3">
-        <v>35821100</v>
+        <v>37042600</v>
       </c>
       <c r="J54" s="3">
+        <v>35343500</v>
+      </c>
+      <c r="K54" s="3">
         <v>35930200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>35927000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>37225300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>37230600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>38422000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>39145600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>37479700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>39445300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>35590100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>30931100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>30522900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>30352900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>29417200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>28093000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>27084400</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>27466000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>28167900</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>26600100</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -4057,470 +4187,489 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>84900</v>
+        <v>110100</v>
       </c>
       <c r="E57" s="3">
-        <v>113300</v>
+        <v>83800</v>
       </c>
       <c r="F57" s="3">
-        <v>142900</v>
+        <v>111800</v>
       </c>
       <c r="G57" s="3">
-        <v>253700</v>
+        <v>141000</v>
       </c>
       <c r="H57" s="3">
-        <v>228200</v>
+        <v>250300</v>
       </c>
       <c r="I57" s="3">
-        <v>252400</v>
+        <v>225200</v>
       </c>
       <c r="J57" s="3">
+        <v>249000</v>
+      </c>
+      <c r="K57" s="3">
         <v>279700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>285700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>300500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>327300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>372600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>405200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>332700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>283700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>320300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>217500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>221100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>204600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>309500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>226300</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>219400</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>237100</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>362200</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>276000</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>1895200</v>
+        <v>2098600</v>
       </c>
       <c r="E58" s="3">
-        <v>1372400</v>
+        <v>1869900</v>
       </c>
       <c r="F58" s="3">
-        <v>1344700</v>
+        <v>1354100</v>
       </c>
       <c r="G58" s="3">
-        <v>1420900</v>
+        <v>1326700</v>
       </c>
       <c r="H58" s="3">
-        <v>1244900</v>
+        <v>1402000</v>
       </c>
       <c r="I58" s="3">
-        <v>1252800</v>
+        <v>1228300</v>
       </c>
       <c r="J58" s="3">
+        <v>1236100</v>
+      </c>
+      <c r="K58" s="3">
         <v>1056900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1029100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>963600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1234000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1198200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1223800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1310400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1605600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>894000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1002000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>856100</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1192300</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1461600</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1452600</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>1315500</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>944800</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>802000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>615100</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>3701900</v>
+        <v>3288800</v>
       </c>
       <c r="E59" s="3">
-        <v>3715700</v>
+        <v>3652500</v>
       </c>
       <c r="F59" s="3">
-        <v>3732700</v>
+        <v>3666200</v>
       </c>
       <c r="G59" s="3">
-        <v>4610800</v>
+        <v>3683000</v>
       </c>
       <c r="H59" s="3">
-        <v>4393200</v>
+        <v>4549300</v>
       </c>
       <c r="I59" s="3">
-        <v>4569500</v>
+        <v>4334600</v>
       </c>
       <c r="J59" s="3">
+        <v>4508600</v>
+      </c>
+      <c r="K59" s="3">
         <v>4796900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4594700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4758600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4813200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>5103100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>4927800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>4464800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>5319400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>4537700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>3551200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>3760600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>4385500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>4484900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>3942300</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>3822900</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>4448200</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>4635500</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>3962700</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>5682000</v>
+        <v>5497400</v>
       </c>
       <c r="E60" s="3">
-        <v>5201500</v>
+        <v>5606200</v>
       </c>
       <c r="F60" s="3">
-        <v>5220300</v>
+        <v>5132100</v>
       </c>
       <c r="G60" s="3">
-        <v>6285400</v>
+        <v>5150700</v>
       </c>
       <c r="H60" s="3">
-        <v>5866300</v>
+        <v>6201600</v>
       </c>
       <c r="I60" s="3">
-        <v>6074700</v>
+        <v>5788100</v>
       </c>
       <c r="J60" s="3">
+        <v>5993700</v>
+      </c>
+      <c r="K60" s="3">
         <v>6133500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5909400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6022700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>6374500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>6673900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>6556800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>6107900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>7208600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>5751900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>4770700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>4837800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>5782300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>6256000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>5621200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>5357800</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>5630000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>5799700</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>4853900</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>6221100</v>
+        <v>6077700</v>
       </c>
       <c r="E61" s="3">
-        <v>6496600</v>
+        <v>6138200</v>
       </c>
       <c r="F61" s="3">
-        <v>6431400</v>
+        <v>6410000</v>
       </c>
       <c r="G61" s="3">
-        <v>8165900</v>
+        <v>6345700</v>
       </c>
       <c r="H61" s="3">
-        <v>8169800</v>
+        <v>8057000</v>
       </c>
       <c r="I61" s="3">
-        <v>7982600</v>
+        <v>8060800</v>
       </c>
       <c r="J61" s="3">
+        <v>7876200</v>
+      </c>
+      <c r="K61" s="3">
         <v>8059700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>7920900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>8322200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>8551200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>8623500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>8522600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>7920200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>8288300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>7213600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>5575400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>5547400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>5319600</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>5111100</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>5104400</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>5178200</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>5654600</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>5830800</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>5840500</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>1973300</v>
+        <v>1917100</v>
       </c>
       <c r="E62" s="3">
-        <v>2030800</v>
+        <v>1946900</v>
       </c>
       <c r="F62" s="3">
-        <v>2280300</v>
+        <v>2003800</v>
       </c>
       <c r="G62" s="3">
-        <v>3919000</v>
+        <v>2249900</v>
       </c>
       <c r="H62" s="3">
-        <v>3702000</v>
+        <v>3866700</v>
       </c>
       <c r="I62" s="3">
-        <v>3337000</v>
+        <v>3652600</v>
       </c>
       <c r="J62" s="3">
+        <v>3292500</v>
+      </c>
+      <c r="K62" s="3">
         <v>3439900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3368000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3426800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3363300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>3730200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>3901800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>3713300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>3819900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>3851200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>2626500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>2574400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>2461100</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>2184400</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1988400</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>1874200</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>1860200</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>2032600</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>1915900</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -4750,85 +4905,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>14467600</v>
+        <v>14078100</v>
       </c>
       <c r="E66" s="3">
-        <v>14301800</v>
+        <v>14274700</v>
       </c>
       <c r="F66" s="3">
-        <v>14498900</v>
+        <v>14111100</v>
       </c>
       <c r="G66" s="3">
-        <v>19056700</v>
+        <v>14305600</v>
       </c>
       <c r="H66" s="3">
-        <v>18415600</v>
+        <v>18802600</v>
       </c>
       <c r="I66" s="3">
-        <v>17898200</v>
+        <v>18170100</v>
       </c>
       <c r="J66" s="3">
+        <v>17659600</v>
+      </c>
+      <c r="K66" s="3">
         <v>18122300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>17605800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>18193000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>18168300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>18914300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>18899300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>17654900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>19205500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>16714600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>13198100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>13130700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>13728400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>13716100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>12834200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>12499800</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>13239200</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>13793600</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>12760400</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -5164,85 +5335,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>16782600</v>
+        <v>16618200</v>
       </c>
       <c r="E72" s="3">
-        <v>16722800</v>
+        <v>16558800</v>
       </c>
       <c r="F72" s="3">
-        <v>16828000</v>
+        <v>16499900</v>
       </c>
       <c r="G72" s="3">
-        <v>16730300</v>
+        <v>16603600</v>
       </c>
       <c r="H72" s="3">
-        <v>16259600</v>
+        <v>16507200</v>
       </c>
       <c r="I72" s="3">
-        <v>17156900</v>
+        <v>16042800</v>
       </c>
       <c r="J72" s="3">
+        <v>16928100</v>
+      </c>
+      <c r="K72" s="3">
         <v>17236400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>17398700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>18050600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>18362200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>18894400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>19871700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>19470600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>19870500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>18601400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>17574500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>17434000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>16667600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>15695600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>15173300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>14531800</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>14306000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>14357800</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>13922500</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -5472,85 +5655,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>8518700</v>
+        <v>8513900</v>
       </c>
       <c r="E76" s="3">
-        <v>8629200</v>
+        <v>8405100</v>
       </c>
       <c r="F76" s="3">
-        <v>8684500</v>
+        <v>8514100</v>
       </c>
       <c r="G76" s="3">
-        <v>19701400</v>
+        <v>8568700</v>
       </c>
       <c r="H76" s="3">
-        <v>19127600</v>
+        <v>19438700</v>
       </c>
       <c r="I76" s="3">
-        <v>17922900</v>
+        <v>18872600</v>
       </c>
       <c r="J76" s="3">
+        <v>17683900</v>
+      </c>
+      <c r="K76" s="3">
         <v>17807900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>18321200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>19032300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>19062300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>19507700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>20246300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>19824800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>20239800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>18875500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>17732900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>17392200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>16624500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>15701100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>15258700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>14584600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>14226800</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>14374300</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>13839700</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -5626,167 +5815,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>187600</v>
+        <v>170900</v>
       </c>
       <c r="E81" s="3">
-        <v>155700</v>
+        <v>185100</v>
       </c>
       <c r="F81" s="3">
-        <v>1794600</v>
+        <v>153600</v>
       </c>
       <c r="G81" s="3">
-        <v>585400</v>
+        <v>1770600</v>
       </c>
       <c r="H81" s="3">
-        <v>571600</v>
+        <v>577600</v>
       </c>
       <c r="I81" s="3">
-        <v>415900</v>
+        <v>563900</v>
       </c>
       <c r="J81" s="3">
+        <v>410400</v>
+      </c>
+      <c r="K81" s="3">
         <v>1117200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>292100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>343200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>256100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-27200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>240900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>228500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>341700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>404200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>832400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>762900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>583800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>511800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>700300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>542500</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>530200</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>432400</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>292600</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -5814,85 +6012,89 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>705500</v>
+        <v>690800</v>
       </c>
       <c r="E83" s="3">
-        <v>709700</v>
+        <v>696100</v>
       </c>
       <c r="F83" s="3">
-        <v>3085800</v>
+        <v>700200</v>
       </c>
       <c r="G83" s="3">
-        <v>789300</v>
+        <v>3044700</v>
       </c>
       <c r="H83" s="3">
-        <v>777100</v>
+        <v>778800</v>
       </c>
       <c r="I83" s="3">
-        <v>775200</v>
+        <v>766800</v>
       </c>
       <c r="J83" s="3">
+        <v>764800</v>
+      </c>
+      <c r="K83" s="3">
         <v>3127500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>796700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>835300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>856200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>874600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>892700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>855000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>848400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>711200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>653900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>677500</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>692100</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>732200</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>718700</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>707600</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>715200</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>722200</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>688100</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -6276,85 +6490,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>1081200</v>
+        <v>779400</v>
       </c>
       <c r="E89" s="3">
-        <v>971000</v>
+        <v>1066800</v>
       </c>
       <c r="F89" s="3">
-        <v>3773500</v>
+        <v>958100</v>
       </c>
       <c r="G89" s="3">
-        <v>1053900</v>
+        <v>3723100</v>
       </c>
       <c r="H89" s="3">
-        <v>1039700</v>
+        <v>1039800</v>
       </c>
       <c r="I89" s="3">
-        <v>668300</v>
+        <v>1025800</v>
       </c>
       <c r="J89" s="3">
+        <v>659400</v>
+      </c>
+      <c r="K89" s="3">
         <v>4366400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1263500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1549000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>816800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>975700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>746100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>907500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>881500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1389100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>382000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1024900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>829300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>828600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>969400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>776500</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>837300</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>1379600</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>799200</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -6382,85 +6602,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-400500</v>
+        <v>-624700</v>
       </c>
       <c r="E91" s="3">
-        <v>-560600</v>
+        <v>-395200</v>
       </c>
       <c r="F91" s="3">
-        <v>-2186900</v>
+        <v>-553200</v>
       </c>
       <c r="G91" s="3">
-        <v>-603700</v>
+        <v>-2157700</v>
       </c>
       <c r="H91" s="3">
-        <v>-415900</v>
+        <v>-595700</v>
       </c>
       <c r="I91" s="3">
-        <v>-566400</v>
+        <v>-410300</v>
       </c>
       <c r="J91" s="3">
+        <v>-558800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-2668400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-742400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-526800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-878200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-969100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-796300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-571500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-629400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-789700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-622200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-383600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-527100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-730500</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-688700</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-391900</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-608900</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-1158400</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-855700</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -6613,85 +6840,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-587500</v>
+        <v>-574400</v>
       </c>
       <c r="E94" s="3">
-        <v>-600500</v>
+        <v>-579600</v>
       </c>
       <c r="F94" s="3">
-        <v>-2614600</v>
+        <v>-592400</v>
       </c>
       <c r="G94" s="3">
-        <v>-874100</v>
+        <v>-2579800</v>
       </c>
       <c r="H94" s="3">
-        <v>-764500</v>
+        <v>-862400</v>
       </c>
       <c r="I94" s="3">
-        <v>-392800</v>
+        <v>-754300</v>
       </c>
       <c r="J94" s="3">
+        <v>-387600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-3187800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-907100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-515500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1035700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1309800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1016400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-404700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-400100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-2284100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-292400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-356000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-456800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-845900</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-805200</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-473600</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-590600</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-755400</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-667600</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -6719,38 +6952,39 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-133900</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-771400</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-133400</v>
+        <v>-761100</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-131600</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-556600</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-56300</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
         <v>0</v>
       </c>
@@ -6758,11 +6992,11 @@
         <v>0</v>
       </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-64000</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
         <v>0</v>
       </c>
@@ -6770,11 +7004,11 @@
         <v>0</v>
       </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-57200</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
         <v>0</v>
       </c>
@@ -6782,11 +7016,11 @@
         <v>0</v>
       </c>
       <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
         <v>-62100</v>
       </c>
-      <c r="X96" s="3">
-        <v>0</v>
-      </c>
       <c r="Y96" s="3">
         <v>0</v>
       </c>
@@ -6794,10 +7028,13 @@
         <v>0</v>
       </c>
       <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB96" s="3">
         <v>-63500</v>
       </c>
     </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -7027,235 +7270,247 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>-305600</v>
+        <v>-184400</v>
       </c>
       <c r="E100" s="3">
-        <v>-355200</v>
+        <v>-301500</v>
       </c>
       <c r="F100" s="3">
-        <v>-1540200</v>
+        <v>-350400</v>
       </c>
       <c r="G100" s="3">
-        <v>-220900</v>
+        <v>-1519700</v>
       </c>
       <c r="H100" s="3">
-        <v>-43900</v>
+        <v>-217900</v>
       </c>
       <c r="I100" s="3">
-        <v>-382900</v>
+        <v>-43300</v>
       </c>
       <c r="J100" s="3">
+        <v>-377800</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1093200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-56600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-725800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>83100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>324500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>120000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1033500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>19100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-163300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>696800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-746200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-13300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>30200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>19200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-603000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-177800</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-48400</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-343800</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E101" s="3">
+        <v>5500</v>
+      </c>
+      <c r="F101" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G101" s="3">
+        <v>8600</v>
+      </c>
+      <c r="H101" s="3">
+        <v>5200</v>
+      </c>
+      <c r="I101" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J101" s="3">
+        <v>3700</v>
+      </c>
+      <c r="K101" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="L101" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="M101" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N101" s="3">
+        <v>7200</v>
+      </c>
+      <c r="O101" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="P101" s="3">
+        <v>6100</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="R101" s="3">
+        <v>400</v>
+      </c>
+      <c r="S101" s="3">
+        <v>2500</v>
+      </c>
+      <c r="T101" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="U101" s="3">
+        <v>2100</v>
+      </c>
+      <c r="V101" s="3">
+        <v>400</v>
+      </c>
+      <c r="W101" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="X101" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Y101" s="3">
+        <v>2300</v>
+      </c>
+      <c r="Z101" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="AA101" s="3">
         <v>5600</v>
       </c>
-      <c r="E101" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F101" s="3">
-        <v>8700</v>
-      </c>
-      <c r="G101" s="3">
-        <v>5300</v>
-      </c>
-      <c r="H101" s="3">
-        <v>-400</v>
-      </c>
-      <c r="I101" s="3">
-        <v>3700</v>
-      </c>
-      <c r="J101" s="3">
-        <v>-11300</v>
-      </c>
-      <c r="K101" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="L101" s="3">
-        <v>-500</v>
-      </c>
-      <c r="M101" s="3">
-        <v>7200</v>
-      </c>
-      <c r="N101" s="3">
-        <v>-6400</v>
-      </c>
-      <c r="O101" s="3">
-        <v>6100</v>
-      </c>
-      <c r="P101" s="3">
-        <v>-2100</v>
-      </c>
-      <c r="Q101" s="3">
-        <v>400</v>
-      </c>
-      <c r="R101" s="3">
-        <v>2500</v>
-      </c>
-      <c r="S101" s="3">
-        <v>-2800</v>
-      </c>
-      <c r="T101" s="3">
-        <v>2100</v>
-      </c>
-      <c r="U101" s="3">
-        <v>400</v>
-      </c>
-      <c r="V101" s="3">
-        <v>-3600</v>
-      </c>
-      <c r="W101" s="3">
-        <v>1100</v>
-      </c>
-      <c r="X101" s="3">
-        <v>2300</v>
-      </c>
-      <c r="Y101" s="3">
-        <v>-5200</v>
-      </c>
-      <c r="Z101" s="3">
-        <v>5600</v>
-      </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>193700</v>
+        <v>28500</v>
       </c>
       <c r="E102" s="3">
-        <v>16400</v>
+        <v>191100</v>
       </c>
       <c r="F102" s="3">
-        <v>-372700</v>
+        <v>16200</v>
       </c>
       <c r="G102" s="3">
-        <v>-35800</v>
+        <v>-367700</v>
       </c>
       <c r="H102" s="3">
-        <v>231000</v>
+        <v>-35300</v>
       </c>
       <c r="I102" s="3">
-        <v>-103700</v>
+        <v>227900</v>
       </c>
       <c r="J102" s="3">
+        <v>-102400</v>
+      </c>
+      <c r="K102" s="3">
         <v>74100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>297900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>307100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-128600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-16100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-144100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-532800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>500800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1055800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>783600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-75200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>359500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>9300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>184400</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-297700</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>63700</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>581400</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-216300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SKM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SKM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="92">
   <si>
     <t>SKM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,359 +665,371 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3214200</v>
+        <v>3295800</v>
       </c>
       <c r="E8" s="3">
-        <v>3174500</v>
+        <v>3257600</v>
       </c>
       <c r="F8" s="3">
-        <v>3165100</v>
+        <v>3217400</v>
       </c>
       <c r="G8" s="3">
-        <v>12394000</v>
+        <v>3207900</v>
       </c>
       <c r="H8" s="3">
-        <v>3119100</v>
+        <v>3221500</v>
       </c>
       <c r="I8" s="3">
-        <v>3052600</v>
+        <v>3161300</v>
       </c>
       <c r="J8" s="3">
+        <v>3093900</v>
+      </c>
+      <c r="K8" s="3">
         <v>3043700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>12065800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3643200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3728700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3738500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3746400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4059500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3904600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3944800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3655400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3391000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>3489600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>3512500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>3957600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>3909600</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>3824100</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>3810900</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>3917000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>3819400</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>133200</v>
+        <v>120500</v>
       </c>
       <c r="E9" s="3">
-        <v>137100</v>
+        <v>135000</v>
       </c>
       <c r="F9" s="3">
-        <v>140100</v>
+        <v>138900</v>
       </c>
       <c r="G9" s="3">
-        <v>554700</v>
+        <v>142000</v>
       </c>
       <c r="H9" s="3">
-        <v>136300</v>
+        <v>141200</v>
       </c>
       <c r="I9" s="3">
-        <v>135600</v>
+        <v>138100</v>
       </c>
       <c r="J9" s="3">
+        <v>137400</v>
+      </c>
+      <c r="K9" s="3">
         <v>143500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>578000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>155100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>167900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>163800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>162600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>163700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>165200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>172300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>136400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>171900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>183800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>180600</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>190800</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>197200</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>187500</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>199000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>153400</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>238000</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3080900</v>
+        <v>3175400</v>
       </c>
       <c r="E10" s="3">
-        <v>3037400</v>
+        <v>3122600</v>
       </c>
       <c r="F10" s="3">
-        <v>3025000</v>
+        <v>3078500</v>
       </c>
       <c r="G10" s="3">
-        <v>11839200</v>
+        <v>3065900</v>
       </c>
       <c r="H10" s="3">
-        <v>2982800</v>
+        <v>3080300</v>
       </c>
       <c r="I10" s="3">
-        <v>2917000</v>
+        <v>3023100</v>
       </c>
       <c r="J10" s="3">
+        <v>2956500</v>
+      </c>
+      <c r="K10" s="3">
         <v>2900200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>11487800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3488100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>3560800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>3574700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>3583800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>3895800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>3739400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>3772400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>3519000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>3219100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>3305800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>3331900</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>3766900</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>3712400</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>3636700</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>3612000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>3763600</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>3581400</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1046,88 +1058,92 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>62600</v>
+        <v>67100</v>
       </c>
       <c r="E12" s="3">
-        <v>65600</v>
+        <v>63500</v>
       </c>
       <c r="F12" s="3">
-        <v>57800</v>
+        <v>66500</v>
       </c>
       <c r="G12" s="3">
-        <v>257300</v>
+        <v>58600</v>
       </c>
       <c r="H12" s="3">
-        <v>59500</v>
+        <v>75800</v>
       </c>
       <c r="I12" s="3">
-        <v>61200</v>
+        <v>60300</v>
       </c>
       <c r="J12" s="3">
+        <v>62000</v>
+      </c>
+      <c r="K12" s="3">
         <v>61800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>264900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>80700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>85000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>92700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>86500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>83300</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>84700</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>90800</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>88900</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>76200</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>82500</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>75100</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>90300</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>90800</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>83500</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>85200</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>82100</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>76900</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1206,168 +1222,177 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>12500</v>
+      </c>
+      <c r="E14" s="3">
         <v>300</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="G14" s="3">
-        <v>2300</v>
-      </c>
-      <c r="H14" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="I14" s="3">
-        <v>3900</v>
+      <c r="H14" s="3">
+        <v>2400</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="J14" s="3">
+        <v>4000</v>
+      </c>
+      <c r="K14" s="3">
         <v>-3700</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>150500</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>10300</v>
       </c>
-      <c r="N14" s="3" t="s">
+      <c r="O14" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>54900</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>200</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>2100</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>100</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>214000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>400</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>2100</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>800</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>52300</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>300</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>3700</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>2000</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>5700</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>666900</v>
+        <v>676400</v>
       </c>
       <c r="E15" s="3">
-        <v>671400</v>
+        <v>675900</v>
       </c>
       <c r="F15" s="3">
-        <v>674100</v>
+        <v>680500</v>
       </c>
       <c r="G15" s="3">
-        <v>2717700</v>
+        <v>683200</v>
       </c>
       <c r="H15" s="3">
-        <v>686800</v>
+        <v>691800</v>
       </c>
       <c r="I15" s="3">
-        <v>675600</v>
+        <v>696100</v>
       </c>
       <c r="J15" s="3">
+        <v>684800</v>
+      </c>
+      <c r="K15" s="3">
         <v>672700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>2748500</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>775500</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>807500</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>827200</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>912300</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>856100</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>818700</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>810900</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>676100</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>621700</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>644900</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>660200</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>696900</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>684300</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>674200</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>685500</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>695000</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>659700</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,168 +1418,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>2869900</v>
+        <v>3117500</v>
       </c>
       <c r="E17" s="3">
-        <v>2834400</v>
+        <v>2908700</v>
       </c>
       <c r="F17" s="3">
-        <v>2845200</v>
+        <v>2872700</v>
       </c>
       <c r="G17" s="3">
-        <v>11369800</v>
+        <v>2883600</v>
       </c>
       <c r="H17" s="3">
-        <v>2828300</v>
+        <v>3055700</v>
       </c>
       <c r="I17" s="3">
-        <v>2759800</v>
+        <v>2866500</v>
       </c>
       <c r="J17" s="3">
+        <v>2797100</v>
+      </c>
+      <c r="K17" s="3">
         <v>2766800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>11279900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3367600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3449200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3485400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3664800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3790900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3622600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3651300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3680200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3145000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>3200300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>3239800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>3736700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>3564600</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>3455400</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>3443500</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>3650900</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>3442500</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>344300</v>
+        <v>178400</v>
       </c>
       <c r="E18" s="3">
-        <v>340100</v>
+        <v>348900</v>
       </c>
       <c r="F18" s="3">
-        <v>320000</v>
+        <v>344700</v>
       </c>
       <c r="G18" s="3">
-        <v>1024200</v>
+        <v>324300</v>
       </c>
       <c r="H18" s="3">
-        <v>290800</v>
+        <v>165800</v>
       </c>
       <c r="I18" s="3">
-        <v>292800</v>
+        <v>294800</v>
       </c>
       <c r="J18" s="3">
+        <v>296800</v>
+      </c>
+      <c r="K18" s="3">
         <v>276900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>785900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>275700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>279500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>253100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>81700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>268600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>282000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>293500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-24700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>246000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>289300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>272600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>220900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>345000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>368800</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>367500</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>266100</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>376900</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1583,408 +1615,424 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-20100</v>
+        <v>6800</v>
       </c>
       <c r="E20" s="3">
-        <v>14100</v>
+        <v>-20400</v>
       </c>
       <c r="F20" s="3">
-        <v>-23300</v>
+        <v>14300</v>
       </c>
       <c r="G20" s="3">
-        <v>454300</v>
+        <v>-23600</v>
       </c>
       <c r="H20" s="3">
-        <v>27500</v>
+        <v>109100</v>
       </c>
       <c r="I20" s="3">
-        <v>185500</v>
+        <v>27800</v>
       </c>
       <c r="J20" s="3">
+        <v>188000</v>
+      </c>
+      <c r="K20" s="3">
         <v>133700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>109700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>265700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>320200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>140700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>130200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>116400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>225300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>607100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>866100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>748000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>552300</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>662700</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>601900</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>355900</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>351300</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>307600</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>78400</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>1014900</v>
+        <v>886300</v>
       </c>
       <c r="E21" s="3">
-        <v>1050300</v>
+        <v>1028600</v>
       </c>
       <c r="F21" s="3">
-        <v>996900</v>
+        <v>1064500</v>
       </c>
       <c r="G21" s="3">
-        <v>4523100</v>
+        <v>1010400</v>
       </c>
       <c r="H21" s="3">
-        <v>1097100</v>
+        <v>1019100</v>
       </c>
       <c r="I21" s="3">
-        <v>1245100</v>
+        <v>1111900</v>
       </c>
       <c r="J21" s="3">
+        <v>1261900</v>
+      </c>
+      <c r="K21" s="3">
         <v>1175500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>4023100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1338100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1435000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1250100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>956400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1291600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1253400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1367100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1293500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1766000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1714900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1517100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1615900</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1665600</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1432300</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>1434000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>1295900</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>1143300</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>56000</v>
+        <v>77200</v>
       </c>
       <c r="E22" s="3">
-        <v>56100</v>
+        <v>56700</v>
       </c>
       <c r="F22" s="3">
-        <v>54700</v>
+        <v>56900</v>
       </c>
       <c r="G22" s="3">
-        <v>207000</v>
+        <v>55400</v>
       </c>
       <c r="H22" s="3">
-        <v>52600</v>
+        <v>53600</v>
       </c>
       <c r="I22" s="3">
-        <v>50900</v>
+        <v>53300</v>
       </c>
       <c r="J22" s="3">
+        <v>51600</v>
+      </c>
+      <c r="K22" s="3">
         <v>50600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>216700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>143600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>155100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>84400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>89700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>87900</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>87600</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>93100</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>75000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>57500</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>60400</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>63100</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>68300</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>63400</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>66100</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>67000</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>66000</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>67200</v>
       </c>
     </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>268100</v>
+        <v>108000</v>
       </c>
       <c r="E23" s="3">
-        <v>298000</v>
+        <v>271800</v>
       </c>
       <c r="F23" s="3">
-        <v>242000</v>
+        <v>302100</v>
       </c>
       <c r="G23" s="3">
-        <v>1271500</v>
+        <v>245300</v>
       </c>
       <c r="H23" s="3">
-        <v>265700</v>
+        <v>221200</v>
       </c>
       <c r="I23" s="3">
-        <v>427400</v>
+        <v>269300</v>
       </c>
       <c r="J23" s="3">
+        <v>433200</v>
+      </c>
+      <c r="K23" s="3">
         <v>360000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>678900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>397800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>444700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>309400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-8000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>311000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>310800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>425700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>507400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1054600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>977000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>761900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>815400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>883600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>658600</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>651800</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>507700</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>388100</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>86400</v>
+        <v>-59800</v>
       </c>
       <c r="E24" s="3">
-        <v>107000</v>
+        <v>87600</v>
       </c>
       <c r="F24" s="3">
-        <v>78900</v>
+        <v>108500</v>
       </c>
       <c r="G24" s="3">
-        <v>330600</v>
+        <v>80000</v>
       </c>
       <c r="H24" s="3">
-        <v>70700</v>
+        <v>62700</v>
       </c>
       <c r="I24" s="3">
-        <v>101300</v>
+        <v>71700</v>
       </c>
       <c r="J24" s="3">
+        <v>102700</v>
+      </c>
+      <c r="K24" s="3">
         <v>96700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>165900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>96100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>94500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>52400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>31400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>66700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>82900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>85700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>108800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>204200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>208900</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>179400</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>234000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>185800</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>112600</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>126700</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>80500</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>98200</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2063,168 +2111,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>181700</v>
+        <v>167800</v>
       </c>
       <c r="E26" s="3">
-        <v>191000</v>
+        <v>184200</v>
       </c>
       <c r="F26" s="3">
-        <v>163100</v>
+        <v>193600</v>
       </c>
       <c r="G26" s="3">
-        <v>940800</v>
+        <v>165300</v>
       </c>
       <c r="H26" s="3">
-        <v>195000</v>
+        <v>158600</v>
       </c>
       <c r="I26" s="3">
-        <v>326100</v>
+        <v>197600</v>
       </c>
       <c r="J26" s="3">
+        <v>330500</v>
+      </c>
+      <c r="K26" s="3">
         <v>263300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>513000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>301700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>350200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>257000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-39400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>244200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>228000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>340000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>398600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>850400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>768000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>582400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>581400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>697800</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>546000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>525100</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>427200</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>289900</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>170900</v>
+        <v>156700</v>
       </c>
       <c r="E27" s="3">
-        <v>185100</v>
+        <v>173200</v>
       </c>
       <c r="F27" s="3">
-        <v>153600</v>
+        <v>187600</v>
       </c>
       <c r="G27" s="3">
-        <v>890000</v>
+        <v>155700</v>
       </c>
       <c r="H27" s="3">
-        <v>187400</v>
+        <v>141700</v>
       </c>
       <c r="I27" s="3">
-        <v>309500</v>
+        <v>189900</v>
       </c>
       <c r="J27" s="3">
+        <v>313600</v>
+      </c>
+      <c r="K27" s="3">
         <v>253300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>475400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>292100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>343200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>256100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-27200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>240900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>228500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>341700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>404200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>832400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>762900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>583800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>511800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>700300</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>542500</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>530200</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>432400</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>292600</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2303,8 +2360,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2317,29 +2377,29 @@
       <c r="F29" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="G29" s="3">
-        <v>880600</v>
+      <c r="G29" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="H29" s="3">
-        <v>390200</v>
+        <v>80000</v>
       </c>
       <c r="I29" s="3">
-        <v>254500</v>
+        <v>395400</v>
       </c>
       <c r="J29" s="3">
+        <v>257900</v>
+      </c>
+      <c r="K29" s="3">
         <v>157000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>641800</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
+      <c r="N29" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="O29" s="3">
         <v>0</v>
@@ -2383,8 +2443,11 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2463,8 +2526,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2543,168 +2609,177 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>20100</v>
+        <v>-6800</v>
       </c>
       <c r="E32" s="3">
-        <v>-14100</v>
+        <v>20400</v>
       </c>
       <c r="F32" s="3">
-        <v>23300</v>
+        <v>-14300</v>
       </c>
       <c r="G32" s="3">
-        <v>-454300</v>
+        <v>23600</v>
       </c>
       <c r="H32" s="3">
-        <v>-27500</v>
+        <v>-109100</v>
       </c>
       <c r="I32" s="3">
-        <v>-185500</v>
+        <v>-27800</v>
       </c>
       <c r="J32" s="3">
+        <v>-188000</v>
+      </c>
+      <c r="K32" s="3">
         <v>-133700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-109700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-265700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-320200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-140700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-130200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-116400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-225300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-607100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-866100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-748000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-552300</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-662700</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-601900</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-355900</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-351300</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-307600</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-78400</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>170900</v>
+        <v>156700</v>
       </c>
       <c r="E33" s="3">
-        <v>185100</v>
+        <v>173200</v>
       </c>
       <c r="F33" s="3">
-        <v>153600</v>
+        <v>187600</v>
       </c>
       <c r="G33" s="3">
-        <v>1770600</v>
+        <v>155700</v>
       </c>
       <c r="H33" s="3">
-        <v>577600</v>
+        <v>221700</v>
       </c>
       <c r="I33" s="3">
-        <v>563900</v>
+        <v>585400</v>
       </c>
       <c r="J33" s="3">
+        <v>571600</v>
+      </c>
+      <c r="K33" s="3">
         <v>410400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1117200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>292100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>343200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>256100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-27200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>240900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>228500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>341700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>404200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>832400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>762900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>583800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>511800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>700300</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>542500</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>530200</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>432400</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>292600</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2783,173 +2858,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>170900</v>
+        <v>156700</v>
       </c>
       <c r="E35" s="3">
-        <v>185100</v>
+        <v>173200</v>
       </c>
       <c r="F35" s="3">
-        <v>153600</v>
+        <v>187600</v>
       </c>
       <c r="G35" s="3">
-        <v>1770600</v>
+        <v>155700</v>
       </c>
       <c r="H35" s="3">
-        <v>577600</v>
+        <v>221700</v>
       </c>
       <c r="I35" s="3">
-        <v>563900</v>
+        <v>585400</v>
       </c>
       <c r="J35" s="3">
+        <v>571600</v>
+      </c>
+      <c r="K35" s="3">
         <v>410400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1117200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>292100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>343200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>256100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-27200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>240900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>228500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>341700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>404200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>832400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>762900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>583800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>511800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>700300</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>542500</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>530200</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>432400</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>292600</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2978,8 +3062,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -3008,728 +3093,756 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>881700</v>
+        <v>1411700</v>
       </c>
       <c r="E41" s="3">
-        <v>853200</v>
+        <v>893600</v>
       </c>
       <c r="F41" s="3">
-        <v>662000</v>
+        <v>864700</v>
       </c>
       <c r="G41" s="3">
-        <v>645800</v>
+        <v>671000</v>
       </c>
       <c r="H41" s="3">
-        <v>1103700</v>
+        <v>654500</v>
       </c>
       <c r="I41" s="3">
-        <v>1139100</v>
+        <v>1118700</v>
       </c>
       <c r="J41" s="3">
+        <v>1154500</v>
+      </c>
+      <c r="K41" s="3">
         <v>911200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1027200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1450500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1212500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>938900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1080200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1147800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1277400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1871900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1265600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2238500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1508800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1584000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1282800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1273500</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>1089100</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>1418400</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>1354700</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>773300</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>479200</v>
+        <v>118300</v>
       </c>
       <c r="E42" s="3">
-        <v>509500</v>
+        <v>485700</v>
       </c>
       <c r="F42" s="3">
-        <v>363800</v>
+        <v>516400</v>
       </c>
       <c r="G42" s="3">
-        <v>321300</v>
+        <v>368700</v>
       </c>
       <c r="H42" s="3">
-        <v>1248100</v>
+        <v>325600</v>
       </c>
       <c r="I42" s="3">
-        <v>1170600</v>
+        <v>1264900</v>
       </c>
       <c r="J42" s="3">
+        <v>1186400</v>
+      </c>
+      <c r="K42" s="3">
         <v>1078700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1109500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>840400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>795000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>903200</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>766900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>866400</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>728100</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>733100</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>975400</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>318100</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>452600</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>540900</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>590800</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>626300</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>647200</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>612800</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>437300</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>580900</v>
       </c>
     </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>2080400</v>
+        <v>1960600</v>
       </c>
       <c r="E43" s="3">
-        <v>2028700</v>
+        <v>2108500</v>
       </c>
       <c r="F43" s="3">
-        <v>2035400</v>
+        <v>2056100</v>
       </c>
       <c r="G43" s="3">
-        <v>1931600</v>
+        <v>2062900</v>
       </c>
       <c r="H43" s="3">
-        <v>2735400</v>
+        <v>1957700</v>
       </c>
       <c r="I43" s="3">
-        <v>2550000</v>
+        <v>2772400</v>
       </c>
       <c r="J43" s="3">
+        <v>2584400</v>
+      </c>
+      <c r="K43" s="3">
         <v>2644400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2528400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2663000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2649400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2902000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2886300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>3122000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2860700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>3116800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2605400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>3040500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>2736500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>3179400</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>3039200</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>2826800</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>2900700</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>2901300</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>3081700</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>3293200</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>145400</v>
+        <v>124800</v>
       </c>
       <c r="E44" s="3">
-        <v>135600</v>
+        <v>147400</v>
       </c>
       <c r="F44" s="3">
-        <v>165300</v>
+        <v>137500</v>
       </c>
       <c r="G44" s="3">
-        <v>151400</v>
+        <v>167600</v>
       </c>
       <c r="H44" s="3">
-        <v>146700</v>
+        <v>153500</v>
       </c>
       <c r="I44" s="3">
-        <v>156700</v>
+        <v>148700</v>
       </c>
       <c r="J44" s="3">
+        <v>158800</v>
+      </c>
+      <c r="K44" s="3">
         <v>163900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>128600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>166300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>165500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>174800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>138400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>178500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>197000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>239900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>242000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>208700</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>217800</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>213800</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>239700</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>219000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>231900</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>223700</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>233900</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>246600</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>1829200</v>
+        <v>1799000</v>
       </c>
       <c r="E45" s="3">
-        <v>1698300</v>
+        <v>1853900</v>
       </c>
       <c r="F45" s="3">
-        <v>1616700</v>
+        <v>1721200</v>
       </c>
       <c r="G45" s="3">
-        <v>1650900</v>
+        <v>1638500</v>
       </c>
       <c r="H45" s="3">
-        <v>1662600</v>
+        <v>1673200</v>
       </c>
       <c r="I45" s="3">
-        <v>1747900</v>
+        <v>1685000</v>
       </c>
       <c r="J45" s="3">
+        <v>1771500</v>
+      </c>
+      <c r="K45" s="3">
         <v>1762000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1787600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1834500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1869300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1904400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2003300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1881800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1612400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1635700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1597000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1505000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1648400</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1597800</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>305100</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>341700</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>228600</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>212400</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>289400</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>305900</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>5415800</v>
+        <v>5414400</v>
       </c>
       <c r="E46" s="3">
-        <v>5225300</v>
+        <v>5489000</v>
       </c>
       <c r="F46" s="3">
-        <v>4843200</v>
+        <v>5295900</v>
       </c>
       <c r="G46" s="3">
-        <v>4701000</v>
+        <v>4908600</v>
       </c>
       <c r="H46" s="3">
-        <v>6896500</v>
+        <v>4764500</v>
       </c>
       <c r="I46" s="3">
-        <v>6764300</v>
+        <v>6989700</v>
       </c>
       <c r="J46" s="3">
+        <v>6855700</v>
+      </c>
+      <c r="K46" s="3">
         <v>6560200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>6581300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>6954700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>6691700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>6823200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>6875200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>7196700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>6675700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>7597400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>6685400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>7310800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>6564000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>7115900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>5457600</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>5287300</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>5097500</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>5368600</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>5397000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>5199900</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>2794300</v>
+        <v>2823200</v>
       </c>
       <c r="E47" s="3">
-        <v>2836500</v>
+        <v>2832100</v>
       </c>
       <c r="F47" s="3">
-        <v>3109300</v>
+        <v>2874800</v>
       </c>
       <c r="G47" s="3">
-        <v>3151900</v>
+        <v>3151400</v>
       </c>
       <c r="H47" s="3">
-        <v>14839200</v>
+        <v>3194500</v>
       </c>
       <c r="I47" s="3">
-        <v>13782000</v>
+        <v>15039700</v>
       </c>
       <c r="J47" s="3">
+        <v>13968200</v>
+      </c>
+      <c r="K47" s="3">
         <v>12464800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>12336800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>12316200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>12493000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>12472300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>12502800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>12994600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>12402900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>12830400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>11621100</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>10715900</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>10427800</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>9560700</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>9483000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>8899800</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>8030500</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>7602200</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>7603200</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>7518000</v>
       </c>
     </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>9229100</v>
+        <v>10010700</v>
       </c>
       <c r="E48" s="3">
-        <v>9394100</v>
+        <v>9353800</v>
       </c>
       <c r="F48" s="3">
-        <v>9320200</v>
+        <v>9521100</v>
       </c>
       <c r="G48" s="3">
-        <v>9541800</v>
+        <v>9446100</v>
       </c>
       <c r="H48" s="3">
-        <v>9723800</v>
+        <v>9670700</v>
       </c>
       <c r="I48" s="3">
-        <v>9800400</v>
+        <v>9855200</v>
       </c>
       <c r="J48" s="3">
+        <v>9932800</v>
+      </c>
+      <c r="K48" s="3">
         <v>9546300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>10032800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>9386500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>10160800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>10069700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>10993400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>10310700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>9942300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>10188200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>9003400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>7678300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>8009300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>8104800</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>8927500</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>8449400</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>8424900</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>8936000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>9336800</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>8818900</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>4023000</v>
+        <v>4049900</v>
       </c>
       <c r="E49" s="3">
-        <v>4142900</v>
+        <v>4077300</v>
       </c>
       <c r="F49" s="3">
-        <v>4261700</v>
+        <v>4198900</v>
       </c>
       <c r="G49" s="3">
-        <v>4397300</v>
+        <v>4319300</v>
       </c>
       <c r="H49" s="3">
-        <v>5560100</v>
+        <v>4456700</v>
       </c>
       <c r="I49" s="3">
-        <v>5554100</v>
+        <v>5635200</v>
       </c>
       <c r="J49" s="3">
+        <v>5629100</v>
+      </c>
+      <c r="K49" s="3">
         <v>5622000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>5845300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>6083200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>6545900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>6426000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>6643300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>7011600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>7117600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>7518000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>7099700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>4170600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>4448600</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>4511000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>4841700</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>4934900</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>5000900</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>5037500</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>5137900</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>4591200</v>
       </c>
     </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -3808,8 +3921,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -3888,88 +4004,94 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>1129800</v>
+        <v>1182900</v>
       </c>
       <c r="E52" s="3">
-        <v>1081000</v>
+        <v>1145100</v>
       </c>
       <c r="F52" s="3">
-        <v>1090900</v>
+        <v>1095600</v>
       </c>
       <c r="G52" s="3">
-        <v>1082400</v>
+        <v>1105600</v>
       </c>
       <c r="H52" s="3">
-        <v>1221700</v>
+        <v>1097000</v>
       </c>
       <c r="I52" s="3">
-        <v>1141900</v>
+        <v>1238200</v>
       </c>
       <c r="J52" s="3">
+        <v>1157300</v>
+      </c>
+      <c r="K52" s="3">
         <v>1150100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1134000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1186500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1333900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1439300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1407300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1632000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1341300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1311200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1180300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1055500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1073200</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1060500</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>707400</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>521500</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>530700</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>521800</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>693000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>472200</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -4048,88 +4170,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>22592000</v>
+        <v>23481200</v>
       </c>
       <c r="E54" s="3">
-        <v>22679800</v>
+        <v>22897300</v>
       </c>
       <c r="F54" s="3">
-        <v>22625300</v>
+        <v>22986300</v>
       </c>
       <c r="G54" s="3">
-        <v>22874300</v>
+        <v>22931000</v>
       </c>
       <c r="H54" s="3">
-        <v>38241300</v>
+        <v>23183500</v>
       </c>
       <c r="I54" s="3">
-        <v>37042600</v>
+        <v>38758100</v>
       </c>
       <c r="J54" s="3">
+        <v>37543200</v>
+      </c>
+      <c r="K54" s="3">
         <v>35343500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>35930200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>35927000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>37225300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>37230600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>38422000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>39145600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>37479700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>39445300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>35590100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>30931100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>30522900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>30352900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>29417200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>28093000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>27084400</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>27466000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>28167900</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>26600100</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -4158,8 +4286,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -4188,488 +4317,507 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>110100</v>
+        <v>66900</v>
       </c>
       <c r="E57" s="3">
-        <v>83800</v>
+        <v>111600</v>
       </c>
       <c r="F57" s="3">
-        <v>111800</v>
+        <v>84900</v>
       </c>
       <c r="G57" s="3">
-        <v>141000</v>
+        <v>113300</v>
       </c>
       <c r="H57" s="3">
-        <v>250300</v>
+        <v>142900</v>
       </c>
       <c r="I57" s="3">
-        <v>225200</v>
+        <v>253700</v>
       </c>
       <c r="J57" s="3">
+        <v>228200</v>
+      </c>
+      <c r="K57" s="3">
         <v>249000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>279700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>285700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>300500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>327300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>372600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>405200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>332700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>283700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>320300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>217500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>221100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>204600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>309500</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>226300</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>219400</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>237100</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>362200</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>276000</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>2098600</v>
+        <v>1872800</v>
       </c>
       <c r="E58" s="3">
-        <v>1869900</v>
+        <v>2126900</v>
       </c>
       <c r="F58" s="3">
-        <v>1354100</v>
+        <v>1895200</v>
       </c>
       <c r="G58" s="3">
-        <v>1326700</v>
+        <v>1372400</v>
       </c>
       <c r="H58" s="3">
-        <v>1402000</v>
+        <v>1344700</v>
       </c>
       <c r="I58" s="3">
-        <v>1228300</v>
+        <v>1420900</v>
       </c>
       <c r="J58" s="3">
+        <v>1244900</v>
+      </c>
+      <c r="K58" s="3">
         <v>1236100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1056900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1029100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>963600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1234000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1198200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1223800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1310400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1605600</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>894000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1002000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>856100</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1192300</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1461600</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>1452600</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>1315500</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>944800</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>802000</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>615100</v>
       </c>
     </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>3288800</v>
+        <v>4095200</v>
       </c>
       <c r="E59" s="3">
-        <v>3652500</v>
+        <v>3333200</v>
       </c>
       <c r="F59" s="3">
-        <v>3666200</v>
+        <v>3701900</v>
       </c>
       <c r="G59" s="3">
-        <v>3683000</v>
+        <v>3715700</v>
       </c>
       <c r="H59" s="3">
-        <v>4549300</v>
+        <v>3732700</v>
       </c>
       <c r="I59" s="3">
-        <v>4334600</v>
+        <v>4610800</v>
       </c>
       <c r="J59" s="3">
+        <v>4393200</v>
+      </c>
+      <c r="K59" s="3">
         <v>4508600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4796900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4594700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4758600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4813200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>5103100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>4927800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>4464800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>5319400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>4537700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>3551200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>3760600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>4385500</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>4484900</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>3942300</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>3822900</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>4448200</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>4635500</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>3962700</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>5497400</v>
+        <v>6034900</v>
       </c>
       <c r="E60" s="3">
-        <v>5606200</v>
+        <v>5571700</v>
       </c>
       <c r="F60" s="3">
-        <v>5132100</v>
+        <v>5682000</v>
       </c>
       <c r="G60" s="3">
-        <v>5150700</v>
+        <v>5201500</v>
       </c>
       <c r="H60" s="3">
-        <v>6201600</v>
+        <v>5220300</v>
       </c>
       <c r="I60" s="3">
-        <v>5788100</v>
+        <v>6285400</v>
       </c>
       <c r="J60" s="3">
+        <v>5866300</v>
+      </c>
+      <c r="K60" s="3">
         <v>5993700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6133500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>5909400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>6022700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>6374500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>6673900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>6556800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>6107900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>7208600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>5751900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>4770700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>4837800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>5782300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>6256000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>5621200</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>5357800</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>5630000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>5799700</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>4853900</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>6077700</v>
+        <v>6440900</v>
       </c>
       <c r="E61" s="3">
-        <v>6138200</v>
+        <v>6159800</v>
       </c>
       <c r="F61" s="3">
-        <v>6410000</v>
+        <v>6221100</v>
       </c>
       <c r="G61" s="3">
-        <v>6345700</v>
+        <v>6496600</v>
       </c>
       <c r="H61" s="3">
-        <v>8057000</v>
+        <v>6431400</v>
       </c>
       <c r="I61" s="3">
-        <v>8060800</v>
+        <v>8165900</v>
       </c>
       <c r="J61" s="3">
+        <v>8169800</v>
+      </c>
+      <c r="K61" s="3">
         <v>7876200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>8059700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>7920900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>8322200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>8551200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>8623500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>8522600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>7920200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>8288300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>7213600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>5575400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>5547400</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>5319600</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>5111100</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>5104400</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>5178200</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>5654600</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>5830800</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>5840500</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>1917100</v>
+        <v>1889000</v>
       </c>
       <c r="E62" s="3">
-        <v>1946900</v>
+        <v>1943000</v>
       </c>
       <c r="F62" s="3">
-        <v>2003800</v>
+        <v>1973300</v>
       </c>
       <c r="G62" s="3">
-        <v>2249900</v>
+        <v>2030800</v>
       </c>
       <c r="H62" s="3">
-        <v>3866700</v>
+        <v>2280300</v>
       </c>
       <c r="I62" s="3">
-        <v>3652600</v>
+        <v>3919000</v>
       </c>
       <c r="J62" s="3">
+        <v>3702000</v>
+      </c>
+      <c r="K62" s="3">
         <v>3292500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3439900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3368000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3426800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>3363300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>3730200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>3901800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>3713300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>3819900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>3851200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>2626500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>2574400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>2461100</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>2184400</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>1988400</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>1874200</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>1860200</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>2032600</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>1915900</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -4748,8 +4896,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4828,8 +4979,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -4908,88 +5062,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>14078100</v>
+        <v>14992500</v>
       </c>
       <c r="E66" s="3">
-        <v>14274700</v>
+        <v>14268300</v>
       </c>
       <c r="F66" s="3">
-        <v>14111100</v>
+        <v>14467600</v>
       </c>
       <c r="G66" s="3">
-        <v>14305600</v>
+        <v>14301800</v>
       </c>
       <c r="H66" s="3">
-        <v>18802600</v>
+        <v>14498900</v>
       </c>
       <c r="I66" s="3">
-        <v>18170100</v>
+        <v>19056700</v>
       </c>
       <c r="J66" s="3">
+        <v>18415600</v>
+      </c>
+      <c r="K66" s="3">
         <v>17659600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>18122300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>17605800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>18193000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>18168300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>18914300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>18899300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>17654900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>19205500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>16714600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>13198100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>13130700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>13728400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>13716100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>12834200</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>12499800</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>13239200</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>13793600</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>12760400</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -5018,8 +5178,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -5098,8 +5259,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -5178,8 +5342,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -5258,8 +5425,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -5338,88 +5508,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>16618200</v>
+        <v>16847800</v>
       </c>
       <c r="E72" s="3">
-        <v>16558800</v>
+        <v>16842700</v>
       </c>
       <c r="F72" s="3">
-        <v>16499900</v>
+        <v>16782600</v>
       </c>
       <c r="G72" s="3">
-        <v>16603600</v>
+        <v>16722800</v>
       </c>
       <c r="H72" s="3">
-        <v>16507200</v>
+        <v>16828000</v>
       </c>
       <c r="I72" s="3">
-        <v>16042800</v>
+        <v>16730300</v>
       </c>
       <c r="J72" s="3">
+        <v>16259600</v>
+      </c>
+      <c r="K72" s="3">
         <v>16928100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>17236400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>17398700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>18050600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>18362200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>18894400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>19871700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>19470600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>19870500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>18601400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>17574500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>17434000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>16667600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>15695600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>15173300</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>14531800</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>14306000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>14357800</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>13922500</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -5498,8 +5674,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -5578,8 +5757,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -5658,88 +5840,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>8513900</v>
+        <v>8488700</v>
       </c>
       <c r="E76" s="3">
-        <v>8405100</v>
+        <v>8629000</v>
       </c>
       <c r="F76" s="3">
-        <v>8514100</v>
+        <v>8518700</v>
       </c>
       <c r="G76" s="3">
-        <v>8568700</v>
+        <v>8629200</v>
       </c>
       <c r="H76" s="3">
-        <v>19438700</v>
+        <v>8684500</v>
       </c>
       <c r="I76" s="3">
-        <v>18872600</v>
+        <v>19701400</v>
       </c>
       <c r="J76" s="3">
+        <v>19127600</v>
+      </c>
+      <c r="K76" s="3">
         <v>17683900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>17807900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>18321200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>19032300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>19062300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>19507700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>20246300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>19824800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>20239800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>18875500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>17732900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>17392200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>16624500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>15701100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>15258700</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>14584600</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>14226800</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>14374300</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>13839700</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -5818,173 +6006,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>170900</v>
+        <v>156700</v>
       </c>
       <c r="E81" s="3">
-        <v>185100</v>
+        <v>173200</v>
       </c>
       <c r="F81" s="3">
-        <v>153600</v>
+        <v>187600</v>
       </c>
       <c r="G81" s="3">
-        <v>1770600</v>
+        <v>155700</v>
       </c>
       <c r="H81" s="3">
-        <v>577600</v>
+        <v>221700</v>
       </c>
       <c r="I81" s="3">
-        <v>563900</v>
+        <v>585400</v>
       </c>
       <c r="J81" s="3">
+        <v>571600</v>
+      </c>
+      <c r="K81" s="3">
         <v>410400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1117200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>292100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>343200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>256100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-27200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>240900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>228500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>341700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>404200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>832400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>762900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>583800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>511800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>700300</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>542500</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>530200</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>432400</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>292600</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -6013,88 +6210,92 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>690800</v>
+        <v>701100</v>
       </c>
       <c r="E83" s="3">
-        <v>696100</v>
+        <v>700100</v>
       </c>
       <c r="F83" s="3">
-        <v>700200</v>
+        <v>705500</v>
       </c>
       <c r="G83" s="3">
-        <v>3044700</v>
+        <v>709700</v>
       </c>
       <c r="H83" s="3">
-        <v>778800</v>
+        <v>744200</v>
       </c>
       <c r="I83" s="3">
-        <v>766800</v>
+        <v>789300</v>
       </c>
       <c r="J83" s="3">
+        <v>777100</v>
+      </c>
+      <c r="K83" s="3">
         <v>764800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>3127500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>796700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>835300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>856200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>874600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>892700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>855000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>848400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>711200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>653900</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>677500</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>692100</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>732200</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>718700</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>707600</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>715200</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>722200</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>688100</v>
       </c>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -6173,8 +6374,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -6253,8 +6457,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -6333,8 +6540,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -6413,8 +6623,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -6493,88 +6706,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>779400</v>
+        <v>1027400</v>
       </c>
       <c r="E89" s="3">
-        <v>1066800</v>
+        <v>789900</v>
       </c>
       <c r="F89" s="3">
-        <v>958100</v>
+        <v>1081200</v>
       </c>
       <c r="G89" s="3">
-        <v>3723100</v>
+        <v>971000</v>
       </c>
       <c r="H89" s="3">
-        <v>1039800</v>
+        <v>1011600</v>
       </c>
       <c r="I89" s="3">
-        <v>1025800</v>
+        <v>1053900</v>
       </c>
       <c r="J89" s="3">
+        <v>1039700</v>
+      </c>
+      <c r="K89" s="3">
         <v>659400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>4366400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1263500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1549000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>816800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>975700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>746100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>907500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>881500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1389100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>382000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1024900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>829300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>828600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>969400</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>776500</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>837300</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>1379600</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>799200</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -6603,88 +6822,92 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-624700</v>
+        <v>-586900</v>
       </c>
       <c r="E91" s="3">
-        <v>-395200</v>
+        <v>-633100</v>
       </c>
       <c r="F91" s="3">
-        <v>-553200</v>
+        <v>-400500</v>
       </c>
       <c r="G91" s="3">
-        <v>-2157700</v>
+        <v>-560600</v>
       </c>
       <c r="H91" s="3">
-        <v>-595700</v>
+        <v>-600900</v>
       </c>
       <c r="I91" s="3">
-        <v>-410300</v>
+        <v>-603700</v>
       </c>
       <c r="J91" s="3">
+        <v>-415900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-558800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2668400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-742400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-526800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-878200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-969100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-796300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-571500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-629400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-789700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-622200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-383600</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-527100</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-730500</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-688700</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-391900</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-608900</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-1158400</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-855700</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -6763,8 +6986,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -6843,88 +7069,94 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-574400</v>
+        <v>-335700</v>
       </c>
       <c r="E94" s="3">
-        <v>-579600</v>
+        <v>-582200</v>
       </c>
       <c r="F94" s="3">
-        <v>-592400</v>
+        <v>-587500</v>
       </c>
       <c r="G94" s="3">
-        <v>-2579800</v>
+        <v>-600500</v>
       </c>
       <c r="H94" s="3">
-        <v>-862400</v>
+        <v>-583300</v>
       </c>
       <c r="I94" s="3">
-        <v>-754300</v>
+        <v>-874100</v>
       </c>
       <c r="J94" s="3">
+        <v>-764500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-387600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3187800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-907100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-515500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1035700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1309800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1016400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-404700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-400100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-2284100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-292400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-356000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-456800</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-845900</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-805200</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-473600</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-590600</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-755400</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-667600</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -6953,41 +7185,42 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-133900</v>
+        <v>-135700</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-135700</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-761100</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-131600</v>
+        <v>-133400</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-133400</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-556600</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-56300</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
         <v>0</v>
       </c>
@@ -6995,11 +7228,11 @@
         <v>0</v>
       </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-64000</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
         <v>0</v>
       </c>
@@ -7007,11 +7240,11 @@
         <v>0</v>
       </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-57200</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
       <c r="V96" s="3">
         <v>0</v>
       </c>
@@ -7019,11 +7252,11 @@
         <v>0</v>
       </c>
       <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-62100</v>
       </c>
-      <c r="Y96" s="3">
-        <v>0</v>
-      </c>
       <c r="Z96" s="3">
         <v>0</v>
       </c>
@@ -7031,10 +7264,13 @@
         <v>0</v>
       </c>
       <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC96" s="3">
         <v>-63500</v>
       </c>
     </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -7113,8 +7349,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -7193,8 +7432,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -7273,244 +7515,256 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>-184400</v>
+        <v>-164700</v>
       </c>
       <c r="E100" s="3">
-        <v>-301500</v>
+        <v>-186900</v>
       </c>
       <c r="F100" s="3">
-        <v>-350400</v>
+        <v>-305600</v>
       </c>
       <c r="G100" s="3">
-        <v>-1519700</v>
+        <v>-355200</v>
       </c>
       <c r="H100" s="3">
-        <v>-217900</v>
+        <v>-892500</v>
       </c>
       <c r="I100" s="3">
-        <v>-43300</v>
+        <v>-220900</v>
       </c>
       <c r="J100" s="3">
+        <v>-43900</v>
+      </c>
+      <c r="K100" s="3">
         <v>-377800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1093200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-56600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-725800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>83100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>324500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>120000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1033500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>19100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-163300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>696800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-746200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-13300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>30200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>19200</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-603000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-177800</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-48400</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-343800</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>8000</v>
+        <v>-8800</v>
       </c>
       <c r="E101" s="3">
-        <v>5500</v>
+        <v>8100</v>
       </c>
       <c r="F101" s="3">
+        <v>5600</v>
+      </c>
+      <c r="G101" s="3">
         <v>1000</v>
       </c>
-      <c r="G101" s="3">
-        <v>8600</v>
-      </c>
       <c r="H101" s="3">
-        <v>5200</v>
+        <v>100</v>
       </c>
       <c r="I101" s="3">
+        <v>5300</v>
+      </c>
+      <c r="J101" s="3">
         <v>-400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>3700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-11300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-2000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>7200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-6400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>6100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-2100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>400</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>2500</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-2800</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>2100</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>400</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-3600</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>1100</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>2300</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-5200</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>5600</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>28500</v>
+        <v>518100</v>
       </c>
       <c r="E102" s="3">
-        <v>191100</v>
+        <v>28900</v>
       </c>
       <c r="F102" s="3">
-        <v>16200</v>
+        <v>193700</v>
       </c>
       <c r="G102" s="3">
-        <v>-367700</v>
+        <v>16400</v>
       </c>
       <c r="H102" s="3">
-        <v>-35300</v>
+        <v>-464100</v>
       </c>
       <c r="I102" s="3">
-        <v>227900</v>
+        <v>-35800</v>
       </c>
       <c r="J102" s="3">
+        <v>231000</v>
+      </c>
+      <c r="K102" s="3">
         <v>-102400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>74100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>297900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>307100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-128600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-16100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-144100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-532800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>500800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1055800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>783600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-75200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>359500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>9300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>184400</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-297700</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>63700</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>581400</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-216300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SKM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SKM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
   <si>
     <t>SKM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,371 +665,382 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="8" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3279200</v>
+      </c>
+      <c r="E8" s="3">
         <v>3295800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3257600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3217400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3207900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3221500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3161300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3093900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3043700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>12065800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3643200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3728700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3738500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3746400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4059500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3904600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3944800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3655400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>3391000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>3489600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>3512500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>3957600</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>3909600</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>3824100</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>3810900</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>3917000</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>3819400</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>129400</v>
+      </c>
+      <c r="E9" s="3">
         <v>120500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>135000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>138900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>142000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>141200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>138100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>137400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>143500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>578000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>155100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>167900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>163800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>162600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>163700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>165200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>172300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>136400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>171900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>183800</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>180600</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>190800</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>197200</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>187500</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>199000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>153400</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>238000</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>3149800</v>
+      </c>
+      <c r="E10" s="3">
         <v>3175400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>3122600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>3078500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>3065900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>3080300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>3023100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>2956500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2900200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>11487800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>3488100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>3560800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>3574700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>3583800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>3895800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>3739400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>3772400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>3519000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>3219100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>3305800</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>3331900</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>3766900</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>3712400</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>3636700</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>3612000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>3763600</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>3581400</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1059,91 +1070,95 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>55200</v>
+      </c>
+      <c r="E12" s="3">
         <v>67100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>63500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>66500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>58600</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>75800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>60300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>62000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>61800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>264900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>80700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>85000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>92700</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>86500</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>83300</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>84700</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>90800</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>88900</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>76200</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>82500</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>75100</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>90300</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>90800</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>83500</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>85200</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>82100</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>76900</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1225,174 +1240,183 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>12500</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>300</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I14" s="3">
         <v>2400</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="J14" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>4000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-3700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>150500</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>10300</v>
       </c>
-      <c r="O14" s="3" t="s">
+      <c r="P14" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>54900</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>200</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>2100</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>100</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>214000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>400</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>2100</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>800</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>52300</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>300</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>3700</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>2000</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>5700</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>675100</v>
+      </c>
+      <c r="E15" s="3">
         <v>676400</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>675900</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>680500</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>683200</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>691800</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>696100</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>684800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>672700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>2748500</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>775500</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>807500</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>827200</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>912300</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>856100</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>818700</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>810900</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>676100</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>621700</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>644900</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>660200</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>696900</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>684300</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>674200</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>685500</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>695000</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AD15" s="3">
         <v>659700</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1419,174 +1443,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>2908100</v>
+      </c>
+      <c r="E17" s="3">
         <v>3117500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2908700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2872700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2883600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3055700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2866500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2797100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2766800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>11279900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3367600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3449200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3485400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3664800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3790900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3622600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3651300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3680200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>3145000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>3200300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>3239800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>3736700</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>3564600</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>3455400</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>3443500</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>3650900</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>3442500</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>371000</v>
+      </c>
+      <c r="E18" s="3">
         <v>178400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>348900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>344700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>324300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>165800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>294800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>296800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>276900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>785900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>275700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>279500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>253100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>81700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>268600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>282000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>293500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-24700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>246000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>289300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>272600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>220900</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>345000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>368800</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>367500</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>266100</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>376900</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1616,423 +1647,439 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>14400</v>
+      </c>
+      <c r="E20" s="3">
         <v>6800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-20400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>14300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-23600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>109100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>27800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>188000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>133700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>109700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>265700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>320200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>140700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>130200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>116400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>225300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>607100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>866100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>748000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>552300</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>662700</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>601900</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>355900</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>351300</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>307600</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>78400</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>1086300</v>
+      </c>
+      <c r="E21" s="3">
         <v>886300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1028600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1064500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1010400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1019100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1111900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1261900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1175500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>4023100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1338100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1435000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1250100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>956400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1291600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1253400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1367100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1293500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1766000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1714900</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1517100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1615900</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1665600</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>1432300</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>1434000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>1295900</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>1143300</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>69800</v>
+      </c>
+      <c r="E22" s="3">
         <v>77200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>56700</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>56900</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>55400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>53600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>53300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>51600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>50600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>216700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>143600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>155100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>84400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>89700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>87900</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>87600</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>93100</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>75000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>57500</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>60400</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>63100</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>68300</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>63400</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>66100</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>67000</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>66000</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>67200</v>
       </c>
     </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>315700</v>
+      </c>
+      <c r="E23" s="3">
         <v>108000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>271800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>302100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>245300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>221200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>269300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>433200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>360000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>678900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>397800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>444700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>309400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-8000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>311000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>310800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>425700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>507400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1054600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>977000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>761900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>815400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>883600</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>658600</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>651800</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>507700</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>388100</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>88800</v>
+      </c>
+      <c r="E24" s="3">
         <v>-59800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>87600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>108500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>80000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>62700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>71700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>102700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>96700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>165900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>96100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>94500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>52400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>31400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>66700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>82900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>85700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>108800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>204200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>208900</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>179400</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>234000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>185800</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>112600</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>126700</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>80500</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>98200</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2114,174 +2161,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>226900</v>
+      </c>
+      <c r="E26" s="3">
         <v>167800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>184200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>193600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>165300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>158600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>197600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>330500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>263300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>513000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>301700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>350200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>257000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-39400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>244200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>228000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>340000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>398600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>850400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>768000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>582400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>581400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>697800</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>546000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>525100</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>427200</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>289900</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>215100</v>
+      </c>
+      <c r="E27" s="3">
         <v>156700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>173200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>187600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>155700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>141700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>189900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>313600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>253300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>475400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>292100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>343200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>256100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-27200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>240900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>228500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>341700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>404200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>832400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>762900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>583800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>511800</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>700300</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>542500</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>530200</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>432400</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>292600</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2363,8 +2419,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2380,29 +2439,29 @@
       <c r="G29" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H29" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I29" s="3">
         <v>80000</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>395400</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>257900</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>157000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>641800</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
+      <c r="O29" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="P29" s="3">
         <v>0</v>
@@ -2446,8 +2505,11 @@
       <c r="AC29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2529,8 +2591,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2612,174 +2677,183 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>-14400</v>
+      </c>
+      <c r="E32" s="3">
         <v>-6800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>20400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-14300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>23600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-109100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-27800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-188000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-133700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-109700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-265700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-320200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-140700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-130200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-116400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-225300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-607100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-866100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-748000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-552300</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-662700</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-601900</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-355900</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-351300</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-307600</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-78400</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>215100</v>
+      </c>
+      <c r="E33" s="3">
         <v>156700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>173200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>187600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>155700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>221700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>585400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>571600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>410400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1117200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>292100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>343200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>256100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-27200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>240900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>228500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>341700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>404200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>832400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>762900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>583800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>511800</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>700300</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>542500</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>530200</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>432400</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>292600</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2861,179 +2935,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>215100</v>
+      </c>
+      <c r="E35" s="3">
         <v>156700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>173200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>187600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>155700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>221700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>585400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>571600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>410400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1117200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>292100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>343200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>256100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-27200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>240900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>228500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>341700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>404200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>832400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>762900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>583800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>511800</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>700300</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>542500</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>530200</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>432400</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>292600</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -3063,8 +3146,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -3094,755 +3178,783 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>1272000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1411700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>893600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>864700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>671000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>654500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1118700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1154500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>911200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1027200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1450500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1212500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>938900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1080200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1147800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1277400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1871900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1265600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2238500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1508800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1584000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1282800</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>1273500</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>1089100</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>1418400</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>1354700</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>773300</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
+        <v>166700</v>
+      </c>
+      <c r="E42" s="3">
         <v>118300</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>485700</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>516400</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>368700</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>325600</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>1264900</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>1186400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1078700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1109500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>840400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>795000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>903200</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>766900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>866400</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>728100</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>733100</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>975400</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>318100</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>452600</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>540900</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>590800</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>626300</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>647200</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>612800</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>437300</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>580900</v>
       </c>
     </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>1905800</v>
+      </c>
+      <c r="E43" s="3">
         <v>1960600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2108500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2056100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2062900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1957700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2772400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2584400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2644400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2528400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2663000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2649400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2902000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2886300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>3122000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2860700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>3116800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>2605400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>3040500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>2736500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>3179400</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>3039200</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>2826800</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>2900700</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>2901300</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>3081700</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>3293200</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>150100</v>
+      </c>
+      <c r="E44" s="3">
         <v>124800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>147400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>137500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>167600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>153500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>148700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>158800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>163900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>128600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>166300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>165500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>174800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>138400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>178500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>197000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>239900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>242000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>208700</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>217800</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>213800</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>239700</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>219000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>231900</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>223700</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>233900</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>246600</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>1764100</v>
+      </c>
+      <c r="E45" s="3">
         <v>1799000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1853900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1721200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1638500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1673200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1685000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1771500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1762000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1787600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1834500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1869300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1904400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2003300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1881800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1612400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1635700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1597000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1505000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1648400</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1597800</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>305100</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>341700</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>228600</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>212400</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>289400</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>305900</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>5258600</v>
+      </c>
+      <c r="E46" s="3">
         <v>5414400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>5489000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>5295900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>4908600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>4764500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>6989700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>6855700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>6560200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>6581300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>6954700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>6691700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>6823200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>6875200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>7196700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>6675700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>7597400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>6685400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>7310800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>6564000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>7115900</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>5457600</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>5287300</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>5097500</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>5368600</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>5397000</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>5199900</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
+        <v>2910700</v>
+      </c>
+      <c r="E47" s="3">
         <v>2823200</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>2832100</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>2874800</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>3151400</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>3194500</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>15039700</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>13968200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>12464800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>12336800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>12316200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>12493000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>12472300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>12502800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>12994600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>12402900</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>12830400</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>11621100</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>10715900</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>10427800</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>9560700</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>9483000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>8899800</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>8030500</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>7602200</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>7603200</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>7518000</v>
       </c>
     </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>9647400</v>
+      </c>
+      <c r="E48" s="3">
         <v>10010700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>9353800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>9521100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>9446100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>9670700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>9855200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>9932800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>9546300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>10032800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>9386500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>10160800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>10069700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>10993400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>10310700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>9942300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>10188200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>9003400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>7678300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>8009300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>8104800</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>8927500</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>8449400</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>8424900</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>8936000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>9336800</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>8818900</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
+        <v>3928100</v>
+      </c>
+      <c r="E49" s="3">
         <v>4049900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>4077300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>4198900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>4319300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>4456700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>5635200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>5629100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>5622000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>5845300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>6083200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>6545900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>6426000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>6643300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>7011600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>7117600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>7518000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>7099700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>4170600</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>4448600</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>4511000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>4841700</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>4934900</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>5000900</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>5037500</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>5137900</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>4591200</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -3924,8 +4036,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -4007,91 +4122,97 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
+        <v>1160000</v>
+      </c>
+      <c r="E52" s="3">
         <v>1182900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1145100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1095600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1105600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1097000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1238200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1157300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1150100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1134000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1186500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1333900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1439300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1407300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1632000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1341300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1311200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1180300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1055500</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1073200</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1060500</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>707400</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>521500</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>530700</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>521800</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>693000</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>472200</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -4173,91 +4294,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>22904800</v>
+      </c>
+      <c r="E54" s="3">
         <v>23481200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>22897300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>22986300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>22931000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>23183500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>38758100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>37543200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>35343500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>35930200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>35927000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>37225300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>37230600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>38422000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>39145600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>37479700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>39445300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>35590100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>30931100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>30522900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>30352900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>29417200</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>28093000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>27084400</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>27466000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>28167900</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>26600100</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -4287,8 +4414,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -4318,506 +4446,525 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>104200</v>
+      </c>
+      <c r="E57" s="3">
         <v>66900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>111600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>84900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>113300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>142900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>253700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>228200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>249000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>279700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>285700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>300500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>327300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>372600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>405200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>332700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>283700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>320300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>217500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>221100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>204600</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>309500</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>226300</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>219400</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>237100</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>362200</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>276000</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
+        <v>1808200</v>
+      </c>
+      <c r="E58" s="3">
         <v>1872800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2126900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1895200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1372400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1344700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1420900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1244900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1236100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1056900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1029100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>963600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1234000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1198200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1223800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1310400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1605600</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>894000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1002000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>856100</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1192300</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>1461600</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>1452600</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>1315500</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>944800</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>802000</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>615100</v>
       </c>
     </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>3489800</v>
+      </c>
+      <c r="E59" s="3">
         <v>4095200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3333200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3701900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3715700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3732700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>4610800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>4393200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4508600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4796900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4594700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4758600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>4813200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>5103100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>4927800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>4464800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>5319400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>4537700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>3551200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>3760600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>4385500</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>4484900</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>3942300</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>3822900</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>4448200</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>4635500</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>3962700</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>5402200</v>
+      </c>
+      <c r="E60" s="3">
         <v>6034900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>5571700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>5682000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>5201500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>5220300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>6285400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>5866300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5993700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6133500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>5909400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>6022700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>6374500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>6673900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>6556800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>6107900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>7208600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>5751900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>4770700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>4837800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>5782300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>6256000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>5621200</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>5357800</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>5630000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>5799700</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>4853900</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
+        <v>6580600</v>
+      </c>
+      <c r="E61" s="3">
         <v>6440900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>6159800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>6221100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>6496600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>6431400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>8165900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>8169800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>7876200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>8059700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>7920900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>8322200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>8551200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>8623500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>8522600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>7920200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>8288300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>7213600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>5575400</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>5547400</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>5319600</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>5111100</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>5104400</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>5178200</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>5654600</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>5830800</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>5840500</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
+        <v>1684400</v>
+      </c>
+      <c r="E62" s="3">
         <v>1889000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1943000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1973300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2030800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2280300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3919000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3702000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3292500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3439900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3368000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>3426800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>3363300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>3730200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>3901800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>3713300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>3819900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>3851200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>2626500</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>2574400</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>2461100</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>2184400</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>1988400</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>1874200</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>1860200</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>2032600</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>1915900</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -4899,8 +5046,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4982,8 +5132,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -5065,91 +5218,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>14262500</v>
+      </c>
+      <c r="E66" s="3">
         <v>14992500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>14268300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>14467600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>14301800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>14498900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>19056700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>18415600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>17659600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>18122300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>17605800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>18193000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>18168300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>18914300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>18899300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>17654900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>19205500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>16714600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>13198100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>13130700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>13728400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>13716100</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>12834200</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>12499800</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>13239200</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>13793600</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>12760400</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -5179,8 +5338,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -5262,8 +5422,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -5345,8 +5508,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -5428,8 +5594,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -5511,91 +5680,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>16912300</v>
+      </c>
+      <c r="E72" s="3">
         <v>16847800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>16842700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>16782600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>16722800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>16828000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>16730300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>16259600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>16928100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>17236400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>17398700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>18050600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>18362200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>18894400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>19871700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>19470600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>19870500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>18601400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>17574500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>17434000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>16667600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>15695600</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>15173300</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>14531800</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>14306000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>14357800</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>13922500</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -5677,8 +5852,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -5760,8 +5938,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -5843,91 +6024,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>8642300</v>
+      </c>
+      <c r="E76" s="3">
         <v>8488700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>8629000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>8518700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>8629200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>8684500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>19701400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>19127600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>17683900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>17807900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>18321200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>19032300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>19062300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>19507700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>20246300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>19824800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>20239800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>18875500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>17732900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>17392200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>16624500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>15701100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>15258700</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>14584600</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>14226800</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>14374300</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>13839700</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -6009,179 +6196,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>215100</v>
+      </c>
+      <c r="E81" s="3">
         <v>156700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>173200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>187600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>155700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>221700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>585400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>571600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>410400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1117200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>292100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>343200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>256100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-27200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>240900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>228500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>341700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>404200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>832400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>762900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>583800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>511800</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>700300</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>542500</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>530200</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>432400</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>292600</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -6211,91 +6407,95 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
+        <v>700800</v>
+      </c>
+      <c r="E83" s="3">
         <v>701100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>700100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>705500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>709700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>744200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>789300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>777100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>764800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>3127500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>796700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>835300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>856200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>874600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>892700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>855000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>848400</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>711200</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>653900</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>677500</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>692100</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>732200</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>718700</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>707600</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>715200</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>722200</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>688100</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -6377,8 +6577,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -6460,8 +6663,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -6543,8 +6749,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -6626,8 +6835,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -6709,91 +6921,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>768600</v>
+      </c>
+      <c r="E89" s="3">
         <v>1027400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>789900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1081200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>971000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1011600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1053900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1039700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>659400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>4366400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1263500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1549000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>816800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>975700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>746100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>907500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>881500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1389100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>382000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1024900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>829300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>828600</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>969400</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>776500</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>837300</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>1379600</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>799200</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -6823,91 +7041,95 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-586900</v>
+        <v>-783990000</v>
       </c>
       <c r="E91" s="3">
-        <v>-633100</v>
+        <v>-872521000</v>
       </c>
       <c r="F91" s="3">
-        <v>-400500</v>
+        <v>-858866000</v>
       </c>
       <c r="G91" s="3">
-        <v>-560600</v>
+        <v>-556669000</v>
       </c>
       <c r="H91" s="3">
-        <v>-600900</v>
+        <v>-758367000</v>
       </c>
       <c r="I91" s="3">
-        <v>-603700</v>
+        <v>-1082665000</v>
       </c>
       <c r="J91" s="3">
+        <v>-888446000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-415900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-558800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2668400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-742400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-526800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-878200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-969100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-796300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-571500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-629400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-789700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-622200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-383600</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-527100</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-730500</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-688700</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-391900</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-608900</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-1158400</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-855700</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -6989,8 +7211,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -7072,91 +7297,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
+        <v>-587300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-335700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-582200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-587500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-600500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-583300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-874100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-764500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-387600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-3187800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-907100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-515500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1035700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1309800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1016400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-404700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-400100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-2284100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-292400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-356000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-456800</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-845900</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-805200</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-473600</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-590600</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-755400</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-667600</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -7186,44 +7417,45 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-135700</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
         <v>-135700</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-135700</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-133400</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
         <v>-133400</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-133400</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
       </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-556600</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-56300</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
         <v>0</v>
       </c>
@@ -7231,11 +7463,11 @@
         <v>0</v>
       </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-64000</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
         <v>0</v>
       </c>
@@ -7243,11 +7475,11 @@
         <v>0</v>
       </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-57200</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
       <c r="W96" s="3">
         <v>0</v>
       </c>
@@ -7255,11 +7487,11 @@
         <v>0</v>
       </c>
       <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-62100</v>
       </c>
-      <c r="Z96" s="3">
-        <v>0</v>
-      </c>
       <c r="AA96" s="3">
         <v>0</v>
       </c>
@@ -7267,10 +7499,13 @@
         <v>0</v>
       </c>
       <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD96" s="3">
         <v>-63500</v>
       </c>
     </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -7352,8 +7587,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -7435,8 +7673,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -7518,253 +7759,265 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>-322900</v>
+      </c>
+      <c r="E100" s="3">
         <v>-164700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-186900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-305600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-355200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-892500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-220900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-43900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-377800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1093200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-56600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-725800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>83100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>324500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>120000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1033500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>19100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-163300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>696800</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-746200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-13300</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>30200</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>19200</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-603000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-177800</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-48400</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-343800</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E101" s="3">
         <v>-8800</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>8100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>5600</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>1000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>5300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>3700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-11300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-2000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>7200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-6400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>6100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-2100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>400</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>2500</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-2800</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>2100</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>400</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-3600</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>1100</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>2300</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-5200</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>5600</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>-139800</v>
+      </c>
+      <c r="E102" s="3">
         <v>518100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>28900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>193700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>16400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-464100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-35800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>231000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-102400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>74100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>297900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>307100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-128600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-16100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-144100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-532800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>500800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1055800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>783600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-75200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>359500</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>9300</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>184400</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-297700</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>63700</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>581400</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-216300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SKM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SKM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
   <si>
     <t>SKM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,382 +665,394 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="9" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3229800</v>
+      </c>
+      <c r="E8" s="3">
         <v>3279200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3295800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3257600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3217400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3207900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3221500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3161300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3093900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3043700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>12065800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3643200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3728700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3738500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3746400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4059500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3904600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3944800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>3655400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>3391000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>3489600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>3512500</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>3957600</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>3909600</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>3824100</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>3810900</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>3917000</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>3819400</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>125400</v>
+      </c>
+      <c r="E9" s="3">
         <v>129400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>120500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>135000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>138900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>142000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>141200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>138100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>137400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>143500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>578000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>155100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>167900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>163800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>162600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>163700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>165200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>172300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>136400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>171900</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>183800</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>180600</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>190800</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>197200</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>187500</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>199000</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>153400</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>238000</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>3104400</v>
+      </c>
+      <c r="E10" s="3">
         <v>3149800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>3175400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>3122600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>3078500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>3065900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>3080300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>3023100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2956500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2900200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>11487800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>3488100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>3560800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>3574700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>3583800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>3895800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>3739400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>3772400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>3519000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>3219100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>3305800</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>3331900</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>3766900</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>3712400</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>3636700</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>3612000</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>3763600</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>3581400</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1071,94 +1083,98 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>65900</v>
+      </c>
+      <c r="E12" s="3">
         <v>55200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>67100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>63500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>66500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>58600</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>75800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>60300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>62000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>61800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>264900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>80700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>85000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>92700</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>86500</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>83300</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>84700</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>90800</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>88900</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>76200</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>82500</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>75100</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>90300</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>90800</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>83500</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>85200</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>82100</v>
       </c>
-      <c r="AD12" s="3">
+      <c r="AE12" s="3">
         <v>76900</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1243,180 +1259,189 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>12500</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>300</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J14" s="3">
         <v>2400</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="K14" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>4000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-3700</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>150500</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>10300</v>
       </c>
-      <c r="P14" s="3" t="s">
+      <c r="Q14" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>54900</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>200</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>2100</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>100</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>214000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>400</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>2100</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>800</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>52300</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>300</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>3700</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>2000</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>5700</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AE14" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>685200</v>
+      </c>
+      <c r="E15" s="3">
         <v>675100</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>676400</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>675900</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>680500</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>683200</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>691800</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>696100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>684800</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>672700</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>2748500</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>775500</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>807500</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>827200</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>912300</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>856100</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>818700</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>810900</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>676100</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>621700</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>644900</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>660200</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>696900</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>684300</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>674200</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>685500</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AD15" s="3">
         <v>695000</v>
       </c>
-      <c r="AD15" s="3">
+      <c r="AE15" s="3">
         <v>659700</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1444,180 +1469,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>2882500</v>
+      </c>
+      <c r="E17" s="3">
         <v>2908100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3117500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2908700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2872700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2883600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3055700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2866500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2797100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2766800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>11279900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3367600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3449200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3485400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3664800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3790900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3622600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3651300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>3680200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>3145000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>3200300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>3239800</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>3736700</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>3564600</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>3455400</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>3443500</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>3650900</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>3442500</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>347300</v>
+      </c>
+      <c r="E18" s="3">
         <v>371000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>178400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>348900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>344700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>324300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>165800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>294800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>296800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>276900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>785900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>275700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>279500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>253100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>81700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>268600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>282000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>293500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-24700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>246000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>289300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>272600</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>220900</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>345000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>368800</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>367500</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>266100</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>376900</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1648,438 +1680,454 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>62000</v>
+      </c>
+      <c r="E20" s="3">
         <v>14400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>6800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-20400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>14300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-23600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>109100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>27800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>188000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>133700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>109700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>265700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>320200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>140700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>130200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>116400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>225300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>607100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>866100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>748000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>552300</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>662700</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>601900</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>355900</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>351300</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>307600</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>78400</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>1120400</v>
+      </c>
+      <c r="E21" s="3">
         <v>1086300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>886300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1028600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1064500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1010400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1019100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1111900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1261900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1175500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>4023100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1338100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1435000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1250100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>956400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1291600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1253400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1367100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1293500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1766000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1714900</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1517100</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1615900</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>1665600</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>1432300</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>1434000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>1295900</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>1143300</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>71900</v>
+      </c>
+      <c r="E22" s="3">
         <v>69800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>77200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>56700</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>56900</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>55400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>53600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>53300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>51600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>50600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>216700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>143600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>155100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>84400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>89700</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>87900</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>87600</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>93100</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>75000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>57500</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>60400</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>63100</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>68300</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>63400</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>66100</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>67000</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>66000</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>67200</v>
       </c>
     </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>337400</v>
+      </c>
+      <c r="E23" s="3">
         <v>315700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>108000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>271800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>302100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>245300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>221200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>269300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>433200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>360000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>678900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>397800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>444700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>309400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-8000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>311000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>310800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>425700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>507400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1054600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>977000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>761900</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>815400</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>883600</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>658600</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>651800</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>507700</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>388100</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>76600</v>
+      </c>
+      <c r="E24" s="3">
         <v>88800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-59800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>87600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>108500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>80000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>62700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>71700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>102700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>96700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>165900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>96100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>94500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>52400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>31400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>66700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>82900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>85700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>108800</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>204200</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>208900</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>179400</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>234000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>185800</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>112600</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>126700</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>80500</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>98200</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2164,180 +2212,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>260800</v>
+      </c>
+      <c r="E26" s="3">
         <v>226900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>167800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>184200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>193600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>165300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>158600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>197600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>330500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>263300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>513000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>301700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>350200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>257000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-39400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>244200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>228000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>340000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>398600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>850400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>768000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>582400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>581400</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>697800</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>546000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>525100</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>427200</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>289900</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>244100</v>
+      </c>
+      <c r="E27" s="3">
         <v>215100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>156700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>173200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>187600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>155700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>141700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>189900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>313600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>253300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>475400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>292100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>343200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>256100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-27200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>240900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>228500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>341700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>404200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>832400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>762900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>583800</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>511800</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>700300</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>542500</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>530200</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>432400</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>292600</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2422,8 +2479,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2442,29 +2502,29 @@
       <c r="H29" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I29" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J29" s="3">
         <v>80000</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>395400</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>257900</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>157000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>641800</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
+      <c r="P29" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="Q29" s="3">
         <v>0</v>
@@ -2508,8 +2568,11 @@
       <c r="AD29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2594,8 +2657,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2680,180 +2746,189 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>-62000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-14400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-6800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>20400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-14300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>23600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-109100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-27800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-188000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-133700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-109700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-265700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-320200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-140700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-130200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-116400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-225300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-607100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-866100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-748000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-552300</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-662700</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-601900</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-355900</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-351300</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-307600</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>-78400</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>244100</v>
+      </c>
+      <c r="E33" s="3">
         <v>215100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>156700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>173200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>187600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>155700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>221700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>585400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>571600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>410400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1117200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>292100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>343200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>256100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-27200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>240900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>228500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>341700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>404200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>832400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>762900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>583800</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>511800</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>700300</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>542500</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>530200</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>432400</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>292600</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2938,185 +3013,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>244100</v>
+      </c>
+      <c r="E35" s="3">
         <v>215100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>156700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>173200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>187600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>155700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>221700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>585400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>571600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>410400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1117200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>292100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>343200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>256100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-27200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>240900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>228500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>341700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>404200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>832400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>762900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>583800</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>511800</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>700300</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>542500</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>530200</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>432400</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>292600</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -3147,8 +3231,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -3179,782 +3264,810 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>1168500</v>
+      </c>
+      <c r="E41" s="3">
         <v>1272000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1411700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>893600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>864700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>671000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>654500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1118700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1154500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>911200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1027200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1450500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1212500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>938900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1080200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1147800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1277400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1871900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1265600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>2238500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1508800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1584000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>1282800</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>1273500</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>1089100</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>1418400</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>1354700</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>773300</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
+        <v>266400</v>
+      </c>
+      <c r="E42" s="3">
         <v>166700</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>118300</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>485700</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>516400</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>368700</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>325600</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>1264900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1186400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1078700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1109500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>840400</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>795000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>903200</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>766900</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>866400</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>728100</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>733100</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>975400</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>318100</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>452600</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>540900</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>590800</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>626300</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>647200</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>612800</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>437300</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AE42" s="3">
         <v>580900</v>
       </c>
     </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>1834700</v>
+      </c>
+      <c r="E43" s="3">
         <v>1905800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1960600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2108500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2056100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2062900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1957700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2772400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2584400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2644400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2528400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2663000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2649400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2902000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2886300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>3122000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2860700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>3116800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>2605400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>3040500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>2736500</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>3179400</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>3039200</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>2826800</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>2900700</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>2901300</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>3081700</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>3293200</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>125100</v>
+      </c>
+      <c r="E44" s="3">
         <v>150100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>124800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>147400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>137500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>167600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>153500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>148700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>158800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>163900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>128600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>166300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>165500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>174800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>138400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>178500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>197000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>239900</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>242000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>208700</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>217800</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>213800</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>239700</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>219000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>231900</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>223700</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>233900</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>246600</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>1634800</v>
+      </c>
+      <c r="E45" s="3">
         <v>1764100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1799000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1853900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1721200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1638500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1673200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1685000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1771500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1762000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1787600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1834500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1869300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1904400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2003300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1881800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1612400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1635700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1597000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1505000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1648400</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>1597800</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>305100</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>341700</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>228600</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>212400</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>289400</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>305900</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>5029500</v>
+      </c>
+      <c r="E46" s="3">
         <v>5258600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>5414400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>5489000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>5295900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>4908600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>4764500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>6989700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>6855700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>6560200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>6581300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>6954700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>6691700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>6823200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>6875200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>7196700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>6675700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>7597400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>6685400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>7310800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>6564000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>7115900</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>5457600</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>5287300</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>5097500</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>5368600</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>5397000</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>5199900</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
+        <v>2966000</v>
+      </c>
+      <c r="E47" s="3">
         <v>2910700</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>2823200</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>2832100</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>2874800</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>3151400</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>3194500</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>15039700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>13968200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>12464800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>12336800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>12316200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>12493000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>12472300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>12502800</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>12994600</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>12402900</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>12830400</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>11621100</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>10715900</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>10427800</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>9560700</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>9483000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>8899800</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>8030500</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>7602200</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>7603200</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>7518000</v>
       </c>
     </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>9722700</v>
+      </c>
+      <c r="E48" s="3">
         <v>9647400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>10010700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>9353800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>9521100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>9446100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>9670700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>9855200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>9932800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>9546300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>10032800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>9386500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>10160800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>10069700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>10993400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>10310700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>9942300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>10188200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>9003400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>7678300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>8009300</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>8104800</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>8927500</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>8449400</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>8424900</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>8936000</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>9336800</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>8818900</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
+        <v>3820400</v>
+      </c>
+      <c r="E49" s="3">
         <v>3928100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>4049900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>4077300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>4198900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>4319300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>4456700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>5635200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>5629100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>5622000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>5845300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>6083200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>6545900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>6426000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>6643300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>7011600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>7117600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>7518000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>7099700</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>4170600</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>4448600</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>4511000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>4841700</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>4934900</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>5000900</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>5037500</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>5137900</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>4591200</v>
       </c>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -4039,8 +4152,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -4125,94 +4241,100 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
+        <v>1190600</v>
+      </c>
+      <c r="E52" s="3">
         <v>1160000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1182900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1145100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1095600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1105600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1097000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1238200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1157300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1150100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1134000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1186500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1333900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1439300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1407300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1632000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1341300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1311200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1180300</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1055500</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1073200</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>1060500</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>707400</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>521500</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>530700</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>521800</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>693000</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>472200</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -4297,94 +4419,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>22729200</v>
+      </c>
+      <c r="E54" s="3">
         <v>22904800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>23481200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>22897300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>22986300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>22931000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>23183500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>38758100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>37543200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>35343500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>35930200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>35927000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>37225300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>37230600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>38422000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>39145600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>37479700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>39445300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>35590100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>30931100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>30522900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>30352900</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>29417200</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>28093000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>27084400</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>27466000</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>28167900</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>26600100</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -4415,8 +4543,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -4447,524 +4576,543 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>76200</v>
+      </c>
+      <c r="E57" s="3">
         <v>104200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>66900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>111600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>84900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>113300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>142900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>253700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>228200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>249000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>279700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>285700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>300500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>327300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>372600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>405200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>332700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>283700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>320300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>217500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>221100</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>204600</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>309500</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>226300</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>219400</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>237100</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>362200</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>276000</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
+        <v>1453100</v>
+      </c>
+      <c r="E58" s="3">
         <v>1808200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1872800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>2126900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1895200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1372400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1344700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1420900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1244900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1236100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1056900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1029100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>963600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1234000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1198200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1223800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1310400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1605600</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>894000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1002000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>856100</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>1192300</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>1461600</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>1452600</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>1315500</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>944800</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>802000</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>615100</v>
       </c>
     </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>3465100</v>
+      </c>
+      <c r="E59" s="3">
         <v>3489800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4095200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3333200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3701900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3715700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3732700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>4610800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4393200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4508600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4796900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4594700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>4758600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>4813200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>5103100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>4927800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>4464800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>5319400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>4537700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>3551200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>3760600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>4385500</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>4484900</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>3942300</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>3822900</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>4448200</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>4635500</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>3962700</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>4994400</v>
+      </c>
+      <c r="E60" s="3">
         <v>5402200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>6034900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>5571700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>5682000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>5201500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>5220300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>6285400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5866300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>5993700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>6133500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>5909400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>6022700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>6374500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>6673900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>6556800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>6107900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>7208600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>5751900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>4770700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>4837800</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>5782300</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>6256000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>5621200</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>5357800</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>5630000</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>5799700</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>4853900</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
+        <v>6761100</v>
+      </c>
+      <c r="E61" s="3">
         <v>6580600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>6440900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>6159800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>6221100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>6496600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>6431400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>8165900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>8169800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>7876200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>8059700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>7920900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>8322200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>8551200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>8623500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>8522600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>7920200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>8288300</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>7213600</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>5575400</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>5547400</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>5319600</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>5111100</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>5104400</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>5178200</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>5654600</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>5830800</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>5840500</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
+        <v>1678400</v>
+      </c>
+      <c r="E62" s="3">
         <v>1684400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1889000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1943000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1973300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2030800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2280300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3919000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3702000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3292500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3439900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>3368000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>3426800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>3363300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>3730200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>3901800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>3713300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>3819900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>3851200</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>2626500</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>2574400</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>2461100</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>2184400</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>1988400</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>1874200</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>1860200</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>2032600</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>1915900</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -5049,8 +5197,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -5135,8 +5286,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -5221,94 +5375,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>14040300</v>
+      </c>
+      <c r="E66" s="3">
         <v>14262500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>14992500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>14268300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>14467600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>14301800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>14498900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>19056700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>18415600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>17659600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>18122300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>17605800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>18193000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>18168300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>18914300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>18899300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>17654900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>19205500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>16714600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>13198100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>13130700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>13728400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>13716100</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>12834200</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>12499800</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>13239200</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>13793600</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>12760400</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -5339,8 +5499,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -5425,8 +5586,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -5511,8 +5675,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -5597,8 +5764,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -5683,94 +5853,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>17034100</v>
+      </c>
+      <c r="E72" s="3">
         <v>16912300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>16847800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>16842700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>16782600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>16722800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>16828000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>16730300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>16259600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>16928100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>17236400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>17398700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>18050600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>18362200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>18894400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>19871700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>19470600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>19870500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>18601400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>17574500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>17434000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>16667600</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>15695600</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>15173300</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>14531800</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>14306000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>14357800</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>13922500</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -5855,8 +6031,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -5941,8 +6120,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -6027,94 +6209,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>8688900</v>
+      </c>
+      <c r="E76" s="3">
         <v>8642300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>8488700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>8629000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>8518700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>8629200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>8684500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>19701400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>19127600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>17683900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>17807900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>18321200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>19032300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>19062300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>19507700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>20246300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>19824800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>20239800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>18875500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>17732900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>17392200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>16624500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>15701100</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>15258700</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>14584600</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>14226800</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>14374300</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>13839700</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -6199,185 +6387,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>244100</v>
+      </c>
+      <c r="E81" s="3">
         <v>215100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>156700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>173200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>187600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>155700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>221700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>585400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>571600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>410400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1117200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>292100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>343200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>256100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-27200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>240900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>228500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>341700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>404200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>832400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>762900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>583800</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>511800</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>700300</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>542500</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>530200</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>432400</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>292600</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -6408,94 +6605,98 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
+        <v>711100</v>
+      </c>
+      <c r="E83" s="3">
         <v>700800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>701100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>700100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>705500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>709700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>744200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>789300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>777100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>764800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>3127500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>796700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>835300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>856200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>874600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>892700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>855000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>848400</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>711200</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>653900</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>677500</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>692100</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>732200</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>718700</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>707600</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>715200</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>722200</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>688100</v>
       </c>
     </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -6580,8 +6781,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -6666,8 +6870,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -6752,8 +6959,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -6838,8 +7048,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -6924,94 +7137,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>1029700</v>
+      </c>
+      <c r="E89" s="3">
         <v>768600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1027400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>789900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1081200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>971000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1011600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1053900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1039700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>659400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>4366400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1263500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1549000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>816800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>975700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>746100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>907500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>881500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1389100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>382000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1024900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>829300</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>828600</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>969400</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>776500</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>837300</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>1379600</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>799200</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -7042,94 +7261,98 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
+        <v>-634496000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-783990000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-872521000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-858866000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-556669000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-758367000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1082665000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-888446000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-415900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-558800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2668400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-742400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-526800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-878200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-969100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-796300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-571500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-629400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-789700</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-622200</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-383600</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-527100</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-730500</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-688700</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-391900</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-608900</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-1158400</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-855700</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -7214,8 +7437,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -7300,94 +7526,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
+        <v>-674300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-587300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-335700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-582200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-587500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-600500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-583300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-874100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-764500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-387600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-3187800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-907100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-515500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1035700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1309800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1016400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-404700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-400100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-2284100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-292400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-356000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-456800</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-845900</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-805200</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-473600</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-590600</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-755400</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-667600</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -7418,8 +7650,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
@@ -7427,38 +7660,38 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-135700</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
         <v>-135700</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-135700</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>-133400</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
         <v>-133400</v>
       </c>
       <c r="K96" s="3">
-        <v>0</v>
+        <v>-133400</v>
       </c>
       <c r="L96" s="3">
         <v>0</v>
       </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-556600</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-56300</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
         <v>0</v>
       </c>
@@ -7466,11 +7699,11 @@
         <v>0</v>
       </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-64000</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
         <v>0</v>
       </c>
@@ -7478,11 +7711,11 @@
         <v>0</v>
       </c>
       <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-57200</v>
       </c>
-      <c r="W96" s="3">
-        <v>0</v>
-      </c>
       <c r="X96" s="3">
         <v>0</v>
       </c>
@@ -7490,11 +7723,11 @@
         <v>0</v>
       </c>
       <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
         <v>-62100</v>
       </c>
-      <c r="AA96" s="3">
-        <v>0</v>
-      </c>
       <c r="AB96" s="3">
         <v>0</v>
       </c>
@@ -7502,10 +7735,13 @@
         <v>0</v>
       </c>
       <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE96" s="3">
         <v>-63500</v>
       </c>
     </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -7590,8 +7826,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -7676,8 +7915,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -7762,262 +8004,274 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>-459200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-322900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-164700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-186900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-305600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-355200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-892500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-220900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-43900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-377800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1093200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-56600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-725800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>83100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>324500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>120000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1033500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>19100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-163300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>696800</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-746200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-13300</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>30200</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>19200</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-603000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-177800</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-48400</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-343800</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
+        <v>300</v>
+      </c>
+      <c r="E101" s="3">
         <v>1900</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-8800</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>8100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>5600</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>1000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>5300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>3700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-11300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-2000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>7200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-6400</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>6100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-2100</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>400</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>2500</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-2800</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>2100</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>400</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-3600</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>1100</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>2300</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-5200</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>5600</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>-103500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-139800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>518100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>28900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>193700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>16400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-464100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-35800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>231000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-102400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>74100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>297900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>307100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-128600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-16100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-144100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-532800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>500800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-1055800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>783600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-75200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>359500</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>9300</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>184400</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-297700</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>63700</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>581400</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-216300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SKM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SKM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
   <si>
     <t>SKM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,394 +665,406 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="10" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3229800</v>
+        <v>3390000</v>
       </c>
       <c r="E8" s="3">
-        <v>3279200</v>
+        <v>3315900</v>
       </c>
       <c r="F8" s="3">
-        <v>3295800</v>
+        <v>3366600</v>
       </c>
       <c r="G8" s="3">
-        <v>3257600</v>
+        <v>3383700</v>
       </c>
       <c r="H8" s="3">
-        <v>3217400</v>
+        <v>3344500</v>
       </c>
       <c r="I8" s="3">
-        <v>3207900</v>
+        <v>3303200</v>
       </c>
       <c r="J8" s="3">
+        <v>3293500</v>
+      </c>
+      <c r="K8" s="3">
         <v>3221500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3161300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3093900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3043700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>12065800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3643200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3728700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3738500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3746400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>4059500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3904600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>3944800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>3655400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>3391000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>3489600</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>3512500</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>3957600</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>3909600</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>3824100</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>3810900</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>3917000</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>3819400</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>125400</v>
+        <v>123900</v>
       </c>
       <c r="E9" s="3">
-        <v>129400</v>
+        <v>128800</v>
       </c>
       <c r="F9" s="3">
-        <v>120500</v>
+        <v>132800</v>
       </c>
       <c r="G9" s="3">
-        <v>135000</v>
+        <v>123700</v>
       </c>
       <c r="H9" s="3">
-        <v>138900</v>
+        <v>138600</v>
       </c>
       <c r="I9" s="3">
-        <v>142000</v>
+        <v>142600</v>
       </c>
       <c r="J9" s="3">
+        <v>145800</v>
+      </c>
+      <c r="K9" s="3">
         <v>141200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>138100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>137400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>143500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>578000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>155100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>167900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>163800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>162600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>163700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>165200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>172300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>136400</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>171900</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>183800</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>180600</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>190800</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>197200</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>187500</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>199000</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>153400</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AF9" s="3">
         <v>238000</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3104400</v>
+        <v>3266100</v>
       </c>
       <c r="E10" s="3">
-        <v>3149800</v>
+        <v>3187100</v>
       </c>
       <c r="F10" s="3">
-        <v>3175400</v>
+        <v>3233800</v>
       </c>
       <c r="G10" s="3">
-        <v>3122600</v>
+        <v>3260000</v>
       </c>
       <c r="H10" s="3">
-        <v>3078500</v>
+        <v>3205800</v>
       </c>
       <c r="I10" s="3">
-        <v>3065900</v>
+        <v>3160500</v>
       </c>
       <c r="J10" s="3">
+        <v>3147600</v>
+      </c>
+      <c r="K10" s="3">
         <v>3080300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3023100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2956500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2900200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>11487800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>3488100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>3560800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>3574700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>3583800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>3895800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>3739400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>3772400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>3519000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>3219100</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>3305800</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>3331900</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>3766900</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>3712400</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>3636700</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>3612000</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>3763600</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AF10" s="3">
         <v>3581400</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1084,97 +1096,101 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>65900</v>
+        <v>69700</v>
       </c>
       <c r="E12" s="3">
-        <v>55200</v>
+        <v>67700</v>
       </c>
       <c r="F12" s="3">
-        <v>67100</v>
+        <v>56700</v>
       </c>
       <c r="G12" s="3">
-        <v>63500</v>
+        <v>68900</v>
       </c>
       <c r="H12" s="3">
-        <v>66500</v>
+        <v>65200</v>
       </c>
       <c r="I12" s="3">
-        <v>58600</v>
+        <v>68300</v>
       </c>
       <c r="J12" s="3">
+        <v>60100</v>
+      </c>
+      <c r="K12" s="3">
         <v>75800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>60300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>62000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>61800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>264900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>80700</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>85000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>92700</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>86500</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>83300</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>84700</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>90800</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>88900</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>76200</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>82500</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>75100</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>90300</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>90800</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>83500</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>85200</v>
       </c>
-      <c r="AD12" s="3">
+      <c r="AE12" s="3">
         <v>82100</v>
       </c>
-      <c r="AE12" s="3">
+      <c r="AF12" s="3">
         <v>76900</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1262,186 +1278,195 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>300</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
-        <v>12500</v>
+        <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>12800</v>
+      </c>
+      <c r="H14" s="3">
         <v>300</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="K14" s="3">
         <v>2400</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="L14" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>4000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-3700</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>150500</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>10300</v>
       </c>
-      <c r="Q14" s="3" t="s">
+      <c r="R14" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>54900</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>200</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>2100</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>100</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>214000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>400</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>2100</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>800</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>52300</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>300</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>3700</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>2000</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AE14" s="3">
         <v>5700</v>
       </c>
-      <c r="AE14" s="3">
+      <c r="AF14" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>685200</v>
+        <v>689000</v>
       </c>
       <c r="E15" s="3">
-        <v>675100</v>
+        <v>703500</v>
       </c>
       <c r="F15" s="3">
-        <v>676400</v>
+        <v>693100</v>
       </c>
       <c r="G15" s="3">
-        <v>675900</v>
+        <v>694500</v>
       </c>
       <c r="H15" s="3">
-        <v>680500</v>
+        <v>693900</v>
       </c>
       <c r="I15" s="3">
-        <v>683200</v>
+        <v>698600</v>
       </c>
       <c r="J15" s="3">
+        <v>701400</v>
+      </c>
+      <c r="K15" s="3">
         <v>691800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>696100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>684800</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>672700</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>2748500</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>775500</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>807500</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>827200</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>912300</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>856100</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>818700</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>810900</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>676100</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>621700</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>644900</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>660200</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>696900</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>684300</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>674200</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AD15" s="3">
         <v>685500</v>
       </c>
-      <c r="AD15" s="3">
+      <c r="AE15" s="3">
         <v>695000</v>
       </c>
-      <c r="AE15" s="3">
+      <c r="AF15" s="3">
         <v>659700</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1470,186 +1495,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>2882500</v>
+        <v>3006600</v>
       </c>
       <c r="E17" s="3">
-        <v>2908100</v>
+        <v>2959400</v>
       </c>
       <c r="F17" s="3">
-        <v>3117500</v>
+        <v>2985700</v>
       </c>
       <c r="G17" s="3">
-        <v>2908700</v>
+        <v>3200600</v>
       </c>
       <c r="H17" s="3">
-        <v>2872700</v>
+        <v>2986200</v>
       </c>
       <c r="I17" s="3">
-        <v>2883600</v>
+        <v>2949300</v>
       </c>
       <c r="J17" s="3">
+        <v>2960500</v>
+      </c>
+      <c r="K17" s="3">
         <v>3055700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2866500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2797100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2766800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>11279900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3367600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3449200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3485400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3664800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3790900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3622600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>3651300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>3680200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>3145000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>3200300</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>3239800</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>3736700</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>3564600</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>3455400</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>3443500</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>3650900</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>3442500</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>347300</v>
+        <v>383400</v>
       </c>
       <c r="E18" s="3">
-        <v>371000</v>
+        <v>356500</v>
       </c>
       <c r="F18" s="3">
-        <v>178400</v>
+        <v>380900</v>
       </c>
       <c r="G18" s="3">
-        <v>348900</v>
+        <v>183100</v>
       </c>
       <c r="H18" s="3">
-        <v>344700</v>
+        <v>358200</v>
       </c>
       <c r="I18" s="3">
-        <v>324300</v>
+        <v>353900</v>
       </c>
       <c r="J18" s="3">
+        <v>332900</v>
+      </c>
+      <c r="K18" s="3">
         <v>165800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>294800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>296800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>276900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>785900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>275700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>279500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>253100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>81700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>268600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>282000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>293500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-24700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>246000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>289300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>272600</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>220900</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>345000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>368800</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>367500</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>266100</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>376900</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1681,453 +1713,469 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>62000</v>
+        <v>-200</v>
       </c>
       <c r="E20" s="3">
-        <v>14400</v>
+        <v>63700</v>
       </c>
       <c r="F20" s="3">
-        <v>6800</v>
+        <v>14800</v>
       </c>
       <c r="G20" s="3">
-        <v>-20400</v>
+        <v>7000</v>
       </c>
       <c r="H20" s="3">
-        <v>14300</v>
+        <v>-21000</v>
       </c>
       <c r="I20" s="3">
-        <v>-23600</v>
+        <v>14700</v>
       </c>
       <c r="J20" s="3">
+        <v>-24200</v>
+      </c>
+      <c r="K20" s="3">
         <v>109100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>27800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>188000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>133700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>109700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>265700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>320200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>140700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>130200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>116400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>225300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>607100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>866100</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>748000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>552300</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>662700</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>601900</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>355900</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>351300</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>307600</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AF20" s="3">
         <v>78400</v>
       </c>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>1120400</v>
+        <v>1097700</v>
       </c>
       <c r="E21" s="3">
-        <v>1086300</v>
+        <v>1150200</v>
       </c>
       <c r="F21" s="3">
-        <v>886300</v>
+        <v>1115200</v>
       </c>
       <c r="G21" s="3">
-        <v>1028600</v>
+        <v>909900</v>
       </c>
       <c r="H21" s="3">
-        <v>1064500</v>
+        <v>1056000</v>
       </c>
       <c r="I21" s="3">
-        <v>1010400</v>
+        <v>1092900</v>
       </c>
       <c r="J21" s="3">
+        <v>1037300</v>
+      </c>
+      <c r="K21" s="3">
         <v>1019100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1111900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1261900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1175500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>4023100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1338100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1435000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1250100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>956400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1291600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1253400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1367100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1293500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1766000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1714900</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1517100</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>1615900</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>1665600</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>1432300</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>1434000</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>1295900</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>1143300</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>71900</v>
+        <v>75200</v>
       </c>
       <c r="E22" s="3">
-        <v>69800</v>
+        <v>73800</v>
       </c>
       <c r="F22" s="3">
-        <v>77200</v>
+        <v>71700</v>
       </c>
       <c r="G22" s="3">
-        <v>56700</v>
+        <v>79200</v>
       </c>
       <c r="H22" s="3">
+        <v>58200</v>
+      </c>
+      <c r="I22" s="3">
+        <v>58400</v>
+      </c>
+      <c r="J22" s="3">
         <v>56900</v>
       </c>
-      <c r="I22" s="3">
-        <v>55400</v>
-      </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>53600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>53300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>51600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>50600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>216700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>143600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>155100</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>84400</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>89700</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>87900</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>87600</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>93100</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>75000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>57500</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>60400</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>63100</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>68300</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>63400</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>66100</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>67000</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>66000</v>
       </c>
-      <c r="AE22" s="3">
+      <c r="AF22" s="3">
         <v>67200</v>
       </c>
     </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>337400</v>
+        <v>308000</v>
       </c>
       <c r="E23" s="3">
-        <v>315700</v>
+        <v>346400</v>
       </c>
       <c r="F23" s="3">
-        <v>108000</v>
+        <v>324100</v>
       </c>
       <c r="G23" s="3">
-        <v>271800</v>
+        <v>110900</v>
       </c>
       <c r="H23" s="3">
-        <v>302100</v>
+        <v>279000</v>
       </c>
       <c r="I23" s="3">
-        <v>245300</v>
+        <v>310100</v>
       </c>
       <c r="J23" s="3">
+        <v>251800</v>
+      </c>
+      <c r="K23" s="3">
         <v>221200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>269300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>433200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>360000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>678900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>397800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>444700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>309400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-8000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>311000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>310800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>425700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>507400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>1054600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>977000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>761900</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>815400</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>883600</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>658600</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>651800</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>507700</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>388100</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>76600</v>
+        <v>70700</v>
       </c>
       <c r="E24" s="3">
-        <v>88800</v>
+        <v>78600</v>
       </c>
       <c r="F24" s="3">
-        <v>-59800</v>
+        <v>91200</v>
       </c>
       <c r="G24" s="3">
-        <v>87600</v>
+        <v>-61400</v>
       </c>
       <c r="H24" s="3">
-        <v>108500</v>
+        <v>89900</v>
       </c>
       <c r="I24" s="3">
-        <v>80000</v>
+        <v>111400</v>
       </c>
       <c r="J24" s="3">
+        <v>82100</v>
+      </c>
+      <c r="K24" s="3">
         <v>62700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>71700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>102700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>96700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>165900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>96100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>94500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>52400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>31400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>66700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>82900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>85700</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>108800</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>204200</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>208900</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>179400</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>234000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>185800</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>112600</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>126700</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>80500</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AF24" s="3">
         <v>98200</v>
       </c>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2215,186 +2263,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>260800</v>
+        <v>237300</v>
       </c>
       <c r="E26" s="3">
-        <v>226900</v>
+        <v>267800</v>
       </c>
       <c r="F26" s="3">
-        <v>167800</v>
+        <v>232900</v>
       </c>
       <c r="G26" s="3">
-        <v>184200</v>
+        <v>172300</v>
       </c>
       <c r="H26" s="3">
-        <v>193600</v>
+        <v>189100</v>
       </c>
       <c r="I26" s="3">
-        <v>165300</v>
+        <v>198800</v>
       </c>
       <c r="J26" s="3">
+        <v>169700</v>
+      </c>
+      <c r="K26" s="3">
         <v>158600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>197600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>330500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>263300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>513000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>301700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>350200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>257000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-39400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>244200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>228000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>340000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>398600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>850400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>768000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>582400</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>581400</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>697800</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>546000</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>525100</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>427200</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>289900</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>244100</v>
+        <v>225600</v>
       </c>
       <c r="E27" s="3">
-        <v>215100</v>
+        <v>250600</v>
       </c>
       <c r="F27" s="3">
-        <v>156700</v>
+        <v>220800</v>
       </c>
       <c r="G27" s="3">
-        <v>173200</v>
+        <v>160900</v>
       </c>
       <c r="H27" s="3">
-        <v>187600</v>
+        <v>177800</v>
       </c>
       <c r="I27" s="3">
-        <v>155700</v>
+        <v>192600</v>
       </c>
       <c r="J27" s="3">
+        <v>159800</v>
+      </c>
+      <c r="K27" s="3">
         <v>141700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>189900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>313600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>253300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>475400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>292100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>343200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>256100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-27200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>240900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>228500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>341700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>404200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>832400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>762900</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>583800</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>511800</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>700300</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>542500</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>530200</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>432400</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>292600</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2482,8 +2539,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2505,29 +2565,29 @@
       <c r="I29" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="K29" s="3">
         <v>80000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>395400</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>257900</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>157000</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>641800</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
+      <c r="Q29" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="R29" s="3">
         <v>0</v>
@@ -2571,8 +2631,11 @@
       <c r="AE29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2660,8 +2723,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2749,186 +2815,195 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-62000</v>
+        <v>200</v>
       </c>
       <c r="E32" s="3">
-        <v>-14400</v>
+        <v>-63700</v>
       </c>
       <c r="F32" s="3">
-        <v>-6800</v>
+        <v>-14800</v>
       </c>
       <c r="G32" s="3">
-        <v>20400</v>
+        <v>-7000</v>
       </c>
       <c r="H32" s="3">
-        <v>-14300</v>
+        <v>21000</v>
       </c>
       <c r="I32" s="3">
-        <v>23600</v>
+        <v>-14700</v>
       </c>
       <c r="J32" s="3">
+        <v>24200</v>
+      </c>
+      <c r="K32" s="3">
         <v>-109100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-27800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-188000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-133700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-109700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-265700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-320200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-140700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-130200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-116400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-225300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-607100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-866100</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-748000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-552300</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-662700</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-601900</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-355900</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-351300</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>-307600</v>
       </c>
-      <c r="AE32" s="3">
+      <c r="AF32" s="3">
         <v>-78400</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>244100</v>
+        <v>225600</v>
       </c>
       <c r="E33" s="3">
-        <v>215100</v>
+        <v>250600</v>
       </c>
       <c r="F33" s="3">
-        <v>156700</v>
+        <v>220800</v>
       </c>
       <c r="G33" s="3">
-        <v>173200</v>
+        <v>160900</v>
       </c>
       <c r="H33" s="3">
-        <v>187600</v>
+        <v>177800</v>
       </c>
       <c r="I33" s="3">
-        <v>155700</v>
+        <v>192600</v>
       </c>
       <c r="J33" s="3">
+        <v>159800</v>
+      </c>
+      <c r="K33" s="3">
         <v>221700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>585400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>571600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>410400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1117200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>292100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>343200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>256100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-27200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>240900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>228500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>341700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>404200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>832400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>762900</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>583800</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>511800</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>700300</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>542500</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>530200</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>432400</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>292600</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -3016,191 +3091,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>244100</v>
+        <v>225600</v>
       </c>
       <c r="E35" s="3">
-        <v>215100</v>
+        <v>250600</v>
       </c>
       <c r="F35" s="3">
-        <v>156700</v>
+        <v>220800</v>
       </c>
       <c r="G35" s="3">
-        <v>173200</v>
+        <v>160900</v>
       </c>
       <c r="H35" s="3">
-        <v>187600</v>
+        <v>177800</v>
       </c>
       <c r="I35" s="3">
-        <v>155700</v>
+        <v>192600</v>
       </c>
       <c r="J35" s="3">
+        <v>159800</v>
+      </c>
+      <c r="K35" s="3">
         <v>221700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>585400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>571600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>410400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1117200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>292100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>343200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>256100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-27200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>240900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>228500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>341700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>404200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>832400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>762900</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>583800</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>511800</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>700300</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>542500</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>530200</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>432400</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>292600</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -3232,8 +3316,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -3265,809 +3350,837 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>1168500</v>
+        <v>896500</v>
       </c>
       <c r="E41" s="3">
-        <v>1272000</v>
+        <v>1199600</v>
       </c>
       <c r="F41" s="3">
-        <v>1411700</v>
+        <v>1305900</v>
       </c>
       <c r="G41" s="3">
-        <v>893600</v>
+        <v>1449300</v>
       </c>
       <c r="H41" s="3">
-        <v>864700</v>
+        <v>917400</v>
       </c>
       <c r="I41" s="3">
-        <v>671000</v>
+        <v>887700</v>
       </c>
       <c r="J41" s="3">
+        <v>688900</v>
+      </c>
+      <c r="K41" s="3">
         <v>654500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1118700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1154500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>911200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1027200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1450500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1212500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>938900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1080200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1147800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1277400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1871900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1265600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>2238500</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1508800</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>1584000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>1282800</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>1273500</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>1089100</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>1418400</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>1354700</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>773300</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>266400</v>
+        <v>331800</v>
       </c>
       <c r="E42" s="3">
-        <v>166700</v>
+        <v>273500</v>
       </c>
       <c r="F42" s="3">
-        <v>118300</v>
+        <v>171100</v>
       </c>
       <c r="G42" s="3">
-        <v>485700</v>
+        <v>121400</v>
       </c>
       <c r="H42" s="3">
-        <v>516400</v>
+        <v>498600</v>
       </c>
       <c r="I42" s="3">
-        <v>368700</v>
+        <v>530200</v>
       </c>
       <c r="J42" s="3">
+        <v>378500</v>
+      </c>
+      <c r="K42" s="3">
         <v>325600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1264900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1186400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1078700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1109500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>840400</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>795000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>903200</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>766900</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>866400</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>728100</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>733100</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>975400</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>318100</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>452600</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>540900</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>590800</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>626300</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>647200</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>612800</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AE42" s="3">
         <v>437300</v>
       </c>
-      <c r="AE42" s="3">
+      <c r="AF42" s="3">
         <v>580900</v>
       </c>
     </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>1834700</v>
+        <v>2083300</v>
       </c>
       <c r="E43" s="3">
-        <v>1905800</v>
+        <v>1883600</v>
       </c>
       <c r="F43" s="3">
-        <v>1960600</v>
+        <v>1956600</v>
       </c>
       <c r="G43" s="3">
-        <v>2108500</v>
+        <v>2012900</v>
       </c>
       <c r="H43" s="3">
-        <v>2056100</v>
+        <v>2164700</v>
       </c>
       <c r="I43" s="3">
-        <v>2062900</v>
+        <v>2110900</v>
       </c>
       <c r="J43" s="3">
+        <v>2117900</v>
+      </c>
+      <c r="K43" s="3">
         <v>1957700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2772400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2584400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2644400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2528400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2663000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2649400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2902000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2886300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>3122000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>2860700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>3116800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>2605400</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>3040500</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>2736500</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>3179400</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>3039200</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>2826800</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>2900700</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>2901300</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>3081700</v>
       </c>
-      <c r="AE43" s="3">
+      <c r="AF43" s="3">
         <v>3293200</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>125100</v>
+        <v>144200</v>
       </c>
       <c r="E44" s="3">
-        <v>150100</v>
+        <v>128400</v>
       </c>
       <c r="F44" s="3">
-        <v>124800</v>
+        <v>154100</v>
       </c>
       <c r="G44" s="3">
-        <v>147400</v>
+        <v>128100</v>
       </c>
       <c r="H44" s="3">
-        <v>137500</v>
+        <v>151300</v>
       </c>
       <c r="I44" s="3">
-        <v>167600</v>
+        <v>141100</v>
       </c>
       <c r="J44" s="3">
+        <v>172000</v>
+      </c>
+      <c r="K44" s="3">
         <v>153500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>148700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>158800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>163900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>128600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>166300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>165500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>174800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>138400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>178500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>197000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>239900</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>242000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>208700</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>217800</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>213800</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>239700</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>219000</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>231900</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>223700</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>233900</v>
       </c>
-      <c r="AE44" s="3">
+      <c r="AF44" s="3">
         <v>246600</v>
       </c>
     </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>1634800</v>
+        <v>1637400</v>
       </c>
       <c r="E45" s="3">
-        <v>1764100</v>
+        <v>1678400</v>
       </c>
       <c r="F45" s="3">
-        <v>1799000</v>
+        <v>1811100</v>
       </c>
       <c r="G45" s="3">
-        <v>1853900</v>
+        <v>1847000</v>
       </c>
       <c r="H45" s="3">
-        <v>1721200</v>
+        <v>1903300</v>
       </c>
       <c r="I45" s="3">
-        <v>1638500</v>
+        <v>1767100</v>
       </c>
       <c r="J45" s="3">
+        <v>1682200</v>
+      </c>
+      <c r="K45" s="3">
         <v>1673200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1685000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1771500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1762000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1787600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1834500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1869300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1904400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>2003300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1881800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1612400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1635700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1597000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1505000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>1648400</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>1597800</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>305100</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>341700</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>228600</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>212400</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>289400</v>
       </c>
-      <c r="AE45" s="3">
+      <c r="AF45" s="3">
         <v>305900</v>
       </c>
     </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>5029500</v>
+        <v>5093200</v>
       </c>
       <c r="E46" s="3">
-        <v>5258600</v>
+        <v>5163600</v>
       </c>
       <c r="F46" s="3">
-        <v>5414400</v>
+        <v>5398800</v>
       </c>
       <c r="G46" s="3">
-        <v>5489000</v>
+        <v>5558800</v>
       </c>
       <c r="H46" s="3">
-        <v>5295900</v>
+        <v>5635400</v>
       </c>
       <c r="I46" s="3">
-        <v>4908600</v>
+        <v>5437100</v>
       </c>
       <c r="J46" s="3">
+        <v>5039500</v>
+      </c>
+      <c r="K46" s="3">
         <v>4764500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>6989700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>6855700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>6560200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>6581300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>6954700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>6691700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>6823200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>6875200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>7196700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>6675700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>7597400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>6685400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>7310800</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>6564000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>7115900</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>5457600</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>5287300</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>5097500</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>5368600</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>5397000</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AF46" s="3">
         <v>5199900</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>2966000</v>
+        <v>3104200</v>
       </c>
       <c r="E47" s="3">
-        <v>2910700</v>
+        <v>3045100</v>
       </c>
       <c r="F47" s="3">
-        <v>2823200</v>
+        <v>2988300</v>
       </c>
       <c r="G47" s="3">
-        <v>2832100</v>
+        <v>2898500</v>
       </c>
       <c r="H47" s="3">
-        <v>2874800</v>
+        <v>2907600</v>
       </c>
       <c r="I47" s="3">
-        <v>3151400</v>
+        <v>2951500</v>
       </c>
       <c r="J47" s="3">
+        <v>3235400</v>
+      </c>
+      <c r="K47" s="3">
         <v>3194500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>15039700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>13968200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>12464800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>12336800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>12316200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>12493000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>12472300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>12502800</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>12994600</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>12402900</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>12830400</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>11621100</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>10715900</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>10427800</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>9560700</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>9483000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>8899800</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>8030500</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>7602200</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>7603200</v>
       </c>
-      <c r="AE47" s="3">
+      <c r="AF47" s="3">
         <v>7518000</v>
       </c>
     </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>9722700</v>
+        <v>9772300</v>
       </c>
       <c r="E48" s="3">
-        <v>9647400</v>
+        <v>9982000</v>
       </c>
       <c r="F48" s="3">
-        <v>10010700</v>
+        <v>9904700</v>
       </c>
       <c r="G48" s="3">
-        <v>9353800</v>
+        <v>10277700</v>
       </c>
       <c r="H48" s="3">
-        <v>9521100</v>
+        <v>9603300</v>
       </c>
       <c r="I48" s="3">
-        <v>9446100</v>
+        <v>9775000</v>
       </c>
       <c r="J48" s="3">
+        <v>9698000</v>
+      </c>
+      <c r="K48" s="3">
         <v>9670700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>9855200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>9932800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>9546300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>10032800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>9386500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>10160800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>10069700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>10993400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>10310700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>9942300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>10188200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>9003400</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>7678300</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>8009300</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>8104800</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>8927500</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>8449400</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>8424900</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>8936000</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>9336800</v>
       </c>
-      <c r="AE48" s="3">
+      <c r="AF48" s="3">
         <v>8818900</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>3820400</v>
+        <v>3799700</v>
       </c>
       <c r="E49" s="3">
-        <v>3928100</v>
+        <v>3922200</v>
       </c>
       <c r="F49" s="3">
-        <v>4049900</v>
+        <v>4032800</v>
       </c>
       <c r="G49" s="3">
-        <v>4077300</v>
+        <v>4157900</v>
       </c>
       <c r="H49" s="3">
-        <v>4198900</v>
+        <v>4186100</v>
       </c>
       <c r="I49" s="3">
-        <v>4319300</v>
+        <v>4310900</v>
       </c>
       <c r="J49" s="3">
+        <v>4434400</v>
+      </c>
+      <c r="K49" s="3">
         <v>4456700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>5635200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>5629100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>5622000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>5845300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>6083200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>6545900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>6426000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>6643300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>7011600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>7117600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>7518000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>7099700</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>4170600</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>4448600</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>4511000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>4841700</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>4934900</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>5000900</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>5037500</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>5137900</v>
       </c>
-      <c r="AE49" s="3">
+      <c r="AF49" s="3">
         <v>4591200</v>
       </c>
     </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -4155,8 +4268,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -4244,97 +4360,103 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>1190600</v>
+        <v>1237600</v>
       </c>
       <c r="E52" s="3">
-        <v>1160000</v>
+        <v>1222300</v>
       </c>
       <c r="F52" s="3">
-        <v>1182900</v>
+        <v>1190900</v>
       </c>
       <c r="G52" s="3">
-        <v>1145100</v>
+        <v>1214500</v>
       </c>
       <c r="H52" s="3">
-        <v>1095600</v>
+        <v>1175600</v>
       </c>
       <c r="I52" s="3">
-        <v>1105600</v>
+        <v>1124800</v>
       </c>
       <c r="J52" s="3">
+        <v>1135100</v>
+      </c>
+      <c r="K52" s="3">
         <v>1097000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1238200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1157300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1150100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1134000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1186500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1333900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1439300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1407300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1632000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1341300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1311200</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1180300</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1055500</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>1073200</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>1060500</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>707400</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>521500</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>530700</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>521800</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>693000</v>
       </c>
-      <c r="AE52" s="3">
+      <c r="AF52" s="3">
         <v>472200</v>
       </c>
     </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -4422,97 +4544,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>22729200</v>
+        <v>23007000</v>
       </c>
       <c r="E54" s="3">
-        <v>22904800</v>
+        <v>23335300</v>
       </c>
       <c r="F54" s="3">
-        <v>23481200</v>
+        <v>23515600</v>
       </c>
       <c r="G54" s="3">
-        <v>22897300</v>
+        <v>24107400</v>
       </c>
       <c r="H54" s="3">
-        <v>22986300</v>
+        <v>23507900</v>
       </c>
       <c r="I54" s="3">
-        <v>22931000</v>
+        <v>23599300</v>
       </c>
       <c r="J54" s="3">
+        <v>23542500</v>
+      </c>
+      <c r="K54" s="3">
         <v>23183500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>38758100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>37543200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>35343500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>35930200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>35927000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>37225300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>37230600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>38422000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>39145600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>37479700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>39445300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>35590100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>30931100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>30522900</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>30352900</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>29417200</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>28093000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>27084400</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>27466000</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>28167900</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>26600100</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -4544,8 +4672,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -4577,542 +4706,561 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>76200</v>
+        <v>98200</v>
       </c>
       <c r="E57" s="3">
-        <v>104200</v>
+        <v>78300</v>
       </c>
       <c r="F57" s="3">
-        <v>66900</v>
+        <v>107000</v>
       </c>
       <c r="G57" s="3">
-        <v>111600</v>
+        <v>68700</v>
       </c>
       <c r="H57" s="3">
-        <v>84900</v>
+        <v>114500</v>
       </c>
       <c r="I57" s="3">
-        <v>113300</v>
+        <v>87200</v>
       </c>
       <c r="J57" s="3">
+        <v>116300</v>
+      </c>
+      <c r="K57" s="3">
         <v>142900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>253700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>228200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>249000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>279700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>285700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>300500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>327300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>372600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>405200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>332700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>283700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>320300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>217500</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>221100</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>204600</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>309500</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>226300</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>219400</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>237100</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>362200</v>
       </c>
-      <c r="AE57" s="3">
+      <c r="AF57" s="3">
         <v>276000</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>1453100</v>
+        <v>1277200</v>
       </c>
       <c r="E58" s="3">
-        <v>1808200</v>
+        <v>1491800</v>
       </c>
       <c r="F58" s="3">
-        <v>1872800</v>
+        <v>1856400</v>
       </c>
       <c r="G58" s="3">
-        <v>2126900</v>
+        <v>1922700</v>
       </c>
       <c r="H58" s="3">
-        <v>1895200</v>
+        <v>2183700</v>
       </c>
       <c r="I58" s="3">
-        <v>1372400</v>
+        <v>1945700</v>
       </c>
       <c r="J58" s="3">
+        <v>1409000</v>
+      </c>
+      <c r="K58" s="3">
         <v>1344700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1420900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1244900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1236100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1056900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1029100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>963600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1234000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1198200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1223800</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1310400</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1605600</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>894000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1002000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>856100</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>1192300</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>1461600</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>1452600</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>1315500</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>944800</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>802000</v>
       </c>
-      <c r="AE58" s="3">
+      <c r="AF58" s="3">
         <v>615100</v>
       </c>
     </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>3465100</v>
+        <v>3649700</v>
       </c>
       <c r="E59" s="3">
-        <v>3489800</v>
+        <v>3557500</v>
       </c>
       <c r="F59" s="3">
-        <v>4095200</v>
+        <v>3582800</v>
       </c>
       <c r="G59" s="3">
-        <v>3333200</v>
+        <v>4204400</v>
       </c>
       <c r="H59" s="3">
-        <v>3701900</v>
+        <v>3422100</v>
       </c>
       <c r="I59" s="3">
-        <v>3715700</v>
+        <v>3800600</v>
       </c>
       <c r="J59" s="3">
+        <v>3814800</v>
+      </c>
+      <c r="K59" s="3">
         <v>3732700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4610800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4393200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4508600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4796900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>4594700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>4758600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>4813200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>5103100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>4927800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>4464800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>5319400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>4537700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>3551200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>3760600</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>4385500</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>4484900</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>3942300</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>3822900</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>4448200</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>4635500</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>3962700</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>4994400</v>
+        <v>5025200</v>
       </c>
       <c r="E60" s="3">
-        <v>5402200</v>
+        <v>5127600</v>
       </c>
       <c r="F60" s="3">
-        <v>6034900</v>
+        <v>5546300</v>
       </c>
       <c r="G60" s="3">
-        <v>5571700</v>
+        <v>6195800</v>
       </c>
       <c r="H60" s="3">
-        <v>5682000</v>
+        <v>5720300</v>
       </c>
       <c r="I60" s="3">
-        <v>5201500</v>
+        <v>5833500</v>
       </c>
       <c r="J60" s="3">
+        <v>5340200</v>
+      </c>
+      <c r="K60" s="3">
         <v>5220300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6285400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>5866300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>5993700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>6133500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>5909400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>6022700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>6374500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>6673900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>6556800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>6107900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>7208600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>5751900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>4770700</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>4837800</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>5782300</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>6256000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>5621200</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>5357800</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>5630000</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>5799700</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <v>4853900</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>6761100</v>
+        <v>6760700</v>
       </c>
       <c r="E61" s="3">
-        <v>6580600</v>
+        <v>6941400</v>
       </c>
       <c r="F61" s="3">
-        <v>6440900</v>
+        <v>6756100</v>
       </c>
       <c r="G61" s="3">
-        <v>6159800</v>
+        <v>6612600</v>
       </c>
       <c r="H61" s="3">
-        <v>6221100</v>
+        <v>6324100</v>
       </c>
       <c r="I61" s="3">
-        <v>6496600</v>
+        <v>6387000</v>
       </c>
       <c r="J61" s="3">
+        <v>6669800</v>
+      </c>
+      <c r="K61" s="3">
         <v>6431400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>8165900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>8169800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>7876200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>8059700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>7920900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>8322200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>8551200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>8623500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>8522600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>7920200</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>8288300</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>7213600</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>5575400</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>5547400</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>5319600</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>5111100</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>5104400</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>5178200</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>5654600</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>5830800</v>
       </c>
-      <c r="AE61" s="3">
+      <c r="AF61" s="3">
         <v>5840500</v>
       </c>
     </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>1678400</v>
+        <v>1695000</v>
       </c>
       <c r="E62" s="3">
-        <v>1684400</v>
+        <v>1723200</v>
       </c>
       <c r="F62" s="3">
-        <v>1889000</v>
+        <v>1729400</v>
       </c>
       <c r="G62" s="3">
-        <v>1943000</v>
+        <v>1939400</v>
       </c>
       <c r="H62" s="3">
-        <v>1973300</v>
+        <v>1994800</v>
       </c>
       <c r="I62" s="3">
-        <v>2030800</v>
+        <v>2025900</v>
       </c>
       <c r="J62" s="3">
+        <v>2085000</v>
+      </c>
+      <c r="K62" s="3">
         <v>2280300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3919000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3702000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3292500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>3439900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>3368000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>3426800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>3363300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>3730200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>3901800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>3713300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>3819900</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>3851200</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>2626500</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>2574400</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>2461100</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>2184400</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>1988400</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>1874200</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>1860200</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>2032600</v>
       </c>
-      <c r="AE62" s="3">
+      <c r="AF62" s="3">
         <v>1915900</v>
       </c>
     </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -5200,8 +5348,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -5289,8 +5440,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -5378,97 +5532,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>14040300</v>
+        <v>14113800</v>
       </c>
       <c r="E66" s="3">
-        <v>14262500</v>
+        <v>14414700</v>
       </c>
       <c r="F66" s="3">
-        <v>14992500</v>
+        <v>14642800</v>
       </c>
       <c r="G66" s="3">
-        <v>14268300</v>
+        <v>15392300</v>
       </c>
       <c r="H66" s="3">
-        <v>14467600</v>
+        <v>14648800</v>
       </c>
       <c r="I66" s="3">
-        <v>14301800</v>
+        <v>14853400</v>
       </c>
       <c r="J66" s="3">
+        <v>14683200</v>
+      </c>
+      <c r="K66" s="3">
         <v>14498900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>19056700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>18415600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>17659600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>18122300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>17605800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>18193000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>18168300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>18914300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>18899300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>17654900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>19205500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>16714600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>13198100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>13130700</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>13728400</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>13716100</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>12834200</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>12499800</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>13239200</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>13793600</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>12760400</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -5500,8 +5660,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -5589,8 +5750,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -5678,8 +5842,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -5767,8 +5934,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -5856,97 +6026,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>17034100</v>
+        <v>17578000</v>
       </c>
       <c r="E72" s="3">
-        <v>16912300</v>
+        <v>17488300</v>
       </c>
       <c r="F72" s="3">
-        <v>16847800</v>
+        <v>17363300</v>
       </c>
       <c r="G72" s="3">
-        <v>16842700</v>
+        <v>17297100</v>
       </c>
       <c r="H72" s="3">
-        <v>16782600</v>
+        <v>17291900</v>
       </c>
       <c r="I72" s="3">
-        <v>16722800</v>
+        <v>17230100</v>
       </c>
       <c r="J72" s="3">
+        <v>17168800</v>
+      </c>
+      <c r="K72" s="3">
         <v>16828000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>16730300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>16259600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>16928100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>17236400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>17398700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>18050600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>18362200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>18894400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>19871700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>19470600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>19870500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>18601400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>17574500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>17434000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>16667600</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>15695600</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>15173300</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>14531800</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>14306000</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>14357800</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>13922500</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -6034,8 +6210,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -6123,8 +6302,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -6212,97 +6394,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>8688900</v>
+        <v>8893200</v>
       </c>
       <c r="E76" s="3">
-        <v>8642300</v>
+        <v>8920600</v>
       </c>
       <c r="F76" s="3">
-        <v>8488700</v>
+        <v>8872800</v>
       </c>
       <c r="G76" s="3">
-        <v>8629000</v>
+        <v>8715100</v>
       </c>
       <c r="H76" s="3">
-        <v>8518700</v>
+        <v>8859100</v>
       </c>
       <c r="I76" s="3">
-        <v>8629200</v>
+        <v>8745900</v>
       </c>
       <c r="J76" s="3">
+        <v>8859300</v>
+      </c>
+      <c r="K76" s="3">
         <v>8684500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>19701400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>19127600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>17683900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>17807900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>18321200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>19032300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>19062300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>19507700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>20246300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>19824800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>20239800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>18875500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>17732900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>17392200</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>16624500</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>15701100</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>15258700</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>14584600</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>14226800</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>14374300</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>13839700</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -6390,191 +6578,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>244100</v>
+        <v>225600</v>
       </c>
       <c r="E81" s="3">
-        <v>215100</v>
+        <v>250600</v>
       </c>
       <c r="F81" s="3">
-        <v>156700</v>
+        <v>220800</v>
       </c>
       <c r="G81" s="3">
-        <v>173200</v>
+        <v>160900</v>
       </c>
       <c r="H81" s="3">
-        <v>187600</v>
+        <v>177800</v>
       </c>
       <c r="I81" s="3">
-        <v>155700</v>
+        <v>192600</v>
       </c>
       <c r="J81" s="3">
+        <v>159800</v>
+      </c>
+      <c r="K81" s="3">
         <v>221700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>585400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>571600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>410400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1117200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>292100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>343200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>256100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-27200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>240900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>228500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>341700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>404200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>832400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>762900</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>583800</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>511800</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>700300</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>542500</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>530200</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>432400</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>292600</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -6606,97 +6803,101 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>711100</v>
+        <v>714500</v>
       </c>
       <c r="E83" s="3">
-        <v>700800</v>
+        <v>730100</v>
       </c>
       <c r="F83" s="3">
-        <v>701100</v>
+        <v>719500</v>
       </c>
       <c r="G83" s="3">
-        <v>700100</v>
+        <v>719800</v>
       </c>
       <c r="H83" s="3">
-        <v>705500</v>
+        <v>718800</v>
       </c>
       <c r="I83" s="3">
-        <v>709700</v>
+        <v>724400</v>
       </c>
       <c r="J83" s="3">
+        <v>728600</v>
+      </c>
+      <c r="K83" s="3">
         <v>744200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>789300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>777100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>764800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>3127500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>796700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>835300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>856200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>874600</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>892700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>855000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>848400</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>711200</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>653900</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>677500</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>692100</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>732200</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>718700</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>707600</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>715200</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>722200</v>
       </c>
-      <c r="AE83" s="3">
+      <c r="AF83" s="3">
         <v>688100</v>
       </c>
     </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -6784,8 +6985,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -6873,8 +7077,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -6962,8 +7169,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -7051,8 +7261,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -7140,97 +7353,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>1029700</v>
+        <v>1028400</v>
       </c>
       <c r="E89" s="3">
-        <v>768600</v>
+        <v>1057200</v>
       </c>
       <c r="F89" s="3">
-        <v>1027400</v>
+        <v>789100</v>
       </c>
       <c r="G89" s="3">
-        <v>789900</v>
+        <v>1054800</v>
       </c>
       <c r="H89" s="3">
-        <v>1081200</v>
+        <v>811000</v>
       </c>
       <c r="I89" s="3">
-        <v>971000</v>
+        <v>1110000</v>
       </c>
       <c r="J89" s="3">
+        <v>996900</v>
+      </c>
+      <c r="K89" s="3">
         <v>1011600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1053900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1039700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>659400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>4366400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1263500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1549000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>816800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>975700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>746100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>907500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>881500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1389100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>382000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>1024900</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>829300</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>828600</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>969400</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>776500</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>837300</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>1379600</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>799200</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -7262,97 +7481,101 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
+        <v>-676260000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-634496000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-783990000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-872521000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-858866000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-556669000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-758367000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1082665000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-888446000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-415900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-558800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2668400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-742400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-526800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-878200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-969100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-796300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-571500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-629400</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-789700</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-622200</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-383600</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-527100</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-730500</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-688700</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-391900</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-608900</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-1158400</v>
       </c>
-      <c r="AE91" s="3">
+      <c r="AF91" s="3">
         <v>-855700</v>
       </c>
     </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -7440,8 +7663,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -7529,97 +7755,103 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-674300</v>
+        <v>-698700</v>
       </c>
       <c r="E94" s="3">
-        <v>-587300</v>
+        <v>-692300</v>
       </c>
       <c r="F94" s="3">
-        <v>-335700</v>
+        <v>-602900</v>
       </c>
       <c r="G94" s="3">
-        <v>-582200</v>
+        <v>-344700</v>
       </c>
       <c r="H94" s="3">
-        <v>-587500</v>
+        <v>-597700</v>
       </c>
       <c r="I94" s="3">
-        <v>-600500</v>
+        <v>-603100</v>
       </c>
       <c r="J94" s="3">
+        <v>-616500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-583300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-874100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-764500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-387600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-3187800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-907100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-515500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1035700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1309800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1016400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-404700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-400100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-2284100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-292400</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-356000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-456800</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-845900</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-805200</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-473600</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-590600</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-755400</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AF94" s="3">
         <v>-667600</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -7651,50 +7883,51 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-139600</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-135700</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-135700</v>
+        <v>-139300</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-139300</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>-133400</v>
+        <v>0</v>
       </c>
       <c r="K96" s="3">
         <v>-133400</v>
       </c>
       <c r="L96" s="3">
-        <v>0</v>
+        <v>-133400</v>
       </c>
       <c r="M96" s="3">
         <v>0</v>
       </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-556600</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-56300</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
         <v>0</v>
       </c>
@@ -7702,11 +7935,11 @@
         <v>0</v>
       </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-64000</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
         <v>0</v>
       </c>
@@ -7714,11 +7947,11 @@
         <v>0</v>
       </c>
       <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
         <v>-57200</v>
       </c>
-      <c r="X96" s="3">
-        <v>0</v>
-      </c>
       <c r="Y96" s="3">
         <v>0</v>
       </c>
@@ -7726,11 +7959,11 @@
         <v>0</v>
       </c>
       <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB96" s="3">
         <v>-62100</v>
       </c>
-      <c r="AB96" s="3">
-        <v>0</v>
-      </c>
       <c r="AC96" s="3">
         <v>0</v>
       </c>
@@ -7738,10 +7971,13 @@
         <v>0</v>
       </c>
       <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF96" s="3">
         <v>-63500</v>
       </c>
     </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -7829,8 +8065,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -7918,8 +8157,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -8007,271 +8249,283 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>-459200</v>
+        <v>-634600</v>
       </c>
       <c r="E100" s="3">
-        <v>-322900</v>
+        <v>-471400</v>
       </c>
       <c r="F100" s="3">
-        <v>-164700</v>
+        <v>-331600</v>
       </c>
       <c r="G100" s="3">
-        <v>-186900</v>
+        <v>-169100</v>
       </c>
       <c r="H100" s="3">
-        <v>-305600</v>
+        <v>-191900</v>
       </c>
       <c r="I100" s="3">
-        <v>-355200</v>
+        <v>-313700</v>
       </c>
       <c r="J100" s="3">
+        <v>-364600</v>
+      </c>
+      <c r="K100" s="3">
         <v>-892500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-220900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-43900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-377800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1093200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-56600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-725800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>83100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>324500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>120000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-1033500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>19100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-163300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>696800</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-746200</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-13300</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>30200</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>19200</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-603000</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-177800</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-48400</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AF100" s="3">
         <v>-343800</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E101" s="3">
         <v>300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>1900</v>
       </c>
-      <c r="F101" s="3">
-        <v>-8800</v>
-      </c>
       <c r="G101" s="3">
-        <v>8100</v>
+        <v>-9000</v>
       </c>
       <c r="H101" s="3">
+        <v>8300</v>
+      </c>
+      <c r="I101" s="3">
+        <v>5700</v>
+      </c>
+      <c r="J101" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K101" s="3">
+        <v>100</v>
+      </c>
+      <c r="L101" s="3">
+        <v>5300</v>
+      </c>
+      <c r="M101" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N101" s="3">
+        <v>3700</v>
+      </c>
+      <c r="O101" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="P101" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>-500</v>
+      </c>
+      <c r="R101" s="3">
+        <v>7200</v>
+      </c>
+      <c r="S101" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="T101" s="3">
+        <v>6100</v>
+      </c>
+      <c r="U101" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="V101" s="3">
+        <v>400</v>
+      </c>
+      <c r="W101" s="3">
+        <v>2500</v>
+      </c>
+      <c r="X101" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="Y101" s="3">
+        <v>2100</v>
+      </c>
+      <c r="Z101" s="3">
+        <v>400</v>
+      </c>
+      <c r="AA101" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="AB101" s="3">
+        <v>1100</v>
+      </c>
+      <c r="AC101" s="3">
+        <v>2300</v>
+      </c>
+      <c r="AD101" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="AE101" s="3">
         <v>5600</v>
       </c>
-      <c r="I101" s="3">
-        <v>1000</v>
-      </c>
-      <c r="J101" s="3">
-        <v>100</v>
-      </c>
-      <c r="K101" s="3">
-        <v>5300</v>
-      </c>
-      <c r="L101" s="3">
-        <v>-400</v>
-      </c>
-      <c r="M101" s="3">
-        <v>3700</v>
-      </c>
-      <c r="N101" s="3">
-        <v>-11300</v>
-      </c>
-      <c r="O101" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="P101" s="3">
-        <v>-500</v>
-      </c>
-      <c r="Q101" s="3">
-        <v>7200</v>
-      </c>
-      <c r="R101" s="3">
-        <v>-6400</v>
-      </c>
-      <c r="S101" s="3">
-        <v>6100</v>
-      </c>
-      <c r="T101" s="3">
-        <v>-2100</v>
-      </c>
-      <c r="U101" s="3">
-        <v>400</v>
-      </c>
-      <c r="V101" s="3">
-        <v>2500</v>
-      </c>
-      <c r="W101" s="3">
-        <v>-2800</v>
-      </c>
-      <c r="X101" s="3">
-        <v>2100</v>
-      </c>
-      <c r="Y101" s="3">
-        <v>400</v>
-      </c>
-      <c r="Z101" s="3">
-        <v>-3600</v>
-      </c>
-      <c r="AA101" s="3">
-        <v>1100</v>
-      </c>
-      <c r="AB101" s="3">
-        <v>2300</v>
-      </c>
-      <c r="AC101" s="3">
-        <v>-5200</v>
-      </c>
-      <c r="AD101" s="3">
-        <v>5600</v>
-      </c>
-      <c r="AE101" s="3">
+      <c r="AF101" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>-103500</v>
+        <v>-303200</v>
       </c>
       <c r="E102" s="3">
-        <v>-139800</v>
+        <v>-106200</v>
       </c>
       <c r="F102" s="3">
-        <v>518100</v>
+        <v>-143500</v>
       </c>
       <c r="G102" s="3">
-        <v>28900</v>
+        <v>531900</v>
       </c>
       <c r="H102" s="3">
-        <v>193700</v>
+        <v>29700</v>
       </c>
       <c r="I102" s="3">
-        <v>16400</v>
+        <v>198900</v>
       </c>
       <c r="J102" s="3">
+        <v>16900</v>
+      </c>
+      <c r="K102" s="3">
         <v>-464100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-35800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>231000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-102400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>74100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>297900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>307100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-128600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-16100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-144100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-532800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>500800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-1055800</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>783600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-75200</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>359500</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>9300</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>184400</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-297700</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>63700</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>581400</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>-216300</v>
       </c>
     </row>
